--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13140"/>
+    <workbookView windowWidth="15120" windowHeight="25890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>Scope</t>
   </si>
@@ -246,6 +246,24 @@
   <si>
     <t>1. spatial path和context path分开, 同时满足速度和语义信息的提取
 2. context path 有用auxiliary loss</t>
+  </si>
+  <si>
+    <t>deep neural network for structural prediction and lane detection in traffic scene</t>
+  </si>
+  <si>
+    <t>an empirical evaluation of deep learning on highway driving</t>
+  </si>
+  <si>
+    <t>Efficient Deep Models for Monocular Road Segmentation</t>
+  </si>
+  <si>
+    <t>Embedding Structured Contour and Location Prior in Siamesed Fully Convolutional Networks for Road Detection</t>
+  </si>
+  <si>
+    <t>Find Your Own Way: Weakly-Supervised Segmentation of Path Proposals for Urban Autonomy</t>
+  </si>
+  <si>
+    <t>end to end ego lane estimation based on sequential transfer learning for self driving cars</t>
   </si>
   <si>
     <t>ICNet for Real-Time Semantic Segmentation on Hight-Resolution Images</t>
@@ -275,10 +293,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -323,6 +341,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -331,6 +357,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -338,8 +379,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,112 +484,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -488,13 +506,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,37 +608,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,127 +632,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,74 +752,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -831,153 +781,221 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,8 +1087,8 @@
     <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
     <cellStyle name="Accent2" xfId="17" builtinId="33"/>
     <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
     <cellStyle name="Neutral" xfId="21" builtinId="28"/>
     <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
@@ -1086,19 +1104,19 @@
     <cellStyle name="Good" xfId="33" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
     <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1143,11 +1161,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1403,18 +1416,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1441,7 +1455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:4">
+    <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1453,7 +1467,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" ht="13.5" spans="1:4">
+    <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="9"/>
       <c r="B3" s="7">
         <v>5</v>
@@ -1475,7 +1489,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" ht="39" spans="1:4">
+    <row r="5" ht="39.75" spans="1:4">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1489,7 +1503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="13.5" spans="1:4">
+    <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="10"/>
       <c r="B6" s="11">
         <v>5</v>
@@ -1531,7 +1545,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" ht="52.5" spans="1:4">
+    <row r="10" ht="54" spans="1:4">
       <c r="A10" s="10"/>
       <c r="B10" s="12">
         <v>2</v>
@@ -1651,7 +1665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" ht="51.75" spans="1:7">
+    <row r="21" ht="52.5" spans="1:7">
       <c r="A21" s="10"/>
       <c r="B21" s="12">
         <v>2</v>
@@ -1755,7 +1769,7 @@
       </c>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" ht="80.25" spans="1:4">
+    <row r="29" ht="84" spans="1:4">
       <c r="A29" s="10"/>
       <c r="B29" s="7">
         <v>5</v>
@@ -1839,7 +1853,7 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" ht="39.75" spans="1:4">
+    <row r="37" ht="41.25" spans="1:4">
       <c r="A37" s="16"/>
       <c r="B37" s="7">
         <v>5</v>
@@ -1849,7 +1863,7 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" ht="52.5" spans="1:4">
+    <row r="38" ht="54" spans="1:4">
       <c r="A38" s="16"/>
       <c r="B38" s="7">
         <v>6</v>
@@ -1861,7 +1875,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" ht="13.5" spans="1:4">
+    <row r="39" ht="14.25" spans="1:4">
       <c r="A39" s="16"/>
       <c r="B39" s="17">
         <v>5</v>
@@ -1873,7 +1887,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" ht="27" spans="1:4">
+    <row r="40" ht="28.5" spans="1:4">
       <c r="A40" s="16"/>
       <c r="B40" s="17">
         <v>5</v>
@@ -1893,7 +1907,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" ht="93" spans="1:4">
+    <row r="42" ht="96.75" spans="1:4">
       <c r="A42" s="16"/>
       <c r="B42" s="17">
         <v>5</v>
@@ -1905,7 +1919,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" ht="53.25" spans="1:4">
+    <row r="43" ht="55.5" spans="1:4">
       <c r="A43" s="16"/>
       <c r="B43" s="17">
         <v>5</v>
@@ -1917,7 +1931,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" ht="106.5" spans="1:4">
+    <row r="44" ht="111" spans="1:4">
       <c r="A44" s="16"/>
       <c r="B44" s="17">
         <v>5</v>
@@ -1939,7 +1953,7 @@
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" ht="26.25" spans="1:4">
+    <row r="46" ht="27" spans="1:4">
       <c r="A46" s="16"/>
       <c r="B46" s="17">
         <v>5</v>
@@ -1949,7 +1963,7 @@
       </c>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" ht="39.75" spans="1:4">
+    <row r="47" ht="41.25" spans="1:4">
       <c r="A47" s="16"/>
       <c r="B47" s="17">
         <v>5</v>
@@ -1963,53 +1977,105 @@
     </row>
     <row r="48" ht="25.5" spans="1:4">
       <c r="A48" s="16"/>
-      <c r="B48" s="17">
-        <v>2</v>
-      </c>
+      <c r="B48" s="17"/>
       <c r="C48" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" ht="53.25" spans="1:4">
+    <row r="49" ht="25.5" spans="1:4">
       <c r="A49" s="16"/>
-      <c r="B49" s="17">
+      <c r="B49" s="17"/>
+      <c r="C49" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" ht="38.25" spans="1:4">
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" ht="25.5" spans="1:4">
+      <c r="A52" s="16"/>
+      <c r="B52" s="17">
+        <v>1</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" ht="25.5" spans="1:4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="17">
+        <v>2</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" ht="25.5" spans="1:4">
+      <c r="A54" s="16"/>
+      <c r="B54" s="17">
+        <v>2</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" ht="55.5" spans="1:4">
+      <c r="A55" s="16"/>
+      <c r="B55" s="17">
         <v>5</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" ht="28.5" spans="1:4">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17">
+      <c r="C55" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" ht="27" spans="1:4">
+      <c r="A56" s="16"/>
+      <c r="B56" s="17">
         <v>2</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" ht="119.25" spans="1:4">
-      <c r="A51" s="19"/>
-      <c r="B51" s="17">
+      <c r="C56" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" ht="123.75" spans="1:4">
+      <c r="A57" s="19"/>
+      <c r="B57" s="17">
         <v>5</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
+      <c r="C57" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2017,9 +2083,9 @@
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A11:A18"/>
     <mergeCell ref="A19:A35"/>
-    <mergeCell ref="A36:A51"/>
+    <mergeCell ref="A36:A57"/>
   </mergeCells>
-  <conditionalFormatting sqref="B$1:B$1048576">
+  <conditionalFormatting sqref="B49:B1048576 B1:B47 B48">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15120" windowHeight="25890"/>
+    <workbookView windowWidth="27720" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>Scope</t>
   </si>
@@ -148,6 +148,10 @@
     <t>R-FCN-3000 at 30fps: Decoupling Detection and Classification(poster)</t>
   </si>
   <si>
+    <t>每一类一个Positino-Sensitive Filter不是必须的,
+ objectiveness和class解耦, objectiveness说明了是否框正了(用消耗资源的PS-score + PSRoIPooling), class直接RoIPooling后avereage</t>
+  </si>
+  <si>
     <t>Dynamic Zoom-In Network for Fast Object Detection in Large Images</t>
   </si>
   <si>
@@ -206,7 +210,15 @@
     <t>1. 提出（集成）了很多想法和新模块，在当年是很跨时代的: PRelu, spatial-dropout以及在各个模块的设计上</t>
   </si>
   <si>
+    <t>Learning deconvolution network for semantic segmentation</t>
+  </si>
+  <si>
     <t>Understanding Convolution for Semantic Segmentation</t>
+  </si>
+  <si>
+    <t>着眼于级联的dilated conv和up-conv的改进:
+1. 提出HDC(hybrid dilated conv): 指出了对于级联的dilated conv如何设置dilated-rate可以避免gridding-effect
+2. DUC(dense up-conv): 借鉴sub-pixel的概念, 先把channle扩展到C*d^2, 再resize到(Hxd)*(Wxd)*C, 相对于传统的deconv, 对小物体效果比较好</t>
   </si>
   <si>
     <t>DeepLab(v1~v3)
@@ -248,6 +260,9 @@
 2. context path 有用auxiliary loss</t>
   </si>
   <si>
+    <t>Real-time single image and video super-resolution using an efficient sub-pixel convolutional neural network</t>
+  </si>
+  <si>
     <t>deep neural network for structural prediction and lane detection in traffic scene</t>
   </si>
   <si>
@@ -260,7 +275,14 @@
     <t>Embedding Structured Contour and Location Prior in Siamesed Fully Convolutional Networks for Road Detection</t>
   </si>
   <si>
+    <t>1. 提出采用轮廓作为feature, 和RGB图同时作为输入的连体FCN, 能将F1 score提高2%, 同时加快training的速度
+2. 在featureMap后加入location prior(也就是每个activation点的坐标), 可以有效去除诸如把天空分类为道路的情况</t>
+  </si>
+  <si>
     <t>Find Your Own Way: Weakly-Supervised Segmentation of Path Proposals for Urban Autonomy</t>
+  </si>
+  <si>
+    <t>对于没有车道线的场景, 用weakly supervised的方法产生label进行分割</t>
   </si>
   <si>
     <t>end to end ego lane estimation based on sequential transfer learning for self driving cars</t>
@@ -294,9 +316,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -349,6 +371,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -359,19 +434,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -379,26 +462,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,31 +485,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,46 +506,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,25 +528,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,49 +684,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,103 +708,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,60 +795,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -849,157 +827,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1052,6 +1080,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1087,8 +1118,8 @@
     <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
     <cellStyle name="Accent2" xfId="17" builtinId="33"/>
     <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
     <cellStyle name="Neutral" xfId="21" builtinId="28"/>
     <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
@@ -1104,19 +1135,19 @@
     <cellStyle name="Good" xfId="33" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
     <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1161,6 +1192,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1416,19 +1452,18 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1455,7 +1490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" ht="13.5" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1467,7 +1502,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" ht="14.25" spans="1:4">
+    <row r="3" ht="13.5" spans="1:4">
       <c r="A3" s="9"/>
       <c r="B3" s="7">
         <v>5</v>
@@ -1489,7 +1524,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" ht="39.75" spans="1:4">
+    <row r="5" ht="39" spans="1:4">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1503,7 +1538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" ht="13.5" spans="1:4">
       <c r="A6" s="10"/>
       <c r="B6" s="11">
         <v>5</v>
@@ -1545,7 +1580,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" ht="54" spans="1:4">
+    <row r="10" ht="52.5" spans="1:4">
       <c r="A10" s="10"/>
       <c r="B10" s="12">
         <v>2</v>
@@ -1658,14 +1693,14 @@
         <v>29</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" ht="52.5" spans="1:7">
+    <row r="21" ht="51.75" spans="1:7">
       <c r="A21" s="10"/>
       <c r="B21" s="12">
         <v>2</v>
@@ -1749,15 +1784,17 @@
       </c>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" ht="25.5" spans="1:4">
+    <row r="27" ht="40.5" spans="1:4">
       <c r="A27" s="10"/>
-      <c r="B27" s="12">
-        <v>1</v>
+      <c r="B27" s="7">
+        <v>5</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" ht="25.5" spans="1:4">
       <c r="A28" s="10"/>
@@ -1765,20 +1802,20 @@
         <v>3</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" ht="84" spans="1:4">
+    <row r="29" ht="80.25" spans="1:4">
       <c r="A29" s="10"/>
       <c r="B29" s="7">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" ht="25.5" spans="1:4">
@@ -1787,7 +1824,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30" s="8"/>
     </row>
@@ -1797,7 +1834,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D31" s="8"/>
     </row>
@@ -1807,7 +1844,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D32" s="8"/>
     </row>
@@ -1817,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D33" s="8"/>
     </row>
@@ -1827,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D34" s="8"/>
     </row>
@@ -1837,245 +1874,281 @@
         <v>1</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D35" s="8"/>
     </row>
     <row r="36" ht="25.5" spans="1:4">
       <c r="A36" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" s="12">
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" ht="41.25" spans="1:4">
+    <row r="37" ht="39.75" spans="1:4">
       <c r="A37" s="16"/>
       <c r="B37" s="7">
         <v>5</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" ht="54" spans="1:4">
+    <row r="38" ht="52.5" spans="1:4">
       <c r="A38" s="16"/>
       <c r="B38" s="7">
         <v>6</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" spans="1:4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" ht="13.5" spans="1:4">
       <c r="A39" s="16"/>
       <c r="B39" s="17">
         <v>5</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" ht="28.5" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" ht="27" spans="1:4">
       <c r="A40" s="16"/>
       <c r="B40" s="17">
         <v>5</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" spans="1:4">
       <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
+      <c r="B41" s="17">
+        <v>1</v>
+      </c>
       <c r="C41" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" ht="96.75" spans="1:4">
+    <row r="42" ht="93" spans="1:4">
       <c r="A42" s="16"/>
       <c r="B42" s="17">
         <v>5</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" ht="55.5" spans="1:4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" ht="93" spans="1:4">
       <c r="A43" s="16"/>
       <c r="B43" s="17">
         <v>5</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" ht="111" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" ht="53.25" spans="1:4">
       <c r="A44" s="16"/>
       <c r="B44" s="17">
         <v>5</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" ht="106.5" spans="1:4">
       <c r="A45" s="16"/>
       <c r="B45" s="17">
         <v>5</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" ht="27" spans="1:4">
+        <v>68</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="16"/>
       <c r="B46" s="17">
         <v>5</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" ht="41.25" spans="1:4">
+    <row r="47" ht="26.25" spans="1:4">
       <c r="A47" s="16"/>
       <c r="B47" s="17">
         <v>5</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" ht="25.5" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" ht="39.75" spans="1:4">
       <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="8"/>
+      <c r="B48" s="17">
+        <v>5</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="49" ht="25.5" spans="1:4">
       <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
+      <c r="B49" s="17">
+        <v>2</v>
+      </c>
       <c r="C49" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" ht="25.5" spans="1:4">
       <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
+      <c r="B50" s="17">
+        <v>1</v>
+      </c>
       <c r="C50" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" ht="38.25" spans="1:4">
+    <row r="51" ht="25.5" spans="1:4">
       <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
+      <c r="B51" s="17">
+        <v>1</v>
+      </c>
       <c r="C51" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" ht="25.5" spans="1:4">
+    <row r="52" spans="1:4">
       <c r="A52" s="16"/>
       <c r="B52" s="17">
         <v>1</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" ht="25.5" spans="1:4">
+    <row r="53" ht="66.75" spans="1:4">
       <c r="A53" s="16"/>
       <c r="B53" s="17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="54" ht="25.5" spans="1:4">
       <c r="A54" s="16"/>
-      <c r="B54" s="17">
-        <v>2</v>
+      <c r="B54" s="18">
+        <v>3</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" ht="55.5" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" ht="25.5" spans="1:4">
       <c r="A55" s="16"/>
       <c r="B55" s="17">
-        <v>5</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" ht="27" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" ht="25.5" spans="1:4">
       <c r="A56" s="16"/>
       <c r="B56" s="17">
         <v>2</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>80</v>
+      <c r="C56" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" ht="123.75" spans="1:4">
-      <c r="A57" s="19"/>
+    <row r="57" ht="53.25" spans="1:4">
+      <c r="A57" s="16"/>
       <c r="B57" s="17">
         <v>5</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>81</v>
+      <c r="C57" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" ht="28.5" spans="1:4">
+      <c r="A58" s="16"/>
+      <c r="B58" s="17">
+        <v>2</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" ht="119.25" spans="1:4">
+      <c r="A59" s="20"/>
+      <c r="B59" s="17">
+        <v>5</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2083,9 +2156,9 @@
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="A11:A18"/>
     <mergeCell ref="A19:A35"/>
-    <mergeCell ref="A36:A57"/>
+    <mergeCell ref="A36:A59"/>
   </mergeCells>
-  <conditionalFormatting sqref="B49:B1048576 B1:B47 B48">
+  <conditionalFormatting sqref="B$1:B$1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13140"/>
+    <workbookView windowWidth="15120" windowHeight="12750"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t>Scope</t>
   </si>
@@ -86,6 +86,9 @@
     <t>MnasNet: Platform-Aware Neural Architecture Search for Mobile</t>
   </si>
   <si>
+    <t>Wider or Deeper: Revisiting the ResNet Model for Visual Recognition</t>
+  </si>
+  <si>
     <t>Delving Deep into Rectifiers: Surpassing Human-Level Performance on ImageNet Classification</t>
   </si>
   <si>
@@ -260,13 +263,40 @@
 2. context path 有用auxiliary loss</t>
   </si>
   <si>
+    <t>Deep Dual Learning for Semantic Image Segmentation</t>
+  </si>
+  <si>
+    <t>Learning Object Interactions and Descriptions for Semantic Image Segmentation</t>
+  </si>
+  <si>
     <t>Real-time single image and video super-resolution using an efficient sub-pixel convolutional neural network</t>
   </si>
   <si>
-    <t>deep neural network for structural prediction and lane detection in traffic scene</t>
-  </si>
-  <si>
-    <t>an empirical evaluation of deep learning on highway driving</t>
+    <t>Pyramid Scence Parsing Network</t>
+  </si>
+  <si>
+    <t>Optimizing intersection-over-union in deep neural networks for image segmentation</t>
+  </si>
+  <si>
+    <t>Multinet: Realtime joint semantic reasoning for autonomous driving（检测， 语意分割融合的多任务模型）</t>
+  </si>
+  <si>
+    <t>End-to-end ego lane estimation based on sequential transfer learning for self-driving cars(着重在训练方法)</t>
+  </si>
+  <si>
+    <t>Brain inspired cognitive model with attention for self-driving cars</t>
+  </si>
+  <si>
+    <t>Not All Pixels Are Equal: Difficulty-aware Semantic Segmentation via Deep Layer Cascade</t>
+  </si>
+  <si>
+    <t>ICNet for Real-Time Semantic Segmentation on High-Resolution Images</t>
+  </si>
+  <si>
+    <t>deep neural network for structural prediction and lane detection in traffic scene（geometry information）</t>
+  </si>
+  <si>
+    <t>an empirical evaluation of deep learning on highway driving(类似于综述)</t>
   </si>
   <si>
     <t>Efficient Deep Models for Monocular Road Segmentation</t>
@@ -315,12 +345,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +382,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -364,6 +401,89 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -372,7 +492,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,16 +521,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,104 +543,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -534,61 +571,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,55 +703,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,55 +745,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,25 +817,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -819,11 +852,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,20 +893,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,152 +919,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,19 +1119,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1118,8 +1167,8 @@
     <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
     <cellStyle name="Accent2" xfId="17" builtinId="33"/>
     <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
     <cellStyle name="Neutral" xfId="21" builtinId="28"/>
     <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
@@ -1135,19 +1184,19 @@
     <cellStyle name="Good" xfId="33" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
     <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1192,11 +1241,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1452,18 +1496,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1490,7 +1535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:4">
+    <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1502,7 +1547,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" ht="13.5" spans="1:4">
+    <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="9"/>
       <c r="B3" s="7">
         <v>5</v>
@@ -1524,7 +1569,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" ht="39" spans="1:4">
+    <row r="5" ht="39.75" spans="1:4">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1538,7 +1583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="13.5" spans="1:4">
+    <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="10"/>
       <c r="B6" s="11">
         <v>5</v>
@@ -1580,7 +1625,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" ht="52.5" spans="1:4">
+    <row r="10" ht="54" spans="1:4">
       <c r="A10" s="10"/>
       <c r="B10" s="12">
         <v>2</v>
@@ -1627,7 +1672,7 @@
       <c r="B14" s="12">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="8"/>
@@ -1637,12 +1682,12 @@
       <c r="B15" s="12">
         <v>1</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" ht="25.5" spans="1:4">
       <c r="A16" s="10"/>
       <c r="B16" s="12">
         <v>1</v>
@@ -1655,97 +1700,91 @@
     <row r="17" spans="1:4">
       <c r="A17" s="10"/>
       <c r="B17" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" ht="25.5" spans="1:4">
+    <row r="18" spans="1:4">
       <c r="A18" s="10"/>
-      <c r="B18" s="14">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="12">
+        <v>2</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" ht="25.5" spans="1:4">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="14">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="14">
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" ht="25.5" spans="1:4">
+      <c r="A20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="14">
         <v>2</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="10"/>
-      <c r="B20" s="14">
-        <v>5</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="F20" s="22" t="s">
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10"/>
+      <c r="B21" s="14">
+        <v>5</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="F21" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" ht="51.75" spans="1:7">
-      <c r="A21" s="10"/>
-      <c r="B21" s="12">
-        <v>2</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="G21" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" ht="25.5" spans="1:7">
+    </row>
+    <row r="22" ht="52.5" spans="1:7">
       <c r="A22" s="10"/>
       <c r="B22" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="8"/>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" ht="25.5" spans="1:7">
       <c r="A23" s="10"/>
       <c r="B23" s="12">
         <v>3</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="8"/>
       <c r="F23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1754,27 +1793,33 @@
         <v>3</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="8"/>
       <c r="F24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="10"/>
       <c r="B25" s="12">
         <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" ht="25.5" spans="1:4">
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="10"/>
       <c r="B26" s="12">
         <v>3</v>
@@ -1784,49 +1829,49 @@
       </c>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" ht="40.5" spans="1:4">
+    <row r="27" ht="25.5" spans="1:4">
       <c r="A27" s="10"/>
-      <c r="B27" s="7">
-        <v>5</v>
+      <c r="B27" s="12">
+        <v>3</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" ht="42.75" spans="1:4">
+      <c r="A28" s="10"/>
+      <c r="B28" s="7">
+        <v>5</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" ht="25.5" spans="1:4">
-      <c r="A28" s="10"/>
-      <c r="B28" s="12">
+      <c r="D28" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" spans="1:4">
+      <c r="A29" s="10"/>
+      <c r="B29" s="12">
         <v>3</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" ht="80.25" spans="1:4">
-      <c r="A29" s="10"/>
-      <c r="B29" s="7">
-        <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" ht="84" spans="1:4">
+      <c r="A30" s="10"/>
+      <c r="B30" s="7">
+        <v>5</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" ht="25.5" spans="1:4">
-      <c r="A30" s="10"/>
-      <c r="B30" s="12">
-        <v>2</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="8"/>
     </row>
     <row r="31" ht="25.5" spans="1:4">
       <c r="A31" s="10"/>
@@ -1838,7 +1883,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" ht="25.5" spans="1:4">
       <c r="A32" s="10"/>
       <c r="B32" s="12">
         <v>2</v>
@@ -1848,10 +1893,10 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" ht="25.5" spans="1:4">
+    <row r="33" spans="1:4">
       <c r="A33" s="10"/>
       <c r="B33" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>49</v>
@@ -1863,7 +1908,7 @@
       <c r="B34" s="12">
         <v>1</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D34" s="8"/>
@@ -1879,132 +1924,132 @@
       <c r="D35" s="8"/>
     </row>
     <row r="36" ht="25.5" spans="1:4">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="10"/>
+      <c r="B36" s="12">
+        <v>1</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="12">
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" ht="25.5" spans="1:4">
+      <c r="A37" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="12">
         <v>2</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" ht="39.75" spans="1:4">
-      <c r="A37" s="16"/>
-      <c r="B37" s="7">
-        <v>5</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" ht="52.5" spans="1:4">
+    <row r="38" ht="41.25" spans="1:4">
       <c r="A38" s="16"/>
       <c r="B38" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" ht="54" spans="1:4">
+      <c r="A39" s="16"/>
+      <c r="B39" s="7">
+        <v>6</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" ht="13.5" spans="1:4">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17">
-        <v>5</v>
-      </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" ht="27" spans="1:4">
+    </row>
+    <row r="40" ht="14.25" spans="1:4">
       <c r="A40" s="16"/>
       <c r="B40" s="17">
         <v>5</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" ht="25.5" spans="1:4">
+    </row>
+    <row r="41" ht="28.5" spans="1:4">
       <c r="A41" s="16"/>
       <c r="B41" s="17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" ht="93" spans="1:4">
+    </row>
+    <row r="42" ht="25.5" spans="1:4">
       <c r="A42" s="16"/>
       <c r="B42" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" ht="93" spans="1:4">
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" ht="96.75" spans="1:4">
       <c r="A43" s="16"/>
       <c r="B43" s="17">
         <v>5</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" ht="53.25" spans="1:4">
+    </row>
+    <row r="44" ht="96.75" spans="1:4">
       <c r="A44" s="16"/>
       <c r="B44" s="17">
         <v>5</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" ht="106.5" spans="1:4">
+    </row>
+    <row r="45" ht="55.5" spans="1:4">
       <c r="A45" s="16"/>
       <c r="B45" s="17">
         <v>5</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+    </row>
+    <row r="46" ht="111" spans="1:4">
       <c r="A46" s="16"/>
       <c r="B46" s="17">
         <v>5</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" ht="26.25" spans="1:4">
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="16"/>
       <c r="B47" s="17">
         <v>5</v>
@@ -2014,7 +2059,7 @@
       </c>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" ht="39.75" spans="1:4">
+    <row r="48" ht="27" spans="1:4">
       <c r="A48" s="16"/>
       <c r="B48" s="17">
         <v>5</v>
@@ -2022,26 +2067,26 @@
       <c r="C48" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" spans="1:4">
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" ht="41.25" spans="1:4">
       <c r="A49" s="16"/>
       <c r="B49" s="17">
-        <v>2</v>
-      </c>
-      <c r="C49" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" ht="25.5" spans="1:4">
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="16"/>
       <c r="B50" s="17">
-        <v>1</v>
-      </c>
-      <c r="C50" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>75</v>
       </c>
       <c r="D50" s="8"/>
@@ -2049,116 +2094,216 @@
     <row r="51" ht="25.5" spans="1:4">
       <c r="A51" s="16"/>
       <c r="B51" s="17">
-        <v>1</v>
-      </c>
-      <c r="C51" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="19" t="s">
         <v>76</v>
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" ht="25.5" spans="1:4">
       <c r="A52" s="16"/>
       <c r="B52" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>77</v>
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" ht="66.75" spans="1:4">
+    <row r="53" spans="1:4">
       <c r="A53" s="16"/>
       <c r="B53" s="17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="D53" s="8"/>
     </row>
     <row r="54" ht="25.5" spans="1:4">
       <c r="A54" s="16"/>
-      <c r="B54" s="18">
-        <v>3</v>
+      <c r="B54" s="17">
+        <v>2</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" ht="25.5" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" ht="27" spans="1:4">
       <c r="A55" s="16"/>
       <c r="B55" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" ht="25.5" spans="1:4">
+    <row r="56" ht="27" spans="1:4">
       <c r="A56" s="16"/>
       <c r="B56" s="17">
         <v>2</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" ht="53.25" spans="1:4">
+    <row r="57" ht="25.5" spans="1:4">
       <c r="A57" s="16"/>
-      <c r="B57" s="17">
-        <v>5</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" ht="28.5" spans="1:4">
+      <c r="B57" s="20">
+        <v>3</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" ht="25.5" spans="1:4">
       <c r="A58" s="16"/>
       <c r="B58" s="17">
+        <v>1</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" ht="25.5" spans="1:4">
+      <c r="A59" s="16"/>
+      <c r="B59" s="17">
         <v>2</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C59" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" ht="27" spans="1:4">
+      <c r="A60" s="16"/>
+      <c r="B60" s="17">
+        <v>1</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" ht="27" spans="1:4">
+      <c r="A61" s="16"/>
+      <c r="B61" s="17">
+        <v>1</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" ht="119.25" spans="1:4">
-      <c r="A59" s="20"/>
-      <c r="B59" s="17">
-        <v>5</v>
-      </c>
-      <c r="C59" s="8" t="s">
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="16"/>
+      <c r="B62" s="17">
+        <v>1</v>
+      </c>
+      <c r="C62" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" ht="69.75" spans="1:4">
+      <c r="A63" s="16"/>
+      <c r="B63" s="17">
+        <v>5</v>
+      </c>
+      <c r="C63" s="15" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
+      <c r="D63" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" spans="1:4">
+      <c r="A64" s="16"/>
+      <c r="B64" s="22">
+        <v>3</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" ht="25.5" spans="1:4">
+      <c r="A65" s="16"/>
+      <c r="B65" s="17">
+        <v>2</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" ht="25.5" spans="1:4">
+      <c r="A66" s="16"/>
+      <c r="B66" s="17">
+        <v>2</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" ht="55.5" spans="1:4">
+      <c r="A67" s="16"/>
+      <c r="B67" s="17">
+        <v>5</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" ht="27" spans="1:4">
+      <c r="A68" s="16"/>
+      <c r="B68" s="17">
+        <v>2</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" ht="123.75" spans="1:4">
+      <c r="A69" s="25"/>
+      <c r="B69" s="17">
+        <v>5</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="A19:A35"/>
-    <mergeCell ref="A36:A59"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A36"/>
+    <mergeCell ref="A37:A69"/>
   </mergeCells>
-  <conditionalFormatting sqref="B$1:B$1048576">
+  <conditionalFormatting sqref="B55:B1048576 B1:B53 B54">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15120" windowHeight="12750"/>
+    <workbookView windowWidth="27720" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>Scope</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>tensorflow， models/slim熟悉</t>
+  </si>
+  <si>
+    <t>tensorflow, 多GPU训练</t>
   </si>
   <si>
     <t>数据集</t>
@@ -107,13 +110,25 @@
     <t>object detection</t>
   </si>
   <si>
-    <t>2. Single-Shot Refinement Neural Network for Object Detection (poster)</t>
+    <t>RON-Reverse Connection with Objectness Prior Networks for Object Detection</t>
+  </si>
+  <si>
+    <t>Chained Cascade Network for Object Detection</t>
+  </si>
+  <si>
+    <t>Single-Shot Refinement Neural Network for Object Detection (poster)</t>
+  </si>
+  <si>
+    <t>Beyond Skip Connections: Top-Down Modulation for Object Detection</t>
   </si>
   <si>
     <t>1. (Done)SSD: Single Shot MultiBox Detector</t>
   </si>
   <si>
     <t>说明</t>
+  </si>
+  <si>
+    <t>DSSD : Deconvolutional Single Shot Detector</t>
   </si>
   <si>
     <t>1. You Only Look Once: Unified, Real-Time Object Detection
@@ -155,6 +170,9 @@
  objectiveness和class解耦, objectiveness说明了是否框正了(用消耗资源的PS-score + PSRoIPooling), class直接RoIPooling后avereage</t>
   </si>
   <si>
+    <t>Rethinking the Faster R-CNN Architecture for Temporal Action Localization</t>
+  </si>
+  <si>
     <t>Dynamic Zoom-In Network for Fast Object Detection in Large Images</t>
   </si>
   <si>
@@ -175,13 +193,38 @@
     <t>Stacked hourglass networks for human pose estimation</t>
   </si>
   <si>
+    <t>Object detection at 200 Frames Per Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSOD: Learning Deeply Supervised Object Detectors from Scratch </t>
+  </si>
+  <si>
+    <t>Scalable Object Detection for Stylized Objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receptive Field Block Net for Accurate and Fast Object Detection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accurate Single Stage Detector Using Recurrent Rolling Convolution </t>
+  </si>
+  <si>
+    <t>Relation Networks for Object Detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Soft-NMS -- Improving Object Detection With One Line of Code</t>
+  </si>
+  <si>
+    <t>Pelee: A Real-Time Object Detection System on Mobile Devices</t>
+  </si>
+  <si>
     <t>Denet: Scalable real-time object detection with directed sparse sampling</t>
   </si>
   <si>
-    <t>face++2018, Acquisition of Localization Confidence for Accurate Object Detection</t>
-  </si>
-  <si>
-    <t>face++2018, DetNet: A Backbone network for Object Detection</t>
+    <t>Acquisition of Localization Confidence for Accurate Object Detection</t>
+  </si>
+  <si>
+    <t>DetNet: A Backbone network for Object Detection</t>
   </si>
   <si>
     <t>Segmentation</t>
@@ -313,12 +356,6 @@
   </si>
   <si>
     <t>对于没有车道线的场景, 用weakly supervised的方法产生label进行分割</t>
-  </si>
-  <si>
-    <t>end to end ego lane estimation based on sequential transfer learning for self driving cars</t>
-  </si>
-  <si>
-    <t>ICNet for Real-Time Semantic Segmentation on Hight-Resolution Images</t>
   </si>
   <si>
     <t>ExFuse: Enhancing Feature Fusion for Semantic Segmentation</t>
@@ -345,12 +382,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,17 +424,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF31424E"/>
       <name val="microsoft yahei"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -416,9 +453,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,8 +482,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,52 +530,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,35 +559,20 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -571,31 +601,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,151 +703,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,37 +847,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,25 +896,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,157 +924,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1098,6 +1128,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1110,8 +1146,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1119,25 +1155,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1167,8 +1194,8 @@
     <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
     <cellStyle name="Accent2" xfId="17" builtinId="33"/>
     <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
     <cellStyle name="Neutral" xfId="21" builtinId="28"/>
     <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
@@ -1184,19 +1211,19 @@
     <cellStyle name="Good" xfId="33" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
     <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1241,6 +1268,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1496,19 +1528,18 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1535,7 +1566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" ht="13.5" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1547,7 +1578,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" ht="14.25" spans="1:4">
+    <row r="3" ht="13.5" spans="1:4">
       <c r="A3" s="9"/>
       <c r="B3" s="7">
         <v>5</v>
@@ -1557,99 +1588,97 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="10" t="s">
+    <row r="4" ht="13.5" spans="1:4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" ht="39.75" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" ht="39" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11">
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" spans="1:4">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" ht="25.5" spans="1:4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12">
+      <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="25.5" spans="1:4">
+      <c r="A8" s="12"/>
+      <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="14">
+      <c r="C8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="12"/>
+      <c r="B9" s="16">
         <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" ht="25.5" spans="1:4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="12">
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" ht="25.5" spans="1:4">
+      <c r="A10" s="12"/>
+      <c r="B10" s="14">
         <v>3</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" ht="54" spans="1:4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12">
-        <v>2</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
+    <row r="11" ht="52.5" spans="1:4">
+      <c r="A11" s="12"/>
+      <c r="B11" s="14">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="14">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" ht="25.5" spans="1:4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="14">
+      <c r="B12" s="16">
         <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1658,19 +1687,19 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" ht="25.5" spans="1:4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="12">
+      <c r="A13" s="12"/>
+      <c r="B13" s="16">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" ht="25.5" spans="1:4">
+      <c r="A14" s="12"/>
+      <c r="B14" s="14">
         <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" ht="25.5" spans="1:4">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12">
-        <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
@@ -1678,632 +1707,754 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" ht="25.5" spans="1:4">
-      <c r="A15" s="10"/>
-      <c r="B15" s="12">
+      <c r="A15" s="12"/>
+      <c r="B15" s="14">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" ht="25.5" spans="1:4">
-      <c r="A16" s="10"/>
-      <c r="B16" s="12">
+      <c r="A16" s="12"/>
+      <c r="B16" s="14">
         <v>1</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="10"/>
-      <c r="B17" s="12">
+    <row r="17" ht="25.5" spans="1:4">
+      <c r="A17" s="12"/>
+      <c r="B17" s="14">
         <v>1</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="10"/>
-      <c r="B18" s="12">
-        <v>2</v>
-      </c>
-      <c r="C18" s="15" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" ht="25.5" spans="1:4">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:4">
+      <c r="A19" s="12"/>
       <c r="B19" s="14">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" ht="25.5" spans="1:4">
+      <c r="A20" s="12"/>
+      <c r="B20" s="16">
         <v>5</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" ht="25.5" spans="1:4">
-      <c r="A20" s="10" t="s">
+      <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="14">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" ht="25.5" spans="1:4">
+      <c r="A21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="10"/>
-      <c r="B21" s="14">
+      <c r="B21" s="16">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="17"/>
+      <c r="B22" s="16">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" ht="25.5" spans="1:4">
+      <c r="A23" s="17"/>
+      <c r="B23" s="16">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" ht="25.5" spans="1:4">
+      <c r="A24" s="17"/>
+      <c r="B24" s="16">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="17"/>
+      <c r="B25" s="16">
         <v>5</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="F21" s="23" t="s">
+      <c r="C25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="F25" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" ht="52.5" spans="1:7">
-      <c r="A22" s="10"/>
-      <c r="B22" s="12">
-        <v>2</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="F22" s="1">
+      <c r="G25" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="17"/>
+      <c r="B26" s="16">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" ht="51.75" spans="1:7">
+      <c r="A27" s="17"/>
+      <c r="B27" s="14">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="F27" s="1">
         <v>0</v>
       </c>
-      <c r="G22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" ht="25.5" spans="1:7">
-      <c r="A23" s="10"/>
-      <c r="B23" s="12">
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" ht="25.5" spans="1:7">
+      <c r="A28" s="17"/>
+      <c r="B28" s="14">
         <v>3</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="F23" s="1">
+      <c r="C28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="F28" s="1">
         <v>1</v>
       </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="10"/>
-      <c r="B24" s="12">
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="17"/>
+      <c r="B29" s="14">
         <v>3</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="10"/>
-      <c r="B25" s="12">
+      <c r="C29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="17"/>
+      <c r="B30" s="14">
         <v>3</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="F25" s="1">
+      <c r="C30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="F30" s="1">
         <v>3</v>
       </c>
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="10"/>
-      <c r="B26" s="12">
+      <c r="G30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="17"/>
+      <c r="B31" s="14">
         <v>3</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" ht="25.5" spans="1:4">
-      <c r="A27" s="10"/>
-      <c r="B27" s="12">
+      <c r="C31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" ht="25.5" spans="1:4">
+      <c r="A32" s="17"/>
+      <c r="B32" s="14">
         <v>3</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" ht="42.75" spans="1:4">
-      <c r="A28" s="10"/>
-      <c r="B28" s="7">
+      <c r="C32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" ht="40.5" spans="1:4">
+      <c r="A33" s="17"/>
+      <c r="B33" s="7">
         <v>5</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" ht="25.5" spans="1:4">
-      <c r="A29" s="10"/>
-      <c r="B29" s="12">
+      <c r="C33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" spans="1:4">
+      <c r="A34" s="17"/>
+      <c r="B34" s="14">
         <v>3</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" ht="84" spans="1:4">
-      <c r="A30" s="10"/>
-      <c r="B30" s="7">
+      <c r="C34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" ht="25.5" spans="1:4">
+      <c r="A35" s="17"/>
+      <c r="B35" s="14">
+        <v>3</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" ht="80.25" spans="1:4">
+      <c r="A36" s="17"/>
+      <c r="B36" s="7">
         <v>5</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" ht="25.5" spans="1:4">
-      <c r="A31" s="10"/>
-      <c r="B31" s="12">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" ht="25.5" spans="1:4">
-      <c r="A32" s="10"/>
-      <c r="B32" s="12">
-        <v>2</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="10"/>
-      <c r="B33" s="12">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" ht="25.5" spans="1:4">
-      <c r="A34" s="10"/>
-      <c r="B34" s="12">
+      <c r="C36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" spans="1:4">
+      <c r="A37" s="17"/>
+      <c r="B37" s="14">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" ht="25.5" spans="1:4">
+      <c r="A38" s="17"/>
+      <c r="B38" s="14">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="17"/>
+      <c r="B39" s="14">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="17"/>
+      <c r="B40" s="14">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" ht="25.5" spans="1:4">
+      <c r="A41" s="17"/>
+      <c r="B41" s="14">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="17"/>
+      <c r="B42" s="14">
+        <v>2</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" ht="25.5" spans="1:4">
+      <c r="A43" s="17"/>
+      <c r="B43" s="14">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" ht="25.5" spans="1:4">
+      <c r="A44" s="17"/>
+      <c r="B44" s="14">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="17"/>
+      <c r="B45" s="14">
         <v>1</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" ht="25.5" spans="1:4">
-      <c r="A35" s="10"/>
-      <c r="B35" s="12">
+      <c r="C45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" ht="38.25" spans="1:4">
+      <c r="A46" s="17"/>
+      <c r="B46" s="14">
         <v>1</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" ht="25.5" spans="1:4">
-      <c r="A36" s="10"/>
-      <c r="B36" s="12">
+      <c r="C46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" ht="25.5" spans="1:4">
+      <c r="A47" s="17"/>
+      <c r="B47" s="14">
         <v>1</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" ht="25.5" spans="1:4">
-      <c r="A37" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="12">
-        <v>2</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" ht="41.25" spans="1:4">
-      <c r="A38" s="16"/>
-      <c r="B38" s="7">
+      <c r="C47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" ht="25.5" spans="1:4">
+      <c r="A48" s="17"/>
+      <c r="B48" s="14">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" ht="25.5" spans="1:4">
+      <c r="A49" s="17"/>
+      <c r="B49" s="14">
+        <v>1</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="17"/>
+      <c r="B50" s="14">
+        <v>1</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" ht="25.5" spans="1:4">
+      <c r="A51" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="14">
+        <v>2</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" ht="39.75" spans="1:4">
+      <c r="A52" s="18"/>
+      <c r="B52" s="7">
         <v>5</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" ht="54" spans="1:4">
-      <c r="A39" s="16"/>
-      <c r="B39" s="7">
+      <c r="C52" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" ht="52.5" spans="1:4">
+      <c r="A53" s="18"/>
+      <c r="B53" s="7">
         <v>6</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" spans="1:4">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17">
+      <c r="C53" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" ht="13.5" spans="1:4">
+      <c r="A54" s="18"/>
+      <c r="B54" s="19">
         <v>5</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" ht="28.5" spans="1:4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17">
+      <c r="C54" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" ht="27" spans="1:4">
+      <c r="A55" s="18"/>
+      <c r="B55" s="19">
         <v>5</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" ht="25.5" spans="1:4">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17">
+      <c r="C55" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" spans="1:4">
+      <c r="A56" s="18"/>
+      <c r="B56" s="19">
         <v>1</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" ht="96.75" spans="1:4">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17">
+      <c r="C56" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" ht="93" spans="1:4">
+      <c r="A57" s="18"/>
+      <c r="B57" s="19">
         <v>5</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" ht="96.75" spans="1:4">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17">
+      <c r="C57" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" ht="93" spans="1:4">
+      <c r="A58" s="18"/>
+      <c r="B58" s="19">
         <v>5</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" ht="55.5" spans="1:4">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17">
+      <c r="C58" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" ht="53.25" spans="1:4">
+      <c r="A59" s="18"/>
+      <c r="B59" s="19">
         <v>5</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" ht="111" spans="1:4">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17">
+      <c r="C59" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" ht="106.5" spans="1:4">
+      <c r="A60" s="18"/>
+      <c r="B60" s="19">
         <v>5</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17">
+      <c r="C60" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="18"/>
+      <c r="B61" s="19">
         <v>5</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" ht="27" spans="1:4">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17">
+      <c r="C61" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" ht="26.25" spans="1:4">
+      <c r="A62" s="18"/>
+      <c r="B62" s="19">
         <v>5</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" ht="41.25" spans="1:4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17">
+      <c r="C62" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" ht="39.75" spans="1:4">
+      <c r="A63" s="18"/>
+      <c r="B63" s="19">
         <v>5</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17">
-        <v>2</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" ht="25.5" spans="1:4">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17">
-        <v>2</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" ht="25.5" spans="1:4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="17">
-        <v>2</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="17">
-        <v>2</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54" ht="25.5" spans="1:4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17">
-        <v>2</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" ht="27" spans="1:4">
-      <c r="A55" s="16"/>
-      <c r="B55" s="17">
+      <c r="C63" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="18"/>
+      <c r="B64" s="19">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" ht="25.5" spans="1:4">
+      <c r="A65" s="18"/>
+      <c r="B65" s="19">
+        <v>2</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" ht="25.5" spans="1:4">
+      <c r="A66" s="18"/>
+      <c r="B66" s="19">
+        <v>2</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="18"/>
+      <c r="B67" s="19">
+        <v>2</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" ht="25.5" spans="1:4">
+      <c r="A68" s="18"/>
+      <c r="B68" s="19">
+        <v>2</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" ht="26.25" spans="1:4">
+      <c r="A69" s="18"/>
+      <c r="B69" s="19">
         <v>1</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" ht="27" spans="1:4">
-      <c r="A56" s="16"/>
-      <c r="B56" s="17">
-        <v>2</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" ht="25.5" spans="1:4">
-      <c r="A57" s="16"/>
-      <c r="B57" s="20">
+      <c r="C69" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" ht="26.25" spans="1:4">
+      <c r="A70" s="18"/>
+      <c r="B70" s="19">
+        <v>2</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" ht="25.5" spans="1:4">
+      <c r="A71" s="18"/>
+      <c r="B71" s="21">
         <v>3</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" ht="25.5" spans="1:4">
-      <c r="A58" s="16"/>
-      <c r="B58" s="17">
+      <c r="C71" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" ht="25.5" spans="1:4">
+      <c r="A72" s="18"/>
+      <c r="B72" s="19">
         <v>1</v>
       </c>
-      <c r="C58" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" ht="25.5" spans="1:4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17">
-        <v>2</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" ht="27" spans="1:4">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17">
+      <c r="C72" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" ht="25.5" spans="1:4">
+      <c r="A73" s="18"/>
+      <c r="B73" s="19">
+        <v>2</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" ht="26.25" spans="1:4">
+      <c r="A74" s="18"/>
+      <c r="B74" s="19">
         <v>1</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" ht="27" spans="1:4">
-      <c r="A61" s="16"/>
-      <c r="B61" s="17">
+      <c r="C74" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" ht="26.25" spans="1:4">
+      <c r="A75" s="18"/>
+      <c r="B75" s="19">
         <v>1</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="16"/>
-      <c r="B62" s="17">
+      <c r="C75" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="18"/>
+      <c r="B76" s="19">
         <v>1</v>
       </c>
-      <c r="C62" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" ht="69.75" spans="1:4">
-      <c r="A63" s="16"/>
-      <c r="B63" s="17">
+      <c r="C76" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" ht="66.75" spans="1:4">
+      <c r="A77" s="18"/>
+      <c r="B77" s="19">
         <v>5</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" ht="25.5" spans="1:4">
-      <c r="A64" s="16"/>
-      <c r="B64" s="22">
+      <c r="C77" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" ht="25.5" spans="1:4">
+      <c r="A78" s="18"/>
+      <c r="B78" s="22">
         <v>3</v>
       </c>
-      <c r="C64" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" ht="25.5" spans="1:4">
-      <c r="A65" s="16"/>
-      <c r="B65" s="17">
-        <v>2</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66" ht="25.5" spans="1:4">
-      <c r="A66" s="16"/>
-      <c r="B66" s="17">
-        <v>2</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67" ht="55.5" spans="1:4">
-      <c r="A67" s="16"/>
-      <c r="B67" s="17">
+      <c r="C78" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" ht="53.25" spans="1:4">
+      <c r="A79" s="18"/>
+      <c r="B79" s="19">
         <v>5</v>
       </c>
-      <c r="C67" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" ht="27" spans="1:4">
-      <c r="A68" s="16"/>
-      <c r="B68" s="17">
-        <v>2</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" ht="123.75" spans="1:4">
-      <c r="A69" s="25"/>
-      <c r="B69" s="17">
+      <c r="C79" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" ht="28.5" spans="1:4">
+      <c r="A80" s="18"/>
+      <c r="B80" s="19">
+        <v>2</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" ht="119.25" spans="1:4">
+      <c r="A81" s="24"/>
+      <c r="B81" s="19">
         <v>5</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
+      <c r="C81" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A36"/>
-    <mergeCell ref="A37:A69"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A21:A50"/>
+    <mergeCell ref="A51:A81"/>
   </mergeCells>
-  <conditionalFormatting sqref="B55:B1048576 B1:B53 B54">
+  <conditionalFormatting sqref="B$1:B$1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13140"/>
+    <workbookView windowWidth="27720" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
   <si>
     <t>Scope</t>
   </si>
@@ -375,6 +375,9 @@
 增加上下文信息,不单纯是增大receptive filed, 还可以用attention机制, 比如本文中通过attention来获取图片"场景"的信息, 对出现某类别的可能性进行加权
 改结构的作用大于增加loss
 这篇文章的思路比较像SE-net, 但是encoder的计算方法比较新, 文章中的测试效果也比se-net要好一些</t>
+  </si>
+  <si>
+    <t>量化</t>
   </si>
 </sst>
 </file>
@@ -382,10 +385,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -430,6 +433,68 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -438,10 +503,48 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,92 +563,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,22 +576,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -601,67 +604,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,55 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,55 +784,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,30 +850,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -882,6 +861,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,6 +899,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -927,17 +941,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -949,106 +952,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1057,44 +1087,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1131,9 +1134,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1144,9 +1144,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1194,8 +1191,8 @@
     <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
     <cellStyle name="Accent2" xfId="17" builtinId="33"/>
     <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
     <cellStyle name="Neutral" xfId="21" builtinId="28"/>
     <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
@@ -1211,19 +1208,19 @@
     <cellStyle name="Good" xfId="33" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
     <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1268,11 +1265,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1528,18 +1520,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1566,7 +1559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:4">
+    <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1578,7 +1571,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" ht="13.5" spans="1:4">
+    <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="9"/>
       <c r="B3" s="7">
         <v>5</v>
@@ -1588,7 +1581,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" ht="13.5" spans="1:4">
+    <row r="4" ht="14.25" spans="1:4">
       <c r="A4" s="10"/>
       <c r="B4" s="7"/>
       <c r="C4" s="11" t="s">
@@ -1597,7 +1590,7 @@
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="7">
@@ -1608,7 +1601,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" ht="39" spans="1:4">
+    <row r="6" ht="39.75" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -1622,9 +1615,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="13.5" spans="1:4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13">
+    <row r="7" ht="14.25" spans="1:4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="12">
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1635,38 +1628,38 @@
       </c>
     </row>
     <row r="8" ht="25.5" spans="1:4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14">
+      <c r="A8" s="10"/>
+      <c r="B8" s="13">
         <v>3</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="16">
+      <c r="A9" s="10"/>
+      <c r="B9" s="15">
         <v>5</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="8"/>
     </row>
     <row r="10" ht="25.5" spans="1:4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14">
+      <c r="A10" s="10"/>
+      <c r="B10" s="13">
         <v>3</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" ht="52.5" spans="1:4">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14">
+    <row r="11" ht="54" spans="1:4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="13">
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1678,7 +1671,7 @@
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1687,8 +1680,8 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" ht="25.5" spans="1:4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="16">
+      <c r="A13" s="10"/>
+      <c r="B13" s="15">
         <v>5</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1697,8 +1690,8 @@
       <c r="D13" s="8"/>
     </row>
     <row r="14" ht="25.5" spans="1:4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14">
+      <c r="A14" s="10"/>
+      <c r="B14" s="13">
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1707,8 +1700,8 @@
       <c r="D14" s="8"/>
     </row>
     <row r="15" ht="25.5" spans="1:4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="14">
+      <c r="A15" s="10"/>
+      <c r="B15" s="13">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1717,8 +1710,8 @@
       <c r="D15" s="8"/>
     </row>
     <row r="16" ht="25.5" spans="1:4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14">
+      <c r="A16" s="10"/>
+      <c r="B16" s="13">
         <v>1</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1727,8 +1720,8 @@
       <c r="D16" s="8"/>
     </row>
     <row r="17" ht="25.5" spans="1:4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14">
+      <c r="A17" s="10"/>
+      <c r="B17" s="13">
         <v>1</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -1737,8 +1730,8 @@
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="14">
+      <c r="A18" s="10"/>
+      <c r="B18" s="13">
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -1747,8 +1740,8 @@
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14">
+      <c r="A19" s="10"/>
+      <c r="B19" s="13">
         <v>2</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -1757,8 +1750,8 @@
       <c r="D19" s="8"/>
     </row>
     <row r="20" ht="25.5" spans="1:4">
-      <c r="A20" s="12"/>
-      <c r="B20" s="16">
+      <c r="A20" s="10"/>
+      <c r="B20" s="15">
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1767,10 +1760,10 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21" ht="25.5" spans="1:4">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1779,8 +1772,8 @@
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="17"/>
-      <c r="B22" s="16">
+      <c r="A22" s="10"/>
+      <c r="B22" s="15">
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1789,8 +1782,8 @@
       <c r="D22" s="8"/>
     </row>
     <row r="23" ht="25.5" spans="1:4">
-      <c r="A23" s="17"/>
-      <c r="B23" s="16">
+      <c r="A23" s="10"/>
+      <c r="B23" s="15">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1799,8 +1792,8 @@
       <c r="D23" s="8"/>
     </row>
     <row r="24" ht="25.5" spans="1:4">
-      <c r="A24" s="17"/>
-      <c r="B24" s="16">
+      <c r="A24" s="10"/>
+      <c r="B24" s="15">
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1809,36 +1802,36 @@
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="17"/>
-      <c r="B25" s="16">
+      <c r="A25" s="10"/>
+      <c r="B25" s="15">
         <v>5</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D25" s="8"/>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="17"/>
-      <c r="B26" s="16">
+      <c r="A26" s="10"/>
+      <c r="B26" s="15">
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" ht="51.75" spans="1:7">
-      <c r="A27" s="17"/>
-      <c r="B27" s="14">
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" ht="52.5" spans="1:7">
+      <c r="A27" s="10"/>
+      <c r="B27" s="13">
         <v>2</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -1853,8 +1846,8 @@
       </c>
     </row>
     <row r="28" ht="25.5" spans="1:7">
-      <c r="A28" s="17"/>
-      <c r="B28" s="14">
+      <c r="A28" s="10"/>
+      <c r="B28" s="13">
         <v>3</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -1869,8 +1862,8 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17"/>
-      <c r="B29" s="14">
+      <c r="A29" s="10"/>
+      <c r="B29" s="13">
         <v>3</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -1885,8 +1878,8 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="17"/>
-      <c r="B30" s="14">
+      <c r="A30" s="10"/>
+      <c r="B30" s="13">
         <v>3</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -1901,8 +1894,8 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="17"/>
-      <c r="B31" s="14">
+      <c r="A31" s="10"/>
+      <c r="B31" s="13">
         <v>3</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -1911,8 +1904,8 @@
       <c r="D31" s="8"/>
     </row>
     <row r="32" ht="25.5" spans="1:4">
-      <c r="A32" s="17"/>
-      <c r="B32" s="14">
+      <c r="A32" s="10"/>
+      <c r="B32" s="13">
         <v>3</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -1920,8 +1913,8 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" ht="40.5" spans="1:4">
-      <c r="A33" s="17"/>
+    <row r="33" ht="42.75" spans="1:4">
+      <c r="A33" s="10"/>
       <c r="B33" s="7">
         <v>5</v>
       </c>
@@ -1933,8 +1926,8 @@
       </c>
     </row>
     <row r="34" ht="25.5" spans="1:4">
-      <c r="A34" s="17"/>
-      <c r="B34" s="14">
+      <c r="A34" s="10"/>
+      <c r="B34" s="13">
         <v>3</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -1943,8 +1936,8 @@
       <c r="D34" s="8"/>
     </row>
     <row r="35" ht="25.5" spans="1:4">
-      <c r="A35" s="17"/>
-      <c r="B35" s="14">
+      <c r="A35" s="10"/>
+      <c r="B35" s="13">
         <v>3</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -1952,8 +1945,8 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" ht="80.25" spans="1:4">
-      <c r="A36" s="17"/>
+    <row r="36" ht="84" spans="1:4">
+      <c r="A36" s="10"/>
       <c r="B36" s="7">
         <v>5</v>
       </c>
@@ -1965,8 +1958,8 @@
       </c>
     </row>
     <row r="37" ht="25.5" spans="1:4">
-      <c r="A37" s="17"/>
-      <c r="B37" s="14">
+      <c r="A37" s="10"/>
+      <c r="B37" s="13">
         <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1975,8 +1968,8 @@
       <c r="D37" s="8"/>
     </row>
     <row r="38" ht="25.5" spans="1:4">
-      <c r="A38" s="17"/>
-      <c r="B38" s="14">
+      <c r="A38" s="10"/>
+      <c r="B38" s="13">
         <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1985,8 +1978,8 @@
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="17"/>
-      <c r="B39" s="14">
+      <c r="A39" s="10"/>
+      <c r="B39" s="13">
         <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1995,8 +1988,8 @@
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="17"/>
-      <c r="B40" s="14">
+      <c r="A40" s="10"/>
+      <c r="B40" s="13">
         <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2005,8 +1998,8 @@
       <c r="D40" s="8"/>
     </row>
     <row r="41" ht="25.5" spans="1:4">
-      <c r="A41" s="17"/>
-      <c r="B41" s="14">
+      <c r="A41" s="10"/>
+      <c r="B41" s="13">
         <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2015,8 +2008,8 @@
       <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="17"/>
-      <c r="B42" s="14">
+      <c r="A42" s="10"/>
+      <c r="B42" s="13">
         <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -2025,8 +2018,8 @@
       <c r="D42" s="8"/>
     </row>
     <row r="43" ht="25.5" spans="1:4">
-      <c r="A43" s="17"/>
-      <c r="B43" s="14">
+      <c r="A43" s="10"/>
+      <c r="B43" s="13">
         <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2035,8 +2028,8 @@
       <c r="D43" s="8"/>
     </row>
     <row r="44" ht="25.5" spans="1:4">
-      <c r="A44" s="17"/>
-      <c r="B44" s="14">
+      <c r="A44" s="10"/>
+      <c r="B44" s="13">
         <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2045,8 +2038,8 @@
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="17"/>
-      <c r="B45" s="14">
+      <c r="A45" s="10"/>
+      <c r="B45" s="13">
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -2055,8 +2048,8 @@
       <c r="D45" s="8"/>
     </row>
     <row r="46" ht="38.25" spans="1:4">
-      <c r="A46" s="17"/>
-      <c r="B46" s="14">
+      <c r="A46" s="10"/>
+      <c r="B46" s="13">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -2065,8 +2058,8 @@
       <c r="D46" s="8"/>
     </row>
     <row r="47" ht="25.5" spans="1:4">
-      <c r="A47" s="17"/>
-      <c r="B47" s="14">
+      <c r="A47" s="10"/>
+      <c r="B47" s="13">
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2075,8 +2068,8 @@
       <c r="D47" s="8"/>
     </row>
     <row r="48" ht="25.5" spans="1:4">
-      <c r="A48" s="17"/>
-      <c r="B48" s="14">
+      <c r="A48" s="10"/>
+      <c r="B48" s="13">
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2085,8 +2078,8 @@
       <c r="D48" s="8"/>
     </row>
     <row r="49" ht="25.5" spans="1:4">
-      <c r="A49" s="17"/>
-      <c r="B49" s="14">
+      <c r="A49" s="10"/>
+      <c r="B49" s="13">
         <v>1</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -2095,8 +2088,8 @@
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="17"/>
-      <c r="B50" s="14">
+      <c r="A50" s="10"/>
+      <c r="B50" s="13">
         <v>1</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -2105,10 +2098,10 @@
       <c r="D50" s="8"/>
     </row>
     <row r="51" ht="25.5" spans="1:4">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="13">
         <v>2</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2116,8 +2109,8 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" ht="39.75" spans="1:4">
-      <c r="A52" s="18"/>
+    <row r="52" ht="41.25" spans="1:4">
+      <c r="A52" s="16"/>
       <c r="B52" s="7">
         <v>5</v>
       </c>
@@ -2126,8 +2119,8 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" ht="52.5" spans="1:4">
-      <c r="A53" s="18"/>
+    <row r="53" ht="54" spans="1:4">
+      <c r="A53" s="16"/>
       <c r="B53" s="7">
         <v>6</v>
       </c>
@@ -2138,9 +2131,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" ht="13.5" spans="1:4">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19">
+    <row r="54" ht="14.25" spans="1:4">
+      <c r="A54" s="16"/>
+      <c r="B54" s="17">
         <v>5</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -2150,9 +2143,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" ht="27" spans="1:4">
-      <c r="A55" s="18"/>
-      <c r="B55" s="19">
+    <row r="55" ht="28.5" spans="1:4">
+      <c r="A55" s="16"/>
+      <c r="B55" s="17">
         <v>5</v>
       </c>
       <c r="C55" s="8" t="s">
@@ -2163,8 +2156,8 @@
       </c>
     </row>
     <row r="56" ht="25.5" spans="1:4">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19">
+      <c r="A56" s="16"/>
+      <c r="B56" s="17">
         <v>1</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -2172,9 +2165,9 @@
       </c>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" ht="93" spans="1:4">
-      <c r="A57" s="18"/>
-      <c r="B57" s="19">
+    <row r="57" ht="96.75" spans="1:4">
+      <c r="A57" s="16"/>
+      <c r="B57" s="17">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -2184,9 +2177,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" ht="93" spans="1:4">
-      <c r="A58" s="18"/>
-      <c r="B58" s="19">
+    <row r="58" ht="96.75" spans="1:4">
+      <c r="A58" s="16"/>
+      <c r="B58" s="17">
         <v>5</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -2196,9 +2189,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" ht="53.25" spans="1:4">
-      <c r="A59" s="18"/>
-      <c r="B59" s="19">
+    <row r="59" ht="55.5" spans="1:4">
+      <c r="A59" s="16"/>
+      <c r="B59" s="17">
         <v>5</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -2208,9 +2201,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" ht="106.5" spans="1:4">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19">
+    <row r="60" ht="111" spans="1:4">
+      <c r="A60" s="16"/>
+      <c r="B60" s="17">
         <v>5</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -2221,8 +2214,8 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="18"/>
-      <c r="B61" s="19">
+      <c r="A61" s="16"/>
+      <c r="B61" s="17">
         <v>5</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -2230,9 +2223,9 @@
       </c>
       <c r="D61" s="8"/>
     </row>
-    <row r="62" ht="26.25" spans="1:4">
-      <c r="A62" s="18"/>
-      <c r="B62" s="19">
+    <row r="62" ht="27" spans="1:4">
+      <c r="A62" s="16"/>
+      <c r="B62" s="17">
         <v>5</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -2240,9 +2233,9 @@
       </c>
       <c r="D62" s="8"/>
     </row>
-    <row r="63" ht="39.75" spans="1:4">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19">
+    <row r="63" ht="41.25" spans="1:4">
+      <c r="A63" s="16"/>
+      <c r="B63" s="17">
         <v>5</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -2253,8 +2246,8 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="18"/>
-      <c r="B64" s="19">
+      <c r="A64" s="16"/>
+      <c r="B64" s="17">
         <v>2</v>
       </c>
       <c r="C64" t="s">
@@ -2263,8 +2256,8 @@
       <c r="D64" s="8"/>
     </row>
     <row r="65" ht="25.5" spans="1:4">
-      <c r="A65" s="18"/>
-      <c r="B65" s="19">
+      <c r="A65" s="16"/>
+      <c r="B65" s="17">
         <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -2273,8 +2266,8 @@
       <c r="D65" s="8"/>
     </row>
     <row r="66" ht="25.5" spans="1:4">
-      <c r="A66" s="18"/>
-      <c r="B66" s="19">
+      <c r="A66" s="16"/>
+      <c r="B66" s="17">
         <v>2</v>
       </c>
       <c r="C66" s="11" t="s">
@@ -2283,8 +2276,8 @@
       <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="18"/>
-      <c r="B67" s="19">
+      <c r="A67" s="16"/>
+      <c r="B67" s="17">
         <v>2</v>
       </c>
       <c r="C67" s="11" t="s">
@@ -2293,8 +2286,8 @@
       <c r="D67" s="8"/>
     </row>
     <row r="68" ht="25.5" spans="1:4">
-      <c r="A68" s="18"/>
-      <c r="B68" s="19">
+      <c r="A68" s="16"/>
+      <c r="B68" s="17">
         <v>2</v>
       </c>
       <c r="C68" s="11" t="s">
@@ -2302,9 +2295,9 @@
       </c>
       <c r="D68" s="8"/>
     </row>
-    <row r="69" ht="26.25" spans="1:4">
-      <c r="A69" s="18"/>
-      <c r="B69" s="19">
+    <row r="69" ht="27" spans="1:4">
+      <c r="A69" s="16"/>
+      <c r="B69" s="17">
         <v>1</v>
       </c>
       <c r="C69" s="11" t="s">
@@ -2312,9 +2305,9 @@
       </c>
       <c r="D69" s="8"/>
     </row>
-    <row r="70" ht="26.25" spans="1:4">
-      <c r="A70" s="18"/>
-      <c r="B70" s="19">
+    <row r="70" ht="27" spans="1:4">
+      <c r="A70" s="16"/>
+      <c r="B70" s="17">
         <v>2</v>
       </c>
       <c r="C70" s="11" t="s">
@@ -2323,8 +2316,8 @@
       <c r="D70" s="8"/>
     </row>
     <row r="71" ht="25.5" spans="1:4">
-      <c r="A71" s="18"/>
-      <c r="B71" s="21">
+      <c r="A71" s="16"/>
+      <c r="B71" s="19">
         <v>3</v>
       </c>
       <c r="C71" s="11" t="s">
@@ -2333,8 +2326,8 @@
       <c r="D71" s="8"/>
     </row>
     <row r="72" ht="25.5" spans="1:4">
-      <c r="A72" s="18"/>
-      <c r="B72" s="19">
+      <c r="A72" s="16"/>
+      <c r="B72" s="17">
         <v>1</v>
       </c>
       <c r="C72" s="11" t="s">
@@ -2343,18 +2336,18 @@
       <c r="D72" s="8"/>
     </row>
     <row r="73" ht="25.5" spans="1:4">
-      <c r="A73" s="18"/>
-      <c r="B73" s="19">
-        <v>2</v>
+      <c r="A73" s="16"/>
+      <c r="B73" s="17">
+        <v>1</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" ht="26.25" spans="1:4">
-      <c r="A74" s="18"/>
-      <c r="B74" s="19">
+    <row r="74" ht="27" spans="1:4">
+      <c r="A74" s="16"/>
+      <c r="B74" s="17">
         <v>1</v>
       </c>
       <c r="C74" s="11" t="s">
@@ -2362,9 +2355,9 @@
       </c>
       <c r="D74" s="8"/>
     </row>
-    <row r="75" ht="26.25" spans="1:4">
-      <c r="A75" s="18"/>
-      <c r="B75" s="19">
+    <row r="75" ht="27" spans="1:4">
+      <c r="A75" s="16"/>
+      <c r="B75" s="17">
         <v>1</v>
       </c>
       <c r="C75" s="11" t="s">
@@ -2373,8 +2366,8 @@
       <c r="D75" s="8"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="18"/>
-      <c r="B76" s="19">
+      <c r="A76" s="16"/>
+      <c r="B76" s="17">
         <v>1</v>
       </c>
       <c r="C76" s="11" t="s">
@@ -2382,9 +2375,9 @@
       </c>
       <c r="D76" s="8"/>
     </row>
-    <row r="77" ht="66.75" spans="1:4">
-      <c r="A77" s="18"/>
-      <c r="B77" s="19">
+    <row r="77" ht="69.75" spans="1:4">
+      <c r="A77" s="16"/>
+      <c r="B77" s="17">
         <v>5</v>
       </c>
       <c r="C77" s="11" t="s">
@@ -2395,8 +2388,8 @@
       </c>
     </row>
     <row r="78" ht="25.5" spans="1:4">
-      <c r="A78" s="18"/>
-      <c r="B78" s="22">
+      <c r="A78" s="16"/>
+      <c r="B78" s="20">
         <v>3</v>
       </c>
       <c r="C78" s="11" t="s">
@@ -2406,31 +2399,31 @@
         <v>105</v>
       </c>
     </row>
-    <row r="79" ht="53.25" spans="1:4">
-      <c r="A79" s="18"/>
-      <c r="B79" s="19">
+    <row r="79" ht="55.5" spans="1:4">
+      <c r="A79" s="16"/>
+      <c r="B79" s="17">
         <v>5</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C79" s="21" t="s">
         <v>106</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="80" ht="28.5" spans="1:4">
-      <c r="A80" s="18"/>
-      <c r="B80" s="19">
-        <v>2</v>
-      </c>
-      <c r="C80" s="23" t="s">
+    <row r="80" ht="27" spans="1:4">
+      <c r="A80" s="16"/>
+      <c r="B80" s="17">
+        <v>2</v>
+      </c>
+      <c r="C80" s="21" t="s">
         <v>108</v>
       </c>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" ht="119.25" spans="1:4">
-      <c r="A81" s="24"/>
-      <c r="B81" s="19">
+    <row r="81" ht="123.75" spans="1:4">
+      <c r="A81" s="22"/>
+      <c r="B81" s="17">
         <v>5</v>
       </c>
       <c r="C81" s="8" t="s">
@@ -2441,8 +2434,10 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
+      <c r="A82" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="23"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
     </row>
@@ -2454,7 +2449,7 @@
     <mergeCell ref="A21:A50"/>
     <mergeCell ref="A51:A81"/>
   </mergeCells>
-  <conditionalFormatting sqref="B$1:B$1048576">
+  <conditionalFormatting sqref="B:B">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13290"/>
+    <workbookView windowWidth="15120" windowHeight="9810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
   <si>
     <t>Scope</t>
   </si>
@@ -86,12 +86,24 @@
     <t>Xception: Deep Learning with Depthwise Separable Convolutions</t>
   </si>
   <si>
+    <t>feature map 空间上的相关性（H, W）和channel上的相关性是可分离的，因此可以先depthwise再pointwise</t>
+  </si>
+  <si>
+    <t>On the Number of Linear Regions of Deep Neural Networks</t>
+  </si>
+  <si>
     <t>MnasNet: Platform-Aware Neural Architecture Search for Mobile</t>
   </si>
   <si>
+    <t>Non-local Neural Networks</t>
+  </si>
+  <si>
     <t>Wider or Deeper: Revisiting the ResNet Model for Visual Recognition</t>
   </si>
   <si>
+    <t>learning transferable architectures for scable image recognition(NASNet)</t>
+  </si>
+  <si>
     <t>Delving Deep into Rectifiers: Surpassing Human-Level Performance on ImageNet Classification</t>
   </si>
   <si>
@@ -102,6 +114,9 @@
   </si>
   <si>
     <t>Lifting Layers: Analysis and Applications</t>
+  </si>
+  <si>
+    <t>ShuffleNet: An Extremely Efficient Convolutional Neural Network for Mobile Devices</t>
   </si>
   <si>
     <t>ShuffleNet V2: Practical Guidelines for Efficient CNN Architecture Design</t>
@@ -385,12 +400,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +442,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF31424E"/>
       <name val="microsoft yahei"/>
@@ -443,14 +465,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,60 +479,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -535,7 +496,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,18 +540,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -571,7 +556,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,31 +632,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,145 +800,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,9 +855,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -846,7 +866,9 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -861,24 +883,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,17 +917,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -941,6 +934,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -952,145 +974,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1128,9 +1150,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1146,7 +1165,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1161,10 +1183,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1527,12 +1549,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1582,15 +1604,15 @@
       <c r="D3" s="8"/>
     </row>
     <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="7">
@@ -1616,8 +1638,8 @@
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12">
+      <c r="A7" s="9"/>
+      <c r="B7" s="11">
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1628,38 +1650,38 @@
       </c>
     </row>
     <row r="8" ht="25.5" spans="1:4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="13">
+      <c r="A8" s="9"/>
+      <c r="B8" s="12">
         <v>3</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="14">
         <v>5</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="8"/>
     </row>
     <row r="10" ht="25.5" spans="1:4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="13">
+      <c r="A10" s="9"/>
+      <c r="B10" s="12">
         <v>3</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" ht="54" spans="1:4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="13">
+      <c r="A11" s="9"/>
+      <c r="B11" s="12">
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1671,7 +1693,7 @@
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1679,265 +1701,265 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" ht="25.5" spans="1:4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="15">
+    <row r="13" ht="28.5" spans="1:4">
+      <c r="A13" s="9"/>
+      <c r="B13" s="14">
         <v>5</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" ht="25.5" spans="1:4">
-      <c r="A14" s="10"/>
-      <c r="B14" s="13">
+      <c r="A14" s="9"/>
+      <c r="B14" s="15">
         <v>3</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
+      <c r="C14" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" ht="25.5" spans="1:4">
-      <c r="A15" s="10"/>
-      <c r="B15" s="13">
+      <c r="A15" s="9"/>
+      <c r="B15" s="12">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="9"/>
+      <c r="B16" s="12">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" ht="25.5" spans="1:4">
-      <c r="A16" s="10"/>
-      <c r="B16" s="13">
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" ht="25.5" spans="1:4">
+      <c r="A17" s="9"/>
+      <c r="B17" s="12">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" ht="25.5" spans="1:4">
-      <c r="A17" s="10"/>
-      <c r="B17" s="13">
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" ht="25.5" spans="1:4">
+      <c r="A18" s="9"/>
+      <c r="B18" s="12">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" ht="25.5" spans="1:4">
+      <c r="A19" s="9"/>
+      <c r="B19" s="12">
         <v>1</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="10"/>
-      <c r="B18" s="13">
+      <c r="C19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" ht="25.5" spans="1:4">
+      <c r="A20" s="9"/>
+      <c r="B20" s="12">
         <v>1</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="10"/>
-      <c r="B19" s="13">
-        <v>2</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" ht="25.5" spans="1:4">
-      <c r="A20" s="10"/>
-      <c r="B20" s="15">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>28</v>
+      <c r="C20" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" ht="25.5" spans="1:4">
-      <c r="A21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="15">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="9"/>
+      <c r="B21" s="12">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="10"/>
-      <c r="B22" s="15">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="12">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" ht="25.5" spans="1:4">
-      <c r="A23" s="10"/>
-      <c r="B23" s="15">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="12">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
     </row>
     <row r="24" ht="25.5" spans="1:4">
-      <c r="A24" s="10"/>
-      <c r="B24" s="15">
-        <v>2</v>
+      <c r="A24" s="9"/>
+      <c r="B24" s="14">
+        <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="10"/>
-      <c r="B25" s="15">
+    <row r="25" ht="25.5" spans="1:4">
+      <c r="A25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="14">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="9"/>
+      <c r="B26" s="14">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" ht="25.5" spans="1:4">
+      <c r="A27" s="9"/>
+      <c r="B27" s="14">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" ht="25.5" spans="1:4">
+      <c r="A28" s="9"/>
+      <c r="B28" s="14">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="9"/>
+      <c r="B29" s="14">
         <v>5</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="F25" s="18" t="s">
+      <c r="C29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="F29" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="10"/>
-      <c r="B26" s="15">
-        <v>2</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" ht="52.5" spans="1:7">
-      <c r="A27" s="10"/>
-      <c r="B27" s="13">
-        <v>2</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="F27" s="1">
+      <c r="G29" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="9"/>
+      <c r="B30" s="14">
+        <v>2</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" ht="52.5" spans="1:7">
+      <c r="A31" s="9"/>
+      <c r="B31" s="12">
+        <v>2</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="F31" s="1">
         <v>0</v>
       </c>
-      <c r="G27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" ht="25.5" spans="1:7">
-      <c r="A28" s="10"/>
-      <c r="B28" s="13">
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" spans="1:7">
+      <c r="A32" s="9"/>
+      <c r="B32" s="12">
         <v>3</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="F28" s="1">
+      <c r="C32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="F32" s="1">
         <v>1</v>
       </c>
-      <c r="G28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="10"/>
-      <c r="B29" s="13">
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="9"/>
+      <c r="B33" s="12">
         <v>3</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="F29" s="1">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="10"/>
-      <c r="B30" s="13">
+      <c r="C33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="9"/>
+      <c r="B34" s="12">
         <v>3</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="F30" s="1">
+      <c r="C34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="F34" s="1">
         <v>3</v>
       </c>
-      <c r="G30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="10"/>
-      <c r="B31" s="13">
-        <v>3</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" ht="25.5" spans="1:4">
-      <c r="A32" s="10"/>
-      <c r="B32" s="13">
-        <v>3</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" ht="42.75" spans="1:4">
-      <c r="A33" s="10"/>
-      <c r="B33" s="7">
-        <v>5</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" ht="25.5" spans="1:4">
-      <c r="A34" s="10"/>
-      <c r="B34" s="13">
-        <v>3</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="G34" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" ht="25.5" spans="1:4">
-      <c r="A35" s="10"/>
-      <c r="B35" s="13">
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="9"/>
+      <c r="B35" s="12">
         <v>3</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -1945,511 +1967,553 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" ht="84" spans="1:4">
-      <c r="A36" s="10"/>
-      <c r="B36" s="7">
-        <v>5</v>
+    <row r="36" ht="25.5" spans="1:4">
+      <c r="A36" s="9"/>
+      <c r="B36" s="12">
+        <v>3</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" ht="42.75" spans="1:4">
+      <c r="A37" s="9"/>
+      <c r="B37" s="7">
+        <v>5</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" ht="25.5" spans="1:4">
-      <c r="A37" s="10"/>
-      <c r="B37" s="13">
-        <v>2</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="8"/>
     </row>
     <row r="38" ht="25.5" spans="1:4">
-      <c r="A38" s="10"/>
-      <c r="B38" s="13">
-        <v>2</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="12">
+        <v>3</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="10"/>
-      <c r="B39" s="13">
-        <v>2</v>
-      </c>
-      <c r="C39" s="2" t="s">
+    <row r="39" ht="25.5" spans="1:4">
+      <c r="A39" s="9"/>
+      <c r="B39" s="12">
+        <v>3</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="10"/>
-      <c r="B40" s="13">
-        <v>2</v>
-      </c>
-      <c r="C40" s="2" t="s">
+    <row r="40" ht="84" spans="1:4">
+      <c r="A40" s="9"/>
+      <c r="B40" s="7">
+        <v>5</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="41" ht="25.5" spans="1:4">
-      <c r="A41" s="10"/>
-      <c r="B41" s="13">
+      <c r="A41" s="9"/>
+      <c r="B41" s="12">
         <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="10"/>
-      <c r="B42" s="13">
+    <row r="42" ht="25.5" spans="1:4">
+      <c r="A42" s="9"/>
+      <c r="B42" s="12">
         <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" ht="25.5" spans="1:4">
-      <c r="A43" s="10"/>
-      <c r="B43" s="13">
+    <row r="43" spans="1:4">
+      <c r="A43" s="9"/>
+      <c r="B43" s="12">
         <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" ht="25.5" spans="1:4">
-      <c r="A44" s="10"/>
-      <c r="B44" s="13">
+    <row r="44" spans="1:4">
+      <c r="A44" s="9"/>
+      <c r="B44" s="12">
         <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="10"/>
-      <c r="B45" s="13">
+    <row r="45" ht="25.5" spans="1:4">
+      <c r="A45" s="9"/>
+      <c r="B45" s="12">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="9"/>
+      <c r="B46" s="12">
+        <v>2</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" ht="25.5" spans="1:4">
+      <c r="A47" s="9"/>
+      <c r="B47" s="12">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" ht="25.5" spans="1:4">
+      <c r="A48" s="9"/>
+      <c r="B48" s="12">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="9"/>
+      <c r="B49" s="12">
         <v>1</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" ht="38.25" spans="1:4">
-      <c r="A46" s="10"/>
-      <c r="B46" s="13">
+      <c r="C49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" ht="38.25" spans="1:4">
+      <c r="A50" s="9"/>
+      <c r="B50" s="12">
         <v>1</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" ht="25.5" spans="1:4">
-      <c r="A47" s="10"/>
-      <c r="B47" s="13">
+      <c r="C50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" ht="25.5" spans="1:4">
+      <c r="A51" s="9"/>
+      <c r="B51" s="12">
         <v>1</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" ht="25.5" spans="1:4">
-      <c r="A48" s="10"/>
-      <c r="B48" s="13">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" ht="25.5" spans="1:4">
-      <c r="A49" s="10"/>
-      <c r="B49" s="13">
-        <v>1</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="10"/>
-      <c r="B50" s="13">
-        <v>1</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" ht="25.5" spans="1:4">
-      <c r="A51" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="13">
-        <v>2</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" ht="41.25" spans="1:4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="7">
-        <v>5</v>
-      </c>
-      <c r="C52" s="8" t="s">
+    <row r="52" ht="25.5" spans="1:4">
+      <c r="A52" s="9"/>
+      <c r="B52" s="12">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" ht="54" spans="1:4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="7">
-        <v>6</v>
+    <row r="53" ht="25.5" spans="1:4">
+      <c r="A53" s="9"/>
+      <c r="B53" s="12">
+        <v>1</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="9"/>
+      <c r="B54" s="12">
+        <v>1</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="54" ht="14.25" spans="1:4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17">
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" ht="25.5" spans="1:4">
+      <c r="A55" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="12">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" ht="41.25" spans="1:4">
+      <c r="A56" s="16"/>
+      <c r="B56" s="7">
         <v>5</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" ht="28.5" spans="1:4">
-      <c r="A55" s="16"/>
-      <c r="B55" s="17">
-        <v>5</v>
-      </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" ht="54" spans="1:4">
+      <c r="A57" s="16"/>
+      <c r="B57" s="7">
+        <v>6</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="56" ht="25.5" spans="1:4">
-      <c r="A56" s="16"/>
-      <c r="B56" s="17">
-        <v>1</v>
-      </c>
-      <c r="C56" s="8" t="s">
+      <c r="D57" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" ht="96.75" spans="1:4">
-      <c r="A57" s="16"/>
-      <c r="B57" s="17">
-        <v>5</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" ht="96.75" spans="1:4">
+    </row>
+    <row r="58" ht="14.25" spans="1:4">
       <c r="A58" s="16"/>
       <c r="B58" s="17">
         <v>5</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" ht="55.5" spans="1:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" ht="28.5" spans="1:4">
       <c r="A59" s="16"/>
       <c r="B59" s="17">
         <v>5</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" ht="111" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" ht="25.5" spans="1:4">
       <c r="A60" s="16"/>
       <c r="B60" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" ht="96.75" spans="1:4">
       <c r="A61" s="16"/>
       <c r="B61" s="17">
         <v>5</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" ht="27" spans="1:4">
+        <v>82</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" ht="96.75" spans="1:4">
       <c r="A62" s="16"/>
       <c r="B62" s="17">
         <v>5</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" ht="41.25" spans="1:4">
+        <v>84</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" ht="55.5" spans="1:4">
       <c r="A63" s="16"/>
       <c r="B63" s="17">
         <v>5</v>
       </c>
       <c r="C63" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+    </row>
+    <row r="64" ht="111" spans="1:4">
       <c r="A64" s="16"/>
       <c r="B64" s="17">
-        <v>2</v>
-      </c>
-      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D64" s="8"/>
-    </row>
-    <row r="65" ht="25.5" spans="1:4">
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="16"/>
       <c r="B65" s="17">
-        <v>2</v>
-      </c>
-      <c r="C65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>90</v>
       </c>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" ht="25.5" spans="1:4">
+    <row r="66" ht="27" spans="1:4">
       <c r="A66" s="16"/>
       <c r="B66" s="17">
-        <v>2</v>
-      </c>
-      <c r="C66" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>91</v>
       </c>
       <c r="D66" s="8"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" ht="41.25" spans="1:4">
       <c r="A67" s="16"/>
       <c r="B67" s="17">
-        <v>2</v>
-      </c>
-      <c r="C67" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="8"/>
-    </row>
-    <row r="68" ht="25.5" spans="1:4">
+      <c r="D67" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="16"/>
       <c r="B68" s="17">
         <v>2</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>93</v>
+      <c r="C68" t="s">
+        <v>94</v>
       </c>
       <c r="D68" s="8"/>
     </row>
-    <row r="69" ht="27" spans="1:4">
+    <row r="69" ht="25.5" spans="1:4">
       <c r="A69" s="16"/>
       <c r="B69" s="17">
-        <v>1</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>94</v>
+        <v>2</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D69" s="8"/>
     </row>
-    <row r="70" ht="27" spans="1:4">
+    <row r="70" ht="25.5" spans="1:4">
       <c r="A70" s="16"/>
       <c r="B70" s="17">
         <v>2</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>95</v>
+      <c r="C70" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" ht="25.5" spans="1:4">
+    <row r="71" spans="1:4">
       <c r="A71" s="16"/>
-      <c r="B71" s="19">
-        <v>3</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>96</v>
+      <c r="B71" s="17">
+        <v>2</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="D71" s="8"/>
     </row>
     <row r="72" ht="25.5" spans="1:4">
       <c r="A72" s="16"/>
       <c r="B72" s="17">
-        <v>1</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>97</v>
+        <v>2</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" ht="25.5" spans="1:4">
+    <row r="73" ht="27" spans="1:4">
       <c r="A73" s="16"/>
       <c r="B73" s="17">
         <v>1</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>98</v>
+      <c r="C73" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D73" s="8"/>
     </row>
     <row r="74" ht="27" spans="1:4">
       <c r="A74" s="16"/>
       <c r="B74" s="17">
-        <v>1</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>99</v>
+        <v>2</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="D74" s="8"/>
     </row>
-    <row r="75" ht="27" spans="1:4">
+    <row r="75" ht="25.5" spans="1:4">
       <c r="A75" s="16"/>
-      <c r="B75" s="17">
-        <v>1</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>100</v>
+      <c r="B75" s="19">
+        <v>3</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="D75" s="8"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" ht="25.5" spans="1:4">
       <c r="A76" s="16"/>
       <c r="B76" s="17">
         <v>1</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>101</v>
+      <c r="C76" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="D76" s="8"/>
     </row>
-    <row r="77" ht="69.75" spans="1:4">
+    <row r="77" ht="25.5" spans="1:4">
       <c r="A77" s="16"/>
       <c r="B77" s="17">
-        <v>5</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D77" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="78" ht="25.5" spans="1:4">
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" ht="27" spans="1:4">
       <c r="A78" s="16"/>
-      <c r="B78" s="20">
-        <v>3</v>
-      </c>
-      <c r="C78" s="11" t="s">
+      <c r="B78" s="17">
+        <v>1</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" ht="55.5" spans="1:4">
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" ht="27" spans="1:4">
       <c r="A79" s="16"/>
       <c r="B79" s="17">
-        <v>5</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" ht="27" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="16"/>
       <c r="B80" s="17">
-        <v>2</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>108</v>
+        <v>1</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" ht="123.75" spans="1:4">
-      <c r="A81" s="22"/>
+    <row r="81" ht="69.75" spans="1:4">
+      <c r="A81" s="16"/>
       <c r="B81" s="17">
         <v>5</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" spans="1:4">
+      <c r="A82" s="16"/>
+      <c r="B82" s="20">
+        <v>3</v>
+      </c>
+      <c r="C82" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D82" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="23" t="s">
+    <row r="83" ht="55.5" spans="1:4">
+      <c r="A83" s="16"/>
+      <c r="B83" s="17">
+        <v>5</v>
+      </c>
+      <c r="C83" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
+      <c r="D83" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" ht="27" spans="1:4">
+      <c r="A84" s="16"/>
+      <c r="B84" s="17">
+        <v>2</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" ht="123.75" spans="1:4">
+      <c r="A85" s="22"/>
+      <c r="B85" s="17">
+        <v>5</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" s="23"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A50"/>
-    <mergeCell ref="A51:A81"/>
+    <mergeCell ref="A12:A24"/>
+    <mergeCell ref="A25:A54"/>
+    <mergeCell ref="A55:A85"/>
   </mergeCells>
-  <conditionalFormatting sqref="B:B">
+  <conditionalFormatting sqref="B14:B1048576 B1:B13">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15120" windowHeight="9810"/>
+    <workbookView windowWidth="27720" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>Scope</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>orthognotic</t>
-  </si>
-  <si>
-    <t>Learning Efficient Object Detection Models with Knowledge Distillation</t>
   </si>
   <si>
     <t>Focal Loss for Dense Object Detection</t>
@@ -95,21 +92,43 @@
     <t>MnasNet: Platform-Aware Neural Architecture Search for Mobile</t>
   </si>
   <si>
+    <t>Rectified Linear Units Improve Restricted Boltzmann Machines</t>
+  </si>
+  <si>
+    <t>Understanding the difficulty of training deep feedforward neural networks</t>
+  </si>
+  <si>
+    <t>Deep Sparse Rectifier Neural Networks(提出ReLU)</t>
+  </si>
+  <si>
     <t>Non-local Neural Networks</t>
   </si>
   <si>
+    <t>Wide Residual Networks</t>
+  </si>
+  <si>
     <t>Wider or Deeper: Revisiting the ResNet Model for Visual Recognition</t>
   </si>
   <si>
+    <t>resnet 是有有效深度的, 超过有效深度的branch, 其实并没有end to end 训练到, 因此对于resnet unit要求为: 1. strong enough to converge even if it is reused in many sub-networks, 2. shollow enough to enable an large effective depth</t>
+  </si>
+  <si>
     <t>learning transferable architectures for scable image recognition(NASNet)</t>
   </si>
   <si>
     <t>Delving Deep into Rectifiers: Surpassing Human-Level Performance on ImageNet Classification</t>
   </si>
   <si>
+    <t>1. 提出PReLU: 模型在浅层更倾向于保留信息而在深层更加任务驱动: the learned model tends to keep more information in earlier stages and becomes more discriminative in deeper stages
+2. 提出了在考虑rectifier的情况下初始化weights的方法, 对于rulu, weights的标准差应该为: sqrt(1/nl), nl=k*k*c, k为kernel_size, c为channel数</t>
+  </si>
+  <si>
     <t>Aggregated Residual Transformations for Deep Neural Networks</t>
   </si>
   <si>
+    <t>模型容量不变的前提下, 增加gropu数量能够提高性能(representing power), 但group太大后, 提升就不明显了</t>
+  </si>
+  <si>
     <t>Deformable Convolutional Networks</t>
   </si>
   <si>
@@ -123,6 +142,9 @@
   </si>
   <si>
     <t>object detection</t>
+  </si>
+  <si>
+    <t>Learning Efficient Object Detection Models with Knowledge Distillation</t>
   </si>
   <si>
     <t>RON-Reverse Connection with Objectness Prior Networks for Object Detection</t>
@@ -401,11 +423,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,22 +464,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF31424E"/>
       <name val="microsoft yahei"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,6 +516,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -479,8 +531,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,24 +549,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -525,9 +563,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,6 +572,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,36 +600,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,13 +613,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -626,37 +641,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,13 +725,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +749,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,13 +779,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,31 +809,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,61 +821,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,6 +902,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -898,6 +924,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,37 +967,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,166 +984,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1156,18 +1171,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1183,7 +1195,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1213,8 +1225,8 @@
     <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
     <cellStyle name="Accent2" xfId="17" builtinId="33"/>
     <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
     <cellStyle name="Neutral" xfId="21" builtinId="28"/>
     <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
@@ -1230,19 +1242,19 @@
     <cellStyle name="Good" xfId="33" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
     <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1287,6 +1299,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1542,19 +1559,18 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1581,7 +1597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" ht="13.5" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1593,7 +1609,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" ht="14.25" spans="1:4">
+    <row r="3" ht="13.5" spans="1:4">
       <c r="A3" s="9"/>
       <c r="B3" s="7">
         <v>5</v>
@@ -1603,7 +1619,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" ht="13.5" spans="1:4">
       <c r="A4" s="9"/>
       <c r="B4" s="7"/>
       <c r="C4" s="10" t="s">
@@ -1623,7 +1639,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" ht="39.75" spans="1:4">
+    <row r="6" ht="39" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -1637,7 +1653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:4">
+    <row r="7" ht="13.5" spans="1:4">
       <c r="A7" s="9"/>
       <c r="B7" s="11">
         <v>5</v>
@@ -1649,83 +1665,83 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="25.5" spans="1:4">
+    <row r="8" spans="1:4">
       <c r="A8" s="9"/>
       <c r="B8" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" ht="25.5" spans="1:4">
       <c r="A9" s="9"/>
       <c r="B9" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" ht="25.5" spans="1:4">
+    <row r="10" ht="52.5" spans="1:4">
       <c r="A10" s="9"/>
-      <c r="B10" s="12">
-        <v>3</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="14">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" ht="54" spans="1:4">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="B11" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="14">
+    <row r="12" ht="27" spans="1:4">
+      <c r="A12" s="9"/>
+      <c r="B12" s="12">
         <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" ht="28.5" spans="1:4">
+      <c r="D12" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="25.5" spans="1:4">
       <c r="A13" s="9"/>
       <c r="B13" s="14">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>22</v>
       </c>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" ht="25.5" spans="1:4">
       <c r="A14" s="9"/>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>3</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" ht="25.5" spans="1:4">
       <c r="A15" s="9"/>
-      <c r="B15" s="12">
+      <c r="B15" s="14">
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1733,506 +1749,506 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" ht="25.5" spans="1:4">
       <c r="A16" s="9"/>
-      <c r="B16" s="12">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="14">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" ht="25.5" spans="1:4">
+    <row r="17" ht="13.5" spans="1:4">
       <c r="A17" s="9"/>
-      <c r="B17" s="12">
-        <v>1</v>
+      <c r="B17" s="14">
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" ht="25.5" spans="1:4">
+    <row r="18" spans="1:4">
       <c r="A18" s="9"/>
-      <c r="B18" s="12">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" ht="25.5" spans="1:4">
+    <row r="19" spans="1:4">
       <c r="A19" s="9"/>
-      <c r="B19" s="12">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="14">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" ht="25.5" spans="1:4">
+    <row r="20" ht="39.75" spans="1:4">
       <c r="A20" s="9"/>
       <c r="B20" s="12">
-        <v>1</v>
-      </c>
-      <c r="C20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" spans="1:4">
       <c r="A21" s="9"/>
-      <c r="B21" s="12">
-        <v>1</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>30</v>
+      <c r="B21" s="14">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" ht="78.75" spans="1:4">
       <c r="A22" s="9"/>
       <c r="B22" s="12">
-        <v>2</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" ht="25.5" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" ht="27" spans="1:4">
       <c r="A23" s="9"/>
       <c r="B23" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" ht="25.5" spans="1:4">
+        <v>34</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="9"/>
       <c r="B24" s="14">
         <v>1</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>33</v>
+      <c r="C24" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" ht="25.5" spans="1:4">
-      <c r="A25" s="9" t="s">
-        <v>34</v>
-      </c>
+    <row r="25" spans="1:4">
+      <c r="A25" s="9"/>
       <c r="B25" s="14">
         <v>2</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>35</v>
+      <c r="C25" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" ht="25.5" spans="1:4">
       <c r="A26" s="9"/>
       <c r="B26" s="14">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="D26" s="8"/>
     </row>
     <row r="27" ht="25.5" spans="1:4">
       <c r="A27" s="9"/>
-      <c r="B27" s="14">
-        <v>2</v>
+      <c r="B27" s="12">
+        <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D27" s="8"/>
     </row>
     <row r="28" ht="25.5" spans="1:4">
-      <c r="A28" s="9"/>
-      <c r="B28" s="14">
+      <c r="A28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="12">
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" ht="25.5" spans="1:4">
       <c r="A29" s="9"/>
-      <c r="B29" s="14">
-        <v>5</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>39</v>
+      <c r="B29" s="12">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D29" s="8"/>
-      <c r="F29" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="9"/>
-      <c r="B30" s="14">
-        <v>2</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>41</v>
+      <c r="B30" s="12">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D30" s="8"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" ht="52.5" spans="1:7">
+    </row>
+    <row r="31" ht="25.5" spans="1:4">
       <c r="A31" s="9"/>
       <c r="B31" s="12">
         <v>2</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>42</v>
+      <c r="C31" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" ht="25.5" spans="1:7">
+    </row>
+    <row r="32" ht="25.5" spans="1:4">
       <c r="A32" s="9"/>
       <c r="B32" s="12">
-        <v>3</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D32" s="8"/>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="9"/>
       <c r="B33" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="8"/>
-      <c r="F33" s="1">
-        <v>2</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F33" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="9"/>
       <c r="B34" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="8"/>
-      <c r="F34" s="1">
-        <v>3</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" ht="51.75" spans="1:7">
+      <c r="A35" s="9"/>
+      <c r="B35" s="14">
+        <v>2</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="9"/>
-      <c r="B35" s="12">
-        <v>3</v>
-      </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="8"/>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" ht="25.5" spans="1:4">
+    </row>
+    <row r="36" ht="25.5" spans="1:7">
       <c r="A36" s="9"/>
-      <c r="B36" s="12">
+      <c r="B36" s="14">
         <v>3</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D36" s="8"/>
-    </row>
-    <row r="37" ht="42.75" spans="1:4">
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="9"/>
-      <c r="B37" s="7">
-        <v>5</v>
+      <c r="B37" s="14">
+        <v>3</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="38" ht="25.5" spans="1:4">
+      <c r="D37" s="8"/>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="9"/>
-      <c r="B38" s="12">
+      <c r="B38" s="14">
         <v>3</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D38" s="8"/>
-    </row>
-    <row r="39" ht="25.5" spans="1:4">
+      <c r="F38" s="1">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="9"/>
-      <c r="B39" s="12">
+      <c r="B39" s="14">
         <v>3</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" ht="84" spans="1:4">
+    <row r="40" ht="25.5" spans="1:4">
       <c r="A40" s="9"/>
-      <c r="B40" s="7">
-        <v>5</v>
+      <c r="B40" s="14">
+        <v>3</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" ht="25.5" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" ht="40.5" spans="1:4">
       <c r="A41" s="9"/>
-      <c r="B41" s="12">
-        <v>2</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="8"/>
+      <c r="B41" s="7">
+        <v>5</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="42" ht="25.5" spans="1:4">
       <c r="A42" s="9"/>
-      <c r="B42" s="12">
-        <v>2</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>59</v>
+      <c r="B42" s="14">
+        <v>3</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" ht="25.5" spans="1:4">
       <c r="A43" s="9"/>
-      <c r="B43" s="12">
-        <v>2</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>60</v>
+      <c r="B43" s="14">
+        <v>3</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" ht="80.25" spans="1:4">
       <c r="A44" s="9"/>
-      <c r="B44" s="12">
-        <v>2</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="8"/>
+      <c r="B44" s="7">
+        <v>5</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="45" ht="25.5" spans="1:4">
       <c r="A45" s="9"/>
-      <c r="B45" s="12">
+      <c r="B45" s="14">
         <v>2</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" ht="25.5" spans="1:4">
       <c r="A46" s="9"/>
-      <c r="B46" s="12">
+      <c r="B46" s="14">
         <v>2</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" ht="25.5" spans="1:4">
+    <row r="47" spans="1:4">
       <c r="A47" s="9"/>
-      <c r="B47" s="12">
+      <c r="B47" s="14">
         <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" ht="25.5" spans="1:4">
+    <row r="48" spans="1:4">
       <c r="A48" s="9"/>
-      <c r="B48" s="12">
+      <c r="B48" s="14">
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" ht="25.5" spans="1:4">
       <c r="A49" s="9"/>
-      <c r="B49" s="12">
-        <v>1</v>
+      <c r="B49" s="14">
+        <v>2</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" ht="38.25" spans="1:4">
+    <row r="50" spans="1:4">
       <c r="A50" s="9"/>
-      <c r="B50" s="12">
-        <v>1</v>
+      <c r="B50" s="14">
+        <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D50" s="8"/>
     </row>
     <row r="51" ht="25.5" spans="1:4">
       <c r="A51" s="9"/>
-      <c r="B51" s="12">
-        <v>1</v>
+      <c r="B51" s="14">
+        <v>2</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D51" s="8"/>
     </row>
     <row r="52" ht="25.5" spans="1:4">
       <c r="A52" s="9"/>
-      <c r="B52" s="12">
+      <c r="B52" s="14">
+        <v>2</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="9"/>
+      <c r="B53" s="14">
         <v>1</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" ht="25.5" spans="1:4">
-      <c r="A53" s="9"/>
-      <c r="B53" s="12">
+      <c r="C53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" ht="38.25" spans="1:4">
+      <c r="A54" s="9"/>
+      <c r="B54" s="14">
         <v>1</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="9"/>
-      <c r="B54" s="12">
+      <c r="C54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" ht="25.5" spans="1:4">
+      <c r="A55" s="9"/>
+      <c r="B55" s="14">
         <v>1</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" ht="25.5" spans="1:4">
-      <c r="A55" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="12">
-        <v>2</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" ht="41.25" spans="1:4">
-      <c r="A56" s="16"/>
-      <c r="B56" s="7">
-        <v>5</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>74</v>
+    <row r="56" ht="25.5" spans="1:4">
+      <c r="A56" s="9"/>
+      <c r="B56" s="14">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="D56" s="8"/>
     </row>
-    <row r="57" ht="54" spans="1:4">
-      <c r="A57" s="16"/>
-      <c r="B57" s="7">
-        <v>6</v>
+    <row r="57" ht="25.5" spans="1:4">
+      <c r="A57" s="9"/>
+      <c r="B57" s="14">
+        <v>1</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" spans="1:4">
-      <c r="A58" s="16"/>
-      <c r="B58" s="17">
-        <v>5</v>
+        <v>77</v>
+      </c>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="9"/>
+      <c r="B58" s="14">
+        <v>1</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="59" ht="28.5" spans="1:4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17">
-        <v>5</v>
-      </c>
-      <c r="C59" s="8" t="s">
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" ht="25.5" spans="1:4">
+      <c r="A59" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="B59" s="14">
+        <v>2</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" ht="25.5" spans="1:4">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17">
-        <v>1</v>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" ht="39.75" spans="1:4">
+      <c r="A60" s="15"/>
+      <c r="B60" s="7">
+        <v>5</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D60" s="8"/>
     </row>
-    <row r="61" ht="96.75" spans="1:4">
-      <c r="A61" s="16"/>
-      <c r="B61" s="17">
-        <v>5</v>
+    <row r="61" ht="52.5" spans="1:4">
+      <c r="A61" s="15"/>
+      <c r="B61" s="7">
+        <v>6</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>82</v>
@@ -2241,9 +2257,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" ht="96.75" spans="1:4">
-      <c r="A62" s="16"/>
-      <c r="B62" s="17">
+    <row r="62" ht="13.5" spans="1:4">
+      <c r="A62" s="15"/>
+      <c r="B62" s="16">
         <v>5</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -2253,9 +2269,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" ht="55.5" spans="1:4">
-      <c r="A63" s="16"/>
-      <c r="B63" s="17">
+    <row r="63" ht="27" spans="1:4">
+      <c r="A63" s="15"/>
+      <c r="B63" s="16">
         <v>5</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -2265,255 +2281,301 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" ht="111" spans="1:4">
-      <c r="A64" s="16"/>
-      <c r="B64" s="17">
-        <v>5</v>
+    <row r="64" ht="25.5" spans="1:4">
+      <c r="A64" s="15"/>
+      <c r="B64" s="16">
+        <v>1</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" ht="93" spans="1:4">
+      <c r="A65" s="15"/>
+      <c r="B65" s="16">
+        <v>5</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="16"/>
-      <c r="B65" s="17">
-        <v>5</v>
-      </c>
-      <c r="C65" s="8" t="s">
+      <c r="D65" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66" ht="27" spans="1:4">
-      <c r="A66" s="16"/>
-      <c r="B66" s="17">
+    </row>
+    <row r="66" ht="93" spans="1:4">
+      <c r="A66" s="15"/>
+      <c r="B66" s="16">
         <v>5</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67" ht="41.25" spans="1:4">
-      <c r="A67" s="16"/>
-      <c r="B67" s="17">
+      <c r="D66" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" ht="53.25" spans="1:4">
+      <c r="A67" s="15"/>
+      <c r="B67" s="16">
         <v>5</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="16"/>
-      <c r="B68" s="17">
-        <v>2</v>
-      </c>
-      <c r="C68" t="s">
         <v>94</v>
       </c>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" ht="25.5" spans="1:4">
-      <c r="A69" s="16"/>
-      <c r="B69" s="17">
-        <v>2</v>
-      </c>
-      <c r="C69" s="2" t="s">
+    </row>
+    <row r="68" ht="106.5" spans="1:4">
+      <c r="A68" s="15"/>
+      <c r="B68" s="16">
+        <v>5</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>95</v>
       </c>
+      <c r="D68" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="15"/>
+      <c r="B69" s="16">
+        <v>5</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="D69" s="8"/>
     </row>
-    <row r="70" ht="25.5" spans="1:4">
-      <c r="A70" s="16"/>
-      <c r="B70" s="17">
-        <v>2</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>96</v>
+    <row r="70" ht="26.25" spans="1:4">
+      <c r="A70" s="15"/>
+      <c r="B70" s="16">
+        <v>5</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="D70" s="8"/>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="16"/>
-      <c r="B71" s="17">
-        <v>2</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" ht="25.5" spans="1:4">
-      <c r="A72" s="16"/>
-      <c r="B72" s="17">
-        <v>2</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>98</v>
+    <row r="71" ht="39.75" spans="1:4">
+      <c r="A71" s="15"/>
+      <c r="B71" s="16">
+        <v>5</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="15"/>
+      <c r="B72" s="16">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>101</v>
       </c>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" ht="27" spans="1:4">
-      <c r="A73" s="16"/>
-      <c r="B73" s="17">
+    <row r="73" ht="25.5" spans="1:4">
+      <c r="A73" s="15"/>
+      <c r="B73" s="16">
+        <v>2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" ht="25.5" spans="1:4">
+      <c r="A74" s="15"/>
+      <c r="B74" s="16">
+        <v>2</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="15"/>
+      <c r="B75" s="16">
+        <v>2</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" ht="25.5" spans="1:4">
+      <c r="A76" s="15"/>
+      <c r="B76" s="16">
+        <v>2</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" ht="26.25" spans="1:4">
+      <c r="A77" s="15"/>
+      <c r="B77" s="16">
         <v>1</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74" ht="27" spans="1:4">
-      <c r="A74" s="16"/>
-      <c r="B74" s="17">
-        <v>2</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75" ht="25.5" spans="1:4">
-      <c r="A75" s="16"/>
-      <c r="B75" s="19">
+      <c r="C77" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" ht="26.25" spans="1:4">
+      <c r="A78" s="15"/>
+      <c r="B78" s="16">
+        <v>2</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" ht="25.5" spans="1:4">
+      <c r="A79" s="15"/>
+      <c r="B79" s="18">
         <v>3</v>
       </c>
-      <c r="C75" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" ht="25.5" spans="1:4">
-      <c r="A76" s="16"/>
-      <c r="B76" s="17">
+      <c r="C79" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" ht="25.5" spans="1:4">
+      <c r="A80" s="15"/>
+      <c r="B80" s="16">
         <v>1</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77" ht="25.5" spans="1:4">
-      <c r="A77" s="16"/>
-      <c r="B77" s="17">
+      <c r="C80" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" ht="25.5" spans="1:4">
+      <c r="A81" s="15"/>
+      <c r="B81" s="16">
         <v>1</v>
       </c>
-      <c r="C77" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" ht="27" spans="1:4">
-      <c r="A78" s="16"/>
-      <c r="B78" s="17">
+      <c r="C81" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" ht="26.25" spans="1:4">
+      <c r="A82" s="15"/>
+      <c r="B82" s="16">
         <v>1</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" ht="27" spans="1:4">
-      <c r="A79" s="16"/>
-      <c r="B79" s="17">
+      <c r="C82" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" ht="26.25" spans="1:4">
+      <c r="A83" s="15"/>
+      <c r="B83" s="16">
         <v>1</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D79" s="8"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="16"/>
-      <c r="B80" s="17">
+      <c r="C83" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="15"/>
+      <c r="B84" s="16">
         <v>1</v>
       </c>
-      <c r="C80" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D80" s="8"/>
-    </row>
-    <row r="81" ht="69.75" spans="1:4">
-      <c r="A81" s="16"/>
-      <c r="B81" s="17">
-        <v>5</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" spans="1:4">
-      <c r="A82" s="16"/>
-      <c r="B82" s="20">
-        <v>3</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" ht="55.5" spans="1:4">
-      <c r="A83" s="16"/>
-      <c r="B83" s="17">
-        <v>5</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" ht="27" spans="1:4">
-      <c r="A84" s="16"/>
-      <c r="B84" s="17">
-        <v>2</v>
-      </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="10" t="s">
         <v>113</v>
       </c>
       <c r="D84" s="8"/>
     </row>
-    <row r="85" ht="123.75" spans="1:4">
-      <c r="A85" s="22"/>
-      <c r="B85" s="17">
-        <v>5</v>
-      </c>
-      <c r="C85" s="8" t="s">
+    <row r="85" ht="66.75" spans="1:4">
+      <c r="A85" s="15"/>
+      <c r="B85" s="16">
+        <v>5</v>
+      </c>
+      <c r="C85" s="10" t="s">
         <v>114</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="23" t="s">
+    <row r="86" ht="25.5" spans="1:4">
+      <c r="A86" s="15"/>
+      <c r="B86" s="19">
+        <v>3</v>
+      </c>
+      <c r="C86" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B86" s="23"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
+      <c r="D86" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" ht="53.25" spans="1:4">
+      <c r="A87" s="15"/>
+      <c r="B87" s="16">
+        <v>5</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" ht="28.5" spans="1:4">
+      <c r="A88" s="15"/>
+      <c r="B88" s="16">
+        <v>2</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" ht="119.25" spans="1:4">
+      <c r="A89" s="21"/>
+      <c r="B89" s="16">
+        <v>5</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="22"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A24"/>
-    <mergeCell ref="A25:A54"/>
-    <mergeCell ref="A55:A85"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A27"/>
+    <mergeCell ref="A28:A58"/>
+    <mergeCell ref="A59:A89"/>
   </mergeCells>
-  <conditionalFormatting sqref="B14:B1048576 B1:B13">
+  <conditionalFormatting sqref="B$1:B$1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13140"/>
+    <workbookView windowWidth="27720" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
   <si>
     <t>Scope</t>
   </si>
@@ -101,6 +101,12 @@
     <t>Deep Sparse Rectifier Neural Networks(提出ReLU)</t>
   </si>
   <si>
+    <t>Densely Connected Convolutional Networks</t>
+  </si>
+  <si>
+    <t>CondenseNet: An Efficient DenseNet using Learned Group Convolutions</t>
+  </si>
+  <si>
     <t>Non-local Neural Networks</t>
   </si>
   <si>
@@ -139,6 +145,9 @@
   </si>
   <si>
     <t>ShuffleNet V2: Practical Guidelines for Efficient CNN Architecture Design</t>
+  </si>
+  <si>
+    <t>提出了net设计的4个原则，特别是考虑了MAC：memory access cost; 提出了shuffleNetV2, 特别是提出了channel split模块</t>
   </si>
   <si>
     <t>object detection</t>
@@ -245,11 +254,13 @@
     <t xml:space="preserve">Accurate Single Stage Detector Using Recurrent Rolling Convolution </t>
   </si>
   <si>
+    <t>Light-Head R-CNN: In Defense of Two-Stage Object Detector</t>
+  </si>
+  <si>
     <t>Relation Networks for Object Detection</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Soft-NMS -- Improving Object Detection With One Line of Code</t>
+    <t>Soft-NMS -- Improving Object Detection With One Line of Code</t>
   </si>
   <si>
     <t>Pelee: A Real-Time Object Detection System on Mobile Devices</t>
@@ -422,12 +433,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,25 +475,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF31424E"/>
       <name val="microsoft yahei"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -494,15 +497,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,18 +511,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -539,9 +549,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,14 +566,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,6 +579,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -584,8 +601,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,15 +624,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -641,13 +659,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,169 +737,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,17 +920,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -932,7 +939,27 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,17 +997,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,152 +1007,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1180,22 +1198,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1225,8 +1246,8 @@
     <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
     <cellStyle name="Accent2" xfId="17" builtinId="33"/>
     <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
     <cellStyle name="Neutral" xfId="21" builtinId="28"/>
     <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
@@ -1242,19 +1263,19 @@
     <cellStyle name="Good" xfId="33" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
     <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1299,11 +1320,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1559,18 +1575,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1597,7 +1614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:4">
+    <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1609,7 +1626,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" ht="13.5" spans="1:4">
+    <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="9"/>
       <c r="B3" s="7">
         <v>5</v>
@@ -1619,7 +1636,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" ht="13.5" spans="1:4">
+    <row r="4" ht="14.25" spans="1:4">
       <c r="A4" s="9"/>
       <c r="B4" s="7"/>
       <c r="C4" s="10" t="s">
@@ -1639,7 +1656,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" ht="39" spans="1:4">
+    <row r="6" ht="39.75" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -1653,7 +1670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="13.5" spans="1:4">
+    <row r="7" ht="14.25" spans="1:4">
       <c r="A7" s="9"/>
       <c r="B7" s="11">
         <v>5</v>
@@ -1685,7 +1702,7 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" ht="52.5" spans="1:4">
+    <row r="10" ht="54" spans="1:4">
       <c r="A10" s="9"/>
       <c r="B10" s="14">
         <v>2</v>
@@ -1707,7 +1724,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" ht="27" spans="1:4">
+    <row r="12" ht="28.5" spans="1:4">
       <c r="A12" s="9"/>
       <c r="B12" s="12">
         <v>5</v>
@@ -1759,7 +1776,7 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" ht="13.5" spans="1:4">
+    <row r="17" ht="14.25" spans="1:4">
       <c r="A17" s="9"/>
       <c r="B17" s="14">
         <v>2</v>
@@ -1774,88 +1791,88 @@
       <c r="B18" s="14">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" ht="25.5" spans="1:4">
       <c r="A19" s="9"/>
       <c r="B19" s="14">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" ht="39.75" spans="1:4">
+    <row r="20" spans="1:4">
       <c r="A20" s="9"/>
-      <c r="B20" s="12">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="14">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" ht="25.5" spans="1:4">
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="9"/>
       <c r="B21" s="14">
         <v>2</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>31</v>
+      <c r="C21" t="s">
+        <v>30</v>
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" ht="78.75" spans="1:4">
+    <row r="22" ht="41.25" spans="1:4">
       <c r="A22" s="9"/>
       <c r="B22" s="12">
         <v>5</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="8" t="s">
+    </row>
+    <row r="23" ht="25.5" spans="1:4">
+      <c r="A23" s="9"/>
+      <c r="B23" s="14">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" ht="27" spans="1:4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="12">
-        <v>5</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" ht="81" spans="1:4">
+      <c r="A24" s="9"/>
+      <c r="B24" s="12">
+        <v>5</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="14">
-        <v>1</v>
-      </c>
-      <c r="C24" s="10" t="s">
+    <row r="25" ht="28.5" spans="1:4">
+      <c r="A25" s="9"/>
+      <c r="B25" s="12">
+        <v>5</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="14">
-        <v>2</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" ht="25.5" spans="1:4">
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="9"/>
       <c r="B26" s="14">
         <v>1</v>
@@ -1865,45 +1882,47 @@
       </c>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" ht="25.5" spans="1:4">
+    <row r="27" spans="1:4">
       <c r="A27" s="9"/>
-      <c r="B27" s="12">
+      <c r="B27" s="14">
+        <v>2</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" ht="25.5" spans="1:4">
+      <c r="A28" s="9"/>
+      <c r="B28" s="14">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" ht="25.5" spans="1:4">
-      <c r="A28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="12">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" ht="25.5" spans="1:4">
+    <row r="29" ht="28.5" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="9"/>
+    </row>
+    <row r="30" ht="25.5" spans="1:4">
+      <c r="A30" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="B30" s="12">
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30" s="8"/>
     </row>
@@ -1913,123 +1932,117 @@
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" ht="25.5" spans="1:4">
+    <row r="32" spans="1:4">
       <c r="A32" s="9"/>
       <c r="B32" s="12">
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" ht="25.5" spans="1:4">
       <c r="A33" s="9"/>
       <c r="B33" s="12">
-        <v>5</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D33" s="8"/>
-      <c r="F33" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" ht="25.5" spans="1:4">
       <c r="A34" s="9"/>
       <c r="B34" s="12">
         <v>2</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="8"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" ht="51.75" spans="1:7">
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="9"/>
-      <c r="B35" s="14">
-        <v>2</v>
+      <c r="B35" s="12">
+        <v>5</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D35" s="8"/>
-      <c r="F35" s="1">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" ht="25.5" spans="1:7">
+    <row r="36" spans="1:7">
       <c r="A36" s="9"/>
-      <c r="B36" s="14">
-        <v>3</v>
+      <c r="B36" s="12">
+        <v>2</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D36" s="8"/>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" ht="52.5" spans="1:7">
       <c r="A37" s="9"/>
       <c r="B37" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" s="8"/>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" ht="25.5" spans="1:7">
       <c r="A38" s="9"/>
       <c r="B38" s="14">
         <v>3</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="8"/>
       <c r="F38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="9"/>
       <c r="B39" s="14">
         <v>3</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" ht="25.5" spans="1:4">
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="9"/>
       <c r="B40" s="14">
         <v>3</v>
@@ -2038,18 +2051,22 @@
         <v>58</v>
       </c>
       <c r="D40" s="8"/>
-    </row>
-    <row r="41" ht="40.5" spans="1:4">
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="9"/>
-      <c r="B41" s="7">
-        <v>5</v>
+      <c r="B41" s="14">
+        <v>3</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="8" t="s">
         <v>60</v>
       </c>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" ht="25.5" spans="1:4">
       <c r="A42" s="9"/>
@@ -2061,75 +2078,77 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" ht="25.5" spans="1:4">
+    <row r="43" ht="42.75" spans="1:4">
       <c r="A43" s="9"/>
-      <c r="B43" s="14">
-        <v>3</v>
+      <c r="B43" s="7">
+        <v>5</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" ht="80.25" spans="1:4">
+      <c r="D43" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" spans="1:4">
       <c r="A44" s="9"/>
-      <c r="B44" s="7">
-        <v>5</v>
+      <c r="B44" s="14">
+        <v>3</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" ht="25.5" spans="1:4">
       <c r="A45" s="9"/>
       <c r="B45" s="14">
-        <v>2</v>
-      </c>
-      <c r="C45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" ht="25.5" spans="1:4">
+    <row r="46" ht="84" spans="1:4">
       <c r="A46" s="9"/>
-      <c r="B46" s="14">
-        <v>2</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="7">
+        <v>5</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="D46" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" spans="1:4">
       <c r="A47" s="9"/>
       <c r="B47" s="14">
         <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" ht="25.5" spans="1:4">
       <c r="A48" s="9"/>
       <c r="B48" s="14">
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" ht="25.5" spans="1:4">
+    <row r="49" spans="1:4">
       <c r="A49" s="9"/>
       <c r="B49" s="14">
         <v>2</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D49" s="8"/>
     </row>
@@ -2139,7 +2158,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D50" s="8"/>
     </row>
@@ -2149,37 +2168,37 @@
         <v>2</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" ht="25.5" spans="1:4">
+    <row r="52" spans="1:4">
       <c r="A52" s="9"/>
       <c r="B52" s="14">
         <v>2</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" ht="25.5" spans="1:4">
       <c r="A53" s="9"/>
       <c r="B53" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" ht="38.25" spans="1:4">
+    <row r="54" ht="25.5" spans="1:4">
       <c r="A54" s="9"/>
       <c r="B54" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D54" s="8"/>
     </row>
@@ -2188,18 +2207,18 @@
       <c r="B55" s="14">
         <v>1</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>75</v>
+      <c r="C55" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" ht="25.5" spans="1:4">
+    <row r="56" spans="1:4">
       <c r="A56" s="9"/>
       <c r="B56" s="14">
         <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D56" s="8"/>
     </row>
@@ -2208,160 +2227,158 @@
       <c r="B57" s="14">
         <v>1</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>77</v>
+      <c r="C57" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" ht="25.5" spans="1:4">
       <c r="A58" s="9"/>
       <c r="B58" s="14">
         <v>1</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>78</v>
+      <c r="C58" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D58" s="8"/>
     </row>
     <row r="59" ht="25.5" spans="1:4">
-      <c r="A59" s="15" t="s">
-        <v>79</v>
-      </c>
+      <c r="A59" s="9"/>
       <c r="B59" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" ht="39.75" spans="1:4">
-      <c r="A60" s="15"/>
-      <c r="B60" s="7">
-        <v>5</v>
+    <row r="60" ht="25.5" spans="1:4">
+      <c r="A60" s="9"/>
+      <c r="B60" s="14">
+        <v>1</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D60" s="8"/>
     </row>
-    <row r="61" ht="52.5" spans="1:4">
-      <c r="A61" s="15"/>
-      <c r="B61" s="7">
-        <v>6</v>
+    <row r="61" spans="1:4">
+      <c r="A61" s="9"/>
+      <c r="B61" s="14">
+        <v>1</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" ht="25.5" spans="1:4">
+      <c r="A62" s="16" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="62" ht="13.5" spans="1:4">
-      <c r="A62" s="15"/>
-      <c r="B62" s="16">
-        <v>5</v>
-      </c>
-      <c r="C62" s="8" t="s">
+      <c r="B62" s="14">
+        <v>2</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" ht="41.25" spans="1:4">
+      <c r="A63" s="16"/>
+      <c r="B63" s="7">
+        <v>5</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="63" ht="27" spans="1:4">
-      <c r="A63" s="15"/>
-      <c r="B63" s="16">
-        <v>5</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" ht="54" spans="1:4">
+      <c r="A64" s="16"/>
+      <c r="B64" s="7">
+        <v>6</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D64" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" ht="25.5" spans="1:4">
-      <c r="A64" s="15"/>
-      <c r="B64" s="16">
+    <row r="65" ht="14.25" spans="1:4">
+      <c r="A65" s="16"/>
+      <c r="B65" s="18">
+        <v>5</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" ht="28.5" spans="1:4">
+      <c r="A66" s="16"/>
+      <c r="B66" s="18">
+        <v>5</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" spans="1:4">
+      <c r="A67" s="16"/>
+      <c r="B67" s="18">
         <v>1</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" s="8"/>
-    </row>
-    <row r="65" ht="93" spans="1:4">
-      <c r="A65" s="15"/>
-      <c r="B65" s="16">
-        <v>5</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" ht="93" spans="1:4">
-      <c r="A66" s="15"/>
-      <c r="B66" s="16">
-        <v>5</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D66" s="8" t="s">
+      <c r="C67" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="67" ht="53.25" spans="1:4">
-      <c r="A67" s="15"/>
-      <c r="B67" s="16">
-        <v>5</v>
-      </c>
-      <c r="C67" s="8" t="s">
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" ht="96.75" spans="1:4">
+      <c r="A68" s="16"/>
+      <c r="B68" s="18">
+        <v>5</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D68" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="68" ht="106.5" spans="1:4">
-      <c r="A68" s="15"/>
-      <c r="B68" s="16">
-        <v>5</v>
-      </c>
-      <c r="C68" s="8" t="s">
+    <row r="69" ht="96.75" spans="1:4">
+      <c r="A69" s="16"/>
+      <c r="B69" s="18">
+        <v>5</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D69" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="15"/>
-      <c r="B69" s="16">
-        <v>5</v>
-      </c>
-      <c r="C69" s="8" t="s">
+    <row r="70" ht="55.5" spans="1:4">
+      <c r="A70" s="16"/>
+      <c r="B70" s="18">
+        <v>5</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" ht="26.25" spans="1:4">
-      <c r="A70" s="15"/>
-      <c r="B70" s="16">
-        <v>5</v>
-      </c>
-      <c r="C70" s="8" t="s">
+      <c r="D70" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" ht="39.75" spans="1:4">
-      <c r="A71" s="15"/>
-      <c r="B71" s="16">
+    </row>
+    <row r="71" ht="111" spans="1:4">
+      <c r="A71" s="16"/>
+      <c r="B71" s="18">
         <v>5</v>
       </c>
       <c r="C71" s="8" t="s">
@@ -2372,210 +2389,242 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="15"/>
-      <c r="B72" s="16">
-        <v>2</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="A72" s="16"/>
+      <c r="B72" s="18">
+        <v>5</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" ht="25.5" spans="1:4">
-      <c r="A73" s="15"/>
-      <c r="B73" s="16">
-        <v>2</v>
-      </c>
-      <c r="C73" s="2" t="s">
+    <row r="73" ht="27" spans="1:4">
+      <c r="A73" s="16"/>
+      <c r="B73" s="18">
+        <v>5</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>102</v>
       </c>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" ht="25.5" spans="1:4">
-      <c r="A74" s="15"/>
-      <c r="B74" s="16">
-        <v>2</v>
-      </c>
-      <c r="C74" s="10" t="s">
+    <row r="74" ht="41.25" spans="1:4">
+      <c r="A74" s="16"/>
+      <c r="B74" s="18">
+        <v>5</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D74" s="8"/>
+      <c r="D74" s="8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="15"/>
-      <c r="B75" s="16">
-        <v>2</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>104</v>
+      <c r="A75" s="16"/>
+      <c r="B75" s="18">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>105</v>
       </c>
       <c r="D75" s="8"/>
     </row>
     <row r="76" ht="25.5" spans="1:4">
-      <c r="A76" s="15"/>
-      <c r="B76" s="16">
-        <v>2</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>105</v>
+      <c r="A76" s="16"/>
+      <c r="B76" s="18">
+        <v>2</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="D76" s="8"/>
     </row>
-    <row r="77" ht="26.25" spans="1:4">
-      <c r="A77" s="15"/>
-      <c r="B77" s="16">
+    <row r="77" ht="25.5" spans="1:4">
+      <c r="A77" s="16"/>
+      <c r="B77" s="18">
+        <v>2</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="16"/>
+      <c r="B78" s="18">
+        <v>2</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" ht="25.5" spans="1:4">
+      <c r="A79" s="16"/>
+      <c r="B79" s="18">
+        <v>2</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" ht="27" spans="1:4">
+      <c r="A80" s="16"/>
+      <c r="B80" s="18">
         <v>1</v>
       </c>
-      <c r="C77" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" ht="26.25" spans="1:4">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16">
-        <v>2</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" ht="25.5" spans="1:4">
-      <c r="A79" s="15"/>
-      <c r="B79" s="18">
+      <c r="C80" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" ht="27" spans="1:4">
+      <c r="A81" s="16"/>
+      <c r="B81" s="18">
+        <v>2</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" ht="25.5" spans="1:4">
+      <c r="A82" s="16"/>
+      <c r="B82" s="19">
         <v>3</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D79" s="8"/>
-    </row>
-    <row r="80" ht="25.5" spans="1:4">
-      <c r="A80" s="15"/>
-      <c r="B80" s="16">
+      <c r="C82" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" ht="25.5" spans="1:4">
+      <c r="A83" s="16"/>
+      <c r="B83" s="18">
         <v>1</v>
       </c>
-      <c r="C80" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D80" s="8"/>
-    </row>
-    <row r="81" ht="25.5" spans="1:4">
-      <c r="A81" s="15"/>
-      <c r="B81" s="16">
+      <c r="C83" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" ht="25.5" spans="1:4">
+      <c r="A84" s="16"/>
+      <c r="B84" s="18">
         <v>1</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D81" s="8"/>
-    </row>
-    <row r="82" ht="26.25" spans="1:4">
-      <c r="A82" s="15"/>
-      <c r="B82" s="16">
+      <c r="C84" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" ht="27" spans="1:4">
+      <c r="A85" s="16"/>
+      <c r="B85" s="18">
         <v>1</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D82" s="8"/>
-    </row>
-    <row r="83" ht="26.25" spans="1:4">
-      <c r="A83" s="15"/>
-      <c r="B83" s="16">
+      <c r="C85" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" ht="27" spans="1:4">
+      <c r="A86" s="16"/>
+      <c r="B86" s="18">
         <v>1</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D83" s="8"/>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="15"/>
-      <c r="B84" s="16">
-        <v>1</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D84" s="8"/>
-    </row>
-    <row r="85" ht="66.75" spans="1:4">
-      <c r="A85" s="15"/>
-      <c r="B85" s="16">
-        <v>5</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" ht="25.5" spans="1:4">
-      <c r="A86" s="15"/>
-      <c r="B86" s="19">
-        <v>3</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="8"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="16"/>
+      <c r="B87" s="18">
+        <v>1</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="87" ht="53.25" spans="1:4">
-      <c r="A87" s="15"/>
-      <c r="B87" s="16">
-        <v>5</v>
-      </c>
-      <c r="C87" s="20" t="s">
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" ht="69.75" spans="1:4">
+      <c r="A88" s="16"/>
+      <c r="B88" s="18">
+        <v>5</v>
+      </c>
+      <c r="C88" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D88" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="88" ht="28.5" spans="1:4">
-      <c r="A88" s="15"/>
-      <c r="B88" s="16">
-        <v>2</v>
-      </c>
-      <c r="C88" s="20" t="s">
+    <row r="89" ht="25.5" spans="1:4">
+      <c r="A89" s="16"/>
+      <c r="B89" s="20">
+        <v>3</v>
+      </c>
+      <c r="C89" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D88" s="8"/>
-    </row>
-    <row r="89" ht="119.25" spans="1:4">
-      <c r="A89" s="21"/>
-      <c r="B89" s="16">
-        <v>5</v>
-      </c>
-      <c r="C89" s="8" t="s">
+      <c r="D89" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D89" s="8" t="s">
+    </row>
+    <row r="90" ht="55.5" spans="1:4">
+      <c r="A90" s="16"/>
+      <c r="B90" s="18">
+        <v>5</v>
+      </c>
+      <c r="C90" s="21" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="22" t="s">
+      <c r="D90" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B90" s="22"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
+    </row>
+    <row r="91" ht="27" spans="1:4">
+      <c r="A91" s="16"/>
+      <c r="B91" s="18">
+        <v>2</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" ht="123.75" spans="1:4">
+      <c r="A92" s="22"/>
+      <c r="B92" s="18">
+        <v>5</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" s="23"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A27"/>
-    <mergeCell ref="A28:A58"/>
-    <mergeCell ref="A59:A89"/>
+    <mergeCell ref="A11:A29"/>
+    <mergeCell ref="A30:A61"/>
+    <mergeCell ref="A62:A92"/>
   </mergeCells>
-  <conditionalFormatting sqref="B$1:B$1048576">
+  <conditionalFormatting sqref="B56:B1048576 B1:B54 B55">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13290"/>
+    <workbookView windowWidth="14820" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
   <si>
     <t>Scope</t>
   </si>
@@ -37,10 +37,19 @@
     <t>tensorflow， models/slim熟悉</t>
   </si>
   <si>
+    <t>tensorflow tfrecord, Dataset</t>
+  </si>
+  <si>
     <t>tensorflow, 多GPU训练</t>
   </si>
   <si>
     <t>数据集</t>
+  </si>
+  <si>
+    <t>The Cityscapes Dataset for Semantic Urban Scene Understanding</t>
+  </si>
+  <si>
+    <t>Revisiting Unreasonable Effectiveness of Data in Deep Learning Era（JFT-300M）</t>
   </si>
   <si>
     <t>Scaling Egocentric Vision: The EPIC-KITCHENS Dataset </t>
@@ -101,6 +110,9 @@
     <t>Deep Sparse Rectifier Neural Networks(提出ReLU)</t>
   </si>
   <si>
+    <t>Gather-Excite: Exploiting feature Context in Convolutional Neural Networks</t>
+  </si>
+  <si>
     <t>Densely Connected Convolutional Networks</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
   </si>
   <si>
     <t xml:space="preserve">Accurate Single Stage Detector Using Recurrent Rolling Convolution </t>
+  </si>
+  <si>
+    <t>Deep Learning for Generic Object Detection: A Survey</t>
   </si>
   <si>
     <t>Light-Head R-CNN: In Defense of Two-Stage Object Detector</t>
@@ -433,12 +448,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,13 +490,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF31424E"/>
       <name val="microsoft yahei"/>
@@ -497,55 +505,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -566,7 +544,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,16 +594,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,6 +604,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,28 +632,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -665,31 +673,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,145 +847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,6 +928,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -935,11 +961,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,181 +1010,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1198,15 +1206,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1216,7 +1221,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1582,12 +1587,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1636,7 +1641,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" spans="1:4">
       <c r="A4" s="9"/>
       <c r="B4" s="7"/>
       <c r="C4" s="10" t="s">
@@ -1644,152 +1649,150 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="9" t="s">
+    <row r="5" ht="14.25" spans="1:4">
+      <c r="A5" s="9"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" ht="25.5" spans="1:4">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" ht="39.75" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" ht="27" spans="1:4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9"/>
-      <c r="B8" s="12">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" ht="39.75" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" ht="25.5" spans="1:4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="14">
-        <v>2</v>
-      </c>
-      <c r="C9" s="13" t="s">
+    </row>
+    <row r="10" ht="14.25" spans="1:4">
+      <c r="A10" s="9"/>
+      <c r="B10" s="11">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" ht="54" spans="1:4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="14">
-        <v>2</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="12">
+        <v>5</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="12">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" ht="25.5" spans="1:4">
+      <c r="A12" s="9"/>
+      <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" ht="28.5" spans="1:4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="12">
-        <v>5</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" ht="25.5" spans="1:4">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" ht="54" spans="1:4">
       <c r="A13" s="9"/>
       <c r="B13" s="14">
-        <v>3</v>
-      </c>
-      <c r="C13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="12">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" ht="25.5" spans="1:4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="14">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" ht="28.5" spans="1:4">
+      <c r="A15" s="9"/>
+      <c r="B15" s="12">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" ht="25.5" spans="1:4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="14">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="8"/>
     </row>
     <row r="16" ht="25.5" spans="1:4">
       <c r="A16" s="9"/>
       <c r="B16" s="14">
         <v>3</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" ht="14.25" spans="1:4">
+    <row r="17" ht="25.5" spans="1:4">
       <c r="A17" s="9"/>
       <c r="B17" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" ht="25.5" spans="1:4">
       <c r="A18" s="9"/>
       <c r="B18" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>27</v>
@@ -1799,165 +1802,165 @@
     <row r="19" ht="25.5" spans="1:4">
       <c r="A19" s="9"/>
       <c r="B19" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" ht="14.25" spans="1:4">
       <c r="A20" s="9"/>
       <c r="B20" s="14">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" ht="25.5" spans="1:4">
       <c r="A21" s="9"/>
       <c r="B21" s="14">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" ht="41.25" spans="1:4">
+    <row r="22" spans="1:4">
       <c r="A22" s="9"/>
-      <c r="B22" s="12">
-        <v>5</v>
+      <c r="B22" s="14">
+        <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" ht="25.5" spans="1:4">
       <c r="A23" s="9"/>
       <c r="B23" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="9"/>
+      <c r="B24" s="14">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" ht="81" spans="1:4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="12">
-        <v>5</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="9"/>
+      <c r="B25" s="14">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" ht="41.25" spans="1:4">
+      <c r="A26" s="9"/>
+      <c r="B26" s="12">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" ht="28.5" spans="1:4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="12">
-        <v>5</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="9"/>
-      <c r="B26" s="14">
-        <v>1</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4">
+    </row>
+    <row r="27" ht="25.5" spans="1:4">
       <c r="A27" s="9"/>
       <c r="B27" s="14">
         <v>2</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" ht="81" spans="1:4">
+      <c r="A28" s="9"/>
+      <c r="B28" s="12">
+        <v>5</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" ht="25.5" spans="1:4">
-      <c r="A28" s="9"/>
-      <c r="B28" s="14">
-        <v>1</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="8"/>
     </row>
     <row r="29" ht="28.5" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="12">
         <v>5</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="8" t="s">
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="9"/>
+      <c r="B30" s="14">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="30" ht="25.5" spans="1:4">
-      <c r="A30" s="9" t="s">
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="9"/>
+      <c r="B31" s="14">
+        <v>2</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="12">
-        <v>2</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" ht="25.5" spans="1:4">
+      <c r="A32" s="9"/>
+      <c r="B32" s="14">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" ht="25.5" spans="1:4">
-      <c r="A31" s="9"/>
-      <c r="B31" s="12">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="9"/>
-      <c r="B32" s="12">
-        <v>2</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" ht="25.5" spans="1:4">
+    <row r="33" ht="28.5" spans="1:4">
       <c r="A33" s="9"/>
       <c r="B33" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" spans="1:4">
+      <c r="A34" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" ht="25.5" spans="1:4">
-      <c r="A34" s="9"/>
       <c r="B34" s="12">
         <v>2</v>
       </c>
@@ -1966,201 +1969,201 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" ht="25.5" spans="1:4">
       <c r="A35" s="9"/>
       <c r="B35" s="12">
-        <v>5</v>
-      </c>
-      <c r="C35" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D35" s="8"/>
-      <c r="F35" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="9"/>
       <c r="B36" s="12">
         <v>2</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" ht="25.5" spans="1:4">
+      <c r="A37" s="9"/>
+      <c r="B37" s="12">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" ht="52.5" spans="1:7">
-      <c r="A37" s="9"/>
-      <c r="B37" s="14">
-        <v>2</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" ht="25.5" spans="1:4">
+      <c r="A38" s="9"/>
+      <c r="B38" s="12">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" ht="25.5" spans="1:7">
-      <c r="A38" s="9"/>
-      <c r="B38" s="14">
-        <v>3</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="D38" s="8"/>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="9"/>
-      <c r="B39" s="14">
-        <v>3</v>
+      <c r="B39" s="12">
+        <v>5</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D39" s="8"/>
-      <c r="F39" s="1">
-        <v>2</v>
-      </c>
-      <c r="G39" t="s">
-        <v>57</v>
+      <c r="F39" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="9"/>
-      <c r="B40" s="14">
-        <v>3</v>
+      <c r="B40" s="12">
+        <v>2</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D40" s="8"/>
-      <c r="F40" s="1">
-        <v>3</v>
-      </c>
-      <c r="G40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+    </row>
+    <row r="41" ht="52.5" spans="1:7">
       <c r="A41" s="9"/>
       <c r="B41" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D41" s="8"/>
-    </row>
-    <row r="42" ht="25.5" spans="1:4">
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" spans="1:7">
       <c r="A42" s="9"/>
       <c r="B42" s="14">
         <v>3</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="9"/>
+      <c r="B43" s="14">
+        <v>3</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="F43" s="1">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" ht="42.75" spans="1:4">
-      <c r="A43" s="9"/>
-      <c r="B43" s="7">
-        <v>5</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" ht="25.5" spans="1:4">
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="9"/>
       <c r="B44" s="14">
         <v>3</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D44" s="8"/>
-    </row>
-    <row r="45" ht="25.5" spans="1:4">
+      <c r="F44" s="1">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="9"/>
       <c r="B45" s="14">
         <v>3</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" ht="25.5" spans="1:4">
+      <c r="A46" s="9"/>
+      <c r="B46" s="14">
+        <v>3</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" ht="84" spans="1:4">
-      <c r="A46" s="9"/>
-      <c r="B46" s="7">
-        <v>5</v>
-      </c>
-      <c r="C46" s="8" t="s">
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" ht="42.75" spans="1:4">
+      <c r="A47" s="9"/>
+      <c r="B47" s="7">
+        <v>5</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D47" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" ht="25.5" spans="1:4">
-      <c r="A47" s="9"/>
-      <c r="B47" s="14">
-        <v>2</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="8"/>
     </row>
     <row r="48" ht="25.5" spans="1:4">
       <c r="A48" s="9"/>
       <c r="B48" s="14">
-        <v>2</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>69</v>
+        <v>3</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" ht="25.5" spans="1:4">
       <c r="A49" s="9"/>
       <c r="B49" s="14">
-        <v>2</v>
-      </c>
-      <c r="C49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" ht="84" spans="1:4">
+      <c r="A50" s="9"/>
+      <c r="B50" s="7">
+        <v>5</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="9"/>
-      <c r="B50" s="14">
-        <v>2</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="8"/>
     </row>
     <row r="51" ht="25.5" spans="1:4">
       <c r="A51" s="9"/>
@@ -2172,7 +2175,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" ht="25.5" spans="1:4">
       <c r="A52" s="9"/>
       <c r="B52" s="14">
         <v>2</v>
@@ -2182,7 +2185,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" ht="25.5" spans="1:4">
+    <row r="53" spans="1:4">
       <c r="A53" s="9"/>
       <c r="B53" s="14">
         <v>2</v>
@@ -2192,7 +2195,7 @@
       </c>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" ht="25.5" spans="1:4">
+    <row r="54" spans="1:4">
       <c r="A54" s="9"/>
       <c r="B54" s="14">
         <v>2</v>
@@ -2205,9 +2208,9 @@
     <row r="55" ht="25.5" spans="1:4">
       <c r="A55" s="9"/>
       <c r="B55" s="14">
-        <v>1</v>
-      </c>
-      <c r="C55" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D55" s="8"/>
@@ -2215,7 +2218,7 @@
     <row r="56" spans="1:4">
       <c r="A56" s="9"/>
       <c r="B56" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>77</v>
@@ -2225,7 +2228,7 @@
     <row r="57" ht="25.5" spans="1:4">
       <c r="A57" s="9"/>
       <c r="B57" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>78</v>
@@ -2235,14 +2238,14 @@
     <row r="58" ht="25.5" spans="1:4">
       <c r="A58" s="9"/>
       <c r="B58" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" ht="25.5" spans="1:4">
+    <row r="59" spans="1:4">
       <c r="A59" s="9"/>
       <c r="B59" s="14">
         <v>1</v>
@@ -2257,7 +2260,7 @@
       <c r="B60" s="14">
         <v>1</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D60" s="8"/>
@@ -2267,243 +2270,243 @@
       <c r="B61" s="14">
         <v>1</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D61" s="8"/>
     </row>
     <row r="62" ht="25.5" spans="1:4">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="9"/>
+      <c r="B62" s="14">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="14">
-        <v>2</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" ht="25.5" spans="1:4">
+      <c r="A63" s="9"/>
+      <c r="B63" s="14">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" ht="41.25" spans="1:4">
-      <c r="A63" s="16"/>
-      <c r="B63" s="7">
-        <v>5</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" ht="25.5" spans="1:4">
+      <c r="A64" s="9"/>
+      <c r="B64" s="14">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" ht="54" spans="1:4">
-      <c r="A64" s="16"/>
-      <c r="B64" s="7">
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" ht="25.5" spans="1:4">
+      <c r="A65" s="9"/>
+      <c r="B65" s="14">
+        <v>1</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="9"/>
+      <c r="B66" s="14">
+        <v>1</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" ht="25.5" spans="1:4">
+      <c r="A67" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="14">
+        <v>2</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" ht="41.25" spans="1:4">
+      <c r="A68" s="16"/>
+      <c r="B68" s="7">
+        <v>5</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" ht="54" spans="1:4">
+      <c r="A69" s="16"/>
+      <c r="B69" s="7">
         <v>6</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25" spans="1:4">
-      <c r="A65" s="16"/>
-      <c r="B65" s="18">
-        <v>5</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" ht="28.5" spans="1:4">
-      <c r="A66" s="16"/>
-      <c r="B66" s="18">
-        <v>5</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" s="8" t="s">
+      <c r="C69" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="67" ht="25.5" spans="1:4">
-      <c r="A67" s="16"/>
-      <c r="B67" s="18">
+      <c r="D69" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" spans="1:4">
+      <c r="A70" s="16"/>
+      <c r="B70" s="17">
+        <v>5</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" ht="28.5" spans="1:4">
+      <c r="A71" s="16"/>
+      <c r="B71" s="17">
+        <v>5</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" spans="1:4">
+      <c r="A72" s="16"/>
+      <c r="B72" s="17">
         <v>1</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" s="8"/>
-    </row>
-    <row r="68" ht="96.75" spans="1:4">
-      <c r="A68" s="16"/>
-      <c r="B68" s="18">
-        <v>5</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" ht="96.75" spans="1:4">
-      <c r="A69" s="16"/>
-      <c r="B69" s="18">
-        <v>5</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" ht="55.5" spans="1:4">
-      <c r="A70" s="16"/>
-      <c r="B70" s="18">
-        <v>5</v>
-      </c>
-      <c r="C70" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" ht="96.75" spans="1:4">
+      <c r="A73" s="16"/>
+      <c r="B73" s="17">
+        <v>5</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="71" ht="111" spans="1:4">
-      <c r="A71" s="16"/>
-      <c r="B71" s="18">
-        <v>5</v>
-      </c>
-      <c r="C71" s="8" t="s">
+      <c r="D73" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D71" s="8" t="s">
+    </row>
+    <row r="74" ht="96.75" spans="1:4">
+      <c r="A74" s="16"/>
+      <c r="B74" s="17">
+        <v>5</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="16"/>
-      <c r="B72" s="18">
-        <v>5</v>
-      </c>
-      <c r="C72" s="8" t="s">
+      <c r="D74" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73" ht="27" spans="1:4">
-      <c r="A73" s="16"/>
-      <c r="B73" s="18">
-        <v>5</v>
-      </c>
-      <c r="C73" s="8" t="s">
+    </row>
+    <row r="75" ht="55.5" spans="1:4">
+      <c r="A75" s="16"/>
+      <c r="B75" s="17">
+        <v>5</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74" ht="41.25" spans="1:4">
-      <c r="A74" s="16"/>
-      <c r="B74" s="18">
-        <v>5</v>
-      </c>
-      <c r="C74" s="8" t="s">
+      <c r="D75" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D74" s="8" t="s">
+    </row>
+    <row r="76" ht="111" spans="1:4">
+      <c r="A76" s="16"/>
+      <c r="B76" s="17">
+        <v>5</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="16"/>
-      <c r="B75" s="18">
-        <v>2</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="D76" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" ht="25.5" spans="1:4">
-      <c r="A76" s="16"/>
-      <c r="B76" s="18">
-        <v>2</v>
-      </c>
-      <c r="C76" s="2" t="s">
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="16"/>
+      <c r="B77" s="17">
+        <v>5</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77" ht="25.5" spans="1:4">
-      <c r="A77" s="16"/>
-      <c r="B77" s="18">
-        <v>2</v>
-      </c>
-      <c r="C77" s="10" t="s">
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" ht="27" spans="1:4">
+      <c r="A78" s="16"/>
+      <c r="B78" s="17">
+        <v>5</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="16"/>
-      <c r="B78" s="18">
-        <v>2</v>
-      </c>
-      <c r="C78" s="10" t="s">
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" ht="41.25" spans="1:4">
+      <c r="A79" s="16"/>
+      <c r="B79" s="17">
+        <v>5</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" ht="25.5" spans="1:4">
-      <c r="A79" s="16"/>
-      <c r="B79" s="18">
-        <v>2</v>
-      </c>
-      <c r="C79" s="10" t="s">
+      <c r="D79" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D79" s="8"/>
-    </row>
-    <row r="80" ht="27" spans="1:4">
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="16"/>
-      <c r="B80" s="18">
-        <v>1</v>
-      </c>
-      <c r="C80" s="10" t="s">
+      <c r="B80" s="17">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
         <v>110</v>
       </c>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" ht="27" spans="1:4">
+    <row r="81" ht="25.5" spans="1:4">
       <c r="A81" s="16"/>
-      <c r="B81" s="18">
-        <v>2</v>
-      </c>
-      <c r="C81" s="10" t="s">
+      <c r="B81" s="17">
+        <v>2</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D81" s="8"/>
     </row>
     <row r="82" ht="25.5" spans="1:4">
       <c r="A82" s="16"/>
-      <c r="B82" s="19">
-        <v>3</v>
+      <c r="B82" s="17">
+        <v>2</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>112</v>
       </c>
       <c r="D82" s="8"/>
     </row>
-    <row r="83" ht="25.5" spans="1:4">
+    <row r="83" spans="1:4">
       <c r="A83" s="16"/>
-      <c r="B83" s="18">
-        <v>1</v>
+      <c r="B83" s="17">
+        <v>2</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>113</v>
@@ -2512,8 +2515,8 @@
     </row>
     <row r="84" ht="25.5" spans="1:4">
       <c r="A84" s="16"/>
-      <c r="B84" s="18">
-        <v>1</v>
+      <c r="B84" s="17">
+        <v>2</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>114</v>
@@ -2522,7 +2525,7 @@
     </row>
     <row r="85" ht="27" spans="1:4">
       <c r="A85" s="16"/>
-      <c r="B85" s="18">
+      <c r="B85" s="17">
         <v>1</v>
       </c>
       <c r="C85" s="10" t="s">
@@ -2532,99 +2535,150 @@
     </row>
     <row r="86" ht="27" spans="1:4">
       <c r="A86" s="16"/>
-      <c r="B86" s="18">
-        <v>1</v>
+      <c r="B86" s="17">
+        <v>2</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>116</v>
       </c>
       <c r="D86" s="8"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" ht="25.5" spans="1:4">
       <c r="A87" s="16"/>
       <c r="B87" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D87" s="8"/>
     </row>
-    <row r="88" ht="69.75" spans="1:4">
+    <row r="88" ht="25.5" spans="1:4">
       <c r="A88" s="16"/>
-      <c r="B88" s="18">
-        <v>5</v>
+      <c r="B88" s="17">
+        <v>1</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D88" s="8" t="s">
-        <v>119</v>
-      </c>
+      <c r="D88" s="8"/>
     </row>
     <row r="89" ht="25.5" spans="1:4">
       <c r="A89" s="16"/>
-      <c r="B89" s="20">
-        <v>3</v>
+      <c r="B89" s="17">
+        <v>1</v>
       </c>
       <c r="C89" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" ht="27" spans="1:4">
+      <c r="A90" s="16"/>
+      <c r="B90" s="17">
+        <v>1</v>
+      </c>
+      <c r="C90" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D89" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" ht="55.5" spans="1:4">
-      <c r="A90" s="16"/>
-      <c r="B90" s="18">
-        <v>5</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>123</v>
-      </c>
+      <c r="D90" s="8"/>
     </row>
     <row r="91" ht="27" spans="1:4">
       <c r="A91" s="16"/>
-      <c r="B91" s="18">
-        <v>2</v>
-      </c>
-      <c r="C91" s="21" t="s">
+      <c r="B91" s="17">
+        <v>1</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="16"/>
+      <c r="B92" s="17">
+        <v>1</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D92" s="8"/>
+    </row>
+    <row r="93" ht="69.75" spans="1:4">
+      <c r="A93" s="16"/>
+      <c r="B93" s="17">
+        <v>5</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D93" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D91" s="8"/>
-    </row>
-    <row r="92" ht="123.75" spans="1:4">
-      <c r="A92" s="22"/>
-      <c r="B92" s="18">
-        <v>5</v>
-      </c>
-      <c r="C92" s="8" t="s">
+    </row>
+    <row r="94" ht="25.5" spans="1:4">
+      <c r="A94" s="16"/>
+      <c r="B94" s="19">
+        <v>3</v>
+      </c>
+      <c r="C94" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D94" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="23" t="s">
+    <row r="95" ht="55.5" spans="1:4">
+      <c r="A95" s="16"/>
+      <c r="B95" s="17">
+        <v>5</v>
+      </c>
+      <c r="C95" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B93" s="23"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
+      <c r="D95" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" ht="27" spans="1:4">
+      <c r="A96" s="16"/>
+      <c r="B96" s="17">
+        <v>2</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" ht="123.75" spans="1:4">
+      <c r="A97" s="21"/>
+      <c r="B97" s="17">
+        <v>5</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" s="22"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A29"/>
-    <mergeCell ref="A30:A61"/>
-    <mergeCell ref="A62:A92"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A33"/>
+    <mergeCell ref="A34:A66"/>
+    <mergeCell ref="A67:A97"/>
   </mergeCells>
-  <conditionalFormatting sqref="B56:B1048576 B1:B54 B55">
+  <conditionalFormatting sqref="B5:B1048576 B1:B3 B4">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14820" windowHeight="9990"/>
+    <workbookView windowWidth="27720" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
   <si>
     <t>Scope</t>
   </si>
@@ -116,6 +116,9 @@
     <t>Densely Connected Convolutional Networks</t>
   </si>
   <si>
+    <t>每一层的输入是前面所有层输出的concat, 构成了DenselyConnected, 这样增强了feature  reuse, 因此能够用较少的参数(1/3 resnet)达到同样的精度, 同时这样的设计也很利于优化及减轻过拟合</t>
+  </si>
+  <si>
     <t>CondenseNet: An Efficient DenseNet using Learned Group Convolutions</t>
   </si>
   <si>
@@ -154,6 +157,9 @@
   </si>
   <si>
     <t>ShuffleNet: An Extremely Efficient Convolutional Neural Network for Mobile Devices</t>
+  </si>
+  <si>
+    <t>1x1 卷积在轻量化的架构中的计算量是很大的, 因此可以用Group-conv1x1来代替, 同时, 为了使得channel之间充分融合, 加入了channel shuffle的方式. Group越多, shuffle 的作用越明显.</t>
   </si>
   <si>
     <t>ShuffleNet V2: Practical Guidelines for Efficient CNN Architecture Design</t>
@@ -270,6 +276,9 @@
   </si>
   <si>
     <t>Light-Head R-CNN: In Defense of Two-Stage Object Detector</t>
+  </si>
+  <si>
+    <t>在 faster-rcnn和r-fcn之间取了一个平衡点, (ps)roi-pooling前后都不"重", 因此在速度和准确率上取得了一个平衡; 490channle的pre-psroipooling feature map其实有点rfcn-3000的super-class的感觉</t>
   </si>
   <si>
     <t>Relation Networks for Object Detection</t>
@@ -448,10 +457,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -496,16 +505,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,11 +529,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -534,8 +558,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -550,15 +604,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,31 +628,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,32 +642,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,25 +682,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,139 +850,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,15 +946,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -961,17 +961,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -997,16 +1006,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,148 +1024,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,8 +1260,8 @@
     <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
     <cellStyle name="Accent2" xfId="17" builtinId="33"/>
     <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
     <cellStyle name="Neutral" xfId="21" builtinId="28"/>
     <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
@@ -1268,19 +1277,19 @@
     <cellStyle name="Good" xfId="33" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
     <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1325,6 +1334,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1580,19 +1594,18 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1619,7 +1632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" ht="13.5" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1631,7 +1644,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" ht="14.25" spans="1:4">
+    <row r="3" ht="13.5" spans="1:4">
       <c r="A3" s="9"/>
       <c r="B3" s="7">
         <v>5</v>
@@ -1649,7 +1662,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" ht="13.5" spans="1:4">
       <c r="A5" s="9"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
@@ -1669,7 +1682,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" ht="27" spans="1:4">
+    <row r="7" ht="26.25" spans="1:4">
       <c r="A7" s="9"/>
       <c r="B7" s="7">
         <v>2</v>
@@ -1689,7 +1702,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" ht="39.75" spans="1:4">
+    <row r="9" ht="39" spans="1:4">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1703,7 +1716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
+    <row r="10" ht="13.5" spans="1:4">
       <c r="A10" s="9"/>
       <c r="B10" s="11">
         <v>5</v>
@@ -1735,7 +1748,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" ht="54" spans="1:4">
+    <row r="13" ht="52.5" spans="1:4">
       <c r="A13" s="9"/>
       <c r="B13" s="14">
         <v>2</v>
@@ -1757,7 +1770,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" ht="28.5" spans="1:4">
+    <row r="15" ht="27" spans="1:4">
       <c r="A15" s="9"/>
       <c r="B15" s="12">
         <v>5</v>
@@ -1809,7 +1822,7 @@
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" ht="14.25" spans="1:4">
+    <row r="20" ht="13.5" spans="1:4">
       <c r="A20" s="9"/>
       <c r="B20" s="14">
         <v>2</v>
@@ -1829,15 +1842,17 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" ht="40.5" spans="1:4">
       <c r="A22" s="9"/>
-      <c r="B22" s="14">
-        <v>1</v>
+      <c r="B22" s="12">
+        <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" ht="25.5" spans="1:4">
       <c r="A23" s="9"/>
@@ -1845,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" s="8"/>
     </row>
@@ -1855,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="8"/>
     </row>
@@ -1865,20 +1880,20 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" ht="41.25" spans="1:4">
+    <row r="26" ht="39.75" spans="1:4">
       <c r="A26" s="9"/>
       <c r="B26" s="12">
         <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="25.5" spans="1:4">
@@ -1887,32 +1902,32 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" ht="81" spans="1:4">
+    <row r="28" ht="78.75" spans="1:4">
       <c r="A28" s="9"/>
       <c r="B28" s="12">
         <v>5</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" ht="28.5" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" ht="27" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="12">
         <v>5</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1921,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30" s="8"/>
     </row>
@@ -1931,41 +1946,43 @@
         <v>2</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" ht="25.5" spans="1:4">
+    <row r="32" ht="27" spans="1:4">
       <c r="A32" s="9"/>
-      <c r="B32" s="14">
-        <v>1</v>
+      <c r="B32" s="12">
+        <v>5</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" ht="28.5" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" ht="27" spans="1:4">
       <c r="A33" s="9"/>
       <c r="B33" s="12">
         <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" ht="25.5" spans="1:4">
       <c r="A34" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B34" s="12">
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D34" s="8"/>
     </row>
@@ -1975,7 +1992,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D35" s="8"/>
     </row>
@@ -1985,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D36" s="8"/>
     </row>
@@ -1995,7 +2012,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D37" s="8"/>
     </row>
@@ -2005,7 +2022,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D38" s="8"/>
     </row>
@@ -2015,14 +2032,14 @@
         <v>5</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D39" s="8"/>
       <c r="F39" s="15" t="s">
         <v>1</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2031,26 +2048,26 @@
         <v>2</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D40" s="8"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" ht="52.5" spans="1:7">
+    <row r="41" ht="51.75" spans="1:7">
       <c r="A41" s="9"/>
       <c r="B41" s="14">
         <v>2</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D41" s="8"/>
       <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" ht="25.5" spans="1:7">
@@ -2059,14 +2076,14 @@
         <v>3</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D42" s="8"/>
       <c r="F42" s="1">
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2075,14 +2092,14 @@
         <v>3</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D43" s="8"/>
       <c r="F43" s="1">
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2091,14 +2108,14 @@
         <v>3</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D44" s="8"/>
       <c r="F44" s="1">
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2107,7 +2124,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D45" s="8"/>
     </row>
@@ -2117,20 +2134,20 @@
         <v>3</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" ht="42.75" spans="1:4">
+    <row r="47" ht="40.5" spans="1:4">
       <c r="A47" s="9"/>
       <c r="B47" s="7">
         <v>5</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" ht="25.5" spans="1:4">
@@ -2139,7 +2156,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D48" s="8"/>
     </row>
@@ -2149,20 +2166,20 @@
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" ht="84" spans="1:4">
+    <row r="50" ht="80.25" spans="1:4">
       <c r="A50" s="9"/>
       <c r="B50" s="7">
         <v>5</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" ht="25.5" spans="1:4">
@@ -2171,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D51" s="8"/>
     </row>
@@ -2181,7 +2198,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D52" s="8"/>
     </row>
@@ -2191,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D53" s="8"/>
     </row>
@@ -2201,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D54" s="8"/>
     </row>
@@ -2211,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D55" s="8"/>
     </row>
@@ -2221,7 +2238,7 @@
         <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D56" s="8"/>
     </row>
@@ -2231,7 +2248,7 @@
         <v>2</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D57" s="8"/>
     </row>
@@ -2241,7 +2258,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D58" s="8"/>
     </row>
@@ -2251,19 +2268,21 @@
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" ht="25.5" spans="1:4">
+    <row r="60" ht="40.5" spans="1:4">
       <c r="A60" s="9"/>
-      <c r="B60" s="14">
-        <v>1</v>
+      <c r="B60" s="7">
+        <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D60" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="9"/>
@@ -2271,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D61" s="8"/>
     </row>
@@ -2281,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D62" s="8"/>
     </row>
@@ -2291,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D63" s="8"/>
     </row>
@@ -2301,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D64" s="8"/>
     </row>
@@ -2311,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D65" s="8"/>
     </row>
@@ -2321,66 +2340,66 @@
         <v>1</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D66" s="8"/>
     </row>
     <row r="67" ht="25.5" spans="1:4">
       <c r="A67" s="16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B67" s="14">
         <v>2</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D67" s="8"/>
     </row>
-    <row r="68" ht="41.25" spans="1:4">
+    <row r="68" ht="39.75" spans="1:4">
       <c r="A68" s="16"/>
       <c r="B68" s="7">
         <v>5</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D68" s="8"/>
     </row>
-    <row r="69" ht="54" spans="1:4">
+    <row r="69" ht="52.5" spans="1:4">
       <c r="A69" s="16"/>
       <c r="B69" s="7">
         <v>6</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" spans="1:4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" ht="13.5" spans="1:4">
       <c r="A70" s="16"/>
       <c r="B70" s="17">
         <v>5</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" ht="28.5" spans="1:4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" ht="27" spans="1:4">
       <c r="A71" s="16"/>
       <c r="B71" s="17">
         <v>5</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" ht="25.5" spans="1:4">
@@ -2389,56 +2408,56 @@
         <v>1</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D72" s="8"/>
     </row>
-    <row r="73" ht="96.75" spans="1:4">
+    <row r="73" ht="93" spans="1:4">
       <c r="A73" s="16"/>
       <c r="B73" s="17">
         <v>5</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" ht="96.75" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" ht="93" spans="1:4">
       <c r="A74" s="16"/>
       <c r="B74" s="17">
         <v>5</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" ht="55.5" spans="1:4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" ht="53.25" spans="1:4">
       <c r="A75" s="16"/>
       <c r="B75" s="17">
         <v>5</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" ht="111" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" ht="106.5" spans="1:4">
       <c r="A76" s="16"/>
       <c r="B76" s="17">
         <v>5</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2447,30 +2466,30 @@
         <v>5</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" ht="27" spans="1:4">
+    <row r="78" ht="26.25" spans="1:4">
       <c r="A78" s="16"/>
       <c r="B78" s="17">
         <v>5</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" ht="41.25" spans="1:4">
+    <row r="79" ht="39.75" spans="1:4">
       <c r="A79" s="16"/>
       <c r="B79" s="17">
         <v>5</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2479,7 +2498,7 @@
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D80" s="8"/>
     </row>
@@ -2489,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D81" s="8"/>
     </row>
@@ -2499,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D82" s="8"/>
     </row>
@@ -2509,7 +2528,7 @@
         <v>2</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D83" s="8"/>
     </row>
@@ -2519,27 +2538,27 @@
         <v>2</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D84" s="8"/>
     </row>
-    <row r="85" ht="27" spans="1:4">
+    <row r="85" ht="26.25" spans="1:4">
       <c r="A85" s="16"/>
       <c r="B85" s="17">
         <v>1</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D85" s="8"/>
     </row>
-    <row r="86" ht="27" spans="1:4">
+    <row r="86" ht="26.25" spans="1:4">
       <c r="A86" s="16"/>
       <c r="B86" s="17">
         <v>2</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D86" s="8"/>
     </row>
@@ -2549,7 +2568,7 @@
         <v>3</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D87" s="8"/>
     </row>
@@ -2559,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D88" s="8"/>
     </row>
@@ -2569,27 +2588,27 @@
         <v>1</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D89" s="8"/>
     </row>
-    <row r="90" ht="27" spans="1:4">
+    <row r="90" ht="26.25" spans="1:4">
       <c r="A90" s="16"/>
       <c r="B90" s="17">
         <v>1</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D90" s="8"/>
     </row>
-    <row r="91" ht="27" spans="1:4">
+    <row r="91" ht="26.25" spans="1:4">
       <c r="A91" s="16"/>
       <c r="B91" s="17">
         <v>1</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D91" s="8"/>
     </row>
@@ -2599,20 +2618,20 @@
         <v>1</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D92" s="8"/>
     </row>
-    <row r="93" ht="69.75" spans="1:4">
+    <row r="93" ht="66.75" spans="1:4">
       <c r="A93" s="16"/>
       <c r="B93" s="17">
         <v>5</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" ht="25.5" spans="1:4">
@@ -2621,49 +2640,49 @@
         <v>3</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" ht="55.5" spans="1:4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" ht="53.25" spans="1:4">
       <c r="A95" s="16"/>
       <c r="B95" s="17">
         <v>5</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" ht="27" spans="1:4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" ht="28.5" spans="1:4">
       <c r="A96" s="16"/>
       <c r="B96" s="17">
         <v>2</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D96" s="8"/>
     </row>
-    <row r="97" ht="123.75" spans="1:4">
+    <row r="97" ht="119.25" spans="1:4">
       <c r="A97" s="21"/>
       <c r="B97" s="17">
         <v>5</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="22" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B98" s="22"/>
       <c r="C98" s="10"/>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13140"/>
+    <workbookView windowWidth="15120" windowHeight="25890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
   <si>
     <t>Scope</t>
   </si>
@@ -110,6 +110,12 @@
     <t>Deep Sparse Rectifier Neural Networks(提出ReLU)</t>
   </si>
   <si>
+    <t>In-Place Activated BatchNorm for Memory-Optimized Training of DNNs</t>
+  </si>
+  <si>
+    <t>Two at Once: Enhancing Learning and Generalizaion Capacities via IBN-Net</t>
+  </si>
+  <si>
     <t>Gather-Excite: Exploiting feature Context in Convolutional Neural Networks</t>
   </si>
   <si>
@@ -270,6 +276,9 @@
   </si>
   <si>
     <t xml:space="preserve">Accurate Single Stage Detector Using Recurrent Rolling Convolution </t>
+  </si>
+  <si>
+    <t>Recent Advance in Object Detection in the Age of Deep Convolutional Neural Networks</t>
   </si>
   <si>
     <t>Deep Learning for Generic Object Detection: A Survey</t>
@@ -393,7 +402,13 @@
     <t>Optimizing intersection-over-union in deep neural networks for image segmentation</t>
   </si>
   <si>
-    <t>Multinet: Realtime joint semantic reasoning for autonomous driving（检测， 语意分割融合的多任务模型）</t>
+    <t>Segmentation of Drivable Road Using Deep Fully Convolutional Residual Network with Pyramid Pooling</t>
+  </si>
+  <si>
+    <t>PSANet_pointwise spatial attention network for scene parsing</t>
+  </si>
+  <si>
+    <t>Deep fully convolutional networks with random data augmentation for enhanced generalization in road detection</t>
   </si>
   <si>
     <t>End-to-end ego lane estimation based on sequential transfer learning for self-driving cars(着重在训练方法)</t>
@@ -449,7 +464,13 @@
 这篇文章的思路比较像SE-net, 但是encoder的计算方法比较新, 文章中的测试效果也比se-net要好一些</t>
   </si>
   <si>
-    <t>量化</t>
+    <t>joint segmentation and detection</t>
+  </si>
+  <si>
+    <t>Multinet: Realtime joint semantic reasoning for autonomous driving（检测， 语意分割融合的多任务模型）</t>
+  </si>
+  <si>
+    <t>Fast Scene Understanding for Autonomous Driving</t>
   </si>
 </sst>
 </file>
@@ -457,9 +478,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -505,33 +526,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,10 +541,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,6 +590,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,29 +618,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -613,18 +627,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -642,6 +655,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -682,6 +703,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -694,169 +727,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,6 +982,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -987,6 +1023,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -995,181 +1040,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1237,6 +1258,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1260,8 +1284,8 @@
     <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
     <cellStyle name="Accent2" xfId="17" builtinId="33"/>
     <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
     <cellStyle name="Neutral" xfId="21" builtinId="28"/>
     <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
@@ -1277,19 +1301,19 @@
     <cellStyle name="Good" xfId="33" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
     <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1334,11 +1358,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1594,18 +1613,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1632,7 +1652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:4">
+    <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1644,7 +1664,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" ht="13.5" spans="1:4">
+    <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="9"/>
       <c r="B3" s="7">
         <v>5</v>
@@ -1662,7 +1682,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" ht="13.5" spans="1:4">
+    <row r="5" ht="14.25" spans="1:4">
       <c r="A5" s="9"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
@@ -1682,7 +1702,7 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" ht="26.25" spans="1:4">
+    <row r="7" ht="27" spans="1:4">
       <c r="A7" s="9"/>
       <c r="B7" s="7">
         <v>2</v>
@@ -1702,7 +1722,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" ht="39" spans="1:4">
+    <row r="9" ht="39.75" spans="1:4">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1716,7 +1736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="13.5" spans="1:4">
+    <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="9"/>
       <c r="B10" s="11">
         <v>5</v>
@@ -1748,7 +1768,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" ht="52.5" spans="1:4">
+    <row r="13" ht="54" spans="1:4">
       <c r="A13" s="9"/>
       <c r="B13" s="14">
         <v>2</v>
@@ -1770,7 +1790,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" ht="27" spans="1:4">
+    <row r="15" ht="28.5" spans="1:4">
       <c r="A15" s="9"/>
       <c r="B15" s="12">
         <v>5</v>
@@ -1822,7 +1842,7 @@
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" ht="13.5" spans="1:4">
+    <row r="20" ht="14.25" spans="1:4">
       <c r="A20" s="9"/>
       <c r="B20" s="14">
         <v>2</v>
@@ -1842,17 +1862,15 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" ht="40.5" spans="1:4">
+    <row r="22" ht="25.5" spans="1:4">
       <c r="A22" s="9"/>
-      <c r="B22" s="12">
-        <v>5</v>
+      <c r="B22" s="14">
+        <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" ht="25.5" spans="1:4">
       <c r="A23" s="9"/>
@@ -1860,144 +1878,146 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" ht="42.75" spans="1:4">
+      <c r="A24" s="9"/>
+      <c r="B24" s="12">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="14">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4">
+    </row>
+    <row r="25" ht="25.5" spans="1:4">
       <c r="A25" s="9"/>
       <c r="B25" s="14">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" ht="39.75" spans="1:4">
+    <row r="26" spans="1:4">
       <c r="A26" s="9"/>
-      <c r="B26" s="12">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="14">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" ht="25.5" spans="1:4">
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="9"/>
       <c r="B27" s="14">
         <v>2</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>38</v>
+      <c r="C27" t="s">
+        <v>37</v>
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" ht="78.75" spans="1:4">
+    <row r="28" ht="41.25" spans="1:4">
       <c r="A28" s="9"/>
       <c r="B28" s="12">
         <v>5</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="8" t="s">
+    </row>
+    <row r="29" ht="25.5" spans="1:4">
+      <c r="A29" s="9"/>
+      <c r="B29" s="14">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" ht="27" spans="1:4">
-      <c r="A29" s="9"/>
-      <c r="B29" s="12">
-        <v>5</v>
-      </c>
-      <c r="C29" s="10" t="s">
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" ht="81" spans="1:4">
+      <c r="A30" s="9"/>
+      <c r="B30" s="12">
+        <v>5</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="9"/>
-      <c r="B30" s="14">
+    <row r="31" ht="28.5" spans="1:4">
+      <c r="A31" s="9"/>
+      <c r="B31" s="12">
+        <v>5</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="9"/>
+      <c r="B32" s="14">
         <v>1</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="9"/>
-      <c r="B31" s="14">
-        <v>2</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" ht="27" spans="1:4">
-      <c r="A32" s="9"/>
-      <c r="B32" s="12">
-        <v>5</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="9"/>
+      <c r="B33" s="14">
+        <v>2</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" ht="27" spans="1:4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="12">
-        <v>5</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" ht="28.5" spans="1:4">
+      <c r="A34" s="9"/>
+      <c r="B34" s="12">
+        <v>5</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" ht="25.5" spans="1:4">
-      <c r="A34" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="12">
-        <v>2</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" ht="25.5" spans="1:4">
+    <row r="35" ht="28.5" spans="1:4">
       <c r="A35" s="9"/>
       <c r="B35" s="12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" spans="1:4">
+      <c r="A36" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="9"/>
       <c r="B36" s="12">
         <v>2</v>
       </c>
@@ -2016,7 +2036,7 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" ht="25.5" spans="1:4">
+    <row r="38" spans="1:4">
       <c r="A38" s="9"/>
       <c r="B38" s="12">
         <v>2</v>
@@ -2026,129 +2046,127 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" ht="25.5" spans="1:4">
       <c r="A39" s="9"/>
       <c r="B39" s="12">
-        <v>5</v>
-      </c>
-      <c r="C39" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D39" s="8"/>
-      <c r="F39" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+    </row>
+    <row r="40" ht="25.5" spans="1:4">
       <c r="A40" s="9"/>
       <c r="B40" s="12">
         <v>2</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="9"/>
+      <c r="B41" s="12">
+        <v>5</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-    </row>
-    <row r="41" ht="51.75" spans="1:7">
-      <c r="A41" s="9"/>
-      <c r="B41" s="14">
-        <v>2</v>
-      </c>
-      <c r="C41" s="8" t="s">
+      <c r="D41" s="8"/>
+      <c r="F41" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="9"/>
+      <c r="B42" s="12">
+        <v>2</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="42" ht="25.5" spans="1:7">
-      <c r="A42" s="9"/>
-      <c r="B42" s="14">
-        <v>3</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="D42" s="8"/>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+    </row>
+    <row r="43" ht="52.5" spans="1:7">
       <c r="A43" s="9"/>
       <c r="B43" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" s="8"/>
       <c r="F43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" spans="1:7">
       <c r="A44" s="9"/>
       <c r="B44" s="14">
         <v>3</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D44" s="8"/>
       <c r="F44" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="9"/>
       <c r="B45" s="14">
         <v>3</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D45" s="8"/>
-    </row>
-    <row r="46" ht="25.5" spans="1:4">
+      <c r="F45" s="1">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="9"/>
       <c r="B46" s="14">
         <v>3</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="F46" s="1">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" ht="40.5" spans="1:4">
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="9"/>
-      <c r="B47" s="7">
-        <v>5</v>
+      <c r="B47" s="14">
+        <v>3</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" ht="25.5" spans="1:4">
       <c r="A48" s="9"/>
@@ -2156,53 +2174,55 @@
         <v>3</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" ht="42.75" spans="1:4">
+      <c r="A49" s="9"/>
+      <c r="B49" s="7">
+        <v>5</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" ht="25.5" spans="1:4">
-      <c r="A49" s="9"/>
-      <c r="B49" s="14">
+      <c r="D49" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" ht="25.5" spans="1:4">
+      <c r="A50" s="9"/>
+      <c r="B50" s="14">
         <v>3</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" ht="80.25" spans="1:4">
-      <c r="A50" s="9"/>
-      <c r="B50" s="7">
-        <v>5</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" ht="25.5" spans="1:4">
       <c r="A51" s="9"/>
       <c r="B51" s="14">
-        <v>2</v>
-      </c>
-      <c r="C51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" ht="84" spans="1:4">
+      <c r="A52" s="9"/>
+      <c r="B52" s="7">
+        <v>5</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" ht="25.5" spans="1:4">
-      <c r="A52" s="9"/>
-      <c r="B52" s="14">
-        <v>2</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:4">
+    </row>
+    <row r="53" ht="25.5" spans="1:4">
       <c r="A53" s="9"/>
       <c r="B53" s="14">
         <v>2</v>
@@ -2212,7 +2232,7 @@
       </c>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" ht="25.5" spans="1:4">
       <c r="A54" s="9"/>
       <c r="B54" s="14">
         <v>2</v>
@@ -2222,7 +2242,7 @@
       </c>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" ht="25.5" spans="1:4">
+    <row r="55" spans="1:4">
       <c r="A55" s="9"/>
       <c r="B55" s="14">
         <v>2</v>
@@ -2252,7 +2272,7 @@
       </c>
       <c r="D57" s="8"/>
     </row>
-    <row r="58" ht="25.5" spans="1:4">
+    <row r="58" spans="1:4">
       <c r="A58" s="9"/>
       <c r="B58" s="14">
         <v>2</v>
@@ -2262,59 +2282,59 @@
       </c>
       <c r="D58" s="8"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" ht="25.5" spans="1:4">
       <c r="A59" s="9"/>
       <c r="B59" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" ht="40.5" spans="1:4">
+    <row r="60" ht="25.5" spans="1:4">
       <c r="A60" s="9"/>
-      <c r="B60" s="7">
-        <v>5</v>
+      <c r="B60" s="14">
+        <v>2</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" ht="25.5" spans="1:4">
       <c r="A61" s="9"/>
       <c r="B61" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D61" s="8"/>
     </row>
-    <row r="62" ht="25.5" spans="1:4">
+    <row r="62" spans="1:4">
       <c r="A62" s="9"/>
       <c r="B62" s="14">
         <v>1</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" ht="42.75" spans="1:4">
+      <c r="A63" s="9"/>
+      <c r="B63" s="7">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" ht="25.5" spans="1:4">
-      <c r="A63" s="9"/>
-      <c r="B63" s="14">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" ht="25.5" spans="1:4">
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="9"/>
       <c r="B64" s="14">
         <v>1</v>
@@ -2329,205 +2349,205 @@
       <c r="B65" s="14">
         <v>1</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D65" s="8"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" ht="25.5" spans="1:4">
       <c r="A66" s="9"/>
       <c r="B66" s="14">
         <v>1</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D66" s="8"/>
     </row>
     <row r="67" ht="25.5" spans="1:4">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="9"/>
+      <c r="B67" s="14">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="14">
-        <v>2</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" ht="25.5" spans="1:4">
+      <c r="A68" s="9"/>
+      <c r="B68" s="14">
+        <v>1</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="8"/>
-    </row>
-    <row r="68" ht="39.75" spans="1:4">
-      <c r="A68" s="16"/>
-      <c r="B68" s="7">
-        <v>5</v>
-      </c>
-      <c r="C68" s="8" t="s">
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="9"/>
+      <c r="B69" s="14">
+        <v>1</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" ht="52.5" spans="1:4">
-      <c r="A69" s="16"/>
-      <c r="B69" s="7">
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" ht="25.5" spans="1:4">
+      <c r="A70" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="14">
+        <v>2</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" ht="41.25" spans="1:4">
+      <c r="A71" s="16"/>
+      <c r="B71" s="7">
+        <v>5</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" ht="54" spans="1:4">
+      <c r="A72" s="16"/>
+      <c r="B72" s="7">
         <v>6</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" ht="13.5" spans="1:4">
-      <c r="A70" s="16"/>
-      <c r="B70" s="17">
-        <v>5</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="71" ht="27" spans="1:4">
-      <c r="A71" s="16"/>
-      <c r="B71" s="17">
-        <v>5</v>
-      </c>
-      <c r="C71" s="8" t="s">
+      <c r="D72" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" ht="25.5" spans="1:4">
-      <c r="A72" s="16"/>
-      <c r="B72" s="17">
-        <v>1</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73" ht="93" spans="1:4">
+    </row>
+    <row r="73" ht="14.25" spans="1:4">
       <c r="A73" s="16"/>
       <c r="B73" s="17">
         <v>5</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" ht="93" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" ht="28.5" spans="1:4">
       <c r="A74" s="16"/>
       <c r="B74" s="17">
         <v>5</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" ht="53.25" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" ht="25.5" spans="1:4">
       <c r="A75" s="16"/>
       <c r="B75" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" ht="106.5" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" ht="96.75" spans="1:4">
       <c r="A76" s="16"/>
       <c r="B76" s="17">
         <v>5</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" ht="96.75" spans="1:4">
       <c r="A77" s="16"/>
       <c r="B77" s="17">
         <v>5</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" ht="26.25" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" ht="55.5" spans="1:4">
       <c r="A78" s="16"/>
       <c r="B78" s="17">
         <v>5</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" ht="39.75" spans="1:4">
+        <v>108</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" ht="111" spans="1:4">
       <c r="A79" s="16"/>
       <c r="B79" s="17">
         <v>5</v>
       </c>
       <c r="C79" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="16"/>
       <c r="B80" s="17">
-        <v>2</v>
-      </c>
-      <c r="C80" t="s">
-        <v>113</v>
+        <v>5</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="D80" s="8"/>
     </row>
-    <row r="81" ht="25.5" spans="1:4">
+    <row r="81" ht="27" spans="1:4">
       <c r="A81" s="16"/>
       <c r="B81" s="17">
-        <v>2</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>114</v>
+        <v>5</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="D81" s="8"/>
     </row>
-    <row r="82" ht="25.5" spans="1:4">
+    <row r="82" ht="41.25" spans="1:4">
       <c r="A82" s="16"/>
       <c r="B82" s="17">
-        <v>2</v>
-      </c>
-      <c r="C82" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D82" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="16"/>
       <c r="B83" s="17">
         <v>2</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" t="s">
         <v>116</v>
       </c>
       <c r="D83" s="8"/>
@@ -2537,22 +2557,22 @@
       <c r="B84" s="17">
         <v>2</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D84" s="8"/>
     </row>
-    <row r="85" ht="26.25" spans="1:4">
+    <row r="85" ht="25.5" spans="1:4">
       <c r="A85" s="16"/>
       <c r="B85" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>118</v>
       </c>
       <c r="D85" s="8"/>
     </row>
-    <row r="86" ht="26.25" spans="1:4">
+    <row r="86" spans="1:4">
       <c r="A86" s="16"/>
       <c r="B86" s="17">
         <v>2</v>
@@ -2564,8 +2584,8 @@
     </row>
     <row r="87" ht="25.5" spans="1:4">
       <c r="A87" s="16"/>
-      <c r="B87" s="18">
-        <v>3</v>
+      <c r="B87" s="17">
+        <v>2</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>120</v>
@@ -2574,9 +2594,7 @@
     </row>
     <row r="88" ht="25.5" spans="1:4">
       <c r="A88" s="16"/>
-      <c r="B88" s="17">
-        <v>1</v>
-      </c>
+      <c r="B88" s="17"/>
       <c r="C88" s="10" t="s">
         <v>121</v>
       </c>
@@ -2592,112 +2610,173 @@
       </c>
       <c r="D89" s="8"/>
     </row>
-    <row r="90" ht="26.25" spans="1:4">
+    <row r="90" ht="38.25" spans="1:4">
       <c r="A90" s="16"/>
       <c r="B90" s="17">
         <v>1</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D90" s="8"/>
     </row>
-    <row r="91" ht="26.25" spans="1:4">
+    <row r="91" ht="27" spans="1:4">
       <c r="A91" s="16"/>
       <c r="B91" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>124</v>
       </c>
       <c r="D91" s="8"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" ht="25.5" spans="1:4">
       <c r="A92" s="16"/>
-      <c r="B92" s="17">
-        <v>1</v>
+      <c r="B92" s="18">
+        <v>3</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>125</v>
       </c>
       <c r="D92" s="8"/>
     </row>
-    <row r="93" ht="66.75" spans="1:4">
+    <row r="93" ht="25.5" spans="1:4">
       <c r="A93" s="16"/>
       <c r="B93" s="17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D93" s="8" t="s">
-        <v>127</v>
-      </c>
+      <c r="D93" s="8"/>
     </row>
     <row r="94" ht="25.5" spans="1:4">
       <c r="A94" s="16"/>
-      <c r="B94" s="19">
-        <v>3</v>
+      <c r="B94" s="17">
+        <v>1</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" ht="53.25" spans="1:4">
+        <v>127</v>
+      </c>
+      <c r="D94" s="8"/>
+    </row>
+    <row r="95" ht="27" spans="1:4">
       <c r="A95" s="16"/>
       <c r="B95" s="17">
-        <v>5</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" ht="28.5" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D95" s="8"/>
+    </row>
+    <row r="96" ht="27" spans="1:4">
       <c r="A96" s="16"/>
       <c r="B96" s="17">
-        <v>2</v>
-      </c>
-      <c r="C96" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="16"/>
+      <c r="B97" s="17">
+        <v>1</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" ht="69.75" spans="1:4">
+      <c r="A98" s="16"/>
+      <c r="B98" s="17">
+        <v>5</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D96" s="8"/>
-    </row>
-    <row r="97" ht="119.25" spans="1:4">
-      <c r="A97" s="21"/>
-      <c r="B97" s="17">
-        <v>5</v>
-      </c>
-      <c r="C97" s="8" t="s">
+    </row>
+    <row r="99" ht="25.5" spans="1:4">
+      <c r="A99" s="16"/>
+      <c r="B99" s="19">
+        <v>3</v>
+      </c>
+      <c r="C99" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D99" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="22" t="s">
+    <row r="100" ht="55.5" spans="1:4">
+      <c r="A100" s="16"/>
+      <c r="B100" s="17">
+        <v>5</v>
+      </c>
+      <c r="C100" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B98" s="22"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
+      <c r="D100" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" ht="27" spans="1:4">
+      <c r="A101" s="16"/>
+      <c r="B101" s="17">
+        <v>2</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D101" s="8"/>
+    </row>
+    <row r="102" ht="123.75" spans="1:4">
+      <c r="A102" s="21"/>
+      <c r="B102" s="17">
+        <v>5</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" ht="27" spans="1:4">
+      <c r="A103" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103" s="23"/>
+      <c r="C103" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D103" s="10"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="22"/>
+      <c r="B104" s="23"/>
+      <c r="C104" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D104" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A33"/>
-    <mergeCell ref="A34:A66"/>
-    <mergeCell ref="A67:A97"/>
+    <mergeCell ref="A14:A35"/>
+    <mergeCell ref="A36:A69"/>
+    <mergeCell ref="A70:A102"/>
+    <mergeCell ref="A103:A104"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:B1048576 B1:B3 B4">
+  <conditionalFormatting sqref="B:B">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15120" windowHeight="25890"/>
+    <workbookView windowWidth="27720" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
   <si>
     <t>Scope</t>
   </si>
@@ -31,6 +31,9 @@
     <t>开发平台</t>
   </si>
   <si>
+    <t>pytorch 完成一个模型, 比如object detection</t>
+  </si>
+  <si>
     <t>tensorflow， models/object_detcion熟悉</t>
   </si>
   <si>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t>tensorflow tfrecord, Dataset</t>
+  </si>
+  <si>
+    <t>用FIFO使得读图, 预处理和训练流水线化, 提高训练效率</t>
   </si>
   <si>
     <t>tensorflow, 多GPU训练</t>
@@ -72,6 +78,9 @@
   </si>
   <si>
     <t>Focal Loss for Dense Object Detection</t>
+  </si>
+  <si>
+    <t>revisiting batch normalization for practical domain adaption</t>
   </si>
   <si>
     <t>Relay backpropagation for effective learning of deep convolutional neural networks</t>
@@ -86,6 +95,9 @@
     <t>feature engine</t>
   </si>
   <si>
+    <t>targeted dropout</t>
+  </si>
+  <si>
     <t>Squeeze-and-Excitation Networks</t>
   </si>
   <si>
@@ -116,16 +128,27 @@
     <t>Two at Once: Enhancing Learning and Generalizaion Capacities via IBN-Net</t>
   </si>
   <si>
+    <t>domain adaption的好文章, 着重在用instance normalization解决appearance variance,参考文献有不少new information
+the appearance differrence mainly lies in shallow layers and the object level difference attributes to majorly height layer divergence and partially low layer ones
+IN 减少了视觉和外观上带来的差异; BN加速了训练, 并保证了有区分性的特征
+IBNnet在target domain上fineturn的效果也会更好</t>
+  </si>
+  <si>
     <t>Gather-Excite: Exploiting feature Context in Convolutional Neural Networks</t>
   </si>
   <si>
     <t>Densely Connected Convolutional Networks</t>
   </si>
   <si>
-    <t>每一层的输入是前面所有层输出的concat, 构成了DenselyConnected, 这样增强了feature  reuse, 因此能够用较少的参数(1/3 resnet)达到同样的精度, 同时这样的设计也很利于优化及减轻过拟合</t>
+    <t>动机: the layer-by-layer connectivity pattern forces networks to replicate features from earlier layers through out the networks
+每一层的输入是前面所有层输出的concat, 构成了DenselyConnected, 这样增强了feature  reuse, 因此能够用较少的参数(1/3 resnet)达到同样的精度, 同时这样的设计也很利于优化及减轻过拟合
+可以理解为在线进行多层级的特征融合, 提高网络的效率</t>
   </si>
   <si>
     <t>CondenseNet: An Efficient DenseNet using Learned Group Convolutions</t>
+  </si>
+  <si>
+    <t>在denseNet的基础上, 用learned-group-convolution 和on-the-fly pruning选择到底要用那一层的featuremap, 进一步提高模型效率</t>
   </si>
   <si>
     <t>Non-local Neural Networks</t>
@@ -405,7 +428,14 @@
     <t>Segmentation of Drivable Road Using Deep Fully Convolutional Residual Network with Pyramid Pooling</t>
   </si>
   <si>
+    <t>aspp, bigger training crop</t>
+  </si>
+  <si>
     <t>PSANet_pointwise spatial attention network for scene parsing</t>
+  </si>
+  <si>
+    <t>计算量很大的方法: 每个点都根据输入生成两张HxW的attention mask, 一张是其它点对他的贡献, 另外一张是它对其它点的贡献, 这样达到了adaptive attention和bi-direciton information flow的目的
+...GPU多真心好</t>
   </si>
   <si>
     <t>Deep fully convolutional networks with random data augmentation for enhanced generalization in road detection</t>
@@ -479,9 +509,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -526,9 +556,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,6 +566,66 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,47 +639,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,14 +649,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,15 +664,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -635,7 +672,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,27 +685,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -697,187 +727,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,17 +973,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,16 +998,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,24 +1029,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,168 +1070,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1215,11 +1245,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1284,8 +1317,8 @@
     <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
     <cellStyle name="Accent2" xfId="17" builtinId="33"/>
     <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
     <cellStyle name="Neutral" xfId="21" builtinId="28"/>
     <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
@@ -1301,19 +1334,19 @@
     <cellStyle name="Good" xfId="33" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
     <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1358,6 +1391,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1613,19 +1651,18 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1652,7 +1689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" ht="13.5" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1662,1121 +1699,1165 @@
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:4">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" ht="13.5" spans="1:4">
       <c r="A3" s="9"/>
       <c r="B3" s="7">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" ht="13.5" spans="1:4">
       <c r="A4" s="9"/>
-      <c r="B4" s="7"/>
+      <c r="B4" s="7">
+        <v>5</v>
+      </c>
       <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:4">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" ht="13.5" spans="1:4">
       <c r="A5" s="9"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" ht="25.5" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7">
+    </row>
+    <row r="6" ht="13.5" spans="1:4">
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" ht="25.5" spans="1:4">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" ht="27" spans="1:4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" ht="26.25" spans="1:4">
       <c r="A8" s="9"/>
       <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" ht="39.75" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="C8" s="11" t="s">
         <v>13</v>
       </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="9"/>
       <c r="B9" s="7">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" ht="39" spans="1:4">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11">
-        <v>5</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="7">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="13.5" spans="1:4">
       <c r="A11" s="9"/>
       <c r="B11" s="12">
         <v>5</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" ht="25.5" spans="1:4">
+      <c r="D11" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="9"/>
-      <c r="B12" s="14">
-        <v>2</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" ht="54" spans="1:4">
+      <c r="B12" s="13">
+        <v>5</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" ht="25.5" spans="1:4">
       <c r="A13" s="9"/>
-      <c r="B13" s="14">
-        <v>2</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="12">
-        <v>5</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" ht="25.5" spans="1:4">
+      <c r="A14" s="9"/>
+      <c r="B14" s="15">
+        <v>2</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" ht="28.5" spans="1:4">
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" ht="52.5" spans="1:4">
       <c r="A15" s="9"/>
-      <c r="B15" s="12">
-        <v>5</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" ht="25.5" spans="1:4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="14">
+      <c r="B16" s="15">
         <v>3</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" ht="25.5" spans="1:4">
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="9"/>
-      <c r="B17" s="14">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="13">
+        <v>5</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" ht="25.5" spans="1:4">
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" ht="27" spans="1:4">
       <c r="A18" s="9"/>
-      <c r="B18" s="14">
-        <v>3</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="13">
+        <v>5</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" ht="25.5" spans="1:4">
       <c r="A19" s="9"/>
-      <c r="B19" s="14">
+      <c r="B19" s="15">
         <v>3</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:4">
+      <c r="C19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" ht="25.5" spans="1:4">
       <c r="A20" s="9"/>
-      <c r="B20" s="14">
-        <v>2</v>
+      <c r="B20" s="15">
+        <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" ht="25.5" spans="1:4">
       <c r="A21" s="9"/>
-      <c r="B21" s="14">
-        <v>1</v>
+      <c r="B21" s="15">
+        <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" ht="25.5" spans="1:4">
       <c r="A22" s="9"/>
-      <c r="B22" s="14">
+      <c r="B22" s="15">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" ht="13.5" spans="1:4">
+      <c r="A23" s="9"/>
+      <c r="B23" s="15">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" ht="25.5" spans="1:4">
+      <c r="A24" s="9"/>
+      <c r="B24" s="15">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" ht="25.5" spans="1:4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="14">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" ht="42.75" spans="1:4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="12">
-        <v>5</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" ht="25.5" spans="1:4">
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" ht="79.5" spans="1:4">
       <c r="A25" s="9"/>
-      <c r="B25" s="14">
+      <c r="B25" s="15">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" spans="1:4">
       <c r="A26" s="9"/>
-      <c r="B26" s="14">
+      <c r="B26" s="15">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="C26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" ht="80.25" spans="1:4">
       <c r="A27" s="9"/>
-      <c r="B27" s="14">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" ht="41.25" spans="1:4">
+      <c r="B27" s="13">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="1:4">
       <c r="A28" s="9"/>
-      <c r="B28" s="12">
+      <c r="B28" s="13">
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" ht="25.5" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="9"/>
-      <c r="B29" s="14">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" ht="81" spans="1:4">
+      <c r="B29" s="15">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="9"/>
-      <c r="B30" s="12">
-        <v>5</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" ht="28.5" spans="1:4">
+      <c r="B30" s="15">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" ht="39.75" spans="1:4">
       <c r="A31" s="9"/>
-      <c r="B31" s="12">
-        <v>5</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="B31" s="13">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="D31" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" spans="1:4">
       <c r="A32" s="9"/>
-      <c r="B32" s="14">
+      <c r="B32" s="15">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" ht="78.75" spans="1:4">
+      <c r="A33" s="9"/>
+      <c r="B33" s="13">
+        <v>5</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" ht="27" spans="1:4">
+      <c r="A34" s="9"/>
+      <c r="B34" s="13">
+        <v>5</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="9"/>
+      <c r="B35" s="15">
         <v>1</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="14">
-        <v>2</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" ht="28.5" spans="1:4">
-      <c r="A34" s="9"/>
-      <c r="B34" s="12">
-        <v>5</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" ht="28.5" spans="1:4">
-      <c r="A35" s="9"/>
-      <c r="B35" s="12">
-        <v>5</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" ht="25.5" spans="1:4">
-      <c r="A36" s="9" t="s">
+      <c r="C35" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="12">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="9"/>
+      <c r="B36" s="15">
+        <v>2</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" ht="25.5" spans="1:4">
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" ht="27" spans="1:4">
       <c r="A37" s="9"/>
-      <c r="B37" s="12">
-        <v>2</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="13">
+        <v>5</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="D37" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" ht="27" spans="1:4">
       <c r="A38" s="9"/>
-      <c r="B38" s="12">
-        <v>2</v>
+      <c r="B38" s="13">
+        <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="39" ht="25.5" spans="1:4">
-      <c r="A39" s="9"/>
-      <c r="B39" s="12">
+      <c r="A39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="13">
         <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" ht="25.5" spans="1:4">
       <c r="A40" s="9"/>
-      <c r="B40" s="12">
+      <c r="B40" s="13">
         <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="9"/>
-      <c r="B41" s="12">
-        <v>5</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="F41" s="15" t="s">
+      <c r="B41" s="13">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" ht="25.5" spans="1:4">
+      <c r="A42" s="9"/>
+      <c r="B42" s="13">
+        <v>2</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" ht="25.5" spans="1:4">
+      <c r="A43" s="9"/>
+      <c r="B43" s="13">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="9"/>
+      <c r="B44" s="13">
+        <v>5</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="F44" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G41" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="9"/>
-      <c r="B42" s="12">
-        <v>2</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-    </row>
-    <row r="43" ht="52.5" spans="1:7">
-      <c r="A43" s="9"/>
-      <c r="B43" s="14">
-        <v>2</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-      <c r="G43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" ht="25.5" spans="1:7">
-      <c r="A44" s="9"/>
-      <c r="B44" s="14">
-        <v>3</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" t="s">
-        <v>63</v>
+      <c r="G44" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="9"/>
-      <c r="B45" s="14">
-        <v>3</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="8"/>
-      <c r="F45" s="1">
-        <v>2</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="B45" s="13">
+        <v>2</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="D45" s="10"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" ht="51.75" spans="1:7">
       <c r="A46" s="9"/>
-      <c r="B46" s="14">
-        <v>3</v>
-      </c>
-      <c r="C46" s="8" t="s">
+      <c r="B46" s="15">
+        <v>2</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="8"/>
+      <c r="D46" s="10"/>
       <c r="F46" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G46" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" ht="25.5" spans="1:7">
       <c r="A47" s="9"/>
-      <c r="B47" s="14">
+      <c r="B47" s="15">
         <v>3</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" ht="25.5" spans="1:4">
+      <c r="D47" s="10"/>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="9"/>
-      <c r="B48" s="14">
+      <c r="B48" s="15">
         <v>3</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" ht="42.75" spans="1:4">
+      <c r="C48" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="F48" s="1">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="9"/>
-      <c r="B49" s="7">
-        <v>5</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" ht="25.5" spans="1:4">
+      <c r="B49" s="15">
+        <v>3</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="F49" s="1">
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="9"/>
-      <c r="B50" s="14">
+      <c r="B50" s="15">
         <v>3</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="8"/>
+      <c r="C50" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="10"/>
     </row>
     <row r="51" ht="25.5" spans="1:4">
       <c r="A51" s="9"/>
-      <c r="B51" s="14">
+      <c r="B51" s="15">
         <v>3</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" ht="84" spans="1:4">
+      <c r="C51" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" ht="40.5" spans="1:4">
       <c r="A52" s="9"/>
       <c r="B52" s="7">
         <v>5</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>75</v>
+      <c r="C52" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="53" ht="25.5" spans="1:4">
       <c r="A53" s="9"/>
-      <c r="B53" s="14">
-        <v>2</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="8"/>
+      <c r="B53" s="15">
+        <v>3</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" ht="25.5" spans="1:4">
       <c r="A54" s="9"/>
-      <c r="B54" s="14">
-        <v>2</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="B54" s="15">
+        <v>3</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" ht="80.25" spans="1:4">
       <c r="A55" s="9"/>
-      <c r="B55" s="14">
-        <v>2</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="B55" s="7">
+        <v>5</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" spans="1:4">
       <c r="A56" s="9"/>
-      <c r="B56" s="14">
+      <c r="B56" s="15">
         <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="D56" s="10"/>
     </row>
     <row r="57" ht="25.5" spans="1:4">
       <c r="A57" s="9"/>
-      <c r="B57" s="14">
+      <c r="B57" s="15">
         <v>2</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D57" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="D57" s="10"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="9"/>
-      <c r="B58" s="14">
+      <c r="B58" s="15">
         <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" ht="25.5" spans="1:4">
+        <v>84</v>
+      </c>
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="9"/>
-      <c r="B59" s="14">
+      <c r="B59" s="15">
         <v>2</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" ht="25.5" spans="1:4">
       <c r="A60" s="9"/>
-      <c r="B60" s="14">
+      <c r="B60" s="15">
         <v>2</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" ht="25.5" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="9"/>
-      <c r="B61" s="14">
+      <c r="B61" s="15">
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4">
+        <v>87</v>
+      </c>
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" ht="25.5" spans="1:4">
       <c r="A62" s="9"/>
-      <c r="B62" s="14">
+      <c r="B62" s="15">
+        <v>2</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" ht="25.5" spans="1:4">
+      <c r="A63" s="9"/>
+      <c r="B63" s="15">
+        <v>2</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" ht="25.5" spans="1:4">
+      <c r="A64" s="9"/>
+      <c r="B64" s="15">
+        <v>2</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="9"/>
+      <c r="B65" s="15">
         <v>1</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" ht="42.75" spans="1:4">
-      <c r="A63" s="9"/>
-      <c r="B63" s="7">
-        <v>5</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="9"/>
-      <c r="B64" s="14">
+      <c r="C65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" ht="40.5" spans="1:4">
+      <c r="A66" s="9"/>
+      <c r="B66" s="7">
+        <v>5</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="9"/>
+      <c r="B67" s="15">
         <v>1</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" s="8"/>
-    </row>
-    <row r="65" ht="25.5" spans="1:4">
-      <c r="A65" s="9"/>
-      <c r="B65" s="14">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66" ht="25.5" spans="1:4">
-      <c r="A66" s="9"/>
-      <c r="B66" s="14">
-        <v>1</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67" ht="25.5" spans="1:4">
-      <c r="A67" s="9"/>
-      <c r="B67" s="14">
-        <v>1</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D67" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="D67" s="10"/>
     </row>
     <row r="68" ht="25.5" spans="1:4">
       <c r="A68" s="9"/>
-      <c r="B68" s="14">
+      <c r="B68" s="15">
         <v>1</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="C68" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" ht="25.5" spans="1:4">
       <c r="A69" s="9"/>
-      <c r="B69" s="14">
+      <c r="B69" s="15">
         <v>1</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D69" s="8"/>
+      <c r="C69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" ht="25.5" spans="1:4">
-      <c r="A70" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B70" s="14">
-        <v>2</v>
+      <c r="A70" s="9"/>
+      <c r="B70" s="15">
+        <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" ht="41.25" spans="1:4">
-      <c r="A71" s="16"/>
-      <c r="B71" s="7">
-        <v>5</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" ht="54" spans="1:4">
-      <c r="A72" s="16"/>
-      <c r="B72" s="7">
+        <v>97</v>
+      </c>
+      <c r="D70" s="10"/>
+    </row>
+    <row r="71" ht="25.5" spans="1:4">
+      <c r="A71" s="9"/>
+      <c r="B71" s="15">
+        <v>1</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="10"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="9"/>
+      <c r="B72" s="15">
+        <v>1</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="10"/>
+    </row>
+    <row r="73" ht="25.5" spans="1:4">
+      <c r="A73" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="15">
+        <v>2</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" ht="39.75" spans="1:4">
+      <c r="A74" s="17"/>
+      <c r="B74" s="7">
+        <v>5</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="10"/>
+    </row>
+    <row r="75" ht="52.5" spans="1:4">
+      <c r="A75" s="17"/>
+      <c r="B75" s="7">
         <v>6</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" spans="1:4">
-      <c r="A73" s="16"/>
-      <c r="B73" s="17">
-        <v>5</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" ht="28.5" spans="1:4">
-      <c r="A74" s="16"/>
-      <c r="B74" s="17">
-        <v>5</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" ht="25.5" spans="1:4">
-      <c r="A75" s="16"/>
-      <c r="B75" s="17">
+      <c r="C75" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" ht="13.5" spans="1:4">
+      <c r="A76" s="17"/>
+      <c r="B76" s="18">
+        <v>5</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" ht="27" spans="1:4">
+      <c r="A77" s="17"/>
+      <c r="B77" s="18">
+        <v>5</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" ht="25.5" spans="1:4">
+      <c r="A78" s="17"/>
+      <c r="B78" s="18">
         <v>1</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" ht="96.75" spans="1:4">
-      <c r="A76" s="16"/>
-      <c r="B76" s="17">
-        <v>5</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" ht="96.75" spans="1:4">
-      <c r="A77" s="16"/>
-      <c r="B77" s="17">
-        <v>5</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" ht="55.5" spans="1:4">
-      <c r="A78" s="16"/>
-      <c r="B78" s="17">
-        <v>5</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D78" s="8" t="s">
+      <c r="C78" s="10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="79" ht="111" spans="1:4">
-      <c r="A79" s="16"/>
-      <c r="B79" s="17">
-        <v>5</v>
-      </c>
-      <c r="C79" s="8" t="s">
+      <c r="D78" s="10"/>
+    </row>
+    <row r="79" ht="93" spans="1:4">
+      <c r="A79" s="17"/>
+      <c r="B79" s="18">
+        <v>5</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="16"/>
-      <c r="B80" s="17">
-        <v>5</v>
-      </c>
-      <c r="C80" s="8" t="s">
+    <row r="80" ht="93" spans="1:4">
+      <c r="A80" s="17"/>
+      <c r="B80" s="18">
+        <v>5</v>
+      </c>
+      <c r="C80" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D80" s="8"/>
-    </row>
-    <row r="81" ht="27" spans="1:4">
-      <c r="A81" s="16"/>
-      <c r="B81" s="17">
-        <v>5</v>
-      </c>
-      <c r="C81" s="8" t="s">
+      <c r="D80" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D81" s="8"/>
-    </row>
-    <row r="82" ht="41.25" spans="1:4">
-      <c r="A82" s="16"/>
-      <c r="B82" s="17">
-        <v>5</v>
-      </c>
-      <c r="C82" s="8" t="s">
+    </row>
+    <row r="81" ht="53.25" spans="1:4">
+      <c r="A81" s="17"/>
+      <c r="B81" s="18">
+        <v>5</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D81" s="10" t="s">
         <v>115</v>
       </c>
     </row>
+    <row r="82" ht="106.5" spans="1:4">
+      <c r="A82" s="17"/>
+      <c r="B82" s="18">
+        <v>5</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="16"/>
-      <c r="B83" s="17">
-        <v>2</v>
-      </c>
-      <c r="C83" t="s">
-        <v>116</v>
-      </c>
-      <c r="D83" s="8"/>
-    </row>
-    <row r="84" ht="25.5" spans="1:4">
-      <c r="A84" s="16"/>
-      <c r="B84" s="17">
-        <v>2</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D84" s="8"/>
-    </row>
-    <row r="85" ht="25.5" spans="1:4">
-      <c r="A85" s="16"/>
-      <c r="B85" s="17">
-        <v>2</v>
+      <c r="A83" s="17"/>
+      <c r="B83" s="18">
+        <v>5</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D83" s="10"/>
+    </row>
+    <row r="84" ht="26.25" spans="1:4">
+      <c r="A84" s="17"/>
+      <c r="B84" s="18">
+        <v>5</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D84" s="10"/>
+    </row>
+    <row r="85" ht="39.75" spans="1:4">
+      <c r="A85" s="17"/>
+      <c r="B85" s="18">
+        <v>5</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D85" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="16"/>
-      <c r="B86" s="17">
-        <v>2</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D86" s="8"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="18">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>122</v>
+      </c>
+      <c r="D86" s="10"/>
     </row>
     <row r="87" ht="25.5" spans="1:4">
-      <c r="A87" s="16"/>
-      <c r="B87" s="17">
-        <v>2</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D87" s="8"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="18">
+        <v>2</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87" s="10"/>
     </row>
     <row r="88" ht="25.5" spans="1:4">
-      <c r="A88" s="16"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D88" s="8"/>
-    </row>
-    <row r="89" ht="25.5" spans="1:4">
-      <c r="A89" s="16"/>
-      <c r="B89" s="17">
+      <c r="A88" s="17"/>
+      <c r="B88" s="18">
+        <v>2</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88" s="10"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="17"/>
+      <c r="B89" s="18">
+        <v>2</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89" s="10"/>
+    </row>
+    <row r="90" ht="25.5" spans="1:4">
+      <c r="A90" s="17"/>
+      <c r="B90" s="18">
+        <v>2</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D90" s="10"/>
+    </row>
+    <row r="91" ht="25.5" spans="1:4">
+      <c r="A91" s="17"/>
+      <c r="B91" s="18">
+        <v>5</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" ht="54" spans="1:4">
+      <c r="A92" s="17"/>
+      <c r="B92" s="18">
         <v>1</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D89" s="8"/>
-    </row>
-    <row r="90" ht="38.25" spans="1:4">
-      <c r="A90" s="16"/>
-      <c r="B90" s="17">
+      <c r="C92" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" ht="38.25" spans="1:4">
+      <c r="A93" s="17"/>
+      <c r="B93" s="18">
         <v>1</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D90" s="8"/>
-    </row>
-    <row r="91" ht="27" spans="1:4">
-      <c r="A91" s="16"/>
-      <c r="B91" s="17">
-        <v>2</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D91" s="8"/>
-    </row>
-    <row r="92" ht="25.5" spans="1:4">
-      <c r="A92" s="16"/>
-      <c r="B92" s="18">
+      <c r="C93" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="10"/>
+    </row>
+    <row r="94" ht="26.25" spans="1:4">
+      <c r="A94" s="17"/>
+      <c r="B94" s="18">
+        <v>2</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" s="10"/>
+    </row>
+    <row r="95" ht="25.5" spans="1:4">
+      <c r="A95" s="17"/>
+      <c r="B95" s="19">
         <v>3</v>
       </c>
-      <c r="C92" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D92" s="8"/>
-    </row>
-    <row r="93" ht="25.5" spans="1:4">
-      <c r="A93" s="16"/>
-      <c r="B93" s="17">
+      <c r="C95" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D95" s="10"/>
+    </row>
+    <row r="96" ht="25.5" spans="1:4">
+      <c r="A96" s="17"/>
+      <c r="B96" s="18">
         <v>1</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D93" s="8"/>
-    </row>
-    <row r="94" ht="25.5" spans="1:4">
-      <c r="A94" s="16"/>
-      <c r="B94" s="17">
+      <c r="C96" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D96" s="10"/>
+    </row>
+    <row r="97" ht="25.5" spans="1:4">
+      <c r="A97" s="17"/>
+      <c r="B97" s="18">
         <v>1</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D94" s="8"/>
-    </row>
-    <row r="95" ht="27" spans="1:4">
-      <c r="A95" s="16"/>
-      <c r="B95" s="17">
+      <c r="C97" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D97" s="10"/>
+    </row>
+    <row r="98" ht="26.25" spans="1:4">
+      <c r="A98" s="17"/>
+      <c r="B98" s="18">
         <v>1</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D95" s="8"/>
-    </row>
-    <row r="96" ht="27" spans="1:4">
-      <c r="A96" s="16"/>
-      <c r="B96" s="17">
+      <c r="C98" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D98" s="10"/>
+    </row>
+    <row r="99" ht="26.25" spans="1:4">
+      <c r="A99" s="17"/>
+      <c r="B99" s="18">
         <v>1</v>
       </c>
-      <c r="C96" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D96" s="8"/>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="16"/>
-      <c r="B97" s="17">
+      <c r="C99" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D99" s="10"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="17"/>
+      <c r="B100" s="18">
         <v>1</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D97" s="8"/>
-    </row>
-    <row r="98" ht="69.75" spans="1:4">
-      <c r="A98" s="16"/>
-      <c r="B98" s="17">
-        <v>5</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" ht="25.5" spans="1:4">
-      <c r="A99" s="16"/>
-      <c r="B99" s="19">
+      <c r="C100" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D100" s="10"/>
+    </row>
+    <row r="101" ht="66.75" spans="1:4">
+      <c r="A101" s="17"/>
+      <c r="B101" s="18">
+        <v>5</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" spans="1:4">
+      <c r="A102" s="17"/>
+      <c r="B102" s="20">
         <v>3</v>
       </c>
-      <c r="C99" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" ht="55.5" spans="1:4">
-      <c r="A100" s="16"/>
-      <c r="B100" s="17">
-        <v>5</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" ht="27" spans="1:4">
-      <c r="A101" s="16"/>
-      <c r="B101" s="17">
-        <v>2</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D101" s="8"/>
-    </row>
-    <row r="102" ht="123.75" spans="1:4">
-      <c r="A102" s="21"/>
-      <c r="B102" s="17">
-        <v>5</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" ht="27" spans="1:4">
-      <c r="A103" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B103" s="23"/>
-      <c r="C103" s="10" t="s">
+      <c r="C102" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D103" s="10"/>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="22"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="10" t="s">
+      <c r="D102" s="10" t="s">
         <v>142</v>
       </c>
+    </row>
+    <row r="103" ht="53.25" spans="1:4">
+      <c r="A103" s="17"/>
+      <c r="B103" s="18">
+        <v>5</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" ht="28.5" spans="1:4">
+      <c r="A104" s="17"/>
+      <c r="B104" s="18">
+        <v>2</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>145</v>
+      </c>
       <c r="D104" s="10"/>
+    </row>
+    <row r="105" ht="119.25" spans="1:4">
+      <c r="A105" s="22"/>
+      <c r="B105" s="18">
+        <v>5</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" ht="26.25" spans="1:4">
+      <c r="A106" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B106" s="24"/>
+      <c r="C106" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D106" s="11"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="23"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D107" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A35"/>
-    <mergeCell ref="A36:A69"/>
-    <mergeCell ref="A70:A102"/>
-    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A38"/>
+    <mergeCell ref="A39:A72"/>
+    <mergeCell ref="A73:A105"/>
+    <mergeCell ref="A106:A107"/>
   </mergeCells>
-  <conditionalFormatting sqref="B:B">
+  <conditionalFormatting sqref="B$1:B$1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13140"/>
+    <workbookView windowWidth="15120" windowHeight="25890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
   <si>
     <t>Scope</t>
   </si>
@@ -95,6 +95,12 @@
     <t>feature engine</t>
   </si>
   <si>
+    <t>rethink imagenet pre-train</t>
+  </si>
+  <si>
+    <t>数据较多(&gt;10k coco), 训练时间较长的时候, random initialization的效果和pre-train的接近</t>
+  </si>
+  <si>
     <t>targeted dropout</t>
   </si>
   <si>
@@ -179,6 +185,9 @@
     <t>模型容量不变的前提下, 增加gropu数量能够提高性能(representing power), 但group太大后, 提升就不明显了</t>
   </si>
   <si>
+    <t>Deformable ConvNets v2: More Deformable, Better Results</t>
+  </si>
+  <si>
     <t>Deformable Convolutional Networks</t>
   </si>
   <si>
@@ -429,6 +438,26 @@
   </si>
   <si>
     <t>aspp, bigger training crop</t>
+  </si>
+  <si>
+    <t>High-performance Semantic Segmentation Using Very Deep Fully Convolutional Networks (online bootstrap for bisenet)</t>
+  </si>
+  <si>
+    <t>on line bootstraping: 只学概率小于t的pixels, 其实和focal loss很像, 也是为了解决类别不平衡: the proposed bootstrapping can obviously improve the performance for those categories which are less frequent in training data.</t>
+  </si>
+  <si>
+    <t>learning a discriminative feature network for semantic segmentation(global average pooling for bisenet)</t>
+  </si>
+  <si>
+    <t>同一类别的不连续(intra-class inconsistency)主要是因为缺乏全局特征. 可以用channel attention block(smooth network, top-down)解决: high stage provide a strong consistency guidance, while the features of low stage give the different discrination information of features, in this way, the channel attention vector can select the discriminative features
+通过在训练的时候, 增加一个semantic boundary(board network, bottom-up)来提高类别之间的区分度, 并引入focal loss: for extracting accurate semantic boundary, the features on both sides will become more distinguishable. This exactly reaches our goal to make the features with inter-class disctinction as much as possible.
+smooth network 和 bord network之间的平衡为1:0.1</t>
+  </si>
+  <si>
+    <t>Holistically-Nested Edge Detection(auxloss for bisenet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> holistically nested 结构, 多层级feature map用于产生预测(side-out), 每个sideout都有loss(deep supervision), deep supervision 有助于保留低层级的信息;</t>
   </si>
   <si>
     <t>PSANet_pointwise spatial attention network for scene parsing</t>
@@ -508,12 +537,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,22 +579,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF31424E"/>
       <name val="microsoft yahei"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,25 +615,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,15 +637,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,25 +670,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -671,8 +691,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,23 +735,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -709,6 +745,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -727,31 +769,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,55 +931,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,91 +949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,6 +1015,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -984,15 +1059,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1012,6 +1078,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1026,201 +1112,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1251,16 +1293,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1275,16 +1320,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1293,7 +1341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1317,8 +1365,8 @@
     <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
     <cellStyle name="Accent2" xfId="17" builtinId="33"/>
     <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
     <cellStyle name="Neutral" xfId="21" builtinId="28"/>
     <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
@@ -1334,19 +1382,19 @@
     <cellStyle name="Good" xfId="33" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
     <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1391,11 +1439,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1651,24 +1694,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
+      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.5266666666667" customWidth="1"/>
-    <col min="2" max="2" width="8.8" style="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.9" style="2" customWidth="1"/>
     <col min="4" max="4" width="65.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="7.8" customWidth="1"/>
@@ -1689,7 +1733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:4">
+    <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1701,1163 +1745,1221 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" ht="13.5" spans="1:4">
+    <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="9"/>
-      <c r="B3" s="7">
-        <v>5</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="10">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" ht="13.5" spans="1:4">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:4">
       <c r="A4" s="9"/>
-      <c r="B4" s="7">
-        <v>5</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="10">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" ht="13.5" spans="1:4">
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:4">
       <c r="A5" s="9"/>
-      <c r="B5" s="7">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="10">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="13.5" spans="1:4">
+    <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="9"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" ht="25.5" spans="1:4">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="10">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" ht="26.25" spans="1:4">
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" ht="27" spans="1:4">
       <c r="A8" s="9"/>
-      <c r="B8" s="7">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="9"/>
-      <c r="B9" s="7">
+      <c r="B9" s="10">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" ht="39" spans="1:4">
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" ht="39.75" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="10">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="13.5" spans="1:4">
+    <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="9"/>
-      <c r="B11" s="12">
-        <v>5</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="13">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9"/>
-      <c r="B12" s="13">
-        <v>5</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="14">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" ht="25.5" spans="1:4">
       <c r="A13" s="9"/>
-      <c r="B13" s="13">
-        <v>2</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="14">
+        <v>2</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" ht="25.5" spans="1:4">
       <c r="A14" s="9"/>
-      <c r="B14" s="15">
-        <v>2</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="16">
+        <v>2</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" ht="52.5" spans="1:4">
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" ht="54" spans="1:4">
       <c r="A15" s="9"/>
-      <c r="B15" s="15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="16">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" ht="37" customHeight="1" spans="1:4">
       <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="15">
-        <v>3</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="10">
+        <v>5</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9"/>
-      <c r="B17" s="13">
-        <v>5</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" ht="27" spans="1:4">
+      <c r="B17" s="16">
+        <v>3</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="9"/>
-      <c r="B18" s="13">
-        <v>5</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="B18" s="14">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" ht="25.5" spans="1:4">
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" ht="28.5" spans="1:4">
       <c r="A19" s="9"/>
-      <c r="B19" s="15">
-        <v>3</v>
+      <c r="B19" s="14">
+        <v>5</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" ht="25.5" spans="1:4">
       <c r="A20" s="9"/>
-      <c r="B20" s="15">
+      <c r="B20" s="16">
         <v>3</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="10"/>
+      <c r="C20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" ht="25.5" spans="1:4">
       <c r="A21" s="9"/>
-      <c r="B21" s="15">
+      <c r="B21" s="16">
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" ht="25.5" spans="1:4">
       <c r="A22" s="9"/>
-      <c r="B22" s="15">
+      <c r="B22" s="16">
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" ht="13.5" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" ht="25.5" spans="1:4">
       <c r="A23" s="9"/>
-      <c r="B23" s="15">
-        <v>2</v>
+      <c r="B23" s="16">
+        <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" ht="25.5" spans="1:4">
+        <v>34</v>
+      </c>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:4">
       <c r="A24" s="9"/>
-      <c r="B24" s="15">
+      <c r="B24" s="16">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" ht="25.5" spans="1:4">
+      <c r="A25" s="9"/>
+      <c r="B25" s="16">
         <v>1</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" ht="79.5" spans="1:4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="15">
-        <v>1</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" ht="25.5" spans="1:4">
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" ht="82.5" spans="1:4">
       <c r="A26" s="9"/>
-      <c r="B26" s="15">
+      <c r="B26" s="16">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" ht="80.25" spans="1:4">
+      <c r="D26" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" spans="1:4">
       <c r="A27" s="9"/>
-      <c r="B27" s="13">
-        <v>5</v>
+      <c r="B27" s="16">
+        <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" ht="27" spans="1:4">
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" ht="84" spans="1:4">
       <c r="A28" s="9"/>
-      <c r="B28" s="13">
+      <c r="B28" s="14">
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" ht="28.5" spans="1:4">
       <c r="A29" s="9"/>
-      <c r="B29" s="15">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="14">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="9"/>
-      <c r="B30" s="15">
-        <v>2</v>
+      <c r="B30" s="16">
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" ht="39.75" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="9"/>
-      <c r="B31" s="13">
-        <v>5</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="10" t="s">
+      <c r="B31" s="16">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" ht="25.5" spans="1:4">
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" ht="41.25" spans="1:4">
       <c r="A32" s="9"/>
-      <c r="B32" s="15">
-        <v>2</v>
+      <c r="B32" s="14">
+        <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" ht="78.75" spans="1:4">
+      <c r="D32" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" ht="25.5" spans="1:4">
       <c r="A33" s="9"/>
-      <c r="B33" s="13">
-        <v>5</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="B33" s="16">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" ht="27" spans="1:4">
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" ht="81" spans="1:4">
       <c r="A34" s="9"/>
-      <c r="B34" s="13">
+      <c r="B34" s="14">
         <v>5</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" ht="28.5" spans="1:4">
       <c r="A35" s="9"/>
-      <c r="B35" s="15">
+      <c r="B35" s="14">
+        <v>5</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" spans="1:4">
+      <c r="A36" s="9"/>
+      <c r="B36" s="14">
         <v>1</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="9"/>
-      <c r="B36" s="15">
-        <v>2</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" ht="27" spans="1:4">
+      <c r="C36" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="9"/>
-      <c r="B37" s="13">
-        <v>5</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="B37" s="16">
+        <v>1</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" ht="27" spans="1:4">
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="9"/>
-      <c r="B38" s="13">
-        <v>5</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="16">
+        <v>2</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" ht="53" customHeight="1" spans="1:4">
+      <c r="A39" s="9"/>
+      <c r="B39" s="14">
+        <v>5</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" ht="25.5" spans="1:4">
-      <c r="A39" s="9" t="s">
+      <c r="D39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="13">
-        <v>2</v>
-      </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" ht="41" customHeight="1" spans="1:4">
+      <c r="A40" s="9"/>
+      <c r="B40" s="14">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" ht="25.5" spans="1:4">
-      <c r="A40" s="9"/>
-      <c r="B40" s="13">
-        <v>2</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="9"/>
-      <c r="B41" s="13">
+    </row>
+    <row r="41" ht="25.5" spans="1:4">
+      <c r="A41" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="14">
         <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="D41" s="11"/>
     </row>
     <row r="42" ht="25.5" spans="1:4">
       <c r="A42" s="9"/>
-      <c r="B42" s="13">
+      <c r="B42" s="14">
         <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" ht="25.5" spans="1:4">
+        <v>62</v>
+      </c>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="9"/>
-      <c r="B43" s="13">
+      <c r="B43" s="14">
         <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="1:7">
+        <v>63</v>
+      </c>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" ht="25.5" spans="1:4">
       <c r="A44" s="9"/>
-      <c r="B44" s="13">
-        <v>5</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="F44" s="16" t="s">
+      <c r="B44" s="14">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" ht="25.5" spans="1:4">
+      <c r="A45" s="9"/>
+      <c r="B45" s="14">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="9"/>
+      <c r="B46" s="14">
+        <v>5</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="F46" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G44" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="9"/>
-      <c r="B45" s="13">
-        <v>2</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-    </row>
-    <row r="46" ht="51.75" spans="1:7">
-      <c r="A46" s="9"/>
-      <c r="B46" s="15">
-        <v>2</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="F46" s="1">
+      <c r="G46" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="9"/>
+      <c r="B47" s="14">
+        <v>2</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+    </row>
+    <row r="48" ht="52.5" spans="1:7">
+      <c r="A48" s="9"/>
+      <c r="B48" s="16">
+        <v>2</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="F48" s="1">
         <v>0</v>
       </c>
-      <c r="G46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" ht="25.5" spans="1:7">
-      <c r="A47" s="9"/>
-      <c r="B47" s="15">
+      <c r="G48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" spans="1:7">
+      <c r="A49" s="9"/>
+      <c r="B49" s="16">
         <v>3</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="F47" s="1">
+      <c r="C49" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="F49" s="1">
         <v>1</v>
       </c>
-      <c r="G47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="9"/>
-      <c r="B48" s="15">
+      <c r="G49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="9"/>
+      <c r="B50" s="16">
         <v>3</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="F48" s="1">
-        <v>2</v>
-      </c>
-      <c r="G48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="9"/>
-      <c r="B49" s="15">
+      <c r="C50" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="9"/>
+      <c r="B51" s="16">
         <v>3</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="10"/>
-      <c r="F49" s="1">
+      <c r="C51" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="F51" s="1">
         <v>3</v>
       </c>
-      <c r="G49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="9"/>
-      <c r="B50" s="15">
+      <c r="G51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="9"/>
+      <c r="B52" s="16">
         <v>3</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" ht="25.5" spans="1:4">
-      <c r="A51" s="9"/>
-      <c r="B51" s="15">
-        <v>3</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" ht="40.5" spans="1:4">
-      <c r="A52" s="9"/>
-      <c r="B52" s="7">
-        <v>5</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="10" t="s">
+      <c r="C52" s="11" t="s">
         <v>77</v>
       </c>
+      <c r="D52" s="11"/>
     </row>
     <row r="53" ht="25.5" spans="1:4">
       <c r="A53" s="9"/>
-      <c r="B53" s="15">
+      <c r="B53" s="16">
         <v>3</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" ht="25.5" spans="1:4">
+      <c r="D53" s="11"/>
+    </row>
+    <row r="54" ht="42.75" spans="1:4">
       <c r="A54" s="9"/>
-      <c r="B54" s="15">
+      <c r="B54" s="10">
+        <v>5</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" ht="25.5" spans="1:4">
+      <c r="A55" s="9"/>
+      <c r="B55" s="16">
         <v>3</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" ht="80.25" spans="1:4">
-      <c r="A55" s="9"/>
-      <c r="B55" s="7">
-        <v>5</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" s="10" t="s">
+      <c r="C55" s="11" t="s">
         <v>81</v>
       </c>
+      <c r="D55" s="11"/>
     </row>
     <row r="56" ht="25.5" spans="1:4">
       <c r="A56" s="9"/>
-      <c r="B56" s="15">
-        <v>2</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="B56" s="16">
+        <v>3</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" ht="25.5" spans="1:4">
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57" ht="84" spans="1:4">
       <c r="A57" s="9"/>
-      <c r="B57" s="15">
-        <v>2</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="10">
+        <v>5</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="10"/>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="D57" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" ht="25.5" spans="1:4">
       <c r="A58" s="9"/>
-      <c r="B58" s="15">
+      <c r="B58" s="16">
         <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="10"/>
-    </row>
-    <row r="59" spans="1:4">
+        <v>85</v>
+      </c>
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" ht="25.5" spans="1:4">
       <c r="A59" s="9"/>
-      <c r="B59" s="15">
+      <c r="B59" s="16">
         <v>2</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="10"/>
-    </row>
-    <row r="60" ht="25.5" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="9"/>
-      <c r="B60" s="15">
+      <c r="B60" s="16">
         <v>2</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" s="10"/>
+        <v>87</v>
+      </c>
+      <c r="D60" s="11"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="9"/>
-      <c r="B61" s="15">
+      <c r="B61" s="16">
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D61" s="10"/>
+        <v>88</v>
+      </c>
+      <c r="D61" s="11"/>
     </row>
     <row r="62" ht="25.5" spans="1:4">
       <c r="A62" s="9"/>
-      <c r="B62" s="15">
+      <c r="B62" s="16">
         <v>2</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" ht="25.5" spans="1:4">
+        <v>89</v>
+      </c>
+      <c r="D62" s="11"/>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="9"/>
-      <c r="B63" s="15">
+      <c r="B63" s="16">
         <v>2</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" s="10"/>
+        <v>90</v>
+      </c>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" ht="25.5" spans="1:4">
       <c r="A64" s="9"/>
-      <c r="B64" s="15">
+      <c r="B64" s="16">
         <v>2</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" s="10"/>
-    </row>
-    <row r="65" spans="1:4">
+        <v>91</v>
+      </c>
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" ht="25.5" spans="1:4">
       <c r="A65" s="9"/>
-      <c r="B65" s="15">
-        <v>1</v>
+      <c r="B65" s="16">
+        <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D65" s="10"/>
-    </row>
-    <row r="66" ht="40.5" spans="1:4">
+        <v>92</v>
+      </c>
+      <c r="D65" s="11"/>
+    </row>
+    <row r="66" ht="25.5" spans="1:4">
       <c r="A66" s="9"/>
-      <c r="B66" s="7">
-        <v>5</v>
+      <c r="B66" s="16">
+        <v>2</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D66" s="10" t="s">
         <v>93</v>
       </c>
+      <c r="D66" s="11"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="9"/>
-      <c r="B67" s="15">
+      <c r="B67" s="16">
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D67" s="10"/>
-    </row>
-    <row r="68" ht="25.5" spans="1:4">
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" ht="42.75" spans="1:4">
       <c r="A68" s="9"/>
-      <c r="B68" s="15">
-        <v>1</v>
+      <c r="B68" s="10">
+        <v>5</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="10"/>
-    </row>
-    <row r="69" ht="25.5" spans="1:4">
+      <c r="D68" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="9"/>
-      <c r="B69" s="15">
+      <c r="B69" s="16">
         <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" s="10"/>
+        <v>97</v>
+      </c>
+      <c r="D69" s="11"/>
     </row>
     <row r="70" ht="25.5" spans="1:4">
       <c r="A70" s="9"/>
-      <c r="B70" s="15">
+      <c r="B70" s="16">
         <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70" s="10"/>
+        <v>98</v>
+      </c>
+      <c r="D70" s="11"/>
     </row>
     <row r="71" ht="25.5" spans="1:4">
       <c r="A71" s="9"/>
-      <c r="B71" s="15">
+      <c r="B71" s="16">
         <v>1</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D71" s="10"/>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="C71" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="11"/>
+    </row>
+    <row r="72" ht="25.5" spans="1:4">
       <c r="A72" s="9"/>
-      <c r="B72" s="15">
+      <c r="B72" s="16">
         <v>1</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D72" s="10"/>
+      <c r="C72" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="11"/>
     </row>
     <row r="73" ht="25.5" spans="1:4">
-      <c r="A73" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B73" s="15">
-        <v>2</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="A73" s="9"/>
+      <c r="B73" s="16">
+        <v>1</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="10"/>
-    </row>
-    <row r="74" ht="39.75" spans="1:4">
-      <c r="A74" s="17"/>
-      <c r="B74" s="7">
-        <v>5</v>
-      </c>
-      <c r="C74" s="10" t="s">
+      <c r="D73" s="11"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="9"/>
+      <c r="B74" s="16">
+        <v>1</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D74" s="10"/>
-    </row>
-    <row r="75" ht="52.5" spans="1:4">
-      <c r="A75" s="17"/>
-      <c r="B75" s="7">
+      <c r="D74" s="11"/>
+    </row>
+    <row r="75" ht="25.5" spans="1:4">
+      <c r="A75" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="16">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" ht="41.25" spans="1:4">
+      <c r="A76" s="18"/>
+      <c r="B76" s="10">
+        <v>5</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77" ht="54" spans="1:4">
+      <c r="A77" s="18"/>
+      <c r="B77" s="10">
         <v>6</v>
       </c>
-      <c r="C75" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" ht="13.5" spans="1:4">
-      <c r="A76" s="17"/>
-      <c r="B76" s="18">
-        <v>5</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D76" s="10" t="s">
+      <c r="C77" s="11" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="77" ht="27" spans="1:4">
-      <c r="A77" s="17"/>
-      <c r="B77" s="18">
-        <v>5</v>
-      </c>
-      <c r="C77" s="10" t="s">
+      <c r="D77" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D77" s="10" t="s">
+    </row>
+    <row r="78" ht="14.25" spans="1:4">
+      <c r="A78" s="18"/>
+      <c r="B78" s="19">
+        <v>5</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="78" ht="25.5" spans="1:4">
-      <c r="A78" s="17"/>
-      <c r="B78" s="18">
+      <c r="D78" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" ht="28.5" spans="1:4">
+      <c r="A79" s="18"/>
+      <c r="B79" s="19">
+        <v>5</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" ht="25.5" spans="1:4">
+      <c r="A80" s="18"/>
+      <c r="B80" s="19">
         <v>1</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" s="10"/>
-    </row>
-    <row r="79" ht="93" spans="1:4">
-      <c r="A79" s="17"/>
-      <c r="B79" s="18">
-        <v>5</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" ht="93" spans="1:4">
-      <c r="A80" s="17"/>
-      <c r="B80" s="18">
-        <v>5</v>
-      </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="11"/>
+    </row>
+    <row r="81" ht="96.75" spans="1:4">
+      <c r="A81" s="18"/>
+      <c r="B81" s="19">
+        <v>5</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="81" ht="53.25" spans="1:4">
-      <c r="A81" s="17"/>
-      <c r="B81" s="18">
-        <v>5</v>
-      </c>
-      <c r="C81" s="10" t="s">
+      <c r="D81" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D81" s="10" t="s">
+    </row>
+    <row r="82" ht="96.75" spans="1:4">
+      <c r="A82" s="18"/>
+      <c r="B82" s="19">
+        <v>5</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="82" ht="106.5" spans="1:4">
-      <c r="A82" s="17"/>
-      <c r="B82" s="18">
-        <v>5</v>
-      </c>
-      <c r="C82" s="10" t="s">
+      <c r="D82" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D82" s="10" t="s">
+    </row>
+    <row r="83" ht="55.5" spans="1:4">
+      <c r="A83" s="18"/>
+      <c r="B83" s="19">
+        <v>5</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="17"/>
-      <c r="B83" s="18">
-        <v>5</v>
-      </c>
-      <c r="C83" s="10" t="s">
+      <c r="D83" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D83" s="10"/>
-    </row>
-    <row r="84" ht="26.25" spans="1:4">
-      <c r="A84" s="17"/>
-      <c r="B84" s="18">
-        <v>5</v>
-      </c>
-      <c r="C84" s="10" t="s">
+    </row>
+    <row r="84" ht="111" spans="1:4">
+      <c r="A84" s="18"/>
+      <c r="B84" s="19">
+        <v>5</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D84" s="10"/>
-    </row>
-    <row r="85" ht="39.75" spans="1:4">
-      <c r="A85" s="17"/>
-      <c r="B85" s="18">
-        <v>5</v>
-      </c>
-      <c r="C85" s="10" t="s">
+      <c r="D84" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D85" s="10" t="s">
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="18"/>
+      <c r="B85" s="19">
+        <v>5</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="17"/>
-      <c r="B86" s="18">
-        <v>2</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="D85" s="11"/>
+    </row>
+    <row r="86" ht="27" spans="1:4">
+      <c r="A86" s="18"/>
+      <c r="B86" s="19">
+        <v>5</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D86" s="10"/>
-    </row>
-    <row r="87" ht="25.5" spans="1:4">
-      <c r="A87" s="17"/>
-      <c r="B87" s="18">
-        <v>2</v>
-      </c>
-      <c r="C87" s="2" t="s">
+      <c r="D86" s="11"/>
+    </row>
+    <row r="87" ht="41.25" spans="1:4">
+      <c r="A87" s="18"/>
+      <c r="B87" s="19">
+        <v>5</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D87" s="10"/>
-    </row>
-    <row r="88" ht="25.5" spans="1:4">
-      <c r="A88" s="17"/>
-      <c r="B88" s="18">
-        <v>2</v>
-      </c>
-      <c r="C88" s="11" t="s">
+      <c r="D87" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D88" s="10"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="17"/>
-      <c r="B89" s="18">
-        <v>2</v>
-      </c>
-      <c r="C89" s="11" t="s">
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="18"/>
+      <c r="B88" s="19">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
         <v>125</v>
       </c>
-      <c r="D89" s="10"/>
+      <c r="D88" s="11"/>
+    </row>
+    <row r="89" ht="25.5" spans="1:4">
+      <c r="A89" s="18"/>
+      <c r="B89" s="19">
+        <v>2</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D89" s="11"/>
     </row>
     <row r="90" ht="25.5" spans="1:4">
-      <c r="A90" s="17"/>
-      <c r="B90" s="18">
-        <v>2</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D90" s="10"/>
-    </row>
-    <row r="91" ht="25.5" spans="1:4">
-      <c r="A91" s="17"/>
-      <c r="B91" s="18">
-        <v>5</v>
-      </c>
-      <c r="C91" s="11" t="s">
+      <c r="A90" s="18"/>
+      <c r="B90" s="19">
+        <v>2</v>
+      </c>
+      <c r="C90" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D90" s="11"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="18"/>
+      <c r="B91" s="19">
+        <v>2</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="92" ht="54" spans="1:4">
-      <c r="A92" s="17"/>
-      <c r="B92" s="18">
+      <c r="D91" s="11"/>
+    </row>
+    <row r="92" ht="25.5" spans="1:4">
+      <c r="A92" s="18"/>
+      <c r="B92" s="19">
+        <v>2</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" s="11"/>
+    </row>
+    <row r="93" ht="25.5" spans="1:4">
+      <c r="A93" s="18"/>
+      <c r="B93" s="19">
+        <v>5</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" ht="41.25" spans="1:4">
+      <c r="A94" s="18"/>
+      <c r="B94" s="20">
+        <v>5</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" ht="160.5" spans="1:4">
+      <c r="A95" s="18"/>
+      <c r="B95" s="20">
+        <v>5</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" ht="28.5" spans="1:4">
+      <c r="A96" s="18"/>
+      <c r="B96" s="20">
+        <v>5</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" ht="57" spans="1:4">
+      <c r="A97" s="18"/>
+      <c r="B97" s="19">
+        <v>5</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" ht="38.25" spans="1:4">
+      <c r="A98" s="18"/>
+      <c r="B98" s="19">
         <v>1</v>
       </c>
-      <c r="C92" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="93" ht="38.25" spans="1:4">
-      <c r="A93" s="17"/>
-      <c r="B93" s="18">
+      <c r="C98" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D98" s="11"/>
+    </row>
+    <row r="99" ht="27" spans="1:4">
+      <c r="A99" s="18"/>
+      <c r="B99" s="19">
+        <v>2</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D99" s="11"/>
+    </row>
+    <row r="100" ht="25.5" spans="1:4">
+      <c r="A100" s="18"/>
+      <c r="B100" s="21">
+        <v>3</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D100" s="11"/>
+    </row>
+    <row r="101" ht="25.5" spans="1:4">
+      <c r="A101" s="18"/>
+      <c r="B101" s="19">
         <v>1</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D93" s="10"/>
-    </row>
-    <row r="94" ht="26.25" spans="1:4">
-      <c r="A94" s="17"/>
-      <c r="B94" s="18">
-        <v>2</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D94" s="10"/>
-    </row>
-    <row r="95" ht="25.5" spans="1:4">
-      <c r="A95" s="17"/>
-      <c r="B95" s="19">
+      <c r="C101" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" s="11"/>
+    </row>
+    <row r="102" ht="25.5" spans="1:4">
+      <c r="A102" s="18"/>
+      <c r="B102" s="19">
+        <v>1</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" s="11"/>
+    </row>
+    <row r="103" ht="27" spans="1:4">
+      <c r="A103" s="18"/>
+      <c r="B103" s="19">
+        <v>1</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D103" s="11"/>
+    </row>
+    <row r="104" ht="27" spans="1:4">
+      <c r="A104" s="18"/>
+      <c r="B104" s="19">
+        <v>1</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D104" s="11"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="18"/>
+      <c r="B105" s="19">
+        <v>1</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D105" s="11"/>
+    </row>
+    <row r="106" ht="69.75" spans="1:4">
+      <c r="A106" s="18"/>
+      <c r="B106" s="19">
+        <v>5</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" spans="1:4">
+      <c r="A107" s="18"/>
+      <c r="B107" s="22">
         <v>3</v>
       </c>
-      <c r="C95" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D95" s="10"/>
-    </row>
-    <row r="96" ht="25.5" spans="1:4">
-      <c r="A96" s="17"/>
-      <c r="B96" s="18">
-        <v>1</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D96" s="10"/>
-    </row>
-    <row r="97" ht="25.5" spans="1:4">
-      <c r="A97" s="17"/>
-      <c r="B97" s="18">
-        <v>1</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D97" s="10"/>
-    </row>
-    <row r="98" ht="26.25" spans="1:4">
-      <c r="A98" s="17"/>
-      <c r="B98" s="18">
-        <v>1</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D98" s="10"/>
-    </row>
-    <row r="99" ht="26.25" spans="1:4">
-      <c r="A99" s="17"/>
-      <c r="B99" s="18">
-        <v>1</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D99" s="10"/>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="17"/>
-      <c r="B100" s="18">
-        <v>1</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D100" s="10"/>
-    </row>
-    <row r="101" ht="66.75" spans="1:4">
-      <c r="A101" s="17"/>
-      <c r="B101" s="18">
-        <v>5</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="102" ht="25.5" spans="1:4">
-      <c r="A102" s="17"/>
-      <c r="B102" s="20">
-        <v>3</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="103" ht="53.25" spans="1:4">
-      <c r="A103" s="17"/>
-      <c r="B103" s="18">
-        <v>5</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" ht="28.5" spans="1:4">
-      <c r="A104" s="17"/>
-      <c r="B104" s="18">
-        <v>2</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D104" s="10"/>
-    </row>
-    <row r="105" ht="119.25" spans="1:4">
-      <c r="A105" s="22"/>
-      <c r="B105" s="18">
-        <v>5</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" ht="26.25" spans="1:4">
-      <c r="A106" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B106" s="24"/>
-      <c r="C106" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D106" s="11"/>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="23"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="11" t="s">
+      <c r="C107" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D107" s="11"/>
+      <c r="D107" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" ht="55.5" spans="1:4">
+      <c r="A108" s="18"/>
+      <c r="B108" s="19">
+        <v>5</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" ht="27" spans="1:4">
+      <c r="A109" s="18"/>
+      <c r="B109" s="19">
+        <v>2</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D109" s="11"/>
+    </row>
+    <row r="110" ht="123.75" spans="1:4">
+      <c r="A110" s="24"/>
+      <c r="B110" s="19">
+        <v>5</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" ht="27" spans="1:4">
+      <c r="A111" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B111" s="26"/>
+      <c r="C111" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D111" s="12"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="25"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D112" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A38"/>
-    <mergeCell ref="A39:A72"/>
-    <mergeCell ref="A73:A105"/>
-    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A16:A40"/>
+    <mergeCell ref="A41:A74"/>
+    <mergeCell ref="A75:A110"/>
+    <mergeCell ref="A111:A112"/>
   </mergeCells>
-  <conditionalFormatting sqref="B$1:B$1048576">
+  <conditionalFormatting sqref="B1:B16 B17:B95 B96 B97:B1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15120" windowHeight="25890"/>
+    <workbookView windowWidth="27720" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
   <si>
     <t>Scope</t>
   </si>
@@ -138,6 +138,9 @@
 the appearance differrence mainly lies in shallow layers and the object level difference attributes to majorly height layer divergence and partially low layer ones
 IN 减少了视觉和外观上带来的差异; BN加速了训练, 并保证了有区分性的特征
 IBNnet在target domain上fineturn的效果也会更好</t>
+  </si>
+  <si>
+    <t>Understanding the Effective Receptive Field in Deep Convolutional Neural Networks</t>
   </si>
   <si>
     <t>Gather-Excite: Exploiting feature Context in Convolutional Neural Networks</t>
@@ -537,12 +540,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,13 +582,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF31424E"/>
       <name val="microsoft yahei"/>
@@ -600,14 +596,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -615,15 +603,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,9 +626,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,8 +664,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,14 +711,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,50 +725,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -781,55 +777,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,67 +927,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,37 +945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,15 +1035,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1059,6 +1046,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,23 +1094,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,152 +1113,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1323,16 +1319,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1701,12 +1694,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1991,8 +1984,8 @@
     </row>
     <row r="26" ht="82.5" spans="1:4">
       <c r="A26" s="9"/>
-      <c r="B26" s="16">
-        <v>1</v>
+      <c r="B26" s="14">
+        <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>37</v>
@@ -2003,117 +1996,117 @@
     </row>
     <row r="27" ht="25.5" spans="1:4">
       <c r="A27" s="9"/>
-      <c r="B27" s="16">
-        <v>1</v>
+      <c r="B27" s="14">
+        <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" ht="84" spans="1:4">
+    <row r="28" ht="25.5" spans="1:4">
       <c r="A28" s="9"/>
-      <c r="B28" s="14">
-        <v>5</v>
+      <c r="B28" s="16">
+        <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" ht="28.5" spans="1:4">
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" ht="84" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="14">
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="11" t="s">
+    </row>
+    <row r="30" ht="28.5" spans="1:4">
+      <c r="A30" s="9"/>
+      <c r="B30" s="14">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="9"/>
-      <c r="B30" s="16">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="9"/>
       <c r="B31" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
         <v>45</v>
       </c>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" ht="41.25" spans="1:4">
+    <row r="32" spans="1:4">
       <c r="A32" s="9"/>
-      <c r="B32" s="14">
-        <v>5</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="16">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" ht="41.25" spans="1:4">
+      <c r="A33" s="9"/>
+      <c r="B33" s="14">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" ht="25.5" spans="1:4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="16">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" ht="81" spans="1:4">
+    </row>
+    <row r="34" ht="25.5" spans="1:4">
       <c r="A34" s="9"/>
-      <c r="B34" s="14">
-        <v>5</v>
-      </c>
-      <c r="C34" s="11" t="s">
+      <c r="B34" s="16">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" ht="28.5" spans="1:4">
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" ht="81" spans="1:4">
       <c r="A35" s="9"/>
       <c r="B35" s="14">
         <v>5</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" ht="25.5" spans="1:4">
+    </row>
+    <row r="36" ht="28.5" spans="1:4">
       <c r="A36" s="9"/>
       <c r="B36" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C36" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="1:4">
+    </row>
+    <row r="37" ht="25.5" spans="1:4">
       <c r="A37" s="9"/>
-      <c r="B37" s="16">
+      <c r="B37" s="14">
         <v>1</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -2124,51 +2117,51 @@
     <row r="38" spans="1:4">
       <c r="A38" s="9"/>
       <c r="B38" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" ht="53" customHeight="1" spans="1:4">
+    <row r="39" spans="1:4">
       <c r="A39" s="9"/>
-      <c r="B39" s="14">
-        <v>5</v>
+      <c r="B39" s="16">
+        <v>2</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" ht="41" customHeight="1" spans="1:4">
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" ht="53" customHeight="1" spans="1:4">
       <c r="A40" s="9"/>
       <c r="B40" s="14">
         <v>5</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="11" t="s">
+    </row>
+    <row r="41" ht="41" customHeight="1" spans="1:4">
+      <c r="A41" s="9"/>
+      <c r="B41" s="14">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41" ht="25.5" spans="1:4">
-      <c r="A41" s="9" t="s">
+      <c r="D41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="14">
-        <v>2</v>
-      </c>
-      <c r="C41" s="2" t="s">
+    </row>
+    <row r="42" ht="25.5" spans="1:4">
+      <c r="A42" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" ht="25.5" spans="1:4">
-      <c r="A42" s="9"/>
       <c r="B42" s="14">
         <v>2</v>
       </c>
@@ -2177,7 +2170,7 @@
       </c>
       <c r="D42" s="11"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" ht="25.5" spans="1:4">
       <c r="A43" s="9"/>
       <c r="B43" s="14">
         <v>2</v>
@@ -2187,7 +2180,7 @@
       </c>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" ht="25.5" spans="1:4">
+    <row r="44" spans="1:4">
       <c r="A44" s="9"/>
       <c r="B44" s="14">
         <v>2</v>
@@ -2207,80 +2200,74 @@
       </c>
       <c r="D45" s="11"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" ht="25.5" spans="1:4">
       <c r="A46" s="9"/>
       <c r="B46" s="14">
-        <v>5</v>
-      </c>
-      <c r="C46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="F46" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="9"/>
       <c r="B47" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C47" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="F47" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-    </row>
-    <row r="48" ht="52.5" spans="1:7">
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="9"/>
-      <c r="B48" s="16">
+      <c r="B48" s="14">
         <v>2</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" spans="1:7">
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+    </row>
+    <row r="49" ht="52.5" spans="1:7">
       <c r="A49" s="9"/>
       <c r="B49" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49" s="11"/>
       <c r="F49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" ht="25.5" spans="1:7">
       <c r="A50" s="9"/>
       <c r="B50" s="16">
         <v>3</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D50" s="11"/>
       <c r="F50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2289,27 +2276,33 @@
         <v>3</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D51" s="11"/>
       <c r="F51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="9"/>
       <c r="B52" s="16">
         <v>3</v>
       </c>
       <c r="C52" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="F52" s="1">
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="11"/>
-    </row>
-    <row r="53" ht="25.5" spans="1:4">
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="9"/>
       <c r="B53" s="16">
         <v>3</v>
@@ -2319,27 +2312,27 @@
       </c>
       <c r="D53" s="11"/>
     </row>
-    <row r="54" ht="42.75" spans="1:4">
+    <row r="54" ht="25.5" spans="1:4">
       <c r="A54" s="9"/>
-      <c r="B54" s="10">
-        <v>5</v>
+      <c r="B54" s="16">
+        <v>3</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" ht="42.75" spans="1:4">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10">
+        <v>5</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="55" ht="25.5" spans="1:4">
-      <c r="A55" s="9"/>
-      <c r="B55" s="16">
-        <v>3</v>
-      </c>
-      <c r="C55" s="11" t="s">
+      <c r="D55" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="11"/>
     </row>
     <row r="56" ht="25.5" spans="1:4">
       <c r="A56" s="9"/>
@@ -2351,27 +2344,27 @@
       </c>
       <c r="D56" s="11"/>
     </row>
-    <row r="57" ht="84" spans="1:4">
+    <row r="57" ht="25.5" spans="1:4">
       <c r="A57" s="9"/>
-      <c r="B57" s="10">
-        <v>5</v>
+      <c r="B57" s="16">
+        <v>3</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" ht="84" spans="1:4">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10">
+        <v>5</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="58" ht="25.5" spans="1:4">
-      <c r="A58" s="9"/>
-      <c r="B58" s="16">
-        <v>2</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D58" s="11"/>
     </row>
     <row r="59" ht="25.5" spans="1:4">
       <c r="A59" s="9"/>
@@ -2383,7 +2376,7 @@
       </c>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" ht="25.5" spans="1:4">
       <c r="A60" s="9"/>
       <c r="B60" s="16">
         <v>2</v>
@@ -2403,7 +2396,7 @@
       </c>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" ht="25.5" spans="1:4">
+    <row r="62" spans="1:4">
       <c r="A62" s="9"/>
       <c r="B62" s="16">
         <v>2</v>
@@ -2413,7 +2406,7 @@
       </c>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" ht="25.5" spans="1:4">
       <c r="A63" s="9"/>
       <c r="B63" s="16">
         <v>2</v>
@@ -2423,7 +2416,7 @@
       </c>
       <c r="D63" s="11"/>
     </row>
-    <row r="64" ht="25.5" spans="1:4">
+    <row r="64" spans="1:4">
       <c r="A64" s="9"/>
       <c r="B64" s="16">
         <v>2</v>
@@ -2453,39 +2446,39 @@
       </c>
       <c r="D66" s="11"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" ht="25.5" spans="1:4">
       <c r="A67" s="9"/>
       <c r="B67" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D67" s="11"/>
     </row>
-    <row r="68" ht="42.75" spans="1:4">
+    <row r="68" spans="1:4">
       <c r="A68" s="9"/>
-      <c r="B68" s="10">
-        <v>5</v>
+      <c r="B68" s="16">
+        <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="11"/>
+    </row>
+    <row r="69" ht="42.75" spans="1:4">
+      <c r="A69" s="9"/>
+      <c r="B69" s="10">
+        <v>5</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="9"/>
-      <c r="B69" s="16">
-        <v>1</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D69" s="11"/>
-    </row>
-    <row r="70" ht="25.5" spans="1:4">
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="9"/>
       <c r="B70" s="16">
         <v>1</v>
@@ -2520,12 +2513,12 @@
       <c r="B73" s="16">
         <v>1</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D73" s="11"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" ht="25.5" spans="1:4">
       <c r="A74" s="9"/>
       <c r="B74" s="16">
         <v>1</v>
@@ -2535,85 +2528,83 @@
       </c>
       <c r="D74" s="11"/>
     </row>
-    <row r="75" ht="25.5" spans="1:4">
-      <c r="A75" s="18" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" s="9"/>
+      <c r="B75" s="16">
+        <v>1</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="16">
-        <v>2</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" ht="25.5" spans="1:4">
+      <c r="A76" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D75" s="11"/>
-    </row>
-    <row r="76" ht="41.25" spans="1:4">
-      <c r="A76" s="18"/>
-      <c r="B76" s="10">
-        <v>5</v>
-      </c>
-      <c r="C76" s="11" t="s">
+      <c r="B76" s="16">
+        <v>2</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D76" s="11"/>
     </row>
-    <row r="77" ht="54" spans="1:4">
+    <row r="77" ht="41.25" spans="1:4">
       <c r="A77" s="18"/>
       <c r="B77" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="11"/>
+    </row>
+    <row r="78" ht="54" spans="1:4">
+      <c r="A78" s="18"/>
+      <c r="B78" s="10">
+        <v>6</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="78" ht="14.25" spans="1:4">
-      <c r="A78" s="18"/>
-      <c r="B78" s="19">
-        <v>5</v>
-      </c>
-      <c r="C78" s="11" t="s">
+      <c r="D78" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D78" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" ht="28.5" spans="1:4">
+    </row>
+    <row r="79" ht="14.25" spans="1:4">
       <c r="A79" s="18"/>
       <c r="B79" s="19">
         <v>5</v>
       </c>
       <c r="C79" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D79" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D79" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" ht="25.5" spans="1:4">
+    </row>
+    <row r="80" ht="28.5" spans="1:4">
       <c r="A80" s="18"/>
       <c r="B80" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C80" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D80" s="11"/>
-    </row>
-    <row r="81" ht="96.75" spans="1:4">
+    </row>
+    <row r="81" ht="25.5" spans="1:4">
       <c r="A81" s="18"/>
       <c r="B81" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D81" s="11" t="s">
-        <v>114</v>
-      </c>
+      <c r="D81" s="11"/>
     </row>
     <row r="82" ht="96.75" spans="1:4">
       <c r="A82" s="18"/>
@@ -2621,47 +2612,49 @@
         <v>5</v>
       </c>
       <c r="C82" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D82" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" ht="55.5" spans="1:4">
+    </row>
+    <row r="83" ht="96.75" spans="1:4">
       <c r="A83" s="18"/>
       <c r="B83" s="19">
         <v>5</v>
       </c>
       <c r="C83" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D83" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="84" ht="111" spans="1:4">
+    </row>
+    <row r="84" ht="55.5" spans="1:4">
       <c r="A84" s="18"/>
       <c r="B84" s="19">
         <v>5</v>
       </c>
       <c r="C84" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D84" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D84" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+    </row>
+    <row r="85" ht="111" spans="1:4">
       <c r="A85" s="18"/>
       <c r="B85" s="19">
         <v>5</v>
       </c>
       <c r="C85" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D85" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D85" s="11"/>
-    </row>
-    <row r="86" ht="27" spans="1:4">
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="18"/>
       <c r="B86" s="19">
         <v>5</v>
@@ -2671,7 +2664,7 @@
       </c>
       <c r="D86" s="11"/>
     </row>
-    <row r="87" ht="41.25" spans="1:4">
+    <row r="87" ht="27" spans="1:4">
       <c r="A87" s="18"/>
       <c r="B87" s="19">
         <v>5</v>
@@ -2679,26 +2672,26 @@
       <c r="C87" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D87" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="D87" s="11"/>
+    </row>
+    <row r="88" ht="41.25" spans="1:4">
       <c r="A88" s="18"/>
       <c r="B88" s="19">
-        <v>2</v>
-      </c>
-      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D88" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D88" s="11"/>
-    </row>
-    <row r="89" ht="25.5" spans="1:4">
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="18"/>
       <c r="B89" s="19">
         <v>2</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" t="s">
         <v>126</v>
       </c>
       <c r="D89" s="11"/>
@@ -2708,12 +2701,12 @@
       <c r="B90" s="19">
         <v>2</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C90" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D90" s="11"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" ht="25.5" spans="1:4">
       <c r="A91" s="18"/>
       <c r="B91" s="19">
         <v>2</v>
@@ -2723,7 +2716,7 @@
       </c>
       <c r="D91" s="11"/>
     </row>
-    <row r="92" ht="25.5" spans="1:4">
+    <row r="92" spans="1:4">
       <c r="A92" s="18"/>
       <c r="B92" s="19">
         <v>2</v>
@@ -2736,87 +2729,87 @@
     <row r="93" ht="25.5" spans="1:4">
       <c r="A93" s="18"/>
       <c r="B93" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C93" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="11"/>
+    </row>
+    <row r="94" ht="25.5" spans="1:4">
+      <c r="A94" s="18"/>
+      <c r="B94" s="19">
+        <v>5</v>
+      </c>
+      <c r="C94" s="12" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="94" ht="41.25" spans="1:4">
-      <c r="A94" s="18"/>
-      <c r="B94" s="20">
-        <v>5</v>
-      </c>
-      <c r="C94" s="12" t="s">
+      <c r="D94" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D94" s="11" t="s">
+    </row>
+    <row r="95" ht="41.25" spans="1:4">
+      <c r="A95" s="18"/>
+      <c r="B95" s="19">
+        <v>5</v>
+      </c>
+      <c r="C95" s="12" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="95" ht="160.5" spans="1:4">
-      <c r="A95" s="18"/>
-      <c r="B95" s="20">
-        <v>5</v>
-      </c>
-      <c r="C95" s="12" t="s">
+      <c r="D95" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D95" s="11" t="s">
+    </row>
+    <row r="96" ht="160.5" spans="1:4">
+      <c r="A96" s="18"/>
+      <c r="B96" s="19">
+        <v>5</v>
+      </c>
+      <c r="C96" s="12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="96" ht="28.5" spans="1:4">
-      <c r="A96" s="18"/>
-      <c r="B96" s="20">
-        <v>5</v>
-      </c>
-      <c r="C96" s="12" t="s">
+      <c r="D96" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D96" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" ht="57" spans="1:4">
+    </row>
+    <row r="97" ht="28.5" spans="1:4">
       <c r="A97" s="18"/>
       <c r="B97" s="19">
         <v>5</v>
       </c>
       <c r="C97" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D97" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D97" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="98" ht="38.25" spans="1:4">
+    </row>
+    <row r="98" ht="57" spans="1:4">
       <c r="A98" s="18"/>
       <c r="B98" s="19">
-        <v>1</v>
-      </c>
-      <c r="C98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D98" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D98" s="11"/>
-    </row>
-    <row r="99" ht="27" spans="1:4">
+    </row>
+    <row r="99" ht="38.25" spans="1:4">
       <c r="A99" s="18"/>
       <c r="B99" s="19">
-        <v>2</v>
-      </c>
-      <c r="C99" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D99" s="11"/>
     </row>
-    <row r="100" ht="25.5" spans="1:4">
+    <row r="100" ht="27" spans="1:4">
       <c r="A100" s="18"/>
-      <c r="B100" s="21">
-        <v>3</v>
+      <c r="B100" s="19">
+        <v>2</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>142</v>
@@ -2825,8 +2818,8 @@
     </row>
     <row r="101" ht="25.5" spans="1:4">
       <c r="A101" s="18"/>
-      <c r="B101" s="19">
-        <v>1</v>
+      <c r="B101" s="20">
+        <v>3</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>143</v>
@@ -2843,7 +2836,7 @@
       </c>
       <c r="D102" s="11"/>
     </row>
-    <row r="103" ht="27" spans="1:4">
+    <row r="103" ht="25.5" spans="1:4">
       <c r="A103" s="18"/>
       <c r="B103" s="19">
         <v>1</v>
@@ -2863,7 +2856,7 @@
       </c>
       <c r="D104" s="11"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" ht="27" spans="1:4">
       <c r="A105" s="18"/>
       <c r="B105" s="19">
         <v>1</v>
@@ -2873,93 +2866,103 @@
       </c>
       <c r="D105" s="11"/>
     </row>
-    <row r="106" ht="69.75" spans="1:4">
+    <row r="106" spans="1:4">
       <c r="A106" s="18"/>
       <c r="B106" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D106" s="11"/>
+    </row>
+    <row r="107" ht="69.75" spans="1:4">
+      <c r="A107" s="18"/>
+      <c r="B107" s="19">
+        <v>5</v>
+      </c>
+      <c r="C107" s="12" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="107" ht="25.5" spans="1:4">
-      <c r="A107" s="18"/>
-      <c r="B107" s="22">
+      <c r="D107" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" ht="25.5" spans="1:4">
+      <c r="A108" s="18"/>
+      <c r="B108" s="21">
         <v>3</v>
       </c>
-      <c r="C107" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D107" s="11" t="s">
+      <c r="C108" s="12" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="108" ht="55.5" spans="1:4">
-      <c r="A108" s="18"/>
-      <c r="B108" s="19">
-        <v>5</v>
-      </c>
-      <c r="C108" s="23" t="s">
+      <c r="D108" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="109" ht="27" spans="1:4">
+    </row>
+    <row r="109" ht="55.5" spans="1:4">
       <c r="A109" s="18"/>
       <c r="B109" s="19">
-        <v>2</v>
-      </c>
-      <c r="C109" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D109" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D109" s="11"/>
-    </row>
-    <row r="110" ht="123.75" spans="1:4">
-      <c r="A110" s="24"/>
+    </row>
+    <row r="110" ht="27" spans="1:4">
+      <c r="A110" s="18"/>
       <c r="B110" s="19">
-        <v>5</v>
-      </c>
-      <c r="C110" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="11"/>
+    </row>
+    <row r="111" ht="123.75" spans="1:4">
+      <c r="A111" s="23"/>
+      <c r="B111" s="19">
+        <v>5</v>
+      </c>
+      <c r="C111" s="11" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="111" ht="27" spans="1:4">
-      <c r="A111" s="25" t="s">
+      <c r="D111" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B111" s="26"/>
-      <c r="C111" s="12" t="s">
+    </row>
+    <row r="112" ht="27" spans="1:4">
+      <c r="A112" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="D111" s="12"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="25"/>
-      <c r="B112" s="26"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="12" t="s">
         <v>159</v>
       </c>
       <c r="D112" s="12"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="24"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D113" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A40"/>
-    <mergeCell ref="A41:A74"/>
-    <mergeCell ref="A75:A110"/>
-    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A16:A41"/>
+    <mergeCell ref="A42:A75"/>
+    <mergeCell ref="A76:A111"/>
+    <mergeCell ref="A112:A113"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B16 B17:B95 B96 B97:B1048576">
+  <conditionalFormatting sqref="B28:B1048576 B1:B26 B27">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13290"/>
+    <workbookView windowWidth="27720" windowHeight="14370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
   <si>
     <t>Scope</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>Focal Loss for Dense Object Detection</t>
+  </si>
+  <si>
+    <t>Bag of tricks for image classification with Convolutional Nerual Networks</t>
+  </si>
+  <si>
+    <t>统一比较了很多trick， 其中mixup_data_augmentation和cosin_learning rate 比较有意思</t>
+  </si>
+  <si>
+    <t>mixup: Beyond Empirical Risk Minimization</t>
   </si>
   <si>
     <t>revisiting batch normalization for practical domain adaption</t>
@@ -143,6 +152,9 @@
     <t>Understanding the Effective Receptive Field in Deep Convolutional Neural Networks</t>
   </si>
   <si>
+    <t>Paying more attention, Improving the performance of convolutional neural networks via attenton transfer</t>
+  </si>
+  <si>
     <t>Gather-Excite: Exploiting feature Context in Convolutional Neural Networks</t>
   </si>
   <si>
@@ -323,6 +335,18 @@
   </si>
   <si>
     <t>在 faster-rcnn和r-fcn之间取了一个平衡点, (ps)roi-pooling前后都不"重", 因此在速度和准确率上取得了一个平衡; 490channle的pre-psroipooling feature map其实有点rfcn-3000的super-class的感觉</t>
+  </si>
+  <si>
+    <t>Revisiting rcnn, on awakening the classification power of faster rcnn</t>
+  </si>
+  <si>
+    <t>Learning region features for object detection</t>
+  </si>
+  <si>
+    <t>mimicking very efficient network for object detection</t>
+  </si>
+  <si>
+    <t>Decoupled classification reifinement, hard false positive suppresion for object detection</t>
   </si>
   <si>
     <t>Relation Networks for Object Detection</t>
@@ -470,7 +494,17 @@
 ...GPU多真心好</t>
   </si>
   <si>
+    <t>improving fast segmentation with teacher student learning</t>
+  </si>
+  <si>
+    <t>一个对semantic segmentation做knowledge distillation的框架；用teacher model引入了probability loss， consistency loss，以及用unlabeled data，使得小模型的mIoU提升了4个点；
+loss的设计很有意思；</t>
+  </si>
+  <si>
     <t>Deep fully convolutional networks with random data augmentation for enhanced generalization in road detection</t>
+  </si>
+  <si>
+    <t>Training constrained deconvolutional networks for road scene semantic segmentation</t>
   </si>
   <si>
     <t>End-to-end ego lane estimation based on sequential transfer learning for self-driving cars(着重在训练方法)</t>
@@ -540,12 +574,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +616,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF31424E"/>
       <name val="microsoft yahei"/>
@@ -591,13 +632,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,6 +653,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -626,23 +668,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,30 +708,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,38 +760,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,181 +812,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,6 +1092,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1061,21 +1117,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,136 +1154,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1251,14 +1292,14 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1313,6 +1354,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1325,7 +1369,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1694,12 +1738,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1848,107 +1892,109 @@
     </row>
     <row r="13" ht="25.5" spans="1:4">
       <c r="A13" s="9"/>
-      <c r="B13" s="14">
-        <v>2</v>
+      <c r="B13" s="10">
+        <v>5</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" ht="25.5" spans="1:4">
+      <c r="D13" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="9"/>
-      <c r="B14" s="16">
-        <v>2</v>
+      <c r="B14" s="10">
+        <v>1</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" ht="54" spans="1:4">
+    <row r="15" ht="25.5" spans="1:4">
       <c r="A15" s="9"/>
-      <c r="B15" s="16">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>23</v>
+      <c r="B15" s="14">
+        <v>2</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" ht="37" customHeight="1" spans="1:4">
-      <c r="A16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="10">
-        <v>5</v>
-      </c>
-      <c r="C16" s="11" t="s">
+    <row r="16" ht="25.5" spans="1:4">
+      <c r="A16" s="9"/>
+      <c r="B16" s="16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" ht="54" spans="1:4">
       <c r="A17" s="9"/>
       <c r="B17" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" ht="37" customHeight="1" spans="1:4">
+      <c r="A18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="14">
+      <c r="B18" s="10">
         <v>5</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" ht="28.5" spans="1:4">
+      <c r="D18" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="9"/>
-      <c r="B19" s="14">
-        <v>5</v>
+      <c r="B19" s="16">
+        <v>3</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" ht="25.5" spans="1:4">
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="9"/>
-      <c r="B20" s="16">
-        <v>3</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="14">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" ht="25.5" spans="1:4">
+    <row r="21" ht="28.5" spans="1:4">
       <c r="A21" s="9"/>
-      <c r="B21" s="16">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="14">
+        <v>5</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" ht="25.5" spans="1:4">
       <c r="A22" s="9"/>
       <c r="B22" s="16">
         <v>3</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>33</v>
+      <c r="C22" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -1958,107 +2004,105 @@
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" ht="14.25" spans="1:4">
+    <row r="24" ht="25.5" spans="1:4">
       <c r="A24" s="9"/>
       <c r="B24" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" s="11"/>
     </row>
     <row r="25" ht="25.5" spans="1:4">
       <c r="A25" s="9"/>
       <c r="B25" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" ht="82.5" spans="1:4">
+    <row r="26" ht="14.25" spans="1:4">
       <c r="A26" s="9"/>
-      <c r="B26" s="14">
-        <v>5</v>
+      <c r="B26" s="16">
+        <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="11" t="s">
         <v>38</v>
       </c>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" ht="25.5" spans="1:4">
       <c r="A27" s="9"/>
-      <c r="B27" s="14">
-        <v>2</v>
+      <c r="B27" s="16">
+        <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" ht="25.5" spans="1:4">
+    <row r="28" ht="82.5" spans="1:4">
       <c r="A28" s="9"/>
-      <c r="B28" s="16">
-        <v>1</v>
+      <c r="B28" s="14">
+        <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" ht="84" spans="1:4">
+      <c r="D28" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="30" ht="28.5" spans="1:4">
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" ht="25.5" spans="1:4">
       <c r="A30" s="9"/>
-      <c r="B30" s="14">
-        <v>5</v>
+      <c r="B30" s="16">
+        <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" ht="25.5" spans="1:4">
       <c r="A31" s="9"/>
       <c r="B31" s="16">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" ht="84" spans="1:4">
+      <c r="A32" s="9"/>
+      <c r="B32" s="14">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="9"/>
-      <c r="B32" s="16">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" ht="41.25" spans="1:4">
+    </row>
+    <row r="33" ht="28.5" spans="1:4">
       <c r="A33" s="9"/>
       <c r="B33" s="14">
         <v>5</v>
@@ -2070,138 +2114,136 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" ht="25.5" spans="1:4">
+    <row r="34" spans="1:4">
       <c r="A34" s="9"/>
       <c r="B34" s="16">
-        <v>2</v>
-      </c>
-      <c r="C34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>49</v>
       </c>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" ht="81" spans="1:4">
+    <row r="35" spans="1:4">
       <c r="A35" s="9"/>
-      <c r="B35" s="14">
-        <v>5</v>
-      </c>
-      <c r="C35" s="11" t="s">
+      <c r="B35" s="16">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" ht="28.5" spans="1:4">
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" ht="41.25" spans="1:4">
       <c r="A36" s="9"/>
       <c r="B36" s="14">
         <v>5</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="37" ht="25.5" spans="1:4">
       <c r="A37" s="9"/>
-      <c r="B37" s="14">
-        <v>1</v>
-      </c>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="16">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" ht="81" spans="1:4">
+      <c r="A38" s="9"/>
+      <c r="B38" s="14">
+        <v>5</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="9"/>
-      <c r="B38" s="16">
-        <v>1</v>
-      </c>
-      <c r="C38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" spans="1:4">
+    </row>
+    <row r="39" ht="28.5" spans="1:4">
       <c r="A39" s="9"/>
-      <c r="B39" s="16">
-        <v>2</v>
+      <c r="B39" s="14">
+        <v>5</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" ht="53" customHeight="1" spans="1:4">
+      <c r="D39" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="9"/>
-      <c r="B40" s="14">
-        <v>5</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" ht="41" customHeight="1" spans="1:4">
+      <c r="B40" s="14"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" ht="25.5" spans="1:4">
       <c r="A41" s="9"/>
       <c r="B41" s="14">
-        <v>5</v>
-      </c>
-      <c r="C41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="9"/>
+      <c r="B42" s="16">
+        <v>1</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="9"/>
+      <c r="B43" s="16">
+        <v>2</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" ht="25.5" spans="1:4">
-      <c r="A42" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="14">
-        <v>2</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43" ht="25.5" spans="1:4">
-      <c r="A43" s="9"/>
-      <c r="B43" s="14">
-        <v>2</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" ht="53" customHeight="1" spans="1:4">
       <c r="A44" s="9"/>
       <c r="B44" s="14">
-        <v>2</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45" ht="25.5" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" ht="41" customHeight="1" spans="1:4">
       <c r="A45" s="9"/>
       <c r="B45" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" spans="1:4">
+      <c r="A46" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="11"/>
-    </row>
-    <row r="46" ht="25.5" spans="1:4">
-      <c r="A46" s="9"/>
       <c r="B46" s="14">
         <v>2</v>
       </c>
@@ -2210,201 +2252,201 @@
       </c>
       <c r="D46" s="11"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" ht="25.5" spans="1:4">
       <c r="A47" s="9"/>
       <c r="B47" s="14">
-        <v>5</v>
-      </c>
-      <c r="C47" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="F47" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="9"/>
       <c r="B48" s="14">
         <v>2</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" ht="25.5" spans="1:4">
+      <c r="A49" s="9"/>
+      <c r="B49" s="14">
+        <v>2</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="11"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" ht="52.5" spans="1:7">
-      <c r="A49" s="9"/>
-      <c r="B49" s="16">
-        <v>2</v>
-      </c>
-      <c r="C49" s="11" t="s">
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" ht="25.5" spans="1:4">
+      <c r="A50" s="9"/>
+      <c r="B50" s="14">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" ht="25.5" spans="1:7">
-      <c r="A50" s="9"/>
-      <c r="B50" s="16">
-        <v>3</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="D50" s="11"/>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="9"/>
-      <c r="B51" s="16">
-        <v>3</v>
+      <c r="B51" s="14">
+        <v>5</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="F51" s="1">
-        <v>2</v>
-      </c>
-      <c r="G51" t="s">
-        <v>75</v>
+      <c r="F51" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="9"/>
-      <c r="B52" s="16">
-        <v>3</v>
+      <c r="B52" s="14">
+        <v>2</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="F52" s="1">
-        <v>3</v>
-      </c>
-      <c r="G52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+    </row>
+    <row r="53" ht="52.5" spans="1:7">
       <c r="A53" s="9"/>
       <c r="B53" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D53" s="11"/>
-    </row>
-    <row r="54" ht="25.5" spans="1:4">
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" spans="1:7">
       <c r="A54" s="9"/>
       <c r="B54" s="16">
         <v>3</v>
       </c>
       <c r="C54" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="9"/>
+      <c r="B55" s="16">
+        <v>3</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="F55" s="1">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="11"/>
-    </row>
-    <row r="55" ht="42.75" spans="1:4">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10">
-        <v>5</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" ht="25.5" spans="1:4">
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="9"/>
       <c r="B56" s="16">
         <v>3</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D56" s="11"/>
-    </row>
-    <row r="57" ht="25.5" spans="1:4">
+      <c r="F56" s="1">
+        <v>3</v>
+      </c>
+      <c r="G56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="9"/>
       <c r="B57" s="16">
         <v>3</v>
       </c>
       <c r="C57" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" ht="25.5" spans="1:4">
+      <c r="A58" s="9"/>
+      <c r="B58" s="16">
+        <v>3</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="11"/>
-    </row>
-    <row r="58" ht="84" spans="1:4">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10">
-        <v>5</v>
-      </c>
-      <c r="C58" s="11" t="s">
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" ht="42.75" spans="1:4">
+      <c r="A59" s="9"/>
+      <c r="B59" s="10">
+        <v>5</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D59" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="59" ht="25.5" spans="1:4">
-      <c r="A59" s="9"/>
-      <c r="B59" s="16">
-        <v>2</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="11"/>
     </row>
     <row r="60" ht="25.5" spans="1:4">
       <c r="A60" s="9"/>
       <c r="B60" s="16">
-        <v>2</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>87</v>
+        <v>3</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" ht="25.5" spans="1:4">
       <c r="A61" s="9"/>
       <c r="B61" s="16">
-        <v>2</v>
-      </c>
-      <c r="C61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="11"/>
+    </row>
+    <row r="62" ht="84" spans="1:4">
+      <c r="A62" s="9"/>
+      <c r="B62" s="10">
+        <v>5</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D61" s="11"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="9"/>
-      <c r="B62" s="16">
-        <v>2</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="11"/>
     </row>
     <row r="63" ht="25.5" spans="1:4">
       <c r="A63" s="9"/>
@@ -2416,7 +2458,7 @@
       </c>
       <c r="D63" s="11"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" ht="25.5" spans="1:4">
       <c r="A64" s="9"/>
       <c r="B64" s="16">
         <v>2</v>
@@ -2426,7 +2468,7 @@
       </c>
       <c r="D64" s="11"/>
     </row>
-    <row r="65" ht="25.5" spans="1:4">
+    <row r="65" spans="1:4">
       <c r="A65" s="9"/>
       <c r="B65" s="16">
         <v>2</v>
@@ -2436,7 +2478,7 @@
       </c>
       <c r="D65" s="11"/>
     </row>
-    <row r="66" ht="25.5" spans="1:4">
+    <row r="66" spans="1:4">
       <c r="A66" s="9"/>
       <c r="B66" s="16">
         <v>2</v>
@@ -2459,426 +2501,426 @@
     <row r="68" spans="1:4">
       <c r="A68" s="9"/>
       <c r="B68" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D68" s="11"/>
     </row>
-    <row r="69" ht="42.75" spans="1:4">
+    <row r="69" ht="25.5" spans="1:4">
       <c r="A69" s="9"/>
-      <c r="B69" s="10">
-        <v>5</v>
+      <c r="B69" s="16">
+        <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="D69" s="11"/>
+    </row>
+    <row r="70" ht="25.5" spans="1:4">
       <c r="A70" s="9"/>
       <c r="B70" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D70" s="11"/>
     </row>
     <row r="71" ht="25.5" spans="1:4">
       <c r="A71" s="9"/>
       <c r="B71" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D71" s="11"/>
     </row>
-    <row r="72" ht="25.5" spans="1:4">
+    <row r="72" spans="1:4">
       <c r="A72" s="9"/>
       <c r="B72" s="16">
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="11"/>
+    </row>
+    <row r="73" ht="42.75" spans="1:4">
+      <c r="A73" s="9"/>
+      <c r="B73" s="10">
+        <v>5</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D72" s="11"/>
-    </row>
-    <row r="73" ht="25.5" spans="1:4">
-      <c r="A73" s="9"/>
-      <c r="B73" s="16">
-        <v>1</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="11"/>
     </row>
     <row r="74" ht="25.5" spans="1:4">
       <c r="A74" s="9"/>
-      <c r="B74" s="16">
-        <v>1</v>
-      </c>
-      <c r="C74" s="11" t="s">
+      <c r="B74" s="18">
+        <v>2</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D74" s="11"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="9"/>
-      <c r="B75" s="16">
+      <c r="B75" s="10">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="9"/>
+      <c r="B76" s="10">
+        <v>2</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77" ht="25.5" spans="1:4">
+      <c r="A77" s="9"/>
+      <c r="B77" s="10">
+        <v>2</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D77" s="11"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="9"/>
+      <c r="B78" s="16">
         <v>1</v>
       </c>
-      <c r="C75" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D75" s="11"/>
-    </row>
-    <row r="76" ht="25.5" spans="1:4">
-      <c r="A76" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B76" s="16">
-        <v>2</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D76" s="11"/>
-    </row>
-    <row r="77" ht="41.25" spans="1:4">
-      <c r="A77" s="18"/>
-      <c r="B77" s="10">
-        <v>5</v>
-      </c>
-      <c r="C77" s="11" t="s">
+      <c r="C78" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D77" s="11"/>
-    </row>
-    <row r="78" ht="54" spans="1:4">
-      <c r="A78" s="18"/>
-      <c r="B78" s="10">
+      <c r="D78" s="11"/>
+    </row>
+    <row r="79" ht="25.5" spans="1:4">
+      <c r="A79" s="9"/>
+      <c r="B79" s="16">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="11"/>
+    </row>
+    <row r="80" ht="25.5" spans="1:4">
+      <c r="A80" s="9"/>
+      <c r="B80" s="16">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="11"/>
+    </row>
+    <row r="81" ht="25.5" spans="1:4">
+      <c r="A81" s="9"/>
+      <c r="B81" s="16">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" s="11"/>
+    </row>
+    <row r="82" ht="25.5" spans="1:4">
+      <c r="A82" s="9"/>
+      <c r="B82" s="16">
+        <v>1</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="9"/>
+      <c r="B83" s="16">
+        <v>1</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" s="11"/>
+    </row>
+    <row r="84" ht="25.5" spans="1:4">
+      <c r="A84" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="16">
+        <v>2</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="11"/>
+    </row>
+    <row r="85" ht="41.25" spans="1:4">
+      <c r="A85" s="19"/>
+      <c r="B85" s="10">
+        <v>5</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" s="11"/>
+    </row>
+    <row r="86" ht="54" spans="1:4">
+      <c r="A86" s="19"/>
+      <c r="B86" s="10">
         <v>6</v>
       </c>
-      <c r="C78" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25" spans="1:4">
-      <c r="A79" s="18"/>
-      <c r="B79" s="19">
-        <v>5</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" ht="28.5" spans="1:4">
-      <c r="A80" s="18"/>
-      <c r="B80" s="19">
-        <v>5</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" ht="25.5" spans="1:4">
-      <c r="A81" s="18"/>
-      <c r="B81" s="19">
+      <c r="C86" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" spans="1:4">
+      <c r="A87" s="19"/>
+      <c r="B87" s="20">
+        <v>5</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" ht="28.5" spans="1:4">
+      <c r="A88" s="19"/>
+      <c r="B88" s="20">
+        <v>5</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" spans="1:4">
+      <c r="A89" s="19"/>
+      <c r="B89" s="20">
         <v>1</v>
       </c>
-      <c r="C81" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D81" s="11"/>
-    </row>
-    <row r="82" ht="96.75" spans="1:4">
-      <c r="A82" s="18"/>
-      <c r="B82" s="19">
-        <v>5</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" ht="96.75" spans="1:4">
-      <c r="A83" s="18"/>
-      <c r="B83" s="19">
-        <v>5</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" ht="55.5" spans="1:4">
-      <c r="A84" s="18"/>
-      <c r="B84" s="19">
-        <v>5</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="85" ht="111" spans="1:4">
-      <c r="A85" s="18"/>
-      <c r="B85" s="19">
-        <v>5</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D85" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="18"/>
-      <c r="B86" s="19">
-        <v>5</v>
-      </c>
-      <c r="C86" s="11" t="s">
+      <c r="D89" s="11"/>
+    </row>
+    <row r="90" ht="96.75" spans="1:4">
+      <c r="A90" s="19"/>
+      <c r="B90" s="20">
+        <v>5</v>
+      </c>
+      <c r="C90" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D86" s="11"/>
-    </row>
-    <row r="87" ht="27" spans="1:4">
-      <c r="A87" s="18"/>
-      <c r="B87" s="19">
-        <v>5</v>
-      </c>
-      <c r="C87" s="11" t="s">
+      <c r="D90" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D87" s="11"/>
-    </row>
-    <row r="88" ht="41.25" spans="1:4">
-      <c r="A88" s="18"/>
-      <c r="B88" s="19">
-        <v>5</v>
-      </c>
-      <c r="C88" s="11" t="s">
+    </row>
+    <row r="91" ht="96.75" spans="1:4">
+      <c r="A91" s="19"/>
+      <c r="B91" s="20">
+        <v>5</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D91" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="18"/>
-      <c r="B89" s="19">
-        <v>2</v>
-      </c>
-      <c r="C89" t="s">
+    <row r="92" ht="55.5" spans="1:4">
+      <c r="A92" s="19"/>
+      <c r="B92" s="20">
+        <v>5</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D89" s="11"/>
-    </row>
-    <row r="90" ht="25.5" spans="1:4">
-      <c r="A90" s="18"/>
-      <c r="B90" s="19">
-        <v>2</v>
-      </c>
-      <c r="C90" s="2" t="s">
+      <c r="D92" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D90" s="11"/>
-    </row>
-    <row r="91" ht="25.5" spans="1:4">
-      <c r="A91" s="18"/>
-      <c r="B91" s="19">
-        <v>2</v>
-      </c>
-      <c r="C91" s="12" t="s">
+    </row>
+    <row r="93" ht="111" spans="1:4">
+      <c r="A93" s="19"/>
+      <c r="B93" s="20">
+        <v>5</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D91" s="11"/>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="18"/>
-      <c r="B92" s="19">
-        <v>2</v>
-      </c>
-      <c r="C92" s="12" t="s">
+      <c r="D93" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D92" s="11"/>
-    </row>
-    <row r="93" ht="25.5" spans="1:4">
-      <c r="A93" s="18"/>
-      <c r="B93" s="19">
-        <v>2</v>
-      </c>
-      <c r="C93" s="12" t="s">
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="19"/>
+      <c r="B94" s="20">
+        <v>5</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D93" s="11"/>
-    </row>
-    <row r="94" ht="25.5" spans="1:4">
-      <c r="A94" s="18"/>
-      <c r="B94" s="19">
-        <v>5</v>
-      </c>
-      <c r="C94" s="12" t="s">
+      <c r="D94" s="11"/>
+    </row>
+    <row r="95" ht="27" spans="1:4">
+      <c r="A95" s="19"/>
+      <c r="B95" s="20">
+        <v>5</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D95" s="11"/>
+    </row>
+    <row r="96" ht="41.25" spans="1:4">
+      <c r="A96" s="19"/>
+      <c r="B96" s="20">
+        <v>5</v>
+      </c>
+      <c r="C96" s="11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="95" ht="41.25" spans="1:4">
-      <c r="A95" s="18"/>
-      <c r="B95" s="19">
-        <v>5</v>
-      </c>
-      <c r="C95" s="12" t="s">
+      <c r="D96" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D95" s="11" t="s">
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="19"/>
+      <c r="B97" s="20">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="96" ht="160.5" spans="1:4">
-      <c r="A96" s="18"/>
-      <c r="B96" s="19">
-        <v>5</v>
-      </c>
-      <c r="C96" s="12" t="s">
+      <c r="D97" s="11"/>
+    </row>
+    <row r="98" ht="25.5" spans="1:4">
+      <c r="A98" s="19"/>
+      <c r="B98" s="20">
+        <v>2</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D98" s="11"/>
+    </row>
+    <row r="99" ht="25.5" spans="1:4">
+      <c r="A99" s="19"/>
+      <c r="B99" s="20">
+        <v>2</v>
+      </c>
+      <c r="C99" s="12" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="97" ht="28.5" spans="1:4">
-      <c r="A97" s="18"/>
-      <c r="B97" s="19">
-        <v>5</v>
-      </c>
-      <c r="C97" s="12" t="s">
+      <c r="D99" s="11"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="19"/>
+      <c r="B100" s="20">
+        <v>2</v>
+      </c>
+      <c r="C100" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D100" s="11"/>
+    </row>
+    <row r="101" ht="25.5" spans="1:4">
+      <c r="A101" s="19"/>
+      <c r="B101" s="20">
+        <v>2</v>
+      </c>
+      <c r="C101" s="12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="98" ht="57" spans="1:4">
-      <c r="A98" s="18"/>
-      <c r="B98" s="19">
-        <v>5</v>
-      </c>
-      <c r="C98" s="12" t="s">
+      <c r="D101" s="11"/>
+    </row>
+    <row r="102" ht="25.5" spans="1:4">
+      <c r="A102" s="19"/>
+      <c r="B102" s="20">
+        <v>5</v>
+      </c>
+      <c r="C102" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D102" s="11" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="99" ht="38.25" spans="1:4">
-      <c r="A99" s="18"/>
-      <c r="B99" s="19">
-        <v>1</v>
-      </c>
-      <c r="C99" s="2" t="s">
+    <row r="103" ht="41.25" spans="1:4">
+      <c r="A103" s="19"/>
+      <c r="B103" s="20">
+        <v>5</v>
+      </c>
+      <c r="C103" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D99" s="11"/>
-    </row>
-    <row r="100" ht="27" spans="1:4">
-      <c r="A100" s="18"/>
-      <c r="B100" s="19">
-        <v>2</v>
-      </c>
-      <c r="C100" s="12" t="s">
+      <c r="D103" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D100" s="11"/>
-    </row>
-    <row r="101" ht="25.5" spans="1:4">
-      <c r="A101" s="18"/>
-      <c r="B101" s="20">
-        <v>3</v>
-      </c>
-      <c r="C101" s="12" t="s">
+    </row>
+    <row r="104" ht="160.5" spans="1:4">
+      <c r="A104" s="19"/>
+      <c r="B104" s="20">
+        <v>5</v>
+      </c>
+      <c r="C104" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D101" s="11"/>
-    </row>
-    <row r="102" ht="25.5" spans="1:4">
-      <c r="A102" s="18"/>
-      <c r="B102" s="19">
-        <v>1</v>
-      </c>
-      <c r="C102" s="12" t="s">
+      <c r="D104" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D102" s="11"/>
-    </row>
-    <row r="103" ht="25.5" spans="1:4">
-      <c r="A103" s="18"/>
-      <c r="B103" s="19">
-        <v>1</v>
-      </c>
-      <c r="C103" s="12" t="s">
+    </row>
+    <row r="105" ht="28.5" spans="1:4">
+      <c r="A105" s="19"/>
+      <c r="B105" s="20">
+        <v>5</v>
+      </c>
+      <c r="C105" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D103" s="11"/>
-    </row>
-    <row r="104" ht="27" spans="1:4">
-      <c r="A104" s="18"/>
-      <c r="B104" s="19">
-        <v>1</v>
-      </c>
-      <c r="C104" s="12" t="s">
+      <c r="D105" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D104" s="11"/>
-    </row>
-    <row r="105" ht="27" spans="1:4">
-      <c r="A105" s="18"/>
-      <c r="B105" s="19">
-        <v>1</v>
-      </c>
-      <c r="C105" s="12" t="s">
+    </row>
+    <row r="106" ht="57" spans="1:4">
+      <c r="A106" s="19"/>
+      <c r="B106" s="20">
+        <v>5</v>
+      </c>
+      <c r="C106" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D105" s="11"/>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="18"/>
-      <c r="B106" s="19">
-        <v>1</v>
-      </c>
-      <c r="C106" s="12" t="s">
+      <c r="D106" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D106" s="11"/>
-    </row>
-    <row r="107" ht="69.75" spans="1:4">
-      <c r="A107" s="18"/>
-      <c r="B107" s="19">
+    </row>
+    <row r="107" ht="57" spans="1:4">
+      <c r="A107" s="19"/>
+      <c r="B107" s="20">
         <v>5</v>
       </c>
       <c r="C107" s="12" t="s">
@@ -2888,81 +2930,183 @@
         <v>150</v>
       </c>
     </row>
-    <row r="108" ht="25.5" spans="1:4">
-      <c r="A108" s="18"/>
-      <c r="B108" s="21">
+    <row r="108" ht="38.25" spans="1:4">
+      <c r="A108" s="19"/>
+      <c r="B108" s="20">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D108" s="11"/>
+    </row>
+    <row r="109" ht="25.5" spans="1:4">
+      <c r="A109" s="19"/>
+      <c r="B109" s="20">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D109" s="11"/>
+    </row>
+    <row r="110" ht="27" spans="1:4">
+      <c r="A110" s="19"/>
+      <c r="B110" s="20">
+        <v>2</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D110" s="11"/>
+    </row>
+    <row r="111" ht="25.5" spans="1:4">
+      <c r="A111" s="19"/>
+      <c r="B111" s="21">
         <v>3</v>
       </c>
-      <c r="C108" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="109" ht="55.5" spans="1:4">
-      <c r="A109" s="18"/>
-      <c r="B109" s="19">
-        <v>5</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D109" s="11" t="s">
+      <c r="C111" s="12" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="110" ht="27" spans="1:4">
-      <c r="A110" s="18"/>
-      <c r="B110" s="19">
-        <v>2</v>
-      </c>
-      <c r="C110" s="22" t="s">
+      <c r="D111" s="11"/>
+    </row>
+    <row r="112" ht="25.5" spans="1:4">
+      <c r="A112" s="19"/>
+      <c r="B112" s="20">
+        <v>1</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D110" s="11"/>
-    </row>
-    <row r="111" ht="123.75" spans="1:4">
-      <c r="A111" s="23"/>
-      <c r="B111" s="19">
-        <v>5</v>
-      </c>
-      <c r="C111" s="11" t="s">
+      <c r="D112" s="11"/>
+    </row>
+    <row r="113" ht="25.5" spans="1:4">
+      <c r="A113" s="19"/>
+      <c r="B113" s="20">
+        <v>1</v>
+      </c>
+      <c r="C113" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D113" s="11"/>
+    </row>
+    <row r="114" ht="27" spans="1:4">
+      <c r="A114" s="19"/>
+      <c r="B114" s="20">
+        <v>1</v>
+      </c>
+      <c r="C114" s="12" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="112" ht="27" spans="1:4">
-      <c r="A112" s="24" t="s">
+      <c r="D114" s="11"/>
+    </row>
+    <row r="115" ht="27" spans="1:4">
+      <c r="A115" s="19"/>
+      <c r="B115" s="20">
+        <v>1</v>
+      </c>
+      <c r="C115" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B112" s="25"/>
-      <c r="C112" s="12" t="s">
+      <c r="D115" s="11"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="19"/>
+      <c r="B116" s="20">
+        <v>1</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D112" s="12"/>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="24"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="12" t="s">
+      <c r="D116" s="11"/>
+    </row>
+    <row r="117" ht="69.75" spans="1:4">
+      <c r="A117" s="19"/>
+      <c r="B117" s="20">
+        <v>5</v>
+      </c>
+      <c r="C117" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D113" s="12"/>
+      <c r="D117" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" ht="25.5" spans="1:4">
+      <c r="A118" s="19"/>
+      <c r="B118" s="22">
+        <v>3</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="119" ht="55.5" spans="1:4">
+      <c r="A119" s="19"/>
+      <c r="B119" s="20">
+        <v>5</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" ht="27" spans="1:4">
+      <c r="A120" s="19"/>
+      <c r="B120" s="20">
+        <v>2</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D120" s="11"/>
+    </row>
+    <row r="121" ht="123.75" spans="1:4">
+      <c r="A121" s="24"/>
+      <c r="B121" s="20">
+        <v>5</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" ht="27" spans="1:4">
+      <c r="A122" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B122" s="26"/>
+      <c r="C122" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D122" s="12"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="25"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D123" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A41"/>
-    <mergeCell ref="A42:A75"/>
-    <mergeCell ref="A76:A111"/>
-    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A45"/>
+    <mergeCell ref="A46:A83"/>
+    <mergeCell ref="A84:A121"/>
+    <mergeCell ref="A122:A123"/>
   </mergeCells>
-  <conditionalFormatting sqref="B28:B1048576 B1:B26 B27">
+  <conditionalFormatting sqref="B78:B1048576 B1:B76 B77">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="14370"/>
+    <workbookView windowWidth="15120" windowHeight="25890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
   <si>
     <t>Scope</t>
   </si>
@@ -533,6 +533,24 @@
   <si>
     <t>1. 提出采用轮廓作为feature, 和RGB图同时作为输入的连体FCN, 能将F1 score提高2%, 同时加快training的速度
 2. 在featureMap后加入location prior(也就是每个activation点的坐标), 可以有效去除诸如把天空分类为道路的情况</t>
+  </si>
+  <si>
+    <t>Spatial-Temproal Based Lane Detection Using Deep Learning（有在嵌入式系统上实现）</t>
+  </si>
+  <si>
+    <t>Robust Lane Detection Using Multiple Features</t>
+  </si>
+  <si>
+    <t>LineNet: a Zoomable CNN for Crowdsourced High Definition Maps Modeling in Urban Environments</t>
+  </si>
+  <si>
+    <t>StripNet: Towards Topology Consistent Strip Structure Segmentation</t>
+  </si>
+  <si>
+    <t>3D-LaneNet_end-to-end 3D multiple lane detection</t>
+  </si>
+  <si>
+    <t>Learning to Cluster for Proposal-Free Instance Segmentation</t>
   </si>
   <si>
     <t>Find Your Own Way: Weakly-Supervised Segmentation of Path Proposals for Urban Autonomy</t>
@@ -575,9 +593,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -637,14 +655,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -653,64 +663,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -723,22 +679,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,16 +694,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -772,6 +722,74 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -812,19 +830,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,19 +962,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,7 +986,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,121 +998,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,21 +1110,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1141,6 +1144,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1154,139 +1172,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1354,9 +1372,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1365,6 +1380,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1738,12 +1756,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -2562,7 +2580,7 @@
     </row>
     <row r="74" ht="25.5" spans="1:4">
       <c r="A74" s="9"/>
-      <c r="B74" s="18">
+      <c r="B74" s="16">
         <v>2</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2661,7 +2679,7 @@
       <c r="D83" s="11"/>
     </row>
     <row r="84" ht="25.5" spans="1:4">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="18" t="s">
         <v>112</v>
       </c>
       <c r="B84" s="16">
@@ -2673,7 +2691,7 @@
       <c r="D84" s="11"/>
     </row>
     <row r="85" ht="41.25" spans="1:4">
-      <c r="A85" s="19"/>
+      <c r="A85" s="18"/>
       <c r="B85" s="10">
         <v>5</v>
       </c>
@@ -2683,7 +2701,7 @@
       <c r="D85" s="11"/>
     </row>
     <row r="86" ht="54" spans="1:4">
-      <c r="A86" s="19"/>
+      <c r="A86" s="18"/>
       <c r="B86" s="10">
         <v>6</v>
       </c>
@@ -2695,8 +2713,8 @@
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:4">
-      <c r="A87" s="19"/>
-      <c r="B87" s="20">
+      <c r="A87" s="18"/>
+      <c r="B87" s="19">
         <v>5</v>
       </c>
       <c r="C87" s="11" t="s">
@@ -2707,8 +2725,8 @@
       </c>
     </row>
     <row r="88" ht="28.5" spans="1:4">
-      <c r="A88" s="19"/>
-      <c r="B88" s="20">
+      <c r="A88" s="18"/>
+      <c r="B88" s="19">
         <v>5</v>
       </c>
       <c r="C88" s="11" t="s">
@@ -2719,8 +2737,8 @@
       </c>
     </row>
     <row r="89" ht="25.5" spans="1:4">
-      <c r="A89" s="19"/>
-      <c r="B89" s="20">
+      <c r="A89" s="18"/>
+      <c r="B89" s="19">
         <v>1</v>
       </c>
       <c r="C89" s="11" t="s">
@@ -2729,8 +2747,8 @@
       <c r="D89" s="11"/>
     </row>
     <row r="90" ht="96.75" spans="1:4">
-      <c r="A90" s="19"/>
-      <c r="B90" s="20">
+      <c r="A90" s="18"/>
+      <c r="B90" s="19">
         <v>5</v>
       </c>
       <c r="C90" s="11" t="s">
@@ -2741,8 +2759,8 @@
       </c>
     </row>
     <row r="91" ht="96.75" spans="1:4">
-      <c r="A91" s="19"/>
-      <c r="B91" s="20">
+      <c r="A91" s="18"/>
+      <c r="B91" s="19">
         <v>5</v>
       </c>
       <c r="C91" s="11" t="s">
@@ -2753,8 +2771,8 @@
       </c>
     </row>
     <row r="92" ht="55.5" spans="1:4">
-      <c r="A92" s="19"/>
-      <c r="B92" s="20">
+      <c r="A92" s="18"/>
+      <c r="B92" s="19">
         <v>5</v>
       </c>
       <c r="C92" s="11" t="s">
@@ -2765,8 +2783,8 @@
       </c>
     </row>
     <row r="93" ht="111" spans="1:4">
-      <c r="A93" s="19"/>
-      <c r="B93" s="20">
+      <c r="A93" s="18"/>
+      <c r="B93" s="19">
         <v>5</v>
       </c>
       <c r="C93" s="11" t="s">
@@ -2777,8 +2795,8 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="19"/>
-      <c r="B94" s="20">
+      <c r="A94" s="18"/>
+      <c r="B94" s="19">
         <v>5</v>
       </c>
       <c r="C94" s="11" t="s">
@@ -2787,8 +2805,8 @@
       <c r="D94" s="11"/>
     </row>
     <row r="95" ht="27" spans="1:4">
-      <c r="A95" s="19"/>
-      <c r="B95" s="20">
+      <c r="A95" s="18"/>
+      <c r="B95" s="19">
         <v>5</v>
       </c>
       <c r="C95" s="11" t="s">
@@ -2797,8 +2815,8 @@
       <c r="D95" s="11"/>
     </row>
     <row r="96" ht="41.25" spans="1:4">
-      <c r="A96" s="19"/>
-      <c r="B96" s="20">
+      <c r="A96" s="18"/>
+      <c r="B96" s="19">
         <v>5</v>
       </c>
       <c r="C96" s="11" t="s">
@@ -2809,8 +2827,8 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="19"/>
-      <c r="B97" s="20">
+      <c r="A97" s="18"/>
+      <c r="B97" s="19">
         <v>2</v>
       </c>
       <c r="C97" t="s">
@@ -2819,8 +2837,8 @@
       <c r="D97" s="11"/>
     </row>
     <row r="98" ht="25.5" spans="1:4">
-      <c r="A98" s="19"/>
-      <c r="B98" s="20">
+      <c r="A98" s="18"/>
+      <c r="B98" s="19">
         <v>2</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -2829,8 +2847,8 @@
       <c r="D98" s="11"/>
     </row>
     <row r="99" ht="25.5" spans="1:4">
-      <c r="A99" s="19"/>
-      <c r="B99" s="20">
+      <c r="A99" s="18"/>
+      <c r="B99" s="19">
         <v>2</v>
       </c>
       <c r="C99" s="12" t="s">
@@ -2839,8 +2857,8 @@
       <c r="D99" s="11"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="19"/>
-      <c r="B100" s="20">
+      <c r="A100" s="18"/>
+      <c r="B100" s="19">
         <v>2</v>
       </c>
       <c r="C100" s="12" t="s">
@@ -2849,8 +2867,8 @@
       <c r="D100" s="11"/>
     </row>
     <row r="101" ht="25.5" spans="1:4">
-      <c r="A101" s="19"/>
-      <c r="B101" s="20">
+      <c r="A101" s="18"/>
+      <c r="B101" s="19">
         <v>2</v>
       </c>
       <c r="C101" s="12" t="s">
@@ -2859,8 +2877,8 @@
       <c r="D101" s="11"/>
     </row>
     <row r="102" ht="25.5" spans="1:4">
-      <c r="A102" s="19"/>
-      <c r="B102" s="20">
+      <c r="A102" s="18"/>
+      <c r="B102" s="19">
         <v>5</v>
       </c>
       <c r="C102" s="12" t="s">
@@ -2871,8 +2889,8 @@
       </c>
     </row>
     <row r="103" ht="41.25" spans="1:4">
-      <c r="A103" s="19"/>
-      <c r="B103" s="20">
+      <c r="A103" s="18"/>
+      <c r="B103" s="19">
         <v>5</v>
       </c>
       <c r="C103" s="12" t="s">
@@ -2883,8 +2901,8 @@
       </c>
     </row>
     <row r="104" ht="160.5" spans="1:4">
-      <c r="A104" s="19"/>
-      <c r="B104" s="20">
+      <c r="A104" s="18"/>
+      <c r="B104" s="19">
         <v>5</v>
       </c>
       <c r="C104" s="12" t="s">
@@ -2895,8 +2913,8 @@
       </c>
     </row>
     <row r="105" ht="28.5" spans="1:4">
-      <c r="A105" s="19"/>
-      <c r="B105" s="20">
+      <c r="A105" s="18"/>
+      <c r="B105" s="19">
         <v>5</v>
       </c>
       <c r="C105" s="12" t="s">
@@ -2907,8 +2925,8 @@
       </c>
     </row>
     <row r="106" ht="57" spans="1:4">
-      <c r="A106" s="19"/>
-      <c r="B106" s="20">
+      <c r="A106" s="18"/>
+      <c r="B106" s="19">
         <v>5</v>
       </c>
       <c r="C106" s="12" t="s">
@@ -2919,8 +2937,8 @@
       </c>
     </row>
     <row r="107" ht="57" spans="1:4">
-      <c r="A107" s="19"/>
-      <c r="B107" s="20">
+      <c r="A107" s="18"/>
+      <c r="B107" s="19">
         <v>5</v>
       </c>
       <c r="C107" s="12" t="s">
@@ -2931,8 +2949,8 @@
       </c>
     </row>
     <row r="108" ht="38.25" spans="1:4">
-      <c r="A108" s="19"/>
-      <c r="B108" s="20">
+      <c r="A108" s="18"/>
+      <c r="B108" s="19">
         <v>1</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -2941,8 +2959,8 @@
       <c r="D108" s="11"/>
     </row>
     <row r="109" ht="25.5" spans="1:4">
-      <c r="A109" s="19"/>
-      <c r="B109" s="20">
+      <c r="A109" s="18"/>
+      <c r="B109" s="19">
         <v>1</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -2951,8 +2969,8 @@
       <c r="D109" s="11"/>
     </row>
     <row r="110" ht="27" spans="1:4">
-      <c r="A110" s="19"/>
-      <c r="B110" s="20">
+      <c r="A110" s="18"/>
+      <c r="B110" s="19">
         <v>2</v>
       </c>
       <c r="C110" s="12" t="s">
@@ -2961,8 +2979,8 @@
       <c r="D110" s="11"/>
     </row>
     <row r="111" ht="25.5" spans="1:4">
-      <c r="A111" s="19"/>
-      <c r="B111" s="21">
+      <c r="A111" s="18"/>
+      <c r="B111" s="20">
         <v>3</v>
       </c>
       <c r="C111" s="12" t="s">
@@ -2971,8 +2989,8 @@
       <c r="D111" s="11"/>
     </row>
     <row r="112" ht="25.5" spans="1:4">
-      <c r="A112" s="19"/>
-      <c r="B112" s="20">
+      <c r="A112" s="18"/>
+      <c r="B112" s="19">
         <v>1</v>
       </c>
       <c r="C112" s="12" t="s">
@@ -2981,8 +2999,8 @@
       <c r="D112" s="11"/>
     </row>
     <row r="113" ht="25.5" spans="1:4">
-      <c r="A113" s="19"/>
-      <c r="B113" s="20">
+      <c r="A113" s="18"/>
+      <c r="B113" s="19">
         <v>1</v>
       </c>
       <c r="C113" s="12" t="s">
@@ -2991,8 +3009,8 @@
       <c r="D113" s="11"/>
     </row>
     <row r="114" ht="27" spans="1:4">
-      <c r="A114" s="19"/>
-      <c r="B114" s="20">
+      <c r="A114" s="18"/>
+      <c r="B114" s="19">
         <v>1</v>
       </c>
       <c r="C114" s="12" t="s">
@@ -3001,8 +3019,8 @@
       <c r="D114" s="11"/>
     </row>
     <row r="115" ht="27" spans="1:4">
-      <c r="A115" s="19"/>
-      <c r="B115" s="20">
+      <c r="A115" s="18"/>
+      <c r="B115" s="19">
         <v>1</v>
       </c>
       <c r="C115" s="12" t="s">
@@ -3011,8 +3029,8 @@
       <c r="D115" s="11"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="19"/>
-      <c r="B116" s="20">
+      <c r="A116" s="18"/>
+      <c r="B116" s="19">
         <v>1</v>
       </c>
       <c r="C116" s="12" t="s">
@@ -3021,8 +3039,8 @@
       <c r="D116" s="11"/>
     </row>
     <row r="117" ht="69.75" spans="1:4">
-      <c r="A117" s="19"/>
-      <c r="B117" s="20">
+      <c r="A117" s="18"/>
+      <c r="B117" s="19">
         <v>5</v>
       </c>
       <c r="C117" s="12" t="s">
@@ -3032,69 +3050,119 @@
         <v>161</v>
       </c>
     </row>
-    <row r="118" ht="25.5" spans="1:4">
-      <c r="A118" s="19"/>
-      <c r="B118" s="22">
-        <v>3</v>
-      </c>
+    <row r="118" ht="27" spans="1:4">
+      <c r="A118" s="18"/>
+      <c r="B118" s="19"/>
       <c r="C118" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="11"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="18"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="12" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="119" ht="55.5" spans="1:4">
-      <c r="A119" s="19"/>
-      <c r="B119" s="20">
-        <v>5</v>
-      </c>
-      <c r="C119" s="23" t="s">
+      <c r="D119" s="11"/>
+    </row>
+    <row r="120" ht="25.5" spans="1:4">
+      <c r="A120" s="18"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="D120" s="11"/>
+    </row>
+    <row r="121" ht="25.5" spans="1:4">
+      <c r="A121" s="18"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="12" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="120" ht="27" spans="1:4">
-      <c r="A120" s="19"/>
-      <c r="B120" s="20">
-        <v>2</v>
-      </c>
-      <c r="C120" s="23" t="s">
+      <c r="D121" s="11"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="18"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D120" s="11"/>
-    </row>
-    <row r="121" ht="123.75" spans="1:4">
-      <c r="A121" s="24"/>
-      <c r="B121" s="20">
-        <v>5</v>
-      </c>
-      <c r="C121" s="11" t="s">
+      <c r="D122" s="11"/>
+    </row>
+    <row r="123" ht="25.5" spans="1:4">
+      <c r="A123" s="18"/>
+      <c r="B123" s="19">
+        <v>2</v>
+      </c>
+      <c r="C123" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D121" s="11" t="s">
+      <c r="D123" s="11"/>
+    </row>
+    <row r="124" ht="25.5" spans="1:4">
+      <c r="A124" s="18"/>
+      <c r="B124" s="22">
+        <v>3</v>
+      </c>
+      <c r="C124" s="12" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="122" ht="27" spans="1:4">
-      <c r="A122" s="25" t="s">
+      <c r="D124" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B122" s="26"/>
-      <c r="C122" s="12" t="s">
+    </row>
+    <row r="125" ht="55.5" spans="1:4">
+      <c r="A125" s="18"/>
+      <c r="B125" s="19">
+        <v>5</v>
+      </c>
+      <c r="C125" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D122" s="12"/>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="25"/>
-      <c r="B123" s="26"/>
-      <c r="C123" s="12" t="s">
+      <c r="D125" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D123" s="12"/>
+    </row>
+    <row r="126" ht="27" spans="1:4">
+      <c r="A126" s="18"/>
+      <c r="B126" s="19">
+        <v>2</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D126" s="11"/>
+    </row>
+    <row r="127" ht="123.75" spans="1:4">
+      <c r="A127" s="24"/>
+      <c r="B127" s="19">
+        <v>5</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" ht="27" spans="1:4">
+      <c r="A128" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B128" s="26"/>
+      <c r="C128" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D128" s="12"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="25"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D129" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3103,10 +3171,10 @@
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="A18:A45"/>
     <mergeCell ref="A46:A83"/>
-    <mergeCell ref="A84:A121"/>
-    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A84:A127"/>
+    <mergeCell ref="A128:A129"/>
   </mergeCells>
-  <conditionalFormatting sqref="B78:B1048576 B1:B76 B77">
+  <conditionalFormatting sqref="B123:B1048576 B1:B121 B122">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -592,12 +592,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,13 +634,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF31424E"/>
       <name val="microsoft yahei"/>
@@ -662,49 +655,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -716,30 +670,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -754,8 +686,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,8 +724,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,12 +756,33 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -830,181 +823,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,6 +1102,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1120,26 +1122,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,6 +1143,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1172,152 +1165,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1381,13 +1374,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1761,7 +1751,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
+      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -3095,14 +3085,14 @@
       <c r="B123" s="19">
         <v>2</v>
       </c>
-      <c r="C123" s="21" t="s">
+      <c r="C123" s="12" t="s">
         <v>167</v>
       </c>
       <c r="D123" s="11"/>
     </row>
     <row r="124" ht="25.5" spans="1:4">
       <c r="A124" s="18"/>
-      <c r="B124" s="22">
+      <c r="B124" s="21">
         <v>3</v>
       </c>
       <c r="C124" s="12" t="s">
@@ -3117,7 +3107,7 @@
       <c r="B125" s="19">
         <v>5</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C125" s="22" t="s">
         <v>170</v>
       </c>
       <c r="D125" s="11" t="s">
@@ -3129,13 +3119,13 @@
       <c r="B126" s="19">
         <v>2</v>
       </c>
-      <c r="C126" s="23" t="s">
+      <c r="C126" s="22" t="s">
         <v>172</v>
       </c>
       <c r="D126" s="11"/>
     </row>
     <row r="127" ht="123.75" spans="1:4">
-      <c r="A127" s="24"/>
+      <c r="A127" s="23"/>
       <c r="B127" s="19">
         <v>5</v>
       </c>
@@ -3147,18 +3137,18 @@
       </c>
     </row>
     <row r="128" ht="27" spans="1:4">
-      <c r="A128" s="25" t="s">
+      <c r="A128" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="B128" s="26"/>
+      <c r="B128" s="25"/>
       <c r="C128" s="12" t="s">
         <v>176</v>
       </c>
       <c r="D128" s="12"/>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="25"/>
-      <c r="B129" s="26"/>
+      <c r="A129" s="24"/>
+      <c r="B129" s="25"/>
       <c r="C129" s="12" t="s">
         <v>177</v>
       </c>
@@ -3174,7 +3164,7 @@
     <mergeCell ref="A84:A127"/>
     <mergeCell ref="A128:A129"/>
   </mergeCells>
-  <conditionalFormatting sqref="B123:B1048576 B1:B121 B122">
+  <conditionalFormatting sqref="B:B">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
   <si>
     <t>Scope</t>
   </si>
@@ -301,6 +301,9 @@
 有不少语义分割的影子, 比如loss的设计, gt的生成等</t>
   </si>
   <si>
+    <t>SlowFast Networks for Video Recognition</t>
+  </si>
+  <si>
     <t>Multi-Attention Multi-Class Constraint for Fine-grained Image Recognition</t>
   </si>
   <si>
@@ -499,6 +502,9 @@
   <si>
     <t>一个对semantic segmentation做knowledge distillation的框架；用teacher model引入了probability loss， consistency loss，以及用unlabeled data，使得小模型的mIoU提升了4个点；
 loss的设计很有意思；</t>
+  </si>
+  <si>
+    <t>Panoptic Segmentation</t>
   </si>
   <si>
     <t>Deep fully convolutional networks with random data augmentation for enhanced generalization in road detection</t>
@@ -592,10 +598,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -641,8 +647,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,32 +676,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,6 +714,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -709,8 +743,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,7 +768,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,55 +776,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -817,181 +823,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,21 +1069,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1102,15 +1093,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1122,6 +1104,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,22 +1152,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,145 +1171,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1746,12 +1752,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -2456,12 +2462,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" ht="25.5" spans="1:4">
+    <row r="63" spans="1:4">
       <c r="A63" s="9"/>
-      <c r="B63" s="16">
-        <v>2</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="B63" s="10">
+        <v>2</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D63" s="11"/>
@@ -2476,7 +2482,7 @@
       </c>
       <c r="D64" s="11"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" ht="25.5" spans="1:4">
       <c r="A65" s="9"/>
       <c r="B65" s="16">
         <v>2</v>
@@ -2496,7 +2502,7 @@
       </c>
       <c r="D66" s="11"/>
     </row>
-    <row r="67" ht="25.5" spans="1:4">
+    <row r="67" spans="1:4">
       <c r="A67" s="9"/>
       <c r="B67" s="16">
         <v>2</v>
@@ -2506,7 +2512,7 @@
       </c>
       <c r="D67" s="11"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" ht="25.5" spans="1:4">
       <c r="A68" s="9"/>
       <c r="B68" s="16">
         <v>2</v>
@@ -2516,7 +2522,7 @@
       </c>
       <c r="D68" s="11"/>
     </row>
-    <row r="69" ht="25.5" spans="1:4">
+    <row r="69" spans="1:4">
       <c r="A69" s="9"/>
       <c r="B69" s="16">
         <v>2</v>
@@ -2546,41 +2552,41 @@
       </c>
       <c r="D71" s="11"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" ht="25.5" spans="1:4">
       <c r="A72" s="9"/>
       <c r="B72" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D72" s="11"/>
     </row>
-    <row r="73" ht="42.75" spans="1:4">
+    <row r="73" spans="1:4">
       <c r="A73" s="9"/>
-      <c r="B73" s="10">
-        <v>5</v>
+      <c r="B73" s="16">
+        <v>1</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="11"/>
+    </row>
+    <row r="74" ht="42.75" spans="1:4">
+      <c r="A74" s="9"/>
+      <c r="B74" s="10">
+        <v>5</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="74" ht="25.5" spans="1:4">
-      <c r="A74" s="9"/>
-      <c r="B74" s="16">
-        <v>2</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D74" s="11"/>
-    </row>
-    <row r="75" spans="1:4">
+    </row>
+    <row r="75" ht="25.5" spans="1:4">
       <c r="A75" s="9"/>
-      <c r="B75" s="10">
+      <c r="B75" s="16">
         <v>2</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2598,7 +2604,7 @@
       </c>
       <c r="D76" s="11"/>
     </row>
-    <row r="77" ht="25.5" spans="1:4">
+    <row r="77" spans="1:4">
       <c r="A77" s="9"/>
       <c r="B77" s="10">
         <v>2</v>
@@ -2608,17 +2614,17 @@
       </c>
       <c r="D77" s="11"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" ht="25.5" spans="1:4">
       <c r="A78" s="9"/>
-      <c r="B78" s="16">
-        <v>1</v>
+      <c r="B78" s="10">
+        <v>2</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D78" s="11"/>
     </row>
-    <row r="79" ht="25.5" spans="1:4">
+    <row r="79" spans="1:4">
       <c r="A79" s="9"/>
       <c r="B79" s="16">
         <v>1</v>
@@ -2653,12 +2659,12 @@
       <c r="B82" s="16">
         <v>1</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D82" s="11"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" ht="25.5" spans="1:4">
       <c r="A83" s="9"/>
       <c r="B83" s="16">
         <v>1</v>
@@ -2668,85 +2674,83 @@
       </c>
       <c r="D83" s="11"/>
     </row>
-    <row r="84" ht="25.5" spans="1:4">
-      <c r="A84" s="18" t="s">
+    <row r="84" spans="1:4">
+      <c r="A84" s="9"/>
+      <c r="B84" s="16">
+        <v>1</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B84" s="16">
-        <v>2</v>
-      </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="11"/>
+    </row>
+    <row r="85" ht="25.5" spans="1:4">
+      <c r="A85" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D84" s="11"/>
-    </row>
-    <row r="85" ht="41.25" spans="1:4">
-      <c r="A85" s="18"/>
-      <c r="B85" s="10">
-        <v>5</v>
-      </c>
-      <c r="C85" s="11" t="s">
+      <c r="B85" s="16">
+        <v>2</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D85" s="11"/>
     </row>
-    <row r="86" ht="54" spans="1:4">
+    <row r="86" ht="41.25" spans="1:4">
       <c r="A86" s="18"/>
       <c r="B86" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="11"/>
+    </row>
+    <row r="87" ht="54" spans="1:4">
+      <c r="A87" s="18"/>
+      <c r="B87" s="10">
+        <v>6</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="87" ht="14.25" spans="1:4">
-      <c r="A87" s="18"/>
-      <c r="B87" s="19">
-        <v>5</v>
-      </c>
-      <c r="C87" s="11" t="s">
+      <c r="D87" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D87" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" ht="28.5" spans="1:4">
+    </row>
+    <row r="88" ht="14.25" spans="1:4">
       <c r="A88" s="18"/>
       <c r="B88" s="19">
         <v>5</v>
       </c>
       <c r="C88" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D88" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D88" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" ht="25.5" spans="1:4">
+    </row>
+    <row r="89" ht="28.5" spans="1:4">
       <c r="A89" s="18"/>
       <c r="B89" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C89" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D89" s="11"/>
-    </row>
-    <row r="90" ht="96.75" spans="1:4">
+    </row>
+    <row r="90" ht="25.5" spans="1:4">
       <c r="A90" s="18"/>
       <c r="B90" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D90" s="11" t="s">
-        <v>123</v>
-      </c>
+      <c r="D90" s="11"/>
     </row>
     <row r="91" ht="96.75" spans="1:4">
       <c r="A91" s="18"/>
@@ -2754,47 +2758,49 @@
         <v>5</v>
       </c>
       <c r="C91" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D91" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D91" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" ht="55.5" spans="1:4">
+    </row>
+    <row r="92" ht="96.75" spans="1:4">
       <c r="A92" s="18"/>
       <c r="B92" s="19">
         <v>5</v>
       </c>
       <c r="C92" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D92" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D92" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" ht="111" spans="1:4">
+    </row>
+    <row r="93" ht="55.5" spans="1:4">
       <c r="A93" s="18"/>
       <c r="B93" s="19">
         <v>5</v>
       </c>
       <c r="C93" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D93" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+    </row>
+    <row r="94" ht="111" spans="1:4">
       <c r="A94" s="18"/>
       <c r="B94" s="19">
         <v>5</v>
       </c>
       <c r="C94" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D94" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D94" s="11"/>
-    </row>
-    <row r="95" ht="27" spans="1:4">
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="18"/>
       <c r="B95" s="19">
         <v>5</v>
@@ -2804,7 +2810,7 @@
       </c>
       <c r="D95" s="11"/>
     </row>
-    <row r="96" ht="41.25" spans="1:4">
+    <row r="96" ht="27" spans="1:4">
       <c r="A96" s="18"/>
       <c r="B96" s="19">
         <v>5</v>
@@ -2812,26 +2818,26 @@
       <c r="C96" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D96" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97" ht="41.25" spans="1:4">
       <c r="A97" s="18"/>
       <c r="B97" s="19">
-        <v>2</v>
-      </c>
-      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D97" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D97" s="11"/>
-    </row>
-    <row r="98" ht="25.5" spans="1:4">
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="18"/>
       <c r="B98" s="19">
         <v>2</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" t="s">
         <v>135</v>
       </c>
       <c r="D98" s="11"/>
@@ -2841,12 +2847,12 @@
       <c r="B99" s="19">
         <v>2</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C99" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D99" s="11"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" ht="25.5" spans="1:4">
       <c r="A100" s="18"/>
       <c r="B100" s="19">
         <v>2</v>
@@ -2856,7 +2862,7 @@
       </c>
       <c r="D100" s="11"/>
     </row>
-    <row r="101" ht="25.5" spans="1:4">
+    <row r="101" spans="1:4">
       <c r="A101" s="18"/>
       <c r="B101" s="19">
         <v>2</v>
@@ -2869,61 +2875,59 @@
     <row r="102" ht="25.5" spans="1:4">
       <c r="A102" s="18"/>
       <c r="B102" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D102" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="103" ht="41.25" spans="1:4">
+      <c r="D102" s="11"/>
+    </row>
+    <row r="103" ht="25.5" spans="1:4">
       <c r="A103" s="18"/>
       <c r="B103" s="19">
         <v>5</v>
       </c>
       <c r="C103" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D103" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D103" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="104" ht="160.5" spans="1:4">
+    </row>
+    <row r="104" ht="41.25" spans="1:4">
       <c r="A104" s="18"/>
       <c r="B104" s="19">
         <v>5</v>
       </c>
       <c r="C104" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D104" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D104" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="105" ht="28.5" spans="1:4">
+    </row>
+    <row r="105" ht="160.5" spans="1:4">
       <c r="A105" s="18"/>
       <c r="B105" s="19">
         <v>5</v>
       </c>
       <c r="C105" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D105" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D105" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="106" ht="57" spans="1:4">
+    </row>
+    <row r="106" ht="28.5" spans="1:4">
       <c r="A106" s="18"/>
       <c r="B106" s="19">
         <v>5</v>
       </c>
       <c r="C106" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D106" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="107" ht="57" spans="1:4">
@@ -2932,53 +2936,55 @@
         <v>5</v>
       </c>
       <c r="C107" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D107" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D107" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="108" ht="38.25" spans="1:4">
+    </row>
+    <row r="108" ht="57" spans="1:4">
       <c r="A108" s="18"/>
       <c r="B108" s="19">
-        <v>1</v>
-      </c>
-      <c r="C108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D108" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D108" s="11"/>
-    </row>
-    <row r="109" ht="25.5" spans="1:4">
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="18"/>
       <c r="B109" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D109" s="11"/>
     </row>
-    <row r="110" ht="27" spans="1:4">
+    <row r="110" ht="38.25" spans="1:4">
       <c r="A110" s="18"/>
       <c r="B110" s="19">
-        <v>2</v>
-      </c>
-      <c r="C110" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D110" s="11"/>
     </row>
     <row r="111" ht="25.5" spans="1:4">
       <c r="A111" s="18"/>
-      <c r="B111" s="20">
-        <v>3</v>
-      </c>
-      <c r="C111" s="12" t="s">
+      <c r="B111" s="19">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D111" s="11"/>
     </row>
-    <row r="112" ht="25.5" spans="1:4">
+    <row r="112" ht="27" spans="1:4">
       <c r="A112" s="18"/>
       <c r="B112" s="19">
         <v>1</v>
@@ -2990,7 +2996,7 @@
     </row>
     <row r="113" ht="25.5" spans="1:4">
       <c r="A113" s="18"/>
-      <c r="B113" s="19">
+      <c r="B113" s="20">
         <v>1</v>
       </c>
       <c r="C113" s="12" t="s">
@@ -2998,7 +3004,7 @@
       </c>
       <c r="D113" s="11"/>
     </row>
-    <row r="114" ht="27" spans="1:4">
+    <row r="114" ht="25.5" spans="1:4">
       <c r="A114" s="18"/>
       <c r="B114" s="19">
         <v>1</v>
@@ -3008,7 +3014,7 @@
       </c>
       <c r="D114" s="11"/>
     </row>
-    <row r="115" ht="27" spans="1:4">
+    <row r="115" ht="25.5" spans="1:4">
       <c r="A115" s="18"/>
       <c r="B115" s="19">
         <v>1</v>
@@ -3018,7 +3024,7 @@
       </c>
       <c r="D115" s="11"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" ht="27" spans="1:4">
       <c r="A116" s="18"/>
       <c r="B116" s="19">
         <v>1</v>
@@ -3028,35 +3034,39 @@
       </c>
       <c r="D116" s="11"/>
     </row>
-    <row r="117" ht="69.75" spans="1:4">
+    <row r="117" ht="27" spans="1:4">
       <c r="A117" s="18"/>
       <c r="B117" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="11"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="18"/>
+      <c r="B118" s="19">
+        <v>1</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="118" ht="27" spans="1:4">
-      <c r="A118" s="18"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="12" t="s">
+      <c r="D118" s="11"/>
+    </row>
+    <row r="119" ht="69.75" spans="1:4">
+      <c r="A119" s="18"/>
+      <c r="B119" s="19">
+        <v>5</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D118" s="11"/>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="18"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="12" t="s">
+      <c r="D119" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D119" s="11"/>
-    </row>
-    <row r="120" ht="25.5" spans="1:4">
+    </row>
+    <row r="120" ht="27" spans="1:4">
       <c r="A120" s="18"/>
       <c r="B120" s="19"/>
       <c r="C120" s="12" t="s">
@@ -3064,7 +3074,7 @@
       </c>
       <c r="D120" s="11"/>
     </row>
-    <row r="121" ht="25.5" spans="1:4">
+    <row r="121" spans="1:4">
       <c r="A121" s="18"/>
       <c r="B121" s="19"/>
       <c r="C121" s="12" t="s">
@@ -3072,7 +3082,7 @@
       </c>
       <c r="D121" s="11"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" ht="25.5" spans="1:4">
       <c r="A122" s="18"/>
       <c r="B122" s="19"/>
       <c r="C122" s="12" t="s">
@@ -3082,77 +3092,93 @@
     </row>
     <row r="123" ht="25.5" spans="1:4">
       <c r="A123" s="18"/>
-      <c r="B123" s="19">
-        <v>2</v>
-      </c>
+      <c r="B123" s="19"/>
       <c r="C123" s="12" t="s">
         <v>167</v>
       </c>
       <c r="D123" s="11"/>
     </row>
-    <row r="124" ht="25.5" spans="1:4">
+    <row r="124" spans="1:4">
       <c r="A124" s="18"/>
-      <c r="B124" s="21">
-        <v>3</v>
-      </c>
+      <c r="B124" s="19"/>
       <c r="C124" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="D124" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="125" ht="55.5" spans="1:4">
+      <c r="D124" s="11"/>
+    </row>
+    <row r="125" ht="25.5" spans="1:4">
       <c r="A125" s="18"/>
       <c r="B125" s="19">
-        <v>5</v>
-      </c>
-      <c r="C125" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D125" s="11"/>
+    </row>
+    <row r="126" ht="25.5" spans="1:4">
+      <c r="A126" s="18"/>
+      <c r="B126" s="21">
+        <v>1</v>
+      </c>
+      <c r="C126" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D125" s="11" t="s">
+      <c r="D126" s="11" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="126" ht="27" spans="1:4">
-      <c r="A126" s="18"/>
-      <c r="B126" s="19">
-        <v>2</v>
-      </c>
-      <c r="C126" s="22" t="s">
+    <row r="127" ht="55.5" spans="1:4">
+      <c r="A127" s="18"/>
+      <c r="B127" s="19">
+        <v>5</v>
+      </c>
+      <c r="C127" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="D126" s="11"/>
-    </row>
-    <row r="127" ht="123.75" spans="1:4">
-      <c r="A127" s="23"/>
-      <c r="B127" s="19">
-        <v>5</v>
-      </c>
-      <c r="C127" s="11" t="s">
+      <c r="D127" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D127" s="11" t="s">
+    </row>
+    <row r="128" ht="27" spans="1:4">
+      <c r="A128" s="18"/>
+      <c r="B128" s="19">
+        <v>2</v>
+      </c>
+      <c r="C128" s="22" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="128" ht="27" spans="1:4">
-      <c r="A128" s="24" t="s">
+      <c r="D128" s="11"/>
+    </row>
+    <row r="129" ht="123.75" spans="1:4">
+      <c r="A129" s="23"/>
+      <c r="B129" s="19">
+        <v>5</v>
+      </c>
+      <c r="C129" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B128" s="25"/>
-      <c r="C128" s="12" t="s">
+      <c r="D129" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D128" s="12"/>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="24"/>
-      <c r="B129" s="25"/>
-      <c r="C129" s="12" t="s">
+    </row>
+    <row r="130" ht="27" spans="1:4">
+      <c r="A130" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="D129" s="12"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D130" s="12"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="24"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D131" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3160,11 +3186,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="A18:A45"/>
-    <mergeCell ref="A46:A83"/>
-    <mergeCell ref="A84:A127"/>
-    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A46:A84"/>
+    <mergeCell ref="A85:A129"/>
+    <mergeCell ref="A130:A131"/>
   </mergeCells>
-  <conditionalFormatting sqref="B:B">
+  <conditionalFormatting sqref="B64:B1048576 B1:B62 B63">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3175,6 +3201,9 @@
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C109" r:id="rId1" display="Panoptic Segmentation" tooltip="https://arxiv.org/abs/1801.00868"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
   <si>
     <t>Scope</t>
   </si>
@@ -158,6 +158,9 @@
     <t>Gather-Excite: Exploiting feature Context in Convolutional Neural Networks</t>
   </si>
   <si>
+    <t>Multi-Scale Dense Networks for Resource Efficient Image Classification</t>
+  </si>
+  <si>
     <t>Densely Connected Convolutional Networks</t>
   </si>
   <si>
@@ -507,6 +510,9 @@
     <t>Panoptic Segmentation</t>
   </si>
   <si>
+    <t>Towards End-to-End Lane Detection: an Instance Segmentation Approach</t>
+  </si>
+  <si>
     <t>Deep fully convolutional networks with random data augmentation for enhanced generalization in road detection</t>
   </si>
   <si>
@@ -591,6 +597,12 @@
   </si>
   <si>
     <t>Fast Scene Understanding for Autonomous Driving</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>a learning-based approach for lane Departure warning systems with a personalied driver model</t>
   </si>
 </sst>
 </file>
@@ -598,12 +610,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,10 +652,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF31424E"/>
       <name val="microsoft yahei"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -656,14 +683,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,31 +704,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,6 +721,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -723,21 +744,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,31 +759,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,6 +772,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -823,73 +842,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,13 +992,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,13 +1004,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,73 +1022,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,11 +1088,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,6 +1132,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,213 +1179,163 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1368,6 +1387,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1383,7 +1405,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1752,12 +1774,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="$A42:$XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -2052,167 +2074,171 @@
       </c>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" ht="25.5" spans="1:4">
+    <row r="27" spans="1:4">
       <c r="A27" s="9"/>
       <c r="B27" s="16">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" ht="25.5" spans="1:4">
+      <c r="A28" s="9"/>
+      <c r="B28" s="16">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" ht="82.5" spans="1:4">
-      <c r="A28" s="9"/>
-      <c r="B28" s="14">
-        <v>5</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" ht="25.5" spans="1:4">
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" ht="82.5" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="30" ht="25.5" spans="1:4">
       <c r="A30" s="9"/>
-      <c r="B30" s="16">
-        <v>2</v>
+      <c r="B30" s="14">
+        <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="11"/>
     </row>
     <row r="31" ht="25.5" spans="1:4">
       <c r="A31" s="9"/>
       <c r="B31" s="16">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" ht="25.5" spans="1:4">
+      <c r="A32" s="9"/>
+      <c r="B32" s="16">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" ht="84" spans="1:4">
-      <c r="A32" s="9"/>
-      <c r="B32" s="14">
-        <v>5</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" ht="25.5" spans="1:4">
+      <c r="A33" s="9"/>
+      <c r="B33" s="16">
+        <v>1</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" ht="84" spans="1:4">
+      <c r="A34" s="9"/>
+      <c r="B34" s="14">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" ht="28.5" spans="1:4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="14">
-        <v>5</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="D34" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="11" t="s">
+    </row>
+    <row r="35" ht="28.5" spans="1:4">
+      <c r="A35" s="9"/>
+      <c r="B35" s="14">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="9"/>
-      <c r="B34" s="16">
+      <c r="D35" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="9"/>
+      <c r="B36" s="16">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="9"/>
-      <c r="B35" s="16">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" ht="41.25" spans="1:4">
-      <c r="A36" s="9"/>
-      <c r="B36" s="14">
-        <v>5</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" ht="25.5" spans="1:4">
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="9"/>
       <c r="B37" s="16">
         <v>2</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>53</v>
+      <c r="C37" t="s">
+        <v>51</v>
       </c>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" ht="81" spans="1:4">
+    <row r="38" ht="41.25" spans="1:4">
       <c r="A38" s="9"/>
       <c r="B38" s="14">
         <v>5</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" spans="1:4">
+      <c r="A39" s="9"/>
+      <c r="B39" s="16">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" ht="81" spans="1:4">
+      <c r="A40" s="9"/>
+      <c r="B40" s="14">
+        <v>5</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" ht="28.5" spans="1:4">
-      <c r="A39" s="9"/>
-      <c r="B39" s="14">
-        <v>5</v>
-      </c>
-      <c r="C39" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="9"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" ht="25.5" spans="1:4">
+    </row>
+    <row r="41" ht="28.5" spans="1:4">
       <c r="A41" s="9"/>
       <c r="B41" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C41" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:4">
+    </row>
+    <row r="42" ht="25.5" spans="1:4">
       <c r="A42" s="9"/>
-      <c r="B42" s="16">
+      <c r="B42" s="14">
         <v>1</v>
       </c>
       <c r="C42" s="12" t="s">
@@ -2223,51 +2249,51 @@
     <row r="43" spans="1:4">
       <c r="A43" s="9"/>
       <c r="B43" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="11"/>
     </row>
-    <row r="44" ht="53" customHeight="1" spans="1:4">
+    <row r="44" spans="1:4">
       <c r="A44" s="9"/>
-      <c r="B44" s="14">
-        <v>5</v>
+      <c r="B44" s="16">
+        <v>2</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" ht="41" customHeight="1" spans="1:4">
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" ht="53" customHeight="1" spans="1:4">
       <c r="A45" s="9"/>
       <c r="B45" s="14">
         <v>5</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="11" t="s">
+    </row>
+    <row r="46" ht="41" customHeight="1" spans="1:4">
+      <c r="A46" s="9"/>
+      <c r="B46" s="14">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="46" ht="25.5" spans="1:4">
-      <c r="A46" s="9" t="s">
+      <c r="D46" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="14">
-        <v>2</v>
-      </c>
-      <c r="C46" s="2" t="s">
+    </row>
+    <row r="47" ht="25.5" spans="1:4">
+      <c r="A47" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="11"/>
-    </row>
-    <row r="47" ht="25.5" spans="1:4">
-      <c r="A47" s="9"/>
       <c r="B47" s="14">
         <v>2</v>
       </c>
@@ -2276,7 +2302,7 @@
       </c>
       <c r="D47" s="11"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" ht="25.5" spans="1:4">
       <c r="A48" s="9"/>
       <c r="B48" s="14">
         <v>2</v>
@@ -2286,7 +2312,7 @@
       </c>
       <c r="D48" s="11"/>
     </row>
-    <row r="49" ht="25.5" spans="1:4">
+    <row r="49" spans="1:4">
       <c r="A49" s="9"/>
       <c r="B49" s="14">
         <v>2</v>
@@ -2306,80 +2332,74 @@
       </c>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" ht="25.5" spans="1:4">
       <c r="A51" s="9"/>
       <c r="B51" s="14">
-        <v>5</v>
-      </c>
-      <c r="C51" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="F51" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="9"/>
       <c r="B52" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C52" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="F52" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="11"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-    </row>
-    <row r="53" ht="52.5" spans="1:7">
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="9"/>
-      <c r="B53" s="16">
+      <c r="B53" s="14">
         <v>2</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D53" s="11"/>
-      <c r="F53" s="1">
-        <v>0</v>
-      </c>
-      <c r="G53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" ht="25.5" spans="1:7">
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+    </row>
+    <row r="54" ht="52.5" spans="1:7">
       <c r="A54" s="9"/>
       <c r="B54" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D54" s="11"/>
       <c r="F54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" ht="25.5" spans="1:7">
       <c r="A55" s="9"/>
       <c r="B55" s="16">
         <v>3</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D55" s="11"/>
       <c r="F55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2388,27 +2408,33 @@
         <v>3</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D56" s="11"/>
       <c r="F56" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="9"/>
       <c r="B57" s="16">
         <v>3</v>
       </c>
       <c r="C57" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="F57" s="1">
+        <v>3</v>
+      </c>
+      <c r="G57" t="s">
         <v>82</v>
       </c>
-      <c r="D57" s="11"/>
-    </row>
-    <row r="58" ht="25.5" spans="1:4">
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="9"/>
       <c r="B58" s="16">
         <v>3</v>
@@ -2418,27 +2444,27 @@
       </c>
       <c r="D58" s="11"/>
     </row>
-    <row r="59" ht="42.75" spans="1:4">
+    <row r="59" ht="25.5" spans="1:4">
       <c r="A59" s="9"/>
-      <c r="B59" s="10">
-        <v>5</v>
+      <c r="B59" s="16">
+        <v>3</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" ht="42.75" spans="1:4">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10">
+        <v>5</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="60" ht="25.5" spans="1:4">
-      <c r="A60" s="9"/>
-      <c r="B60" s="16">
-        <v>3</v>
-      </c>
-      <c r="C60" s="11" t="s">
+      <c r="D60" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="11"/>
     </row>
     <row r="61" ht="25.5" spans="1:4">
       <c r="A61" s="9"/>
@@ -2450,34 +2476,34 @@
       </c>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" ht="84" spans="1:4">
+    <row r="62" ht="25.5" spans="1:4">
       <c r="A62" s="9"/>
-      <c r="B62" s="10">
-        <v>5</v>
+      <c r="B62" s="16">
+        <v>3</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D62" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="D62" s="11"/>
+    </row>
+    <row r="63" ht="84" spans="1:4">
       <c r="A63" s="9"/>
       <c r="B63" s="10">
-        <v>2</v>
-      </c>
-      <c r="C63" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D63" s="11"/>
-    </row>
-    <row r="64" ht="25.5" spans="1:4">
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="9"/>
-      <c r="B64" s="16">
-        <v>2</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="B64" s="10">
+        <v>2</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D64" s="11"/>
@@ -2492,7 +2518,7 @@
       </c>
       <c r="D65" s="11"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" ht="25.5" spans="1:4">
       <c r="A66" s="9"/>
       <c r="B66" s="16">
         <v>2</v>
@@ -2512,7 +2538,7 @@
       </c>
       <c r="D67" s="11"/>
     </row>
-    <row r="68" ht="25.5" spans="1:4">
+    <row r="68" spans="1:4">
       <c r="A68" s="9"/>
       <c r="B68" s="16">
         <v>2</v>
@@ -2522,7 +2548,7 @@
       </c>
       <c r="D68" s="11"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" ht="25.5" spans="1:4">
       <c r="A69" s="9"/>
       <c r="B69" s="16">
         <v>2</v>
@@ -2532,7 +2558,7 @@
       </c>
       <c r="D69" s="11"/>
     </row>
-    <row r="70" ht="25.5" spans="1:4">
+    <row r="70" spans="1:4">
       <c r="A70" s="9"/>
       <c r="B70" s="16">
         <v>2</v>
@@ -2562,41 +2588,41 @@
       </c>
       <c r="D72" s="11"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" ht="25.5" spans="1:4">
       <c r="A73" s="9"/>
       <c r="B73" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D73" s="11"/>
     </row>
-    <row r="74" ht="42.75" spans="1:4">
+    <row r="74" spans="1:4">
       <c r="A74" s="9"/>
-      <c r="B74" s="10">
-        <v>5</v>
+      <c r="B74" s="16">
+        <v>1</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="11"/>
+    </row>
+    <row r="75" ht="42.75" spans="1:4">
+      <c r="A75" s="9"/>
+      <c r="B75" s="10">
+        <v>5</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="75" ht="25.5" spans="1:4">
-      <c r="A75" s="9"/>
-      <c r="B75" s="16">
-        <v>2</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D75" s="11"/>
-    </row>
-    <row r="76" spans="1:4">
+    </row>
+    <row r="76" ht="25.5" spans="1:4">
       <c r="A76" s="9"/>
-      <c r="B76" s="10">
+      <c r="B76" s="16">
         <v>2</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -2614,7 +2640,7 @@
       </c>
       <c r="D77" s="11"/>
     </row>
-    <row r="78" ht="25.5" spans="1:4">
+    <row r="78" spans="1:4">
       <c r="A78" s="9"/>
       <c r="B78" s="10">
         <v>2</v>
@@ -2624,17 +2650,17 @@
       </c>
       <c r="D78" s="11"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" ht="25.5" spans="1:4">
       <c r="A79" s="9"/>
-      <c r="B79" s="16">
-        <v>1</v>
+      <c r="B79" s="10">
+        <v>2</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D79" s="11"/>
     </row>
-    <row r="80" ht="25.5" spans="1:4">
+    <row r="80" spans="1:4">
       <c r="A80" s="9"/>
       <c r="B80" s="16">
         <v>1</v>
@@ -2669,12 +2695,12 @@
       <c r="B83" s="16">
         <v>1</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D83" s="11"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" ht="25.5" spans="1:4">
       <c r="A84" s="9"/>
       <c r="B84" s="16">
         <v>1</v>
@@ -2684,135 +2710,135 @@
       </c>
       <c r="D84" s="11"/>
     </row>
-    <row r="85" ht="25.5" spans="1:4">
-      <c r="A85" s="18" t="s">
+    <row r="85" spans="1:4">
+      <c r="A85" s="9"/>
+      <c r="B85" s="16">
+        <v>1</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B85" s="16">
-        <v>2</v>
-      </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="11"/>
+    </row>
+    <row r="86" ht="25.5" spans="1:4">
+      <c r="A86" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D85" s="11"/>
-    </row>
-    <row r="86" ht="41.25" spans="1:4">
-      <c r="A86" s="18"/>
-      <c r="B86" s="10">
-        <v>5</v>
-      </c>
-      <c r="C86" s="11" t="s">
+      <c r="B86" s="16">
+        <v>2</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D86" s="11"/>
     </row>
-    <row r="87" ht="54" spans="1:4">
-      <c r="A87" s="18"/>
+    <row r="87" ht="41.25" spans="1:4">
+      <c r="A87" s="19"/>
       <c r="B87" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="11"/>
+    </row>
+    <row r="88" ht="54" spans="1:4">
+      <c r="A88" s="19"/>
+      <c r="B88" s="10">
+        <v>6</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="88" ht="14.25" spans="1:4">
-      <c r="A88" s="18"/>
-      <c r="B88" s="19">
-        <v>5</v>
-      </c>
-      <c r="C88" s="11" t="s">
+      <c r="D88" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D88" s="11" t="s">
+    </row>
+    <row r="89" ht="14.25" spans="1:4">
+      <c r="A89" s="19"/>
+      <c r="B89" s="20">
+        <v>5</v>
+      </c>
+      <c r="C89" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="89" ht="28.5" spans="1:4">
-      <c r="A89" s="18"/>
-      <c r="B89" s="19">
-        <v>5</v>
-      </c>
-      <c r="C89" s="11" t="s">
+      <c r="D89" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D89" s="11" t="s">
+    </row>
+    <row r="90" ht="28.5" spans="1:4">
+      <c r="A90" s="19"/>
+      <c r="B90" s="20">
+        <v>5</v>
+      </c>
+      <c r="C90" s="11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="90" ht="25.5" spans="1:4">
-      <c r="A90" s="18"/>
-      <c r="B90" s="19">
+      <c r="D90" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" spans="1:4">
+      <c r="A91" s="19"/>
+      <c r="B91" s="20">
         <v>1</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D90" s="11"/>
-    </row>
-    <row r="91" ht="96.75" spans="1:4">
-      <c r="A91" s="18"/>
-      <c r="B91" s="19">
-        <v>5</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="11"/>
+    </row>
+    <row r="92" ht="96.75" spans="1:4">
+      <c r="A92" s="19"/>
+      <c r="B92" s="20">
+        <v>5</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="92" ht="96.75" spans="1:4">
-      <c r="A92" s="18"/>
-      <c r="B92" s="19">
-        <v>5</v>
-      </c>
-      <c r="C92" s="11" t="s">
+      <c r="D92" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D92" s="11" t="s">
+    </row>
+    <row r="93" ht="96.75" spans="1:4">
+      <c r="A93" s="19"/>
+      <c r="B93" s="20">
+        <v>5</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="93" ht="55.5" spans="1:4">
-      <c r="A93" s="18"/>
-      <c r="B93" s="19">
-        <v>5</v>
-      </c>
-      <c r="C93" s="11" t="s">
+      <c r="D93" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D93" s="11" t="s">
+    </row>
+    <row r="94" ht="55.5" spans="1:4">
+      <c r="A94" s="19"/>
+      <c r="B94" s="20">
+        <v>5</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="94" ht="111" spans="1:4">
-      <c r="A94" s="18"/>
-      <c r="B94" s="19">
-        <v>5</v>
-      </c>
-      <c r="C94" s="11" t="s">
+      <c r="D94" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D94" s="11" t="s">
+    </row>
+    <row r="95" ht="111" spans="1:4">
+      <c r="A95" s="19"/>
+      <c r="B95" s="20">
+        <v>5</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="18"/>
-      <c r="B95" s="19">
-        <v>5</v>
-      </c>
-      <c r="C95" s="11" t="s">
+      <c r="D95" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D95" s="11"/>
-    </row>
-    <row r="96" ht="27" spans="1:4">
-      <c r="A96" s="18"/>
-      <c r="B96" s="19">
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="19"/>
+      <c r="B96" s="20">
         <v>5</v>
       </c>
       <c r="C96" s="11" t="s">
@@ -2820,51 +2846,51 @@
       </c>
       <c r="D96" s="11"/>
     </row>
-    <row r="97" ht="41.25" spans="1:4">
-      <c r="A97" s="18"/>
-      <c r="B97" s="19">
+    <row r="97" ht="27" spans="1:4">
+      <c r="A97" s="19"/>
+      <c r="B97" s="20">
         <v>5</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D97" s="11"/>
+    </row>
+    <row r="98" ht="41.25" spans="1:4">
+      <c r="A98" s="19"/>
+      <c r="B98" s="20">
+        <v>5</v>
+      </c>
+      <c r="C98" s="11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="18"/>
-      <c r="B98" s="19">
-        <v>2</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="D98" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D98" s="11"/>
-    </row>
-    <row r="99" ht="25.5" spans="1:4">
-      <c r="A99" s="18"/>
-      <c r="B99" s="19">
-        <v>2</v>
-      </c>
-      <c r="C99" s="2" t="s">
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="19"/>
+      <c r="B99" s="20">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
         <v>136</v>
       </c>
       <c r="D99" s="11"/>
     </row>
     <row r="100" ht="25.5" spans="1:4">
-      <c r="A100" s="18"/>
-      <c r="B100" s="19">
-        <v>2</v>
-      </c>
-      <c r="C100" s="12" t="s">
+      <c r="A100" s="19"/>
+      <c r="B100" s="20">
+        <v>2</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D100" s="11"/>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="18"/>
-      <c r="B101" s="19">
+    <row r="101" ht="25.5" spans="1:4">
+      <c r="A101" s="19"/>
+      <c r="B101" s="20">
         <v>2</v>
       </c>
       <c r="C101" s="12" t="s">
@@ -2872,9 +2898,9 @@
       </c>
       <c r="D101" s="11"/>
     </row>
-    <row r="102" ht="25.5" spans="1:4">
-      <c r="A102" s="18"/>
-      <c r="B102" s="19">
+    <row r="102" spans="1:4">
+      <c r="A102" s="19"/>
+      <c r="B102" s="20">
         <v>2</v>
       </c>
       <c r="C102" s="12" t="s">
@@ -2883,91 +2909,91 @@
       <c r="D102" s="11"/>
     </row>
     <row r="103" ht="25.5" spans="1:4">
-      <c r="A103" s="18"/>
-      <c r="B103" s="19">
-        <v>5</v>
+      <c r="A103" s="19"/>
+      <c r="B103" s="20">
+        <v>2</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="D103" s="11"/>
+    </row>
+    <row r="104" ht="25.5" spans="1:4">
+      <c r="A104" s="19"/>
+      <c r="B104" s="20">
+        <v>5</v>
+      </c>
+      <c r="C104" s="12" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="104" ht="41.25" spans="1:4">
-      <c r="A104" s="18"/>
-      <c r="B104" s="19">
-        <v>5</v>
-      </c>
-      <c r="C104" s="12" t="s">
+      <c r="D104" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D104" s="11" t="s">
+    </row>
+    <row r="105" ht="41.25" spans="1:4">
+      <c r="A105" s="19"/>
+      <c r="B105" s="20">
+        <v>5</v>
+      </c>
+      <c r="C105" s="12" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="105" ht="160.5" spans="1:4">
-      <c r="A105" s="18"/>
-      <c r="B105" s="19">
-        <v>5</v>
-      </c>
-      <c r="C105" s="12" t="s">
+      <c r="D105" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D105" s="11" t="s">
+    </row>
+    <row r="106" ht="160.5" spans="1:4">
+      <c r="A106" s="19"/>
+      <c r="B106" s="20">
+        <v>5</v>
+      </c>
+      <c r="C106" s="12" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="106" ht="28.5" spans="1:4">
-      <c r="A106" s="18"/>
-      <c r="B106" s="19">
-        <v>5</v>
-      </c>
-      <c r="C106" s="12" t="s">
+      <c r="D106" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D106" s="11" t="s">
+    </row>
+    <row r="107" ht="28.5" spans="1:4">
+      <c r="A107" s="19"/>
+      <c r="B107" s="20">
+        <v>5</v>
+      </c>
+      <c r="C107" s="12" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="107" ht="57" spans="1:4">
-      <c r="A107" s="18"/>
-      <c r="B107" s="19">
-        <v>5</v>
-      </c>
-      <c r="C107" s="12" t="s">
+      <c r="D107" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D107" s="11" t="s">
+    </row>
+    <row r="108" ht="57" spans="1:4">
+      <c r="A108" s="19"/>
+      <c r="B108" s="20">
+        <v>5</v>
+      </c>
+      <c r="C108" s="12" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="108" ht="57" spans="1:4">
-      <c r="A108" s="18"/>
-      <c r="B108" s="19">
-        <v>5</v>
-      </c>
-      <c r="C108" s="12" t="s">
+      <c r="D108" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D108" s="11" t="s">
+    </row>
+    <row r="109" ht="57" spans="1:4">
+      <c r="A109" s="19"/>
+      <c r="B109" s="20">
+        <v>5</v>
+      </c>
+      <c r="C109" s="12" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="18"/>
-      <c r="B109" s="19">
-        <v>2</v>
-      </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D109" s="11"/>
-    </row>
-    <row r="110" ht="38.25" spans="1:4">
-      <c r="A110" s="18"/>
-      <c r="B110" s="19">
-        <v>1</v>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="19"/>
+      <c r="B110" s="20">
+        <v>2</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>153</v>
@@ -2975,8 +3001,8 @@
       <c r="D110" s="11"/>
     </row>
     <row r="111" ht="25.5" spans="1:4">
-      <c r="A111" s="18"/>
-      <c r="B111" s="19">
+      <c r="A111" s="19"/>
+      <c r="B111" s="20">
         <v>1</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -2984,29 +3010,29 @@
       </c>
       <c r="D111" s="11"/>
     </row>
-    <row r="112" ht="27" spans="1:4">
-      <c r="A112" s="18"/>
-      <c r="B112" s="19">
+    <row r="112" ht="38.25" spans="1:4">
+      <c r="A112" s="19"/>
+      <c r="B112" s="20">
         <v>1</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C112" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D112" s="11"/>
     </row>
     <row r="113" ht="25.5" spans="1:4">
-      <c r="A113" s="18"/>
+      <c r="A113" s="19"/>
       <c r="B113" s="20">
         <v>1</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C113" s="2" t="s">
         <v>156</v>
       </c>
       <c r="D113" s="11"/>
     </row>
-    <row r="114" ht="25.5" spans="1:4">
-      <c r="A114" s="18"/>
-      <c r="B114" s="19">
+    <row r="114" ht="27" spans="1:4">
+      <c r="A114" s="19"/>
+      <c r="B114" s="20">
         <v>1</v>
       </c>
       <c r="C114" s="12" t="s">
@@ -3015,8 +3041,8 @@
       <c r="D114" s="11"/>
     </row>
     <row r="115" ht="25.5" spans="1:4">
-      <c r="A115" s="18"/>
-      <c r="B115" s="19">
+      <c r="A115" s="19"/>
+      <c r="B115" s="21">
         <v>1</v>
       </c>
       <c r="C115" s="12" t="s">
@@ -3024,9 +3050,9 @@
       </c>
       <c r="D115" s="11"/>
     </row>
-    <row r="116" ht="27" spans="1:4">
-      <c r="A116" s="18"/>
-      <c r="B116" s="19">
+    <row r="116" ht="25.5" spans="1:4">
+      <c r="A116" s="19"/>
+      <c r="B116" s="20">
         <v>1</v>
       </c>
       <c r="C116" s="12" t="s">
@@ -3034,9 +3060,9 @@
       </c>
       <c r="D116" s="11"/>
     </row>
-    <row r="117" ht="27" spans="1:4">
-      <c r="A117" s="18"/>
-      <c r="B117" s="19">
+    <row r="117" ht="25.5" spans="1:4">
+      <c r="A117" s="19"/>
+      <c r="B117" s="20">
         <v>1</v>
       </c>
       <c r="C117" s="12" t="s">
@@ -3044,9 +3070,9 @@
       </c>
       <c r="D117" s="11"/>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="18"/>
-      <c r="B118" s="19">
+    <row r="118" ht="27" spans="1:4">
+      <c r="A118" s="19"/>
+      <c r="B118" s="20">
         <v>1</v>
       </c>
       <c r="C118" s="12" t="s">
@@ -3054,143 +3080,171 @@
       </c>
       <c r="D118" s="11"/>
     </row>
-    <row r="119" ht="69.75" spans="1:4">
-      <c r="A119" s="18"/>
-      <c r="B119" s="19">
-        <v>5</v>
+    <row r="119" ht="27" spans="1:4">
+      <c r="A119" s="19"/>
+      <c r="B119" s="20">
+        <v>1</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D119" s="11" t="s">
+      <c r="D119" s="11"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="19"/>
+      <c r="B120" s="20">
+        <v>1</v>
+      </c>
+      <c r="C120" s="12" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="120" ht="27" spans="1:4">
-      <c r="A120" s="18"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="12" t="s">
+      <c r="D120" s="11"/>
+    </row>
+    <row r="121" ht="69.75" spans="1:4">
+      <c r="A121" s="19"/>
+      <c r="B121" s="20">
+        <v>5</v>
+      </c>
+      <c r="C121" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D120" s="11"/>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="18"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="12" t="s">
+      <c r="D121" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D121" s="11"/>
-    </row>
-    <row r="122" ht="25.5" spans="1:4">
-      <c r="A122" s="18"/>
-      <c r="B122" s="19"/>
+    </row>
+    <row r="122" ht="27" spans="1:4">
+      <c r="A122" s="19"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="12" t="s">
         <v>166</v>
       </c>
       <c r="D122" s="11"/>
     </row>
-    <row r="123" ht="25.5" spans="1:4">
-      <c r="A123" s="18"/>
-      <c r="B123" s="19"/>
+    <row r="123" spans="1:4">
+      <c r="A123" s="19"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="12" t="s">
         <v>167</v>
       </c>
       <c r="D123" s="11"/>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="18"/>
-      <c r="B124" s="19"/>
+    <row r="124" ht="25.5" spans="1:4">
+      <c r="A124" s="19"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="12" t="s">
         <v>168</v>
       </c>
       <c r="D124" s="11"/>
     </row>
     <row r="125" ht="25.5" spans="1:4">
-      <c r="A125" s="18"/>
-      <c r="B125" s="19">
-        <v>1</v>
-      </c>
+      <c r="A125" s="19"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="12" t="s">
         <v>169</v>
       </c>
       <c r="D125" s="11"/>
     </row>
-    <row r="126" ht="25.5" spans="1:4">
-      <c r="A126" s="18"/>
-      <c r="B126" s="21">
-        <v>1</v>
-      </c>
+    <row r="126" spans="1:4">
+      <c r="A126" s="19"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D126" s="11" t="s">
+      <c r="D126" s="11"/>
+    </row>
+    <row r="127" ht="25.5" spans="1:4">
+      <c r="A127" s="19"/>
+      <c r="B127" s="20">
+        <v>1</v>
+      </c>
+      <c r="C127" s="12" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="127" ht="55.5" spans="1:4">
-      <c r="A127" s="18"/>
-      <c r="B127" s="19">
-        <v>5</v>
-      </c>
-      <c r="C127" s="22" t="s">
+      <c r="D127" s="11"/>
+    </row>
+    <row r="128" ht="25.5" spans="1:4">
+      <c r="A128" s="19"/>
+      <c r="B128" s="22">
+        <v>1</v>
+      </c>
+      <c r="C128" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D127" s="11" t="s">
+      <c r="D128" s="11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="128" ht="27" spans="1:4">
-      <c r="A128" s="18"/>
-      <c r="B128" s="19">
-        <v>2</v>
-      </c>
-      <c r="C128" s="22" t="s">
+    <row r="129" ht="55.5" spans="1:4">
+      <c r="A129" s="19"/>
+      <c r="B129" s="20">
+        <v>5</v>
+      </c>
+      <c r="C129" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="D128" s="11"/>
-    </row>
-    <row r="129" ht="123.75" spans="1:4">
-      <c r="A129" s="23"/>
-      <c r="B129" s="19">
-        <v>5</v>
-      </c>
-      <c r="C129" s="11" t="s">
+      <c r="D129" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D129" s="11" t="s">
+    </row>
+    <row r="130" ht="27" spans="1:4">
+      <c r="A130" s="19"/>
+      <c r="B130" s="20">
+        <v>2</v>
+      </c>
+      <c r="C130" s="23" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="130" ht="27" spans="1:4">
-      <c r="A130" s="24" t="s">
+      <c r="D130" s="11"/>
+    </row>
+    <row r="131" ht="123.75" spans="1:4">
+      <c r="A131" s="24"/>
+      <c r="B131" s="20">
+        <v>5</v>
+      </c>
+      <c r="C131" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="B130" s="25"/>
-      <c r="C130" s="12" t="s">
+      <c r="D131" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D130" s="12"/>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="24"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="12" t="s">
+    </row>
+    <row r="132" ht="27" spans="1:4">
+      <c r="A132" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="D131" s="12"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D132" s="12"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="25"/>
+      <c r="B133" s="26"/>
+      <c r="C133" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D133" s="12"/>
+    </row>
+    <row r="134" ht="25.5" spans="1:3">
+      <c r="A134" t="s">
+        <v>182</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A45"/>
-    <mergeCell ref="A46:A84"/>
-    <mergeCell ref="A85:A129"/>
-    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A18:A46"/>
+    <mergeCell ref="A47:A85"/>
+    <mergeCell ref="A86:A131"/>
+    <mergeCell ref="A132:A133"/>
   </mergeCells>
-  <conditionalFormatting sqref="B64:B1048576 B1:B62 B63">
+  <conditionalFormatting sqref="B:B">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3202,7 +3256,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C109" r:id="rId1" display="Panoptic Segmentation" tooltip="https://arxiv.org/abs/1801.00868"/>
+    <hyperlink ref="C110" r:id="rId1" display="Panoptic Segmentation" tooltip="https://arxiv.org/abs/1801.00868"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -610,9 +610,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -673,14 +673,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -698,6 +690,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -705,7 +704,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,6 +750,35 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -727,17 +786,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,59 +808,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -836,61 +836,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,127 +1004,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,24 +1097,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1132,6 +1108,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,157 +1170,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1387,9 +1381,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1402,7 +1393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1777,9 +1768,9 @@
   <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="$A42:$XFD42"/>
+      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -2141,7 +2132,7 @@
       <c r="B33" s="16">
         <v>1</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="11"/>
@@ -2351,10 +2342,10 @@
         <v>72</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="17" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2367,8 +2358,8 @@
         <v>74</v>
       </c>
       <c r="D53" s="11"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" ht="52.5" spans="1:7">
       <c r="A54" s="9"/>
@@ -2721,7 +2712,7 @@
       <c r="D85" s="11"/>
     </row>
     <row r="86" ht="25.5" spans="1:4">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="18" t="s">
         <v>114</v>
       </c>
       <c r="B86" s="16">
@@ -2733,7 +2724,7 @@
       <c r="D86" s="11"/>
     </row>
     <row r="87" ht="41.25" spans="1:4">
-      <c r="A87" s="19"/>
+      <c r="A87" s="18"/>
       <c r="B87" s="10">
         <v>5</v>
       </c>
@@ -2743,7 +2734,7 @@
       <c r="D87" s="11"/>
     </row>
     <row r="88" ht="54" spans="1:4">
-      <c r="A88" s="19"/>
+      <c r="A88" s="18"/>
       <c r="B88" s="10">
         <v>6</v>
       </c>
@@ -2755,8 +2746,8 @@
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:4">
-      <c r="A89" s="19"/>
-      <c r="B89" s="20">
+      <c r="A89" s="18"/>
+      <c r="B89" s="19">
         <v>5</v>
       </c>
       <c r="C89" s="11" t="s">
@@ -2767,8 +2758,8 @@
       </c>
     </row>
     <row r="90" ht="28.5" spans="1:4">
-      <c r="A90" s="19"/>
-      <c r="B90" s="20">
+      <c r="A90" s="18"/>
+      <c r="B90" s="19">
         <v>5</v>
       </c>
       <c r="C90" s="11" t="s">
@@ -2779,8 +2770,8 @@
       </c>
     </row>
     <row r="91" ht="25.5" spans="1:4">
-      <c r="A91" s="19"/>
-      <c r="B91" s="20">
+      <c r="A91" s="18"/>
+      <c r="B91" s="19">
         <v>1</v>
       </c>
       <c r="C91" s="11" t="s">
@@ -2789,8 +2780,8 @@
       <c r="D91" s="11"/>
     </row>
     <row r="92" ht="96.75" spans="1:4">
-      <c r="A92" s="19"/>
-      <c r="B92" s="20">
+      <c r="A92" s="18"/>
+      <c r="B92" s="19">
         <v>5</v>
       </c>
       <c r="C92" s="11" t="s">
@@ -2801,8 +2792,8 @@
       </c>
     </row>
     <row r="93" ht="96.75" spans="1:4">
-      <c r="A93" s="19"/>
-      <c r="B93" s="20">
+      <c r="A93" s="18"/>
+      <c r="B93" s="19">
         <v>5</v>
       </c>
       <c r="C93" s="11" t="s">
@@ -2813,8 +2804,8 @@
       </c>
     </row>
     <row r="94" ht="55.5" spans="1:4">
-      <c r="A94" s="19"/>
-      <c r="B94" s="20">
+      <c r="A94" s="18"/>
+      <c r="B94" s="19">
         <v>5</v>
       </c>
       <c r="C94" s="11" t="s">
@@ -2825,8 +2816,8 @@
       </c>
     </row>
     <row r="95" ht="111" spans="1:4">
-      <c r="A95" s="19"/>
-      <c r="B95" s="20">
+      <c r="A95" s="18"/>
+      <c r="B95" s="19">
         <v>5</v>
       </c>
       <c r="C95" s="11" t="s">
@@ -2837,8 +2828,8 @@
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="19"/>
-      <c r="B96" s="20">
+      <c r="A96" s="18"/>
+      <c r="B96" s="19">
         <v>5</v>
       </c>
       <c r="C96" s="11" t="s">
@@ -2847,8 +2838,8 @@
       <c r="D96" s="11"/>
     </row>
     <row r="97" ht="27" spans="1:4">
-      <c r="A97" s="19"/>
-      <c r="B97" s="20">
+      <c r="A97" s="18"/>
+      <c r="B97" s="19">
         <v>5</v>
       </c>
       <c r="C97" s="11" t="s">
@@ -2857,8 +2848,8 @@
       <c r="D97" s="11"/>
     </row>
     <row r="98" ht="41.25" spans="1:4">
-      <c r="A98" s="19"/>
-      <c r="B98" s="20">
+      <c r="A98" s="18"/>
+      <c r="B98" s="19">
         <v>5</v>
       </c>
       <c r="C98" s="11" t="s">
@@ -2869,8 +2860,8 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="19"/>
-      <c r="B99" s="20">
+      <c r="A99" s="18"/>
+      <c r="B99" s="19">
         <v>2</v>
       </c>
       <c r="C99" t="s">
@@ -2879,8 +2870,8 @@
       <c r="D99" s="11"/>
     </row>
     <row r="100" ht="25.5" spans="1:4">
-      <c r="A100" s="19"/>
-      <c r="B100" s="20">
+      <c r="A100" s="18"/>
+      <c r="B100" s="19">
         <v>2</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -2889,8 +2880,8 @@
       <c r="D100" s="11"/>
     </row>
     <row r="101" ht="25.5" spans="1:4">
-      <c r="A101" s="19"/>
-      <c r="B101" s="20">
+      <c r="A101" s="18"/>
+      <c r="B101" s="19">
         <v>2</v>
       </c>
       <c r="C101" s="12" t="s">
@@ -2899,8 +2890,8 @@
       <c r="D101" s="11"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="19"/>
-      <c r="B102" s="20">
+      <c r="A102" s="18"/>
+      <c r="B102" s="19">
         <v>2</v>
       </c>
       <c r="C102" s="12" t="s">
@@ -2909,8 +2900,8 @@
       <c r="D102" s="11"/>
     </row>
     <row r="103" ht="25.5" spans="1:4">
-      <c r="A103" s="19"/>
-      <c r="B103" s="20">
+      <c r="A103" s="18"/>
+      <c r="B103" s="19">
         <v>2</v>
       </c>
       <c r="C103" s="12" t="s">
@@ -2919,8 +2910,8 @@
       <c r="D103" s="11"/>
     </row>
     <row r="104" ht="25.5" spans="1:4">
-      <c r="A104" s="19"/>
-      <c r="B104" s="20">
+      <c r="A104" s="18"/>
+      <c r="B104" s="19">
         <v>5</v>
       </c>
       <c r="C104" s="12" t="s">
@@ -2931,8 +2922,8 @@
       </c>
     </row>
     <row r="105" ht="41.25" spans="1:4">
-      <c r="A105" s="19"/>
-      <c r="B105" s="20">
+      <c r="A105" s="18"/>
+      <c r="B105" s="19">
         <v>5</v>
       </c>
       <c r="C105" s="12" t="s">
@@ -2943,8 +2934,8 @@
       </c>
     </row>
     <row r="106" ht="160.5" spans="1:4">
-      <c r="A106" s="19"/>
-      <c r="B106" s="20">
+      <c r="A106" s="18"/>
+      <c r="B106" s="19">
         <v>5</v>
       </c>
       <c r="C106" s="12" t="s">
@@ -2955,8 +2946,8 @@
       </c>
     </row>
     <row r="107" ht="28.5" spans="1:4">
-      <c r="A107" s="19"/>
-      <c r="B107" s="20">
+      <c r="A107" s="18"/>
+      <c r="B107" s="19">
         <v>5</v>
       </c>
       <c r="C107" s="12" t="s">
@@ -2967,8 +2958,8 @@
       </c>
     </row>
     <row r="108" ht="57" spans="1:4">
-      <c r="A108" s="19"/>
-      <c r="B108" s="20">
+      <c r="A108" s="18"/>
+      <c r="B108" s="19">
         <v>5</v>
       </c>
       <c r="C108" s="12" t="s">
@@ -2979,8 +2970,8 @@
       </c>
     </row>
     <row r="109" ht="57" spans="1:4">
-      <c r="A109" s="19"/>
-      <c r="B109" s="20">
+      <c r="A109" s="18"/>
+      <c r="B109" s="19">
         <v>5</v>
       </c>
       <c r="C109" s="12" t="s">
@@ -2991,8 +2982,8 @@
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="19"/>
-      <c r="B110" s="20">
+      <c r="A110" s="18"/>
+      <c r="B110" s="19">
         <v>2</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -3001,9 +2992,9 @@
       <c r="D110" s="11"/>
     </row>
     <row r="111" ht="25.5" spans="1:4">
-      <c r="A111" s="19"/>
-      <c r="B111" s="20">
-        <v>1</v>
+      <c r="A111" s="18"/>
+      <c r="B111" s="19">
+        <v>0</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>154</v>
@@ -3011,9 +3002,9 @@
       <c r="D111" s="11"/>
     </row>
     <row r="112" ht="38.25" spans="1:4">
-      <c r="A112" s="19"/>
-      <c r="B112" s="20">
-        <v>1</v>
+      <c r="A112" s="18"/>
+      <c r="B112" s="19">
+        <v>0</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>155</v>
@@ -3021,9 +3012,9 @@
       <c r="D112" s="11"/>
     </row>
     <row r="113" ht="25.5" spans="1:4">
-      <c r="A113" s="19"/>
-      <c r="B113" s="20">
-        <v>1</v>
+      <c r="A113" s="18"/>
+      <c r="B113" s="19">
+        <v>0</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>156</v>
@@ -3031,9 +3022,9 @@
       <c r="D113" s="11"/>
     </row>
     <row r="114" ht="27" spans="1:4">
-      <c r="A114" s="19"/>
-      <c r="B114" s="20">
-        <v>1</v>
+      <c r="A114" s="18"/>
+      <c r="B114" s="19">
+        <v>0</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>157</v>
@@ -3041,8 +3032,8 @@
       <c r="D114" s="11"/>
     </row>
     <row r="115" ht="25.5" spans="1:4">
-      <c r="A115" s="19"/>
-      <c r="B115" s="21">
+      <c r="A115" s="18"/>
+      <c r="B115" s="20">
         <v>1</v>
       </c>
       <c r="C115" s="12" t="s">
@@ -3051,8 +3042,8 @@
       <c r="D115" s="11"/>
     </row>
     <row r="116" ht="25.5" spans="1:4">
-      <c r="A116" s="19"/>
-      <c r="B116" s="20">
+      <c r="A116" s="18"/>
+      <c r="B116" s="19">
         <v>1</v>
       </c>
       <c r="C116" s="12" t="s">
@@ -3061,8 +3052,8 @@
       <c r="D116" s="11"/>
     </row>
     <row r="117" ht="25.5" spans="1:4">
-      <c r="A117" s="19"/>
-      <c r="B117" s="20">
+      <c r="A117" s="18"/>
+      <c r="B117" s="19">
         <v>1</v>
       </c>
       <c r="C117" s="12" t="s">
@@ -3071,9 +3062,9 @@
       <c r="D117" s="11"/>
     </row>
     <row r="118" ht="27" spans="1:4">
-      <c r="A118" s="19"/>
-      <c r="B118" s="20">
-        <v>1</v>
+      <c r="A118" s="18"/>
+      <c r="B118" s="19">
+        <v>0</v>
       </c>
       <c r="C118" s="12" t="s">
         <v>161</v>
@@ -3081,8 +3072,8 @@
       <c r="D118" s="11"/>
     </row>
     <row r="119" ht="27" spans="1:4">
-      <c r="A119" s="19"/>
-      <c r="B119" s="20">
+      <c r="A119" s="18"/>
+      <c r="B119" s="19">
         <v>1</v>
       </c>
       <c r="C119" s="12" t="s">
@@ -3091,9 +3082,9 @@
       <c r="D119" s="11"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="19"/>
-      <c r="B120" s="20">
-        <v>1</v>
+      <c r="A120" s="18"/>
+      <c r="B120" s="19">
+        <v>0</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>163</v>
@@ -3101,8 +3092,8 @@
       <c r="D120" s="11"/>
     </row>
     <row r="121" ht="69.75" spans="1:4">
-      <c r="A121" s="19"/>
-      <c r="B121" s="20">
+      <c r="A121" s="18"/>
+      <c r="B121" s="19">
         <v>5</v>
       </c>
       <c r="C121" s="12" t="s">
@@ -3113,48 +3104,48 @@
       </c>
     </row>
     <row r="122" ht="27" spans="1:4">
-      <c r="A122" s="19"/>
-      <c r="B122" s="20"/>
+      <c r="A122" s="18"/>
+      <c r="B122" s="19"/>
       <c r="C122" s="12" t="s">
         <v>166</v>
       </c>
       <c r="D122" s="11"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="19"/>
-      <c r="B123" s="20"/>
+      <c r="A123" s="18"/>
+      <c r="B123" s="19"/>
       <c r="C123" s="12" t="s">
         <v>167</v>
       </c>
       <c r="D123" s="11"/>
     </row>
     <row r="124" ht="25.5" spans="1:4">
-      <c r="A124" s="19"/>
-      <c r="B124" s="20"/>
+      <c r="A124" s="18"/>
+      <c r="B124" s="19"/>
       <c r="C124" s="12" t="s">
         <v>168</v>
       </c>
       <c r="D124" s="11"/>
     </row>
     <row r="125" ht="25.5" spans="1:4">
-      <c r="A125" s="19"/>
-      <c r="B125" s="20"/>
+      <c r="A125" s="18"/>
+      <c r="B125" s="19"/>
       <c r="C125" s="12" t="s">
         <v>169</v>
       </c>
       <c r="D125" s="11"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="19"/>
-      <c r="B126" s="20"/>
+      <c r="A126" s="18"/>
+      <c r="B126" s="19"/>
       <c r="C126" s="12" t="s">
         <v>170</v>
       </c>
       <c r="D126" s="11"/>
     </row>
     <row r="127" ht="25.5" spans="1:4">
-      <c r="A127" s="19"/>
-      <c r="B127" s="20">
+      <c r="A127" s="18"/>
+      <c r="B127" s="19">
         <v>1</v>
       </c>
       <c r="C127" s="12" t="s">
@@ -3163,9 +3154,9 @@
       <c r="D127" s="11"/>
     </row>
     <row r="128" ht="25.5" spans="1:4">
-      <c r="A128" s="19"/>
-      <c r="B128" s="22">
-        <v>1</v>
+      <c r="A128" s="18"/>
+      <c r="B128" s="21">
+        <v>5</v>
       </c>
       <c r="C128" s="12" t="s">
         <v>172</v>
@@ -3175,11 +3166,11 @@
       </c>
     </row>
     <row r="129" ht="55.5" spans="1:4">
-      <c r="A129" s="19"/>
-      <c r="B129" s="20">
-        <v>5</v>
-      </c>
-      <c r="C129" s="23" t="s">
+      <c r="A129" s="18"/>
+      <c r="B129" s="19">
+        <v>5</v>
+      </c>
+      <c r="C129" s="22" t="s">
         <v>174</v>
       </c>
       <c r="D129" s="11" t="s">
@@ -3187,18 +3178,18 @@
       </c>
     </row>
     <row r="130" ht="27" spans="1:4">
-      <c r="A130" s="19"/>
-      <c r="B130" s="20">
-        <v>2</v>
-      </c>
-      <c r="C130" s="23" t="s">
+      <c r="A130" s="18"/>
+      <c r="B130" s="19">
+        <v>2</v>
+      </c>
+      <c r="C130" s="22" t="s">
         <v>176</v>
       </c>
       <c r="D130" s="11"/>
     </row>
     <row r="131" ht="123.75" spans="1:4">
-      <c r="A131" s="24"/>
-      <c r="B131" s="20">
+      <c r="A131" s="23"/>
+      <c r="B131" s="19">
         <v>5</v>
       </c>
       <c r="C131" s="11" t="s">
@@ -3209,18 +3200,18 @@
       </c>
     </row>
     <row r="132" ht="27" spans="1:4">
-      <c r="A132" s="25" t="s">
+      <c r="A132" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B132" s="26"/>
+      <c r="B132" s="25"/>
       <c r="C132" s="12" t="s">
         <v>180</v>
       </c>
       <c r="D132" s="12"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="25"/>
-      <c r="B133" s="26"/>
+      <c r="A133" s="24"/>
+      <c r="B133" s="25"/>
       <c r="C133" s="12" t="s">
         <v>181</v>
       </c>
@@ -3244,7 +3235,7 @@
     <mergeCell ref="A86:A131"/>
     <mergeCell ref="A132:A133"/>
   </mergeCells>
-  <conditionalFormatting sqref="B:B">
+  <conditionalFormatting sqref="B1:B128 B129:B1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189">
   <si>
     <t>Scope</t>
   </si>
@@ -510,6 +510,9 @@
     <t>Panoptic Segmentation</t>
   </si>
   <si>
+    <t>El-gan: Embedding loss driven generative adversarial networks for lane detection</t>
+  </si>
+  <si>
     <t>Towards End-to-End Lane Detection: an Instance Segmentation Approach</t>
   </si>
   <si>
@@ -522,6 +525,12 @@
     <t>End-to-end ego lane estimation based on sequential transfer learning for self-driving cars(着重在训练方法)</t>
   </si>
   <si>
+    <t>Efficient Deep Models for Monocular Road Segmentation</t>
+  </si>
+  <si>
+    <t>deep neural network for structural prediction and lane detection in traffic scene（geometry information）</t>
+  </si>
+  <si>
     <t>Brain inspired cognitive model with attention for self-driving cars</t>
   </si>
   <si>
@@ -531,13 +540,7 @@
     <t>ICNet for Real-Time Semantic Segmentation on High-Resolution Images</t>
   </si>
   <si>
-    <t>deep neural network for structural prediction and lane detection in traffic scene（geometry information）</t>
-  </si>
-  <si>
     <t>an empirical evaluation of deep learning on highway driving(类似于综述)</t>
-  </si>
-  <si>
-    <t>Efficient Deep Models for Monocular Road Segmentation</t>
   </si>
   <si>
     <t>Embedding Structured Contour and Location Prior in Siamesed Fully Convolutional Networks for Road Detection</t>
@@ -547,6 +550,9 @@
 2. 在featureMap后加入location prior(也就是每个activation点的坐标), 可以有效去除诸如把天空分类为道路的情况</t>
   </si>
   <si>
+    <t>DeepLanes_End-to-End Lane Position Estimation using Deep Neural Networks</t>
+  </si>
+  <si>
     <t>Spatial-Temproal Based Lane Detection Using Deep Learning（有在嵌入式系统上实现）</t>
   </si>
   <si>
@@ -560,6 +566,9 @@
   </si>
   <si>
     <t>3D-LaneNet_end-to-end 3D multiple lane detection</t>
+  </si>
+  <si>
+    <t>预测路面的坐标系， 用IPM把feature map投影到top-view，然后，以w方向的每个点代表的直线为anchor，直接回归出对于该直线的修正值和概率，作为车道线的预测。。。赞！！</t>
   </si>
   <si>
     <t>Learning to Cluster for Proposal-Free Instance Segmentation</t>
@@ -599,10 +608,16 @@
     <t>Fast Scene Understanding for Autonomous Driving</t>
   </si>
   <si>
-    <t>Application</t>
+    <t>Lane detection</t>
   </si>
   <si>
     <t>a learning-based approach for lane Departure warning systems with a personalied driver model</t>
+  </si>
+  <si>
+    <t>[综述]autonomous driving in urban environments_boss and the urban challenge</t>
+  </si>
+  <si>
+    <t>[综述]Recent progress in road and lane detection_a survey</t>
   </si>
 </sst>
 </file>
@@ -610,12 +625,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,13 +667,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF31424E"/>
       <name val="microsoft yahei"/>
@@ -673,9 +681,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,46 +735,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -743,9 +751,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -754,35 +762,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -801,11 +780,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -842,37 +850,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,13 +982,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,121 +1024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,6 +1105,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1108,15 +1149,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,21 +1179,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1170,166 +1187,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1393,10 +1401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1765,12 +1770,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
+      <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -2994,14 +2999,14 @@
     <row r="111" ht="25.5" spans="1:4">
       <c r="A111" s="18"/>
       <c r="B111" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D111" s="11"/>
     </row>
-    <row r="112" ht="38.25" spans="1:4">
+    <row r="112" ht="25.5" spans="1:4">
       <c r="A112" s="18"/>
       <c r="B112" s="19">
         <v>0</v>
@@ -3011,7 +3016,7 @@
       </c>
       <c r="D112" s="11"/>
     </row>
-    <row r="113" ht="25.5" spans="1:4">
+    <row r="113" ht="38.25" spans="1:4">
       <c r="A113" s="18"/>
       <c r="B113" s="19">
         <v>0</v>
@@ -3021,57 +3026,53 @@
       </c>
       <c r="D113" s="11"/>
     </row>
-    <row r="114" ht="27" spans="1:4">
+    <row r="114" ht="25.5" spans="1:4">
       <c r="A114" s="18"/>
       <c r="B114" s="19">
         <v>0</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C114" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D114" s="11"/>
     </row>
-    <row r="115" ht="25.5" spans="1:4">
+    <row r="115" ht="27" spans="1:4">
       <c r="A115" s="18"/>
-      <c r="B115" s="20">
-        <v>1</v>
+      <c r="B115" s="19">
+        <v>0</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>158</v>
       </c>
       <c r="D115" s="11"/>
     </row>
-    <row r="116" ht="25.5" spans="1:4">
+    <row r="116" spans="1:4">
       <c r="A116" s="18"/>
-      <c r="B116" s="19">
-        <v>1</v>
-      </c>
+      <c r="B116" s="19"/>
       <c r="C116" s="12" t="s">
         <v>159</v>
       </c>
       <c r="D116" s="11"/>
     </row>
-    <row r="117" ht="25.5" spans="1:4">
+    <row r="117" ht="27" spans="1:4">
       <c r="A117" s="18"/>
-      <c r="B117" s="19">
-        <v>1</v>
-      </c>
+      <c r="B117" s="19"/>
       <c r="C117" s="12" t="s">
         <v>160</v>
       </c>
       <c r="D117" s="11"/>
     </row>
-    <row r="118" ht="27" spans="1:4">
+    <row r="118" ht="25.5" spans="1:4">
       <c r="A118" s="18"/>
-      <c r="B118" s="19">
-        <v>0</v>
+      <c r="B118" s="20">
+        <v>1</v>
       </c>
       <c r="C118" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D118" s="11"/>
     </row>
-    <row r="119" ht="27" spans="1:4">
+    <row r="119" ht="25.5" spans="1:4">
       <c r="A119" s="18"/>
       <c r="B119" s="19">
         <v>1</v>
@@ -3081,37 +3082,39 @@
       </c>
       <c r="D119" s="11"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" ht="25.5" spans="1:4">
       <c r="A120" s="18"/>
       <c r="B120" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>163</v>
       </c>
       <c r="D120" s="11"/>
     </row>
-    <row r="121" ht="69.75" spans="1:4">
+    <row r="121" ht="27" spans="1:4">
       <c r="A121" s="18"/>
       <c r="B121" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C121" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D121" s="11" t="s">
+      <c r="D121" s="11"/>
+    </row>
+    <row r="122" ht="69.75" spans="1:4">
+      <c r="A122" s="18"/>
+      <c r="B122" s="19">
+        <v>5</v>
+      </c>
+      <c r="C122" s="12" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="122" ht="27" spans="1:4">
-      <c r="A122" s="18"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="12" t="s">
+      <c r="D122" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D122" s="11"/>
-    </row>
-    <row r="123" spans="1:4">
+    </row>
+    <row r="123" ht="25.5" spans="1:4">
       <c r="A123" s="18"/>
       <c r="B123" s="19"/>
       <c r="C123" s="12" t="s">
@@ -3119,7 +3122,7 @@
       </c>
       <c r="D123" s="11"/>
     </row>
-    <row r="124" ht="25.5" spans="1:4">
+    <row r="124" ht="27" spans="1:4">
       <c r="A124" s="18"/>
       <c r="B124" s="19"/>
       <c r="C124" s="12" t="s">
@@ -3127,7 +3130,7 @@
       </c>
       <c r="D124" s="11"/>
     </row>
-    <row r="125" ht="25.5" spans="1:4">
+    <row r="125" spans="1:4">
       <c r="A125" s="18"/>
       <c r="B125" s="19"/>
       <c r="C125" s="12" t="s">
@@ -3135,7 +3138,7 @@
       </c>
       <c r="D125" s="11"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" ht="25.5" spans="1:4">
       <c r="A126" s="18"/>
       <c r="B126" s="19"/>
       <c r="C126" s="12" t="s">
@@ -3145,19 +3148,15 @@
     </row>
     <row r="127" ht="25.5" spans="1:4">
       <c r="A127" s="18"/>
-      <c r="B127" s="19">
-        <v>1</v>
-      </c>
+      <c r="B127" s="19"/>
       <c r="C127" s="12" t="s">
         <v>171</v>
       </c>
       <c r="D127" s="11"/>
     </row>
-    <row r="128" ht="25.5" spans="1:4">
+    <row r="128" ht="28.5" spans="1:4">
       <c r="A128" s="18"/>
-      <c r="B128" s="21">
-        <v>5</v>
-      </c>
+      <c r="B128" s="19"/>
       <c r="C128" s="12" t="s">
         <v>172</v>
       </c>
@@ -3165,34 +3164,34 @@
         <v>173</v>
       </c>
     </row>
-    <row r="129" ht="55.5" spans="1:4">
+    <row r="129" ht="25.5" spans="1:4">
       <c r="A129" s="18"/>
       <c r="B129" s="19">
-        <v>5</v>
-      </c>
-      <c r="C129" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D129" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="130" ht="27" spans="1:4">
+      <c r="D129" s="11"/>
+    </row>
+    <row r="130" ht="25.5" spans="1:4">
       <c r="A130" s="18"/>
       <c r="B130" s="19">
-        <v>2</v>
-      </c>
-      <c r="C130" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D130" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D130" s="11"/>
-    </row>
-    <row r="131" ht="123.75" spans="1:4">
-      <c r="A131" s="23"/>
+    </row>
+    <row r="131" ht="55.5" spans="1:4">
+      <c r="A131" s="18"/>
       <c r="B131" s="19">
         <v>5</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C131" s="21" t="s">
         <v>177</v>
       </c>
       <c r="D131" s="11" t="s">
@@ -3200,29 +3199,61 @@
       </c>
     </row>
     <row r="132" ht="27" spans="1:4">
-      <c r="A132" s="24" t="s">
+      <c r="A132" s="18"/>
+      <c r="B132" s="19">
+        <v>2</v>
+      </c>
+      <c r="C132" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="B132" s="25"/>
-      <c r="C132" s="12" t="s">
+      <c r="D132" s="11"/>
+    </row>
+    <row r="133" ht="123.75" spans="1:4">
+      <c r="A133" s="22"/>
+      <c r="B133" s="19">
+        <v>5</v>
+      </c>
+      <c r="C133" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D132" s="12"/>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="24"/>
-      <c r="B133" s="25"/>
-      <c r="C133" s="12" t="s">
+      <c r="D133" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D133" s="12"/>
-    </row>
-    <row r="134" ht="25.5" spans="1:3">
-      <c r="A134" t="s">
+    </row>
+    <row r="134" ht="27" spans="1:4">
+      <c r="A134" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="B134" s="24"/>
+      <c r="C134" s="12" t="s">
         <v>183</v>
+      </c>
+      <c r="D134" s="12"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="23"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D135" s="12"/>
+    </row>
+    <row r="136" ht="25.5" spans="1:3">
+      <c r="A136" t="s">
+        <v>185</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" ht="27" spans="3:3">
+      <c r="C137" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="138" ht="27" spans="3:3">
+      <c r="C138" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3232,10 +3263,10 @@
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="A18:A46"/>
     <mergeCell ref="A47:A85"/>
-    <mergeCell ref="A86:A131"/>
-    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A86:A133"/>
+    <mergeCell ref="A134:A135"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B128 B129:B1048576">
+  <conditionalFormatting sqref="B:B">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15120" windowHeight="25890"/>
+    <workbookView windowWidth="27720" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
   <si>
     <t>Scope</t>
   </si>
@@ -158,6 +158,9 @@
     <t>Gather-Excite: Exploiting feature Context in Convolutional Neural Networks</t>
   </si>
   <si>
+    <t>思想和SE一样, 但是用了depthwise-conv来提取context信息, 性能更好但是计算量也更大一点</t>
+  </si>
+  <si>
     <t>Multi-Scale Dense Networks for Resource Efficient Image Classification</t>
   </si>
   <si>
@@ -206,7 +209,17 @@
     <t>Deformable ConvNets v2: More Deformable, Better Results</t>
   </si>
   <si>
+    <t>对deformableV1进行了提升: 更多的deformable-conv, 及对不同deformable值有不同的调制;
+对新提出的结构, 用共用parameter的R-CNN作为guide进行训练, 使得网络减少对无关context的依赖;
+对于Spatial Support Visualization,  用effective-receptive fields和error-bounded saliency regions会比effective sampling/bin location更显著;
+更有效的receptive field</t>
+  </si>
+  <si>
     <t>Deformable Convolutional Networks</t>
+  </si>
+  <si>
+    <t>使得卷积采到东西更有针对性
+可以认为是一种升级版的atours-convolution, 对于不同的任务和物体大小, 动态调整感受野, 使得effective receptive field更优化</t>
   </si>
   <si>
     <t>Lifting Layers: Analysis and Applications</t>
@@ -625,10 +638,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -673,6 +686,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -681,31 +702,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,83 +740,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,7 +755,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,13 +863,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,25 +947,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,133 +1031,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,7 +1122,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1132,38 +1184,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1178,162 +1200,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1434,8 +1447,8 @@
     <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
     <cellStyle name="Accent2" xfId="17" builtinId="33"/>
     <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
     <cellStyle name="Neutral" xfId="21" builtinId="28"/>
     <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
@@ -1451,19 +1464,19 @@
     <cellStyle name="Good" xfId="33" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
     <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1508,6 +1521,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1763,19 +1781,18 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
+      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1802,7 +1819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" ht="13.5" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1814,7 +1831,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" ht="14.25" spans="1:4">
+    <row r="3" ht="13.5" spans="1:4">
       <c r="A3" s="9"/>
       <c r="B3" s="10">
         <v>5</v>
@@ -1824,7 +1841,7 @@
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" ht="13.5" spans="1:4">
       <c r="A4" s="9"/>
       <c r="B4" s="10">
         <v>5</v>
@@ -1834,7 +1851,7 @@
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" ht="13.5" spans="1:4">
       <c r="A5" s="9"/>
       <c r="B5" s="10">
         <v>5</v>
@@ -1846,7 +1863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" ht="13.5" spans="1:4">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="12" t="s">
@@ -1866,7 +1883,7 @@
       </c>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" ht="27" spans="1:4">
+    <row r="8" ht="26.25" spans="1:4">
       <c r="A8" s="9"/>
       <c r="B8" s="10">
         <v>2</v>
@@ -1886,7 +1903,7 @@
       </c>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" ht="39.75" spans="1:4">
+    <row r="10" ht="39" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1900,7 +1917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:4">
+    <row r="11" ht="13.5" spans="1:4">
       <c r="A11" s="9"/>
       <c r="B11" s="13">
         <v>5</v>
@@ -1964,7 +1981,7 @@
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" ht="54" spans="1:4">
+    <row r="17" ht="52.5" spans="1:4">
       <c r="A17" s="9"/>
       <c r="B17" s="16">
         <v>2</v>
@@ -2008,7 +2025,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" ht="28.5" spans="1:4">
+    <row r="21" ht="27" spans="1:4">
       <c r="A21" s="9"/>
       <c r="B21" s="14">
         <v>5</v>
@@ -2060,7 +2077,7 @@
       </c>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" ht="14.25" spans="1:4">
+    <row r="26" ht="13.5" spans="1:4">
       <c r="A26" s="9"/>
       <c r="B26" s="16">
         <v>2</v>
@@ -2090,7 +2107,7 @@
       </c>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" ht="82.5" spans="1:4">
+    <row r="29" ht="79.5" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="14">
         <v>5</v>
@@ -2130,7 +2147,9 @@
       <c r="C32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" ht="25.5" spans="1:4">
       <c r="A33" s="9"/>
@@ -2138,32 +2157,32 @@
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" ht="84" spans="1:4">
+    <row r="34" ht="80.25" spans="1:4">
       <c r="A34" s="9"/>
       <c r="B34" s="14">
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" ht="28.5" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" ht="27" spans="1:4">
       <c r="A35" s="9"/>
       <c r="B35" s="14">
         <v>5</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2172,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D36" s="11"/>
     </row>
@@ -2182,20 +2201,20 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" ht="41.25" spans="1:4">
+    <row r="38" ht="39.75" spans="1:4">
       <c r="A38" s="9"/>
       <c r="B38" s="14">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" ht="25.5" spans="1:4">
@@ -2204,53 +2223,57 @@
         <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" ht="81" spans="1:4">
+    <row r="40" ht="78.75" spans="1:4">
       <c r="A40" s="9"/>
       <c r="B40" s="14">
         <v>5</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" ht="28.5" spans="1:4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:4">
       <c r="A41" s="9"/>
       <c r="B41" s="14">
         <v>5</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" ht="25.5" spans="1:4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" ht="81" spans="1:4">
       <c r="A42" s="9"/>
       <c r="B42" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43" spans="1:4">
+        <v>60</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" ht="40.5" spans="1:4">
       <c r="A43" s="9"/>
-      <c r="B43" s="16">
-        <v>1</v>
+      <c r="B43" s="14">
+        <v>5</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="11"/>
+        <v>62</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="9"/>
@@ -2258,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D44" s="11"/>
     </row>
@@ -2268,10 +2291,10 @@
         <v>5</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" ht="41" customHeight="1" spans="1:4">
@@ -2280,21 +2303,21 @@
         <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" ht="25.5" spans="1:4">
       <c r="A47" s="9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B47" s="14">
         <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D47" s="11"/>
     </row>
@@ -2304,7 +2327,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D48" s="11"/>
     </row>
@@ -2314,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D49" s="11"/>
     </row>
@@ -2324,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D50" s="11"/>
     </row>
@@ -2334,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D51" s="11"/>
     </row>
@@ -2344,14 +2367,14 @@
         <v>5</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D52" s="11"/>
       <c r="F52" s="17" t="s">
         <v>1</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2360,26 +2383,26 @@
         <v>2</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D53" s="11"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
     </row>
-    <row r="54" ht="52.5" spans="1:7">
+    <row r="54" ht="51.75" spans="1:7">
       <c r="A54" s="9"/>
       <c r="B54" s="16">
         <v>2</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D54" s="11"/>
       <c r="F54" s="1">
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" ht="25.5" spans="1:7">
@@ -2388,14 +2411,14 @@
         <v>3</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D55" s="11"/>
       <c r="F55" s="1">
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2404,14 +2427,14 @@
         <v>3</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D56" s="11"/>
       <c r="F56" s="1">
         <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2420,14 +2443,14 @@
         <v>3</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D57" s="11"/>
       <c r="F57" s="1">
         <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2436,7 +2459,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D58" s="11"/>
     </row>
@@ -2446,20 +2469,20 @@
         <v>3</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" ht="42.75" spans="1:4">
+    <row r="60" ht="40.5" spans="1:4">
       <c r="A60" s="9"/>
       <c r="B60" s="10">
         <v>5</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" ht="25.5" spans="1:4">
@@ -2468,7 +2491,7 @@
         <v>3</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D61" s="11"/>
     </row>
@@ -2478,20 +2501,20 @@
         <v>3</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" ht="84" spans="1:4">
+    <row r="63" ht="80.25" spans="1:4">
       <c r="A63" s="9"/>
       <c r="B63" s="10">
         <v>5</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2500,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D64" s="11"/>
     </row>
@@ -2510,7 +2533,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D65" s="11"/>
     </row>
@@ -2520,7 +2543,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D66" s="11"/>
     </row>
@@ -2530,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D67" s="11"/>
     </row>
@@ -2540,7 +2563,7 @@
         <v>2</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D68" s="11"/>
     </row>
@@ -2550,7 +2573,7 @@
         <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D69" s="11"/>
     </row>
@@ -2560,7 +2583,7 @@
         <v>2</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D70" s="11"/>
     </row>
@@ -2570,7 +2593,7 @@
         <v>2</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D71" s="11"/>
     </row>
@@ -2580,7 +2603,7 @@
         <v>2</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D72" s="11"/>
     </row>
@@ -2590,7 +2613,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D73" s="11"/>
     </row>
@@ -2600,20 +2623,20 @@
         <v>1</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D74" s="11"/>
     </row>
-    <row r="75" ht="42.75" spans="1:4">
+    <row r="75" ht="40.5" spans="1:4">
       <c r="A75" s="9"/>
       <c r="B75" s="10">
         <v>5</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" ht="25.5" spans="1:4">
@@ -2622,7 +2645,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D76" s="11"/>
     </row>
@@ -2632,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D77" s="11"/>
     </row>
@@ -2642,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D78" s="11"/>
     </row>
@@ -2652,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D79" s="11"/>
     </row>
@@ -2662,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D80" s="11"/>
     </row>
@@ -2672,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D81" s="11"/>
     </row>
@@ -2682,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D82" s="11"/>
     </row>
@@ -2692,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D83" s="11"/>
     </row>
@@ -2702,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D84" s="11"/>
     </row>
@@ -2712,66 +2735,66 @@
         <v>1</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D85" s="11"/>
     </row>
     <row r="86" ht="25.5" spans="1:4">
       <c r="A86" s="18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B86" s="16">
         <v>2</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D86" s="11"/>
     </row>
-    <row r="87" ht="41.25" spans="1:4">
+    <row r="87" ht="39.75" spans="1:4">
       <c r="A87" s="18"/>
       <c r="B87" s="10">
         <v>5</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D87" s="11"/>
     </row>
-    <row r="88" ht="54" spans="1:4">
+    <row r="88" ht="52.5" spans="1:4">
       <c r="A88" s="18"/>
       <c r="B88" s="10">
         <v>6</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25" spans="1:4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" ht="13.5" spans="1:4">
       <c r="A89" s="18"/>
       <c r="B89" s="19">
         <v>5</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" ht="28.5" spans="1:4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" ht="27" spans="1:4">
       <c r="A90" s="18"/>
       <c r="B90" s="19">
         <v>5</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" ht="25.5" spans="1:4">
@@ -2780,56 +2803,56 @@
         <v>1</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D91" s="11"/>
     </row>
-    <row r="92" ht="96.75" spans="1:4">
+    <row r="92" ht="93" spans="1:4">
       <c r="A92" s="18"/>
       <c r="B92" s="19">
         <v>5</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" ht="96.75" spans="1:4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" ht="93" spans="1:4">
       <c r="A93" s="18"/>
       <c r="B93" s="19">
         <v>5</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="94" ht="55.5" spans="1:4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" ht="53.25" spans="1:4">
       <c r="A94" s="18"/>
       <c r="B94" s="19">
         <v>5</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" ht="111" spans="1:4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" ht="106.5" spans="1:4">
       <c r="A95" s="18"/>
       <c r="B95" s="19">
         <v>5</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2838,30 +2861,30 @@
         <v>5</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D96" s="11"/>
     </row>
-    <row r="97" ht="27" spans="1:4">
+    <row r="97" ht="26.25" spans="1:4">
       <c r="A97" s="18"/>
       <c r="B97" s="19">
         <v>5</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D97" s="11"/>
     </row>
-    <row r="98" ht="41.25" spans="1:4">
+    <row r="98" ht="39.75" spans="1:4">
       <c r="A98" s="18"/>
       <c r="B98" s="19">
         <v>5</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2870,7 +2893,7 @@
         <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D99" s="11"/>
     </row>
@@ -2880,7 +2903,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D100" s="11"/>
     </row>
@@ -2890,7 +2913,7 @@
         <v>2</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D101" s="11"/>
     </row>
@@ -2900,7 +2923,7 @@
         <v>2</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D102" s="11"/>
     </row>
@@ -2910,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D103" s="11"/>
     </row>
@@ -2920,70 +2943,70 @@
         <v>5</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="105" ht="41.25" spans="1:4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" ht="39.75" spans="1:4">
       <c r="A105" s="18"/>
       <c r="B105" s="19">
         <v>5</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="106" ht="160.5" spans="1:4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" ht="156.75" spans="1:4">
       <c r="A106" s="18"/>
       <c r="B106" s="19">
         <v>5</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="107" ht="28.5" spans="1:4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" ht="27" spans="1:4">
       <c r="A107" s="18"/>
       <c r="B107" s="19">
         <v>5</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="108" ht="57" spans="1:4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" ht="54" spans="1:4">
       <c r="A108" s="18"/>
       <c r="B108" s="19">
         <v>5</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="109" ht="57" spans="1:4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" ht="54" spans="1:4">
       <c r="A109" s="18"/>
       <c r="B109" s="19">
         <v>5</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2992,7 +3015,7 @@
         <v>2</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D110" s="11"/>
     </row>
@@ -3002,7 +3025,7 @@
         <v>2</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D111" s="11"/>
     </row>
@@ -3012,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D112" s="11"/>
     </row>
@@ -3022,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D113" s="11"/>
     </row>
@@ -3032,17 +3055,17 @@
         <v>0</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D114" s="11"/>
     </row>
-    <row r="115" ht="27" spans="1:4">
+    <row r="115" ht="26.25" spans="1:4">
       <c r="A115" s="18"/>
       <c r="B115" s="19">
         <v>0</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D115" s="11"/>
     </row>
@@ -3050,15 +3073,15 @@
       <c r="A116" s="18"/>
       <c r="B116" s="19"/>
       <c r="C116" s="12" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D116" s="11"/>
     </row>
-    <row r="117" ht="27" spans="1:4">
+    <row r="117" ht="26.25" spans="1:4">
       <c r="A117" s="18"/>
       <c r="B117" s="19"/>
       <c r="C117" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D117" s="11"/>
     </row>
@@ -3068,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D118" s="11"/>
     </row>
@@ -3078,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D119" s="11"/>
     </row>
@@ -3088,45 +3111,45 @@
         <v>1</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D120" s="11"/>
     </row>
-    <row r="121" ht="27" spans="1:4">
+    <row r="121" ht="26.25" spans="1:4">
       <c r="A121" s="18"/>
       <c r="B121" s="19">
         <v>1</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D121" s="11"/>
     </row>
-    <row r="122" ht="69.75" spans="1:4">
+    <row r="122" ht="66.75" spans="1:4">
       <c r="A122" s="18"/>
       <c r="B122" s="19">
         <v>5</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123" ht="25.5" spans="1:4">
       <c r="A123" s="18"/>
       <c r="B123" s="19"/>
       <c r="C123" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D123" s="11"/>
     </row>
-    <row r="124" ht="27" spans="1:4">
+    <row r="124" ht="26.25" spans="1:4">
       <c r="A124" s="18"/>
       <c r="B124" s="19"/>
       <c r="C124" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D124" s="11"/>
     </row>
@@ -3134,7 +3157,7 @@
       <c r="A125" s="18"/>
       <c r="B125" s="19"/>
       <c r="C125" s="12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D125" s="11"/>
     </row>
@@ -3142,7 +3165,7 @@
       <c r="A126" s="18"/>
       <c r="B126" s="19"/>
       <c r="C126" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D126" s="11"/>
     </row>
@@ -3150,18 +3173,18 @@
       <c r="A127" s="18"/>
       <c r="B127" s="19"/>
       <c r="C127" s="12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D127" s="11"/>
     </row>
-    <row r="128" ht="28.5" spans="1:4">
+    <row r="128" ht="27" spans="1:4">
       <c r="A128" s="18"/>
       <c r="B128" s="19"/>
       <c r="C128" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" ht="25.5" spans="1:4">
@@ -3170,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D129" s="11"/>
     </row>
@@ -3180,53 +3203,53 @@
         <v>5</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="131" ht="55.5" spans="1:4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="131" ht="53.25" spans="1:4">
       <c r="A131" s="18"/>
       <c r="B131" s="19">
         <v>5</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="132" ht="27" spans="1:4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132" ht="28.5" spans="1:4">
       <c r="A132" s="18"/>
       <c r="B132" s="19">
         <v>2</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D132" s="11"/>
     </row>
-    <row r="133" ht="123.75" spans="1:4">
+    <row r="133" ht="119.25" spans="1:4">
       <c r="A133" s="22"/>
       <c r="B133" s="19">
         <v>5</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="134" ht="27" spans="1:4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" ht="26.25" spans="1:4">
       <c r="A134" s="23" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B134" s="24"/>
       <c r="C134" s="12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D134" s="12"/>
     </row>
@@ -3234,26 +3257,26 @@
       <c r="A135" s="23"/>
       <c r="B135" s="24"/>
       <c r="C135" s="12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D135" s="12"/>
     </row>
     <row r="136" ht="25.5" spans="1:3">
       <c r="A136" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="137" ht="27" spans="3:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="137" ht="26.25" spans="3:3">
       <c r="C137" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="138" ht="27" spans="3:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" ht="26.25" spans="3:3">
       <c r="C138" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3266,7 +3289,7 @@
     <mergeCell ref="A86:A133"/>
     <mergeCell ref="A134:A135"/>
   </mergeCells>
-  <conditionalFormatting sqref="B:B">
+  <conditionalFormatting sqref="B$1:B$1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
   <si>
     <t>Scope</t>
   </si>
@@ -237,6 +237,32 @@
     <t>提出了net设计的4个原则，特别是考虑了MAC：memory access cost; 提出了shuffleNetV2, 特别是提出了channel split模块</t>
   </si>
   <si>
+    <t>few shot learning</t>
+  </si>
+  <si>
+    <t>Siamese neural networks for one-shot image recognition</t>
+  </si>
+  <si>
+    <t>cnn 提取feature, weighted-l1_distance+sigmoid判断是否是一类</t>
+  </si>
+  <si>
+    <t>Prototypical networks for few-shot learning</t>
+  </si>
+  <si>
+    <t>Matching networks for one shot learning</t>
+  </si>
+  <si>
+    <t>Memory Matching Networks for one-shot Image Recognition
+(用了lstm)</t>
+  </si>
+  <si>
+    <t>learning to compare: relation networks for few-shot learning</t>
+  </si>
+  <si>
+    <t>最大的创新点在于把固定的distance(比如 euclidean ), 改为可学习的distance, 比如几层fc, 这样的distance 更加discriminative
+其次,在数据集构建上, 把数据分为了trian, support和test三部分, support/test中类别一样,  train的时候模拟support/test的问题结构(C-way_k-shot)</t>
+  </si>
+  <si>
     <t>object detection</t>
   </si>
   <si>
@@ -573,6 +599,12 @@
   </si>
   <si>
     <t>LineNet: a Zoomable CNN for Crowdsourced High Definition Maps Modeling in Urban Environments</t>
+  </si>
+  <si>
+    <t>Accurate and robust lane detection based on Dual-View Convolutional Neutral Network</t>
+  </si>
+  <si>
+    <t>VPGNet: Vanishing Point Guided Network for Lane and Road Marking Detection and Recognition</t>
   </si>
   <si>
     <t>StripNet: Towards Topology Consistent Strip Structure Segmentation</t>
@@ -638,9 +670,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -695,32 +727,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -728,6 +738,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -740,7 +758,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,25 +780,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -785,8 +802,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -801,22 +841,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,7 +856,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,7 +889,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,7 +1015,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,168 +1063,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1090,6 +1122,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1103,17 +1148,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1142,11 +1181,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1166,17 +1211,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,13 +1231,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1205,142 +1250,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1350,7 +1395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1402,6 +1447,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1417,7 +1468,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1787,20 +1838,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
+      <selection pane="bottomLeft" activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.5266666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.78" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="65.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.92" style="2" customWidth="1"/>
     <col min="6" max="6" width="7.8" customWidth="1"/>
     <col min="7" max="7" width="26.2" customWidth="1"/>
   </cols>
@@ -2309,183 +2360,175 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" ht="25.5" spans="1:4">
-      <c r="A47" s="9" t="s">
+    <row r="47" ht="41" customHeight="1" spans="1:4">
+      <c r="A47" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="14">
-        <v>2</v>
+      <c r="B47" s="18">
+        <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="11"/>
-    </row>
-    <row r="48" ht="25.5" spans="1:4">
-      <c r="A48" s="9"/>
-      <c r="B48" s="14">
-        <v>2</v>
+      <c r="D47" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" ht="41" customHeight="1" spans="1:4">
+      <c r="A48" s="17"/>
+      <c r="B48" s="18">
+        <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D48" s="11"/>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="9"/>
-      <c r="B49" s="14">
-        <v>2</v>
+    <row r="49" ht="41" customHeight="1" spans="1:4">
+      <c r="A49" s="17"/>
+      <c r="B49" s="18">
+        <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" ht="25.5" spans="1:4">
-      <c r="A50" s="9"/>
-      <c r="B50" s="14">
+    <row r="50" ht="41" customHeight="1" spans="1:4">
+      <c r="A50" s="17"/>
+      <c r="B50" s="18">
         <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" ht="25.5" spans="1:4">
-      <c r="A51" s="9"/>
-      <c r="B51" s="14">
-        <v>2</v>
+    <row r="51" ht="65" customHeight="1" spans="1:4">
+      <c r="A51" s="17"/>
+      <c r="B51" s="18">
+        <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" spans="1:4">
+      <c r="A52" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="B52" s="14">
-        <v>5</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>75</v>
+        <v>2</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="F52" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+    </row>
+    <row r="53" ht="25.5" spans="1:4">
       <c r="A53" s="9"/>
       <c r="B53" s="14">
         <v>2</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>77</v>
+      <c r="C53" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D53" s="11"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-    </row>
-    <row r="54" ht="51.75" spans="1:7">
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="9"/>
-      <c r="B54" s="16">
-        <v>2</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>78</v>
+      <c r="B54" s="14">
+        <v>2</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="F54" s="1">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" ht="25.5" spans="1:7">
+    </row>
+    <row r="55" ht="25.5" spans="1:4">
       <c r="A55" s="9"/>
-      <c r="B55" s="16">
-        <v>3</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>80</v>
+      <c r="B55" s="14">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="F55" s="1">
-        <v>1</v>
-      </c>
-      <c r="G55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+    </row>
+    <row r="56" ht="25.5" spans="1:4">
       <c r="A56" s="9"/>
-      <c r="B56" s="16">
-        <v>3</v>
-      </c>
-      <c r="C56" s="11" t="s">
+      <c r="B56" s="14">
+        <v>2</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="F56" s="1">
-        <v>2</v>
-      </c>
-      <c r="G56" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="9"/>
-      <c r="B57" s="16">
-        <v>3</v>
+      <c r="B57" s="14">
+        <v>5</v>
       </c>
       <c r="C57" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="F57" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="11"/>
-      <c r="F57" s="1">
-        <v>3</v>
-      </c>
-      <c r="G57" t="s">
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="9"/>
+      <c r="B58" s="14">
+        <v>2</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="9"/>
-      <c r="B58" s="16">
-        <v>3</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>86</v>
-      </c>
       <c r="D58" s="11"/>
-    </row>
-    <row r="59" ht="25.5" spans="1:4">
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+    </row>
+    <row r="59" ht="51.75" spans="1:7">
       <c r="A59" s="9"/>
       <c r="B59" s="16">
+        <v>2</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" ht="25.5" spans="1:7">
+      <c r="A60" s="9"/>
+      <c r="B60" s="16">
         <v>3</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" s="11"/>
-    </row>
-    <row r="60" ht="40.5" spans="1:4">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10">
-        <v>5</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="11"/>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="61" ht="25.5" spans="1:4">
+    <row r="61" spans="1:7">
       <c r="A61" s="9"/>
       <c r="B61" s="16">
         <v>3</v>
@@ -2494,96 +2537,110 @@
         <v>90</v>
       </c>
       <c r="D61" s="11"/>
-    </row>
-    <row r="62" ht="25.5" spans="1:4">
+      <c r="F61" s="1">
+        <v>2</v>
+      </c>
+      <c r="G61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="9"/>
       <c r="B62" s="16">
         <v>3</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D62" s="11"/>
-    </row>
-    <row r="63" ht="80.25" spans="1:4">
+      <c r="F62" s="1">
+        <v>3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="9"/>
-      <c r="B63" s="10">
-        <v>5</v>
+      <c r="B63" s="16">
+        <v>3</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>94</v>
+      </c>
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" ht="25.5" spans="1:4">
       <c r="A64" s="9"/>
-      <c r="B64" s="10">
-        <v>2</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>94</v>
+      <c r="B64" s="16">
+        <v>3</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D64" s="11"/>
     </row>
-    <row r="65" ht="25.5" spans="1:4">
+    <row r="65" ht="40.5" spans="1:4">
       <c r="A65" s="9"/>
-      <c r="B65" s="16">
-        <v>2</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D65" s="11"/>
+      <c r="B65" s="10">
+        <v>5</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="66" ht="25.5" spans="1:4">
       <c r="A66" s="9"/>
       <c r="B66" s="16">
-        <v>2</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>96</v>
+        <v>3</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="D66" s="11"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" ht="25.5" spans="1:4">
       <c r="A67" s="9"/>
       <c r="B67" s="16">
-        <v>2</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>97</v>
+        <v>3</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="D67" s="11"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" ht="80.25" spans="1:4">
       <c r="A68" s="9"/>
-      <c r="B68" s="16">
-        <v>2</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D68" s="11"/>
-    </row>
-    <row r="69" ht="25.5" spans="1:4">
+      <c r="B68" s="10">
+        <v>5</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="9"/>
-      <c r="B69" s="16">
-        <v>2</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>99</v>
+      <c r="B69" s="10">
+        <v>2</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="D69" s="11"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" ht="25.5" spans="1:4">
       <c r="A70" s="9"/>
       <c r="B70" s="16">
         <v>2</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D70" s="11"/>
     </row>
@@ -2593,51 +2650,49 @@
         <v>2</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D71" s="11"/>
     </row>
-    <row r="72" ht="25.5" spans="1:4">
+    <row r="72" spans="1:4">
       <c r="A72" s="9"/>
       <c r="B72" s="16">
         <v>2</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D72" s="11"/>
     </row>
-    <row r="73" ht="25.5" spans="1:4">
+    <row r="73" spans="1:4">
       <c r="A73" s="9"/>
       <c r="B73" s="16">
         <v>2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D73" s="11"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" ht="25.5" spans="1:4">
       <c r="A74" s="9"/>
       <c r="B74" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D74" s="11"/>
     </row>
-    <row r="75" ht="40.5" spans="1:4">
+    <row r="75" spans="1:4">
       <c r="A75" s="9"/>
-      <c r="B75" s="10">
-        <v>5</v>
+      <c r="B75" s="16">
+        <v>2</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>106</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D75" s="11"/>
     </row>
     <row r="76" ht="25.5" spans="1:4">
       <c r="A76" s="9"/>
@@ -2645,87 +2700,89 @@
         <v>2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D76" s="11"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" ht="25.5" spans="1:4">
       <c r="A77" s="9"/>
-      <c r="B77" s="10">
+      <c r="B77" s="16">
         <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D77" s="11"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" ht="25.5" spans="1:4">
       <c r="A78" s="9"/>
-      <c r="B78" s="10">
+      <c r="B78" s="16">
         <v>2</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D78" s="11"/>
     </row>
-    <row r="79" ht="25.5" spans="1:4">
+    <row r="79" spans="1:4">
       <c r="A79" s="9"/>
-      <c r="B79" s="10">
-        <v>2</v>
+      <c r="B79" s="16">
+        <v>1</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D79" s="11"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" ht="40.5" spans="1:4">
       <c r="A80" s="9"/>
-      <c r="B80" s="16">
-        <v>1</v>
+      <c r="B80" s="10">
+        <v>5</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D80" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="81" ht="25.5" spans="1:4">
       <c r="A81" s="9"/>
       <c r="B81" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D81" s="11"/>
     </row>
-    <row r="82" ht="25.5" spans="1:4">
+    <row r="82" spans="1:4">
       <c r="A82" s="9"/>
-      <c r="B82" s="16">
-        <v>1</v>
+      <c r="B82" s="10">
+        <v>2</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D82" s="11"/>
     </row>
-    <row r="83" ht="25.5" spans="1:4">
+    <row r="83" spans="1:4">
       <c r="A83" s="9"/>
-      <c r="B83" s="16">
-        <v>1</v>
+      <c r="B83" s="10">
+        <v>2</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D83" s="11"/>
     </row>
     <row r="84" ht="25.5" spans="1:4">
       <c r="A84" s="9"/>
-      <c r="B84" s="16">
-        <v>1</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>115</v>
+      <c r="B84" s="10">
+        <v>2</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="D84" s="11"/>
     </row>
@@ -2734,150 +2791,144 @@
       <c r="B85" s="16">
         <v>1</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>116</v>
+      <c r="C85" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D85" s="11"/>
     </row>
     <row r="86" ht="25.5" spans="1:4">
-      <c r="A86" s="18" t="s">
-        <v>117</v>
-      </c>
+      <c r="A86" s="9"/>
       <c r="B86" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D86" s="11"/>
     </row>
-    <row r="87" ht="39.75" spans="1:4">
-      <c r="A87" s="18"/>
-      <c r="B87" s="10">
-        <v>5</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>119</v>
+    <row r="87" ht="25.5" spans="1:4">
+      <c r="A87" s="9"/>
+      <c r="B87" s="16">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="D87" s="11"/>
     </row>
-    <row r="88" ht="52.5" spans="1:4">
-      <c r="A88" s="18"/>
-      <c r="B88" s="10">
-        <v>6</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="89" ht="13.5" spans="1:4">
-      <c r="A89" s="18"/>
-      <c r="B89" s="19">
-        <v>5</v>
+    <row r="88" ht="25.5" spans="1:4">
+      <c r="A88" s="9"/>
+      <c r="B88" s="16">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D88" s="11"/>
+    </row>
+    <row r="89" ht="25.5" spans="1:4">
+      <c r="A89" s="9"/>
+      <c r="B89" s="16">
+        <v>1</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D89" s="11" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="90" ht="27" spans="1:4">
-      <c r="A90" s="18"/>
-      <c r="B90" s="19">
-        <v>5</v>
+      <c r="D89" s="11"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="9"/>
+      <c r="B90" s="16">
+        <v>1</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="11"/>
+    </row>
+    <row r="91" ht="25.5" spans="1:4">
+      <c r="A91" s="20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="91" ht="25.5" spans="1:4">
-      <c r="A91" s="18"/>
-      <c r="B91" s="19">
-        <v>1</v>
-      </c>
-      <c r="C91" s="11" t="s">
+      <c r="B91" s="16">
+        <v>2</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D91" s="11"/>
     </row>
-    <row r="92" ht="93" spans="1:4">
-      <c r="A92" s="18"/>
-      <c r="B92" s="19">
+    <row r="92" ht="39.75" spans="1:4">
+      <c r="A92" s="20"/>
+      <c r="B92" s="10">
         <v>5</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="11"/>
+    </row>
+    <row r="93" ht="52.5" spans="1:4">
+      <c r="A93" s="20"/>
+      <c r="B93" s="10">
+        <v>6</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="93" ht="93" spans="1:4">
-      <c r="A93" s="18"/>
-      <c r="B93" s="19">
-        <v>5</v>
-      </c>
-      <c r="C93" s="11" t="s">
+      <c r="D93" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D93" s="11" t="s">
+    </row>
+    <row r="94" ht="13.5" spans="1:4">
+      <c r="A94" s="20"/>
+      <c r="B94" s="21">
+        <v>5</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="94" ht="53.25" spans="1:4">
-      <c r="A94" s="18"/>
-      <c r="B94" s="19">
-        <v>5</v>
-      </c>
-      <c r="C94" s="11" t="s">
+      <c r="D94" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D94" s="11" t="s">
+    </row>
+    <row r="95" ht="27" spans="1:4">
+      <c r="A95" s="20"/>
+      <c r="B95" s="21">
+        <v>5</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="95" ht="106.5" spans="1:4">
-      <c r="A95" s="18"/>
-      <c r="B95" s="19">
-        <v>5</v>
-      </c>
-      <c r="C95" s="11" t="s">
+      <c r="D95" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D95" s="11" t="s">
+    </row>
+    <row r="96" ht="25.5" spans="1:4">
+      <c r="A96" s="20"/>
+      <c r="B96" s="21">
+        <v>1</v>
+      </c>
+      <c r="C96" s="11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="18"/>
-      <c r="B96" s="19">
-        <v>5</v>
-      </c>
-      <c r="C96" s="11" t="s">
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97" ht="93" spans="1:4">
+      <c r="A97" s="20"/>
+      <c r="B97" s="21">
+        <v>5</v>
+      </c>
+      <c r="C97" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D96" s="11"/>
-    </row>
-    <row r="97" ht="26.25" spans="1:4">
-      <c r="A97" s="18"/>
-      <c r="B97" s="19">
-        <v>5</v>
-      </c>
-      <c r="C97" s="11" t="s">
+      <c r="D97" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D97" s="11"/>
-    </row>
-    <row r="98" ht="39.75" spans="1:4">
-      <c r="A98" s="18"/>
-      <c r="B98" s="19">
+    </row>
+    <row r="98" ht="93" spans="1:4">
+      <c r="A98" s="20"/>
+      <c r="B98" s="21">
         <v>5</v>
       </c>
       <c r="C98" s="11" t="s">
@@ -2887,407 +2938,482 @@
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="18"/>
-      <c r="B99" s="19">
-        <v>2</v>
-      </c>
-      <c r="C99" t="s">
+    <row r="99" ht="53.25" spans="1:4">
+      <c r="A99" s="20"/>
+      <c r="B99" s="21">
+        <v>5</v>
+      </c>
+      <c r="C99" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D99" s="11"/>
-    </row>
-    <row r="100" ht="25.5" spans="1:4">
-      <c r="A100" s="18"/>
-      <c r="B100" s="19">
-        <v>2</v>
-      </c>
-      <c r="C100" s="2" t="s">
+      <c r="D99" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D100" s="11"/>
-    </row>
-    <row r="101" ht="25.5" spans="1:4">
-      <c r="A101" s="18"/>
-      <c r="B101" s="19">
-        <v>2</v>
-      </c>
-      <c r="C101" s="12" t="s">
+    </row>
+    <row r="100" ht="106.5" spans="1:4">
+      <c r="A100" s="20"/>
+      <c r="B100" s="21">
+        <v>5</v>
+      </c>
+      <c r="C100" s="11" t="s">
         <v>141</v>
       </c>
+      <c r="D100" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="20"/>
+      <c r="B101" s="21">
+        <v>5</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="D101" s="11"/>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="18"/>
-      <c r="B102" s="19">
-        <v>2</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>142</v>
+    <row r="102" ht="26.25" spans="1:4">
+      <c r="A102" s="20"/>
+      <c r="B102" s="21">
+        <v>5</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="D102" s="11"/>
     </row>
-    <row r="103" ht="25.5" spans="1:4">
-      <c r="A103" s="18"/>
-      <c r="B103" s="19">
-        <v>2</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D103" s="11"/>
-    </row>
-    <row r="104" ht="25.5" spans="1:4">
-      <c r="A104" s="18"/>
-      <c r="B104" s="19">
-        <v>5</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D104" s="11" t="s">
+    <row r="103" ht="39.75" spans="1:4">
+      <c r="A103" s="20"/>
+      <c r="B103" s="21">
+        <v>5</v>
+      </c>
+      <c r="C103" s="11" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="105" ht="39.75" spans="1:4">
-      <c r="A105" s="18"/>
-      <c r="B105" s="19">
-        <v>5</v>
-      </c>
-      <c r="C105" s="12" t="s">
+      <c r="D103" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D105" s="11" t="s">
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="20"/>
+      <c r="B104" s="21">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="106" ht="156.75" spans="1:4">
-      <c r="A106" s="18"/>
-      <c r="B106" s="19">
-        <v>5</v>
+      <c r="D104" s="11"/>
+    </row>
+    <row r="105" ht="25.5" spans="1:4">
+      <c r="A105" s="20"/>
+      <c r="B105" s="21">
+        <v>2</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D105" s="11"/>
+    </row>
+    <row r="106" ht="25.5" spans="1:4">
+      <c r="A106" s="20"/>
+      <c r="B106" s="21">
+        <v>2</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D106" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="107" ht="27" spans="1:4">
-      <c r="A107" s="18"/>
-      <c r="B107" s="19">
-        <v>5</v>
+      <c r="D106" s="11"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="20"/>
+      <c r="B107" s="21">
+        <v>2</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="D107" s="11"/>
+    </row>
+    <row r="108" ht="25.5" spans="1:4">
+      <c r="A108" s="20"/>
+      <c r="B108" s="21">
+        <v>2</v>
+      </c>
+      <c r="C108" s="12" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="108" ht="54" spans="1:4">
-      <c r="A108" s="18"/>
-      <c r="B108" s="19">
-        <v>5</v>
-      </c>
-      <c r="C108" s="12" t="s">
+      <c r="D108" s="11"/>
+    </row>
+    <row r="109" ht="25.5" spans="1:4">
+      <c r="A109" s="20"/>
+      <c r="B109" s="21">
+        <v>5</v>
+      </c>
+      <c r="C109" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D109" s="11" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="109" ht="54" spans="1:4">
-      <c r="A109" s="18"/>
-      <c r="B109" s="19">
-        <v>5</v>
-      </c>
-      <c r="C109" s="12" t="s">
+    <row r="110" ht="39.75" spans="1:4">
+      <c r="A110" s="20"/>
+      <c r="B110" s="21">
+        <v>5</v>
+      </c>
+      <c r="C110" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D110" s="11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="18"/>
-      <c r="B110" s="19">
-        <v>2</v>
-      </c>
-      <c r="C110" s="2" t="s">
+    <row r="111" ht="156.75" spans="1:4">
+      <c r="A111" s="20"/>
+      <c r="B111" s="21">
+        <v>5</v>
+      </c>
+      <c r="C111" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D110" s="11"/>
-    </row>
-    <row r="111" ht="25.5" spans="1:4">
-      <c r="A111" s="18"/>
-      <c r="B111" s="19">
-        <v>2</v>
-      </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D111" s="11"/>
-    </row>
-    <row r="112" ht="25.5" spans="1:4">
-      <c r="A112" s="18"/>
-      <c r="B112" s="19">
+    </row>
+    <row r="112" ht="27" spans="1:4">
+      <c r="A112" s="20"/>
+      <c r="B112" s="21">
+        <v>5</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" ht="54" spans="1:4">
+      <c r="A113" s="20"/>
+      <c r="B113" s="21">
+        <v>5</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" ht="54" spans="1:4">
+      <c r="A114" s="20"/>
+      <c r="B114" s="21">
+        <v>5</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="20"/>
+      <c r="B115" s="21">
+        <v>2</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D115" s="11"/>
+    </row>
+    <row r="116" ht="25.5" spans="1:4">
+      <c r="A116" s="20"/>
+      <c r="B116" s="21">
+        <v>2</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D116" s="11"/>
+    </row>
+    <row r="117" ht="25.5" spans="1:4">
+      <c r="A117" s="20"/>
+      <c r="B117" s="21">
         <v>0</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D112" s="11"/>
-    </row>
-    <row r="113" ht="38.25" spans="1:4">
-      <c r="A113" s="18"/>
-      <c r="B113" s="19">
+      <c r="C117" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D117" s="11"/>
+    </row>
+    <row r="118" ht="38.25" spans="1:4">
+      <c r="A118" s="20"/>
+      <c r="B118" s="21">
         <v>0</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D113" s="11"/>
-    </row>
-    <row r="114" ht="25.5" spans="1:4">
-      <c r="A114" s="18"/>
-      <c r="B114" s="19">
+      <c r="C118" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D118" s="11"/>
+    </row>
+    <row r="119" ht="25.5" spans="1:4">
+      <c r="A119" s="20"/>
+      <c r="B119" s="21">
         <v>0</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D114" s="11"/>
-    </row>
-    <row r="115" ht="26.25" spans="1:4">
-      <c r="A115" s="18"/>
-      <c r="B115" s="19">
+      <c r="C119" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D119" s="11"/>
+    </row>
+    <row r="120" ht="26.25" spans="1:4">
+      <c r="A120" s="20"/>
+      <c r="B120" s="21">
         <v>0</v>
       </c>
-      <c r="C115" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D115" s="11"/>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="18"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D116" s="11"/>
-    </row>
-    <row r="117" ht="26.25" spans="1:4">
-      <c r="A117" s="18"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D117" s="11"/>
-    </row>
-    <row r="118" ht="25.5" spans="1:4">
-      <c r="A118" s="18"/>
-      <c r="B118" s="20">
+      <c r="C120" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D120" s="11"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="20"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D121" s="11"/>
+    </row>
+    <row r="122" ht="26.25" spans="1:4">
+      <c r="A122" s="20"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D122" s="11"/>
+    </row>
+    <row r="123" ht="25.5" spans="1:4">
+      <c r="A123" s="20"/>
+      <c r="B123" s="22">
         <v>1</v>
       </c>
-      <c r="C118" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D118" s="11"/>
-    </row>
-    <row r="119" ht="25.5" spans="1:4">
-      <c r="A119" s="18"/>
-      <c r="B119" s="19">
+      <c r="C123" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D123" s="11"/>
+    </row>
+    <row r="124" ht="25.5" spans="1:4">
+      <c r="A124" s="20"/>
+      <c r="B124" s="21">
         <v>1</v>
       </c>
-      <c r="C119" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D119" s="11"/>
-    </row>
-    <row r="120" ht="25.5" spans="1:4">
-      <c r="A120" s="18"/>
-      <c r="B120" s="19">
+      <c r="C124" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D124" s="11"/>
+    </row>
+    <row r="125" ht="25.5" spans="1:4">
+      <c r="A125" s="20"/>
+      <c r="B125" s="21">
         <v>1</v>
       </c>
-      <c r="C120" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D120" s="11"/>
-    </row>
-    <row r="121" ht="26.25" spans="1:4">
-      <c r="A121" s="18"/>
-      <c r="B121" s="19">
+      <c r="C125" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D125" s="11"/>
+    </row>
+    <row r="126" ht="26.25" spans="1:4">
+      <c r="A126" s="20"/>
+      <c r="B126" s="21">
         <v>1</v>
       </c>
-      <c r="C121" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D121" s="11"/>
-    </row>
-    <row r="122" ht="66.75" spans="1:4">
-      <c r="A122" s="18"/>
-      <c r="B122" s="19">
-        <v>5</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="123" ht="25.5" spans="1:4">
-      <c r="A123" s="18"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D123" s="11"/>
-    </row>
-    <row r="124" ht="26.25" spans="1:4">
-      <c r="A124" s="18"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D124" s="11"/>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="18"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D125" s="11"/>
-    </row>
-    <row r="126" ht="25.5" spans="1:4">
-      <c r="A126" s="18"/>
-      <c r="B126" s="19"/>
       <c r="C126" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D126" s="11"/>
     </row>
-    <row r="127" ht="25.5" spans="1:4">
-      <c r="A127" s="18"/>
-      <c r="B127" s="19"/>
+    <row r="127" ht="66.75" spans="1:4">
+      <c r="A127" s="20"/>
+      <c r="B127" s="21">
+        <v>5</v>
+      </c>
       <c r="C127" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D127" s="11"/>
-    </row>
-    <row r="128" ht="27" spans="1:4">
-      <c r="A128" s="18"/>
-      <c r="B128" s="19"/>
+        <v>176</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" ht="25.5" spans="1:4">
+      <c r="A128" s="20"/>
+      <c r="B128" s="21"/>
       <c r="C128" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="129" ht="25.5" spans="1:4">
-      <c r="A129" s="18"/>
-      <c r="B129" s="19">
+        <v>178</v>
+      </c>
+      <c r="D128" s="11"/>
+    </row>
+    <row r="129" ht="26.25" spans="1:4">
+      <c r="A129" s="20"/>
+      <c r="B129" s="21"/>
+      <c r="C129" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D129" s="11"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="20"/>
+      <c r="B130" s="21"/>
+      <c r="C130" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D130" s="11"/>
+    </row>
+    <row r="131" ht="25.5" spans="1:4">
+      <c r="A131" s="20"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D131" s="11"/>
+    </row>
+    <row r="132" ht="25.5" spans="1:4">
+      <c r="A132" s="20"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D132" s="11"/>
+    </row>
+    <row r="133" ht="25.5" spans="1:4">
+      <c r="A133" s="20"/>
+      <c r="B133" s="21"/>
+      <c r="C133" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D133" s="11"/>
+    </row>
+    <row r="134" ht="25.5" spans="1:4">
+      <c r="A134" s="20"/>
+      <c r="B134" s="21"/>
+      <c r="C134" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D134" s="11"/>
+    </row>
+    <row r="135" ht="40.5" spans="1:4">
+      <c r="A135" s="20"/>
+      <c r="B135" s="21">
+        <v>5</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" spans="1:4">
+      <c r="A136" s="20"/>
+      <c r="B136" s="21">
         <v>1</v>
       </c>
-      <c r="C129" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D129" s="11"/>
-    </row>
-    <row r="130" ht="25.5" spans="1:4">
-      <c r="A130" s="18"/>
-      <c r="B130" s="19">
-        <v>5</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="131" ht="53.25" spans="1:4">
-      <c r="A131" s="18"/>
-      <c r="B131" s="19">
-        <v>5</v>
-      </c>
-      <c r="C131" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="132" ht="28.5" spans="1:4">
-      <c r="A132" s="18"/>
-      <c r="B132" s="19">
-        <v>2</v>
-      </c>
-      <c r="C132" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D132" s="11"/>
-    </row>
-    <row r="133" ht="119.25" spans="1:4">
-      <c r="A133" s="22"/>
-      <c r="B133" s="19">
-        <v>5</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="134" ht="26.25" spans="1:4">
-      <c r="A134" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="B134" s="24"/>
-      <c r="C134" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D134" s="12"/>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="23"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="12" t="s">
+      <c r="C136" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D135" s="12"/>
-    </row>
-    <row r="136" ht="25.5" spans="1:3">
-      <c r="A136" t="s">
+      <c r="D136" s="11"/>
+    </row>
+    <row r="137" ht="25.5" spans="1:4">
+      <c r="A137" s="20"/>
+      <c r="B137" s="21">
+        <v>5</v>
+      </c>
+      <c r="C137" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="D137" s="11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="137" ht="26.25" spans="3:3">
-      <c r="C137" s="2" t="s">
+    <row r="138" ht="53.25" spans="1:4">
+      <c r="A138" s="20"/>
+      <c r="B138" s="21">
+        <v>5</v>
+      </c>
+      <c r="C138" s="23" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="138" ht="26.25" spans="3:3">
-      <c r="C138" s="2" t="s">
+      <c r="D138" s="11" t="s">
         <v>191</v>
       </c>
     </row>
+    <row r="139" ht="28.5" spans="1:4">
+      <c r="A139" s="20"/>
+      <c r="B139" s="21">
+        <v>2</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D139" s="11"/>
+    </row>
+    <row r="140" ht="119.25" spans="1:4">
+      <c r="A140" s="24"/>
+      <c r="B140" s="21">
+        <v>5</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="141" ht="26.25" spans="1:4">
+      <c r="A141" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B141" s="26"/>
+      <c r="C141" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D141" s="12"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="25"/>
+      <c r="B142" s="26"/>
+      <c r="C142" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D142" s="12"/>
+    </row>
+    <row r="143" ht="25.5" spans="1:3">
+      <c r="A143" t="s">
+        <v>198</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="144" ht="26.25" spans="3:3">
+      <c r="C144" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="145" ht="26.25" spans="3:3">
+      <c r="C145" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="A18:A46"/>
-    <mergeCell ref="A47:A85"/>
-    <mergeCell ref="A86:A133"/>
-    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A90"/>
+    <mergeCell ref="A91:A140"/>
+    <mergeCell ref="A141:A142"/>
   </mergeCells>
   <conditionalFormatting sqref="B$1:B$1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
@@ -3301,7 +3427,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C110" r:id="rId1" display="Panoptic Segmentation" tooltip="https://arxiv.org/abs/1801.00868"/>
+    <hyperlink ref="C115" r:id="rId1" display="Panoptic Segmentation" tooltip="https://arxiv.org/abs/1801.00868"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203">
   <si>
     <t>Scope</t>
   </si>
@@ -599,6 +599,13 @@
   </si>
   <si>
     <t>LineNet: a Zoomable CNN for Crowdsourced High Definition Maps Modeling in Urban Environments</t>
+  </si>
+  <si>
+    <t>目的是用一个牛b的lane detection网络, 使得可以用croweded source图片做高精度地图;
+贡献: 
+1. TTLane 数据集~13000张图片, 标注详细, 不仅有线的type, 还有具体的样子,比如,虚线就真的是标注为虚线;
+2. Linenet: LP模块: 多任务模块, 可以预测线的type, mask等, Zoom模块: 对confidence不高的patch, resize大之后在做分割, zoom的level可以有很多个;
+后处理: DBSCAN聚类 + 多项式拟合</t>
   </si>
   <si>
     <t>Accurate and robust lane detection based on Dual-View Convolutional Neutral Network</t>
@@ -670,10 +677,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -726,8 +733,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -735,7 +756,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,54 +778,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,7 +802,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -834,14 +826,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,6 +847,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -861,6 +861,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -889,7 +896,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,6 +950,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -913,127 +1052,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,31 +1070,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,6 +1203,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1207,17 +1225,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1250,142 +1257,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1843,7 +1850,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D133" sqref="D133"/>
+      <selection pane="bottomLeft" activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1990,7 +1997,7 @@
       </c>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" ht="25.5" spans="1:4">
+    <row r="13" ht="27" spans="1:4">
       <c r="A13" s="9"/>
       <c r="B13" s="10">
         <v>5</v>
@@ -2158,7 +2165,7 @@
       </c>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" ht="79.5" spans="1:4">
+    <row r="29" ht="105.75" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="14">
         <v>5</v>
@@ -2190,7 +2197,7 @@
       </c>
       <c r="D31" s="11"/>
     </row>
-    <row r="32" ht="25.5" spans="1:4">
+    <row r="32" ht="27" spans="1:4">
       <c r="A32" s="9"/>
       <c r="B32" s="16">
         <v>1</v>
@@ -2212,7 +2219,7 @@
       </c>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" ht="80.25" spans="1:4">
+    <row r="34" ht="106.5" spans="1:4">
       <c r="A34" s="9"/>
       <c r="B34" s="14">
         <v>5</v>
@@ -2256,7 +2263,7 @@
       </c>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" ht="39.75" spans="1:4">
+    <row r="38" ht="52.5" spans="1:4">
       <c r="A38" s="9"/>
       <c r="B38" s="14">
         <v>5</v>
@@ -2278,7 +2285,7 @@
       </c>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" ht="78.75" spans="1:4">
+    <row r="40" ht="92.25" spans="1:4">
       <c r="A40" s="9"/>
       <c r="B40" s="14">
         <v>5</v>
@@ -2302,7 +2309,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" ht="81" spans="1:4">
+    <row r="42" ht="108" spans="1:4">
       <c r="A42" s="9"/>
       <c r="B42" s="14">
         <v>5</v>
@@ -2580,7 +2587,7 @@
       </c>
       <c r="D64" s="11"/>
     </row>
-    <row r="65" ht="40.5" spans="1:4">
+    <row r="65" ht="53.25" spans="1:4">
       <c r="A65" s="9"/>
       <c r="B65" s="10">
         <v>5</v>
@@ -2868,7 +2875,7 @@
       </c>
       <c r="D92" s="11"/>
     </row>
-    <row r="93" ht="52.5" spans="1:4">
+    <row r="93" ht="66" spans="1:4">
       <c r="A93" s="20"/>
       <c r="B93" s="10">
         <v>6</v>
@@ -2914,7 +2921,7 @@
       </c>
       <c r="D96" s="11"/>
     </row>
-    <row r="97" ht="93" spans="1:4">
+    <row r="97" ht="106.5" spans="1:4">
       <c r="A97" s="20"/>
       <c r="B97" s="21">
         <v>5</v>
@@ -2926,7 +2933,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="98" ht="93" spans="1:4">
+    <row r="98" ht="106.5" spans="1:4">
       <c r="A98" s="20"/>
       <c r="B98" s="21">
         <v>5</v>
@@ -2938,7 +2945,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="99" ht="53.25" spans="1:4">
+    <row r="99" ht="66.75" spans="1:4">
       <c r="A99" s="20"/>
       <c r="B99" s="21">
         <v>5</v>
@@ -3056,7 +3063,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="110" ht="39.75" spans="1:4">
+    <row r="110" ht="52.5" spans="1:4">
       <c r="A110" s="20"/>
       <c r="B110" s="21">
         <v>5</v>
@@ -3068,7 +3075,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="111" ht="156.75" spans="1:4">
+    <row r="111" ht="195.75" spans="1:4">
       <c r="A111" s="20"/>
       <c r="B111" s="21">
         <v>5</v>
@@ -3080,7 +3087,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="112" ht="27" spans="1:4">
+    <row r="112" ht="40.5" spans="1:4">
       <c r="A112" s="20"/>
       <c r="B112" s="21">
         <v>5</v>
@@ -3268,19 +3275,21 @@
       </c>
       <c r="D130" s="11"/>
     </row>
-    <row r="131" ht="25.5" spans="1:4">
+    <row r="131" ht="147" spans="1:4">
       <c r="A131" s="20"/>
       <c r="B131" s="21"/>
       <c r="C131" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D131" s="11"/>
+      <c r="D131" s="11" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="132" ht="25.5" spans="1:4">
       <c r="A132" s="20"/>
       <c r="B132" s="21"/>
       <c r="C132" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D132" s="11"/>
     </row>
@@ -3288,7 +3297,7 @@
       <c r="A133" s="20"/>
       <c r="B133" s="21"/>
       <c r="C133" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D133" s="11"/>
     </row>
@@ -3296,7 +3305,7 @@
       <c r="A134" s="20"/>
       <c r="B134" s="21"/>
       <c r="C134" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D134" s="11"/>
     </row>
@@ -3306,10 +3315,10 @@
         <v>5</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136" ht="25.5" spans="1:4">
@@ -3318,32 +3327,32 @@
         <v>1</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D136" s="11"/>
     </row>
-    <row r="137" ht="25.5" spans="1:4">
+    <row r="137" ht="27" spans="1:4">
       <c r="A137" s="20"/>
       <c r="B137" s="21">
         <v>5</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="138" ht="53.25" spans="1:4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138" ht="66.75" spans="1:4">
       <c r="A138" s="20"/>
       <c r="B138" s="21">
         <v>5</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="139" ht="28.5" spans="1:4">
@@ -3352,29 +3361,29 @@
         <v>2</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D139" s="11"/>
     </row>
-    <row r="140" ht="119.25" spans="1:4">
+    <row r="140" ht="146.25" spans="1:4">
       <c r="A140" s="24"/>
       <c r="B140" s="21">
         <v>5</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="141" ht="26.25" spans="1:4">
       <c r="A141" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B141" s="26"/>
       <c r="C141" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D141" s="12"/>
     </row>
@@ -3382,26 +3391,26 @@
       <c r="A142" s="25"/>
       <c r="B142" s="26"/>
       <c r="C142" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D142" s="12"/>
     </row>
     <row r="143" ht="25.5" spans="1:3">
       <c r="A143" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" ht="26.25" spans="3:3">
       <c r="C144" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="145" ht="26.25" spans="3:3">
       <c r="C145" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15120" windowHeight="25890"/>
+    <workbookView windowWidth="27720" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
   <si>
     <t>Scope</t>
   </si>
@@ -452,6 +452,12 @@
 2. context path 有用auxiliary loss</t>
   </si>
   <si>
+    <t>Multi-Scale Context Interwining for Semantic Segmentation</t>
+  </si>
+  <si>
+    <t>Auto-Deeplab_Hierarchical Neural Architecture Search for Semantic Image Segmentation</t>
+  </si>
+  <si>
     <t>Deep Dual Learning for Semantic Image Segmentation</t>
   </si>
   <si>
@@ -614,10 +620,21 @@
     <t>a learning-based approach for lane Departure warning systems with a personalied driver model</t>
   </si>
   <si>
-    <t>[综述]autonomous driving in urban environments_boss and the urban challenge</t>
-  </si>
-  <si>
-    <t>[综述]Recent progress in road and lane detection_a survey</t>
+    <t>[综述, 2010]Recent progress in road and lane detection_a survey</t>
+  </si>
+  <si>
+    <t>1. 难点：场景多样化(车道/车道线多样，图像的清晰度和能见度等)以及要求高可靠性；
+2. 传感器： 单目视觉， 立体视觉， 激光雷达，雷达， gps/imu, vihical dynamics；
+3. 系统构成：图像预处理， 特征提取， model fitting, temporal integration, image to world correspondance
+  a. 预处理：处理亮度，RoI， 变换视角等（to bird-view)
+  b.特征提取： 主要讲经典视觉方法，lane(人工画好车道线)， road（自然边界）的方法稍有不同；
+  c.model fitting: paramitric, semi-paramitric and non-paramitric模型，一般用RAMSAC确定参数</t>
+  </si>
+  <si>
+    <t>[综述， 2018.05]advanced in vision-based lane detecion: algorithms, integration, assessment, and perspectives on acp-based parallel vision</t>
+  </si>
+  <si>
+    <t>综述了基于视觉的车道线检测的算法及其集成（算法级别和系统级别）以及目前方法的限制，提出了基于acp的方法可能更加适合</t>
   </si>
 </sst>
 </file>
@@ -626,9 +643,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -681,16 +698,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,22 +715,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,9 +736,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,7 +760,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,11 +790,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -781,15 +814,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,14 +822,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,7 +867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,7 +879,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,73 +987,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,79 +1041,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,17 +1131,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,11 +1190,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,139 +1209,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1770,12 +1787,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
+      <selection pane="bottomLeft" activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -2864,12 +2881,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" ht="25.5" spans="1:4">
       <c r="A99" s="18"/>
       <c r="B99" s="19">
         <v>2</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="12" t="s">
         <v>136</v>
       </c>
       <c r="D99" s="11"/>
@@ -2879,27 +2896,27 @@
       <c r="B100" s="19">
         <v>2</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="12" t="s">
         <v>137</v>
       </c>
       <c r="D100" s="11"/>
     </row>
-    <row r="101" ht="25.5" spans="1:4">
+    <row r="101" spans="1:4">
       <c r="A101" s="18"/>
       <c r="B101" s="19">
-        <v>2</v>
-      </c>
-      <c r="C101" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
         <v>138</v>
       </c>
       <c r="D101" s="11"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" ht="25.5" spans="1:4">
       <c r="A102" s="18"/>
       <c r="B102" s="19">
         <v>2</v>
       </c>
-      <c r="C102" s="12" t="s">
+      <c r="C102" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D102" s="11"/>
@@ -2914,112 +2931,112 @@
       </c>
       <c r="D103" s="11"/>
     </row>
-    <row r="104" ht="25.5" spans="1:4">
+    <row r="104" spans="1:4">
       <c r="A104" s="18"/>
       <c r="B104" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D104" s="11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="105" ht="41.25" spans="1:4">
+      <c r="D104" s="11"/>
+    </row>
+    <row r="105" ht="25.5" spans="1:4">
       <c r="A105" s="18"/>
       <c r="B105" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="106" ht="160.5" spans="1:4">
+        <v>142</v>
+      </c>
+      <c r="D105" s="11"/>
+    </row>
+    <row r="106" ht="25.5" spans="1:4">
       <c r="A106" s="18"/>
       <c r="B106" s="19">
         <v>5</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="107" ht="28.5" spans="1:4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" ht="41.25" spans="1:4">
       <c r="A107" s="18"/>
       <c r="B107" s="19">
         <v>5</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="108" ht="57" spans="1:4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" ht="160.5" spans="1:4">
       <c r="A108" s="18"/>
       <c r="B108" s="19">
         <v>5</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="109" ht="57" spans="1:4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" ht="28.5" spans="1:4">
       <c r="A109" s="18"/>
       <c r="B109" s="19">
         <v>5</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="110" ht="57" spans="1:4">
       <c r="A110" s="18"/>
       <c r="B110" s="19">
-        <v>2</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D110" s="11"/>
-    </row>
-    <row r="111" ht="25.5" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" ht="57" spans="1:4">
       <c r="A111" s="18"/>
       <c r="B111" s="19">
-        <v>2</v>
-      </c>
-      <c r="C111" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D111" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D111" s="11"/>
-    </row>
-    <row r="112" ht="25.5" spans="1:4">
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="18"/>
       <c r="B112" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D112" s="11"/>
     </row>
-    <row r="113" ht="38.25" spans="1:4">
+    <row r="113" ht="25.5" spans="1:4">
       <c r="A113" s="18"/>
       <c r="B113" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>156</v>
@@ -3036,47 +3053,47 @@
       </c>
       <c r="D114" s="11"/>
     </row>
-    <row r="115" ht="27" spans="1:4">
+    <row r="115" ht="38.25" spans="1:4">
       <c r="A115" s="18"/>
       <c r="B115" s="19">
         <v>0</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="C115" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D115" s="11"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" ht="25.5" spans="1:4">
       <c r="A116" s="18"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="12" t="s">
+      <c r="B116" s="19">
+        <v>0</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D116" s="11"/>
     </row>
     <row r="117" ht="27" spans="1:4">
       <c r="A117" s="18"/>
-      <c r="B117" s="19"/>
+      <c r="B117" s="19">
+        <v>0</v>
+      </c>
       <c r="C117" s="12" t="s">
         <v>160</v>
       </c>
       <c r="D117" s="11"/>
     </row>
-    <row r="118" ht="25.5" spans="1:4">
+    <row r="118" spans="1:4">
       <c r="A118" s="18"/>
-      <c r="B118" s="20">
-        <v>1</v>
-      </c>
+      <c r="B118" s="19"/>
       <c r="C118" s="12" t="s">
         <v>161</v>
       </c>
       <c r="D118" s="11"/>
     </row>
-    <row r="119" ht="25.5" spans="1:4">
+    <row r="119" ht="27" spans="1:4">
       <c r="A119" s="18"/>
-      <c r="B119" s="19">
-        <v>1</v>
-      </c>
+      <c r="B119" s="19"/>
       <c r="C119" s="12" t="s">
         <v>162</v>
       </c>
@@ -3084,7 +3101,7 @@
     </row>
     <row r="120" ht="25.5" spans="1:4">
       <c r="A120" s="18"/>
-      <c r="B120" s="19">
+      <c r="B120" s="20">
         <v>1</v>
       </c>
       <c r="C120" s="12" t="s">
@@ -3092,7 +3109,7 @@
       </c>
       <c r="D120" s="11"/>
     </row>
-    <row r="121" ht="27" spans="1:4">
+    <row r="121" ht="25.5" spans="1:4">
       <c r="A121" s="18"/>
       <c r="B121" s="19">
         <v>1</v>
@@ -3102,35 +3119,39 @@
       </c>
       <c r="D121" s="11"/>
     </row>
-    <row r="122" ht="69.75" spans="1:4">
+    <row r="122" ht="25.5" spans="1:4">
       <c r="A122" s="18"/>
       <c r="B122" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C122" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D122" s="11" t="s">
+      <c r="D122" s="11"/>
+    </row>
+    <row r="123" ht="27" spans="1:4">
+      <c r="A123" s="18"/>
+      <c r="B123" s="19">
+        <v>1</v>
+      </c>
+      <c r="C123" s="12" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="123" ht="25.5" spans="1:4">
-      <c r="A123" s="18"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="12" t="s">
+      <c r="D123" s="11"/>
+    </row>
+    <row r="124" ht="69.75" spans="1:4">
+      <c r="A124" s="18"/>
+      <c r="B124" s="19">
+        <v>5</v>
+      </c>
+      <c r="C124" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="D123" s="11"/>
-    </row>
-    <row r="124" ht="27" spans="1:4">
-      <c r="A124" s="18"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="12" t="s">
+      <c r="D124" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D124" s="11"/>
-    </row>
-    <row r="125" spans="1:4">
+    </row>
+    <row r="125" ht="25.5" spans="1:4">
       <c r="A125" s="18"/>
       <c r="B125" s="19"/>
       <c r="C125" s="12" t="s">
@@ -3138,7 +3159,7 @@
       </c>
       <c r="D125" s="11"/>
     </row>
-    <row r="126" ht="25.5" spans="1:4">
+    <row r="126" ht="27" spans="1:4">
       <c r="A126" s="18"/>
       <c r="B126" s="19"/>
       <c r="C126" s="12" t="s">
@@ -3146,7 +3167,7 @@
       </c>
       <c r="D126" s="11"/>
     </row>
-    <row r="127" ht="25.5" spans="1:4">
+    <row r="127" spans="1:4">
       <c r="A127" s="18"/>
       <c r="B127" s="19"/>
       <c r="C127" s="12" t="s">
@@ -3154,106 +3175,133 @@
       </c>
       <c r="D127" s="11"/>
     </row>
-    <row r="128" ht="28.5" spans="1:4">
+    <row r="128" ht="25.5" spans="1:4">
       <c r="A128" s="18"/>
       <c r="B128" s="19"/>
       <c r="C128" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D128" s="11" t="s">
-        <v>173</v>
-      </c>
+      <c r="D128" s="11"/>
     </row>
     <row r="129" ht="25.5" spans="1:4">
       <c r="A129" s="18"/>
-      <c r="B129" s="19">
-        <v>1</v>
-      </c>
+      <c r="B129" s="19"/>
       <c r="C129" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D129" s="11"/>
     </row>
-    <row r="130" ht="25.5" spans="1:4">
+    <row r="130" ht="28.5" spans="1:4">
       <c r="A130" s="18"/>
       <c r="B130" s="19">
         <v>5</v>
       </c>
       <c r="C130" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D130" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D130" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="131" ht="55.5" spans="1:4">
+    </row>
+    <row r="131" ht="25.5" spans="1:4">
       <c r="A131" s="18"/>
       <c r="B131" s="19">
-        <v>5</v>
-      </c>
-      <c r="C131" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="132" ht="27" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D131" s="11"/>
+    </row>
+    <row r="132" ht="25.5" spans="1:4">
       <c r="A132" s="18"/>
       <c r="B132" s="19">
-        <v>2</v>
-      </c>
-      <c r="C132" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" ht="55.5" spans="1:4">
+      <c r="A133" s="18"/>
+      <c r="B133" s="19">
+        <v>5</v>
+      </c>
+      <c r="C133" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D132" s="11"/>
-    </row>
-    <row r="133" ht="123.75" spans="1:4">
-      <c r="A133" s="22"/>
-      <c r="B133" s="19">
-        <v>5</v>
-      </c>
-      <c r="C133" s="11" t="s">
+      <c r="D133" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="D133" s="11" t="s">
+    </row>
+    <row r="134" ht="27" spans="1:4">
+      <c r="A134" s="18"/>
+      <c r="B134" s="19">
+        <v>2</v>
+      </c>
+      <c r="C134" s="21" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="134" ht="27" spans="1:4">
-      <c r="A134" s="23" t="s">
+      <c r="D134" s="11"/>
+    </row>
+    <row r="135" ht="123.75" spans="1:4">
+      <c r="A135" s="22"/>
+      <c r="B135" s="19">
+        <v>5</v>
+      </c>
+      <c r="C135" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B134" s="24"/>
-      <c r="C134" s="12" t="s">
+      <c r="D135" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D134" s="12"/>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="23"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="12" t="s">
+    </row>
+    <row r="136" ht="27" spans="1:4">
+      <c r="A136" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="D135" s="12"/>
-    </row>
-    <row r="136" ht="25.5" spans="1:3">
-      <c r="A136" t="s">
+      <c r="B136" s="24"/>
+      <c r="C136" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="D136" s="12"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="23"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="12" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="137" ht="27" spans="3:3">
-      <c r="C137" s="2" t="s">
+      <c r="D137" s="12"/>
+    </row>
+    <row r="138" ht="25.5" spans="1:3">
+      <c r="A138" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="138" ht="27" spans="3:3">
       <c r="C138" s="2" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="139" ht="152.25" spans="3:4">
+      <c r="C139" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" ht="39.75" spans="2:4">
+      <c r="B140" s="19">
+        <v>5</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3263,8 +3311,8 @@
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="A18:A46"/>
     <mergeCell ref="A47:A85"/>
-    <mergeCell ref="A86:A133"/>
-    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A86:A135"/>
+    <mergeCell ref="A136:A137"/>
   </mergeCells>
   <conditionalFormatting sqref="B:B">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
@@ -3278,7 +3326,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C110" r:id="rId1" display="Panoptic Segmentation" tooltip="https://arxiv.org/abs/1801.00868"/>
+    <hyperlink ref="C112" r:id="rId1" display="Panoptic Segmentation" tooltip="https://arxiv.org/abs/1801.00868"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13290"/>
+    <workbookView windowWidth="27720" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199">
   <si>
     <t>Scope</t>
   </si>
@@ -519,9 +519,16 @@
     <t>El-gan: Embedding loss driven generative adversarial networks for lane detection</t>
   </si>
   <si>
+    <t>Semantic Instance Segmentation with a Discriminative Loss Function</t>
+  </si>
+  <si>
     <t>Towards End-to-End Lane Detection: an Instance Segmentation Approach</t>
   </si>
   <si>
+    <t>针对目前多分类车道线在变道的时候不work的情况, 把网络结构改为一个二分类分割网络(背景,线)和一个embedding网络(某个像素属于某个instance), 把分割网络出来的结果作为mask, 拿出embedding网络对应的像素来做聚类, 实现变道的时候也能分出4条线;
+设计类H-net, 能够为每张图片输出透视变换的参数, 方便在top-view上做曲线拟合</t>
+  </si>
+  <si>
     <t>Deep fully convolutional networks with random data augmentation for enhanced generalization in road detection</t>
   </si>
   <si>
@@ -529,6 +536,9 @@
   </si>
   <si>
     <t>End-to-end ego lane estimation based on sequential transfer learning for self-driving cars(着重在训练方法)</t>
+  </si>
+  <si>
+    <t>VPGNet_vanishing point guided network for lane and road marking detection and recognition</t>
   </si>
   <si>
     <t>Efficient Deep Models for Monocular Road Segmentation</t>
@@ -565,6 +575,9 @@
     <t>Robust Lane Detection Using Multiple Features</t>
   </si>
   <si>
+    <t>Deep Multi-Sensor Lane Detection</t>
+  </si>
+  <si>
     <t>LineNet: a Zoomable CNN for Crowdsourced High Definition Maps Modeling in Urban Environments</t>
   </si>
   <si>
@@ -575,6 +588,12 @@
   </si>
   <si>
     <t>预测路面的坐标系， 用IPM把feature map投影到top-view，然后，以w方向的每个点代表的直线为anchor，直接回归出对于该直线的修正值和概率，作为车道线的预测。。。赞！！</t>
+  </si>
+  <si>
+    <t>Multiple Encoder-Decoders Net for Lane Detection</t>
+  </si>
+  <si>
+    <t>EL-GAN: Embedding Loss Driven Generative Adversarial Networks for Lane Detection</t>
   </si>
   <si>
     <t>Learning to Cluster for Proposal-Free Instance Segmentation</t>
@@ -642,12 +661,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,53 +703,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF31424E"/>
       <name val="microsoft yahei"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,7 +732,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,8 +770,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,16 +793,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,14 +809,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,7 +831,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,7 +887,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,7 +935,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,37 +1013,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,79 +1049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,31 +1061,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,17 +1133,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,20 +1151,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,21 +1181,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1186,6 +1188,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,157 +1215,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1418,7 +1444,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1451,8 +1480,8 @@
     <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
     <cellStyle name="Accent2" xfId="17" builtinId="33"/>
     <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
     <cellStyle name="Neutral" xfId="21" builtinId="28"/>
     <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
@@ -1468,19 +1497,19 @@
     <cellStyle name="Good" xfId="33" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
     <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1525,6 +1554,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1780,19 +1814,18 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D154" sqref="D154"/>
+      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1819,7 +1852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" ht="13.5" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1831,7 +1864,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" ht="14.25" spans="1:4">
+    <row r="3" ht="13.5" spans="1:4">
       <c r="A3" s="9"/>
       <c r="B3" s="10">
         <v>5</v>
@@ -1841,7 +1874,7 @@
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" ht="13.5" spans="1:4">
       <c r="A4" s="9"/>
       <c r="B4" s="10">
         <v>5</v>
@@ -1851,7 +1884,7 @@
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" ht="13.5" spans="1:4">
       <c r="A5" s="9"/>
       <c r="B5" s="10">
         <v>5</v>
@@ -1863,7 +1896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" ht="13.5" spans="1:4">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="12" t="s">
@@ -1883,7 +1916,7 @@
       </c>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" ht="27" spans="1:4">
+    <row r="8" ht="26.25" spans="1:4">
       <c r="A8" s="9"/>
       <c r="B8" s="10">
         <v>2</v>
@@ -1903,7 +1936,7 @@
       </c>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" ht="39.75" spans="1:4">
+    <row r="10" ht="39" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1917,7 +1950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:4">
+    <row r="11" ht="13.5" spans="1:4">
       <c r="A11" s="9"/>
       <c r="B11" s="13">
         <v>5</v>
@@ -1981,7 +2014,7 @@
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" ht="54" spans="1:4">
+    <row r="17" ht="52.5" spans="1:4">
       <c r="A17" s="9"/>
       <c r="B17" s="16">
         <v>2</v>
@@ -2025,7 +2058,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" ht="28.5" spans="1:4">
+    <row r="21" ht="27" spans="1:4">
       <c r="A21" s="9"/>
       <c r="B21" s="14">
         <v>5</v>
@@ -2077,7 +2110,7 @@
       </c>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" ht="14.25" spans="1:4">
+    <row r="26" ht="13.5" spans="1:4">
       <c r="A26" s="9"/>
       <c r="B26" s="16">
         <v>2</v>
@@ -2107,7 +2140,7 @@
       </c>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" ht="82.5" spans="1:4">
+    <row r="29" ht="79.5" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="14">
         <v>5</v>
@@ -2159,7 +2192,7 @@
       </c>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" ht="84" spans="1:4">
+    <row r="34" ht="80.25" spans="1:4">
       <c r="A34" s="9"/>
       <c r="B34" s="14">
         <v>5</v>
@@ -2171,7 +2204,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" ht="28.5" spans="1:4">
+    <row r="35" ht="27" spans="1:4">
       <c r="A35" s="9"/>
       <c r="B35" s="14">
         <v>5</v>
@@ -2203,7 +2236,7 @@
       </c>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" ht="41.25" spans="1:4">
+    <row r="38" ht="39.75" spans="1:4">
       <c r="A38" s="9"/>
       <c r="B38" s="14">
         <v>5</v>
@@ -2225,7 +2258,7 @@
       </c>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" ht="81" spans="1:4">
+    <row r="40" ht="78.75" spans="1:4">
       <c r="A40" s="9"/>
       <c r="B40" s="14">
         <v>5</v>
@@ -2237,7 +2270,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" ht="28.5" spans="1:4">
+    <row r="41" ht="27" spans="1:4">
       <c r="A41" s="9"/>
       <c r="B41" s="14">
         <v>5</v>
@@ -2383,7 +2416,7 @@
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
     </row>
-    <row r="54" ht="52.5" spans="1:7">
+    <row r="54" ht="51.75" spans="1:7">
       <c r="A54" s="9"/>
       <c r="B54" s="16">
         <v>2</v>
@@ -2467,7 +2500,7 @@
       </c>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" ht="42.75" spans="1:4">
+    <row r="60" ht="40.5" spans="1:4">
       <c r="A60" s="9"/>
       <c r="B60" s="10">
         <v>5</v>
@@ -2499,7 +2532,7 @@
       </c>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" ht="84" spans="1:4">
+    <row r="63" ht="80.25" spans="1:4">
       <c r="A63" s="9"/>
       <c r="B63" s="10">
         <v>5</v>
@@ -2621,7 +2654,7 @@
       </c>
       <c r="D74" s="11"/>
     </row>
-    <row r="75" ht="42.75" spans="1:4">
+    <row r="75" ht="40.5" spans="1:4">
       <c r="A75" s="9"/>
       <c r="B75" s="10">
         <v>5</v>
@@ -2745,7 +2778,7 @@
       </c>
       <c r="D86" s="11"/>
     </row>
-    <row r="87" ht="41.25" spans="1:4">
+    <row r="87" ht="39.75" spans="1:4">
       <c r="A87" s="18"/>
       <c r="B87" s="10">
         <v>5</v>
@@ -2755,7 +2788,7 @@
       </c>
       <c r="D87" s="11"/>
     </row>
-    <row r="88" ht="54" spans="1:4">
+    <row r="88" ht="52.5" spans="1:4">
       <c r="A88" s="18"/>
       <c r="B88" s="10">
         <v>6</v>
@@ -2767,7 +2800,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="89" ht="14.25" spans="1:4">
+    <row r="89" ht="13.5" spans="1:4">
       <c r="A89" s="18"/>
       <c r="B89" s="19">
         <v>5</v>
@@ -2779,7 +2812,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="90" ht="28.5" spans="1:4">
+    <row r="90" ht="27" spans="1:4">
       <c r="A90" s="18"/>
       <c r="B90" s="19">
         <v>5</v>
@@ -2801,7 +2834,7 @@
       </c>
       <c r="D91" s="11"/>
     </row>
-    <row r="92" ht="96.75" spans="1:4">
+    <row r="92" ht="93" spans="1:4">
       <c r="A92" s="18"/>
       <c r="B92" s="19">
         <v>5</v>
@@ -2813,7 +2846,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" ht="96.75" spans="1:4">
+    <row r="93" ht="93" spans="1:4">
       <c r="A93" s="18"/>
       <c r="B93" s="19">
         <v>5</v>
@@ -2825,7 +2858,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="94" ht="55.5" spans="1:4">
+    <row r="94" ht="53.25" spans="1:4">
       <c r="A94" s="18"/>
       <c r="B94" s="19">
         <v>5</v>
@@ -2837,7 +2870,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" ht="111" spans="1:4">
+    <row r="95" ht="106.5" spans="1:4">
       <c r="A95" s="18"/>
       <c r="B95" s="19">
         <v>5</v>
@@ -2859,7 +2892,7 @@
       </c>
       <c r="D96" s="11"/>
     </row>
-    <row r="97" ht="27" spans="1:4">
+    <row r="97" ht="26.25" spans="1:4">
       <c r="A97" s="18"/>
       <c r="B97" s="19">
         <v>5</v>
@@ -2869,7 +2902,7 @@
       </c>
       <c r="D97" s="11"/>
     </row>
-    <row r="98" ht="41.25" spans="1:4">
+    <row r="98" ht="39.75" spans="1:4">
       <c r="A98" s="18"/>
       <c r="B98" s="19">
         <v>5</v>
@@ -2963,7 +2996,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="107" ht="41.25" spans="1:4">
+    <row r="107" ht="39.75" spans="1:4">
       <c r="A107" s="18"/>
       <c r="B107" s="19">
         <v>5</v>
@@ -2975,7 +3008,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="108" ht="160.5" spans="1:4">
+    <row r="108" ht="156.75" spans="1:4">
       <c r="A108" s="18"/>
       <c r="B108" s="19">
         <v>5</v>
@@ -2987,7 +3020,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="109" ht="28.5" spans="1:4">
+    <row r="109" ht="27" spans="1:4">
       <c r="A109" s="18"/>
       <c r="B109" s="19">
         <v>5</v>
@@ -2999,7 +3032,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="110" ht="57" spans="1:4">
+    <row r="110" ht="54" spans="1:4">
       <c r="A110" s="18"/>
       <c r="B110" s="19">
         <v>5</v>
@@ -3011,7 +3044,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="111" ht="57" spans="1:4">
+    <row r="111" ht="54" spans="1:4">
       <c r="A111" s="18"/>
       <c r="B111" s="19">
         <v>5</v>
@@ -3045,168 +3078,166 @@
     </row>
     <row r="114" ht="25.5" spans="1:4">
       <c r="A114" s="18"/>
-      <c r="B114" s="19">
-        <v>0</v>
-      </c>
+      <c r="B114" s="19"/>
       <c r="C114" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D114" s="11"/>
     </row>
-    <row r="115" ht="38.25" spans="1:4">
+    <row r="115" ht="66.75" spans="1:4">
       <c r="A115" s="18"/>
       <c r="B115" s="19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D115" s="11"/>
-    </row>
-    <row r="116" ht="25.5" spans="1:4">
+      <c r="D115" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116" ht="38.25" spans="1:4">
       <c r="A116" s="18"/>
       <c r="B116" s="19">
         <v>0</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D116" s="11"/>
     </row>
-    <row r="117" ht="27" spans="1:4">
+    <row r="117" ht="25.5" spans="1:4">
       <c r="A117" s="18"/>
       <c r="B117" s="19">
         <v>0</v>
       </c>
-      <c r="C117" s="12" t="s">
-        <v>160</v>
+      <c r="C117" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="D117" s="11"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" ht="26.25" spans="1:4">
       <c r="A118" s="18"/>
-      <c r="B118" s="19"/>
+      <c r="B118" s="19">
+        <v>0</v>
+      </c>
       <c r="C118" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D118" s="11"/>
     </row>
-    <row r="119" ht="27" spans="1:4">
+    <row r="119" ht="25.5" spans="1:4">
       <c r="A119" s="18"/>
       <c r="B119" s="19"/>
       <c r="C119" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D119" s="11"/>
     </row>
-    <row r="120" ht="25.5" spans="1:4">
+    <row r="120" spans="1:4">
       <c r="A120" s="18"/>
-      <c r="B120" s="20">
-        <v>1</v>
-      </c>
+      <c r="B120" s="19"/>
       <c r="C120" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D120" s="11"/>
     </row>
-    <row r="121" ht="25.5" spans="1:4">
+    <row r="121" ht="26.25" spans="1:4">
       <c r="A121" s="18"/>
-      <c r="B121" s="19">
-        <v>1</v>
-      </c>
+      <c r="B121" s="19"/>
       <c r="C121" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D121" s="11"/>
     </row>
     <row r="122" ht="25.5" spans="1:4">
       <c r="A122" s="18"/>
-      <c r="B122" s="19">
+      <c r="B122" s="20">
         <v>1</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D122" s="11"/>
     </row>
-    <row r="123" ht="27" spans="1:4">
+    <row r="123" ht="25.5" spans="1:4">
       <c r="A123" s="18"/>
       <c r="B123" s="19">
         <v>1</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D123" s="11"/>
     </row>
-    <row r="124" ht="69.75" spans="1:4">
+    <row r="124" ht="25.5" spans="1:4">
       <c r="A124" s="18"/>
       <c r="B124" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D124" s="11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="125" ht="25.5" spans="1:4">
+      <c r="D124" s="11"/>
+    </row>
+    <row r="125" ht="26.25" spans="1:4">
       <c r="A125" s="18"/>
-      <c r="B125" s="19"/>
+      <c r="B125" s="19">
+        <v>0</v>
+      </c>
       <c r="C125" s="12" t="s">
         <v>169</v>
       </c>
       <c r="D125" s="11"/>
     </row>
-    <row r="126" ht="27" spans="1:4">
+    <row r="126" ht="66.75" spans="1:4">
       <c r="A126" s="18"/>
-      <c r="B126" s="19"/>
+      <c r="B126" s="19">
+        <v>5</v>
+      </c>
       <c r="C126" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D126" s="11"/>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="D126" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" spans="1:4">
       <c r="A127" s="18"/>
       <c r="B127" s="19"/>
       <c r="C127" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D127" s="11"/>
     </row>
-    <row r="128" ht="25.5" spans="1:4">
+    <row r="128" ht="26.25" spans="1:4">
       <c r="A128" s="18"/>
       <c r="B128" s="19"/>
       <c r="C128" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D128" s="11"/>
     </row>
-    <row r="129" ht="25.5" spans="1:4">
+    <row r="129" spans="1:4">
       <c r="A129" s="18"/>
       <c r="B129" s="19"/>
       <c r="C129" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D129" s="11"/>
     </row>
-    <row r="130" ht="28.5" spans="1:4">
+    <row r="130" spans="1:4">
       <c r="A130" s="18"/>
-      <c r="B130" s="19">
-        <v>5</v>
-      </c>
+      <c r="B130" s="19"/>
       <c r="C130" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D130" s="11" t="s">
         <v>175</v>
       </c>
+      <c r="D130" s="11"/>
     </row>
     <row r="131" ht="25.5" spans="1:4">
       <c r="A131" s="18"/>
       <c r="B131" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C131" s="12" t="s">
         <v>176</v>
@@ -3215,93 +3246,144 @@
     </row>
     <row r="132" ht="25.5" spans="1:4">
       <c r="A132" s="18"/>
-      <c r="B132" s="19">
-        <v>5</v>
-      </c>
+      <c r="B132" s="19"/>
       <c r="C132" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D132" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="133" ht="55.5" spans="1:4">
+      <c r="D132" s="11"/>
+    </row>
+    <row r="133" ht="27" spans="1:4">
       <c r="A133" s="18"/>
       <c r="B133" s="19">
         <v>5</v>
       </c>
-      <c r="C133" s="21" t="s">
+      <c r="C133" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D133" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="D133" s="11" t="s">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="18"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="12" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="134" ht="27" spans="1:4">
-      <c r="A134" s="18"/>
-      <c r="B134" s="19">
-        <v>2</v>
-      </c>
-      <c r="C134" s="21" t="s">
+      <c r="D134" s="11"/>
+    </row>
+    <row r="135" ht="24" spans="1:4">
+      <c r="A135" s="18"/>
+      <c r="B135" s="19">
+        <v>1</v>
+      </c>
+      <c r="C135" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D134" s="11"/>
-    </row>
-    <row r="135" ht="123.75" spans="1:4">
-      <c r="A135" s="22"/>
-      <c r="B135" s="19">
-        <v>5</v>
-      </c>
-      <c r="C135" s="11" t="s">
+      <c r="D135" s="11"/>
+    </row>
+    <row r="136" ht="25.5" spans="1:4">
+      <c r="A136" s="18"/>
+      <c r="B136" s="19">
+        <v>1</v>
+      </c>
+      <c r="C136" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D135" s="11" t="s">
+      <c r="D136" s="11"/>
+    </row>
+    <row r="137" ht="25.5" spans="1:4">
+      <c r="A137" s="18"/>
+      <c r="B137" s="19">
+        <v>5</v>
+      </c>
+      <c r="C137" s="12" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="136" ht="27" spans="1:4">
-      <c r="A136" s="23" t="s">
+      <c r="D137" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="B136" s="24"/>
-      <c r="C136" s="12" t="s">
+    </row>
+    <row r="138" ht="53.25" spans="1:4">
+      <c r="A138" s="18"/>
+      <c r="B138" s="19">
+        <v>5</v>
+      </c>
+      <c r="C138" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="D136" s="12"/>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="23"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="12" t="s">
+      <c r="D138" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D137" s="12"/>
-    </row>
-    <row r="138" ht="25.5" spans="1:3">
-      <c r="A138" t="s">
+    </row>
+    <row r="139" ht="28.5" spans="1:4">
+      <c r="A139" s="18"/>
+      <c r="B139" s="19">
+        <v>2</v>
+      </c>
+      <c r="C139" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="D139" s="11"/>
+    </row>
+    <row r="140" ht="119.25" spans="1:4">
+      <c r="A140" s="23"/>
+      <c r="B140" s="19">
+        <v>5</v>
+      </c>
+      <c r="C140" s="11" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="139" ht="152.25" spans="3:4">
-      <c r="C139" s="2" t="s">
+      <c r="D140" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D139" s="2" t="s">
+    </row>
+    <row r="141" ht="26.25" spans="1:4">
+      <c r="A141" s="24" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="140" ht="39.75" spans="2:4">
-      <c r="B140" s="19">
-        <v>5</v>
-      </c>
-      <c r="C140" s="2" t="s">
+      <c r="B141" s="25"/>
+      <c r="C141" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D141" s="12"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="24"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="12" t="s">
         <v>192</v>
+      </c>
+      <c r="D142" s="12"/>
+    </row>
+    <row r="143" ht="25.5" spans="1:3">
+      <c r="A143" t="s">
+        <v>193</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="144" ht="146.25" spans="2:4">
+      <c r="B144" s="19">
+        <v>5</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="145" ht="39" spans="2:4">
+      <c r="B145" s="19">
+        <v>5</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3311,10 +3393,10 @@
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="A18:A46"/>
     <mergeCell ref="A47:A85"/>
-    <mergeCell ref="A86:A135"/>
-    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A86:A140"/>
+    <mergeCell ref="A141:A142"/>
   </mergeCells>
-  <conditionalFormatting sqref="B:B">
+  <conditionalFormatting sqref="B$1:B$1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13140"/>
+    <workbookView windowWidth="27720" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
   <si>
     <t>Scope</t>
   </si>
@@ -517,6 +517,17 @@
   </si>
   <si>
     <t>El-gan: Embedding loss driven generative adversarial networks for lane detection</t>
+  </si>
+  <si>
+    <t>(PSPnet) Pyramid Scene Parsing Network</t>
+  </si>
+  <si>
+    <t>提供了除了global avg pool之外的sub-region context的信息，使得语意分割更准确，不同于aspp, pspnet更强调context imformation，而aspp更强调scale invariant
+加了deep supervision， 用aux loss提高训练效果；
+提到了很多细节，ablantion 很充分</t>
+  </si>
+  <si>
+    <t>Large Kernel Matters -- Improve Semantic Segmentation by Global Convolutional Network</t>
   </si>
   <si>
     <t>Semantic Instance Segmentation with a Discriminative Loss Function</t>
@@ -661,10 +672,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -716,6 +727,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -731,15 +766,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -769,47 +797,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,6 +814,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,15 +850,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -887,7 +898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,7 +910,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,7 +1000,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,49 +1024,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,37 +1048,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,55 +1066,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,11 +1144,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,32 +1168,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,6 +1198,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1215,168 +1241,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1480,8 +1491,8 @@
     <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
     <cellStyle name="Accent2" xfId="17" builtinId="33"/>
     <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
     <cellStyle name="Neutral" xfId="21" builtinId="28"/>
     <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
@@ -1497,19 +1508,19 @@
     <cellStyle name="Good" xfId="33" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
     <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1554,11 +1565,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1814,18 +1820,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1852,7 +1859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:4">
+    <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1864,7 +1871,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" ht="13.5" spans="1:4">
+    <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="9"/>
       <c r="B3" s="10">
         <v>5</v>
@@ -1874,7 +1881,7 @@
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" ht="13.5" spans="1:4">
+    <row r="4" ht="14.25" spans="1:4">
       <c r="A4" s="9"/>
       <c r="B4" s="10">
         <v>5</v>
@@ -1884,7 +1891,7 @@
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" ht="13.5" spans="1:4">
+    <row r="5" ht="14.25" spans="1:4">
       <c r="A5" s="9"/>
       <c r="B5" s="10">
         <v>5</v>
@@ -1896,7 +1903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="13.5" spans="1:4">
+    <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="12" t="s">
@@ -1916,7 +1923,7 @@
       </c>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" ht="26.25" spans="1:4">
+    <row r="8" ht="27" spans="1:4">
       <c r="A8" s="9"/>
       <c r="B8" s="10">
         <v>2</v>
@@ -1936,7 +1943,7 @@
       </c>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" ht="39" spans="1:4">
+    <row r="10" ht="39.75" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1950,7 +1957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="13.5" spans="1:4">
+    <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="9"/>
       <c r="B11" s="13">
         <v>5</v>
@@ -2014,7 +2021,7 @@
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" ht="52.5" spans="1:4">
+    <row r="17" ht="54" spans="1:4">
       <c r="A17" s="9"/>
       <c r="B17" s="16">
         <v>2</v>
@@ -2058,7 +2065,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" ht="27" spans="1:4">
+    <row r="21" ht="28.5" spans="1:4">
       <c r="A21" s="9"/>
       <c r="B21" s="14">
         <v>5</v>
@@ -2110,7 +2117,7 @@
       </c>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" ht="13.5" spans="1:4">
+    <row r="26" ht="14.25" spans="1:4">
       <c r="A26" s="9"/>
       <c r="B26" s="16">
         <v>2</v>
@@ -2140,7 +2147,7 @@
       </c>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" ht="79.5" spans="1:4">
+    <row r="29" ht="82.5" spans="1:4">
       <c r="A29" s="9"/>
       <c r="B29" s="14">
         <v>5</v>
@@ -2192,7 +2199,7 @@
       </c>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" ht="80.25" spans="1:4">
+    <row r="34" ht="84" spans="1:4">
       <c r="A34" s="9"/>
       <c r="B34" s="14">
         <v>5</v>
@@ -2204,7 +2211,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" ht="27" spans="1:4">
+    <row r="35" ht="28.5" spans="1:4">
       <c r="A35" s="9"/>
       <c r="B35" s="14">
         <v>5</v>
@@ -2236,7 +2243,7 @@
       </c>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" ht="39.75" spans="1:4">
+    <row r="38" ht="41.25" spans="1:4">
       <c r="A38" s="9"/>
       <c r="B38" s="14">
         <v>5</v>
@@ -2258,7 +2265,7 @@
       </c>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" ht="78.75" spans="1:4">
+    <row r="40" ht="81" spans="1:4">
       <c r="A40" s="9"/>
       <c r="B40" s="14">
         <v>5</v>
@@ -2270,7 +2277,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" ht="27" spans="1:4">
+    <row r="41" ht="28.5" spans="1:4">
       <c r="A41" s="9"/>
       <c r="B41" s="14">
         <v>5</v>
@@ -2416,7 +2423,7 @@
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
     </row>
-    <row r="54" ht="51.75" spans="1:7">
+    <row r="54" ht="52.5" spans="1:7">
       <c r="A54" s="9"/>
       <c r="B54" s="16">
         <v>2</v>
@@ -2500,7 +2507,7 @@
       </c>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" ht="40.5" spans="1:4">
+    <row r="60" ht="42.75" spans="1:4">
       <c r="A60" s="9"/>
       <c r="B60" s="10">
         <v>5</v>
@@ -2532,7 +2539,7 @@
       </c>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" ht="80.25" spans="1:4">
+    <row r="63" ht="84" spans="1:4">
       <c r="A63" s="9"/>
       <c r="B63" s="10">
         <v>5</v>
@@ -2654,7 +2661,7 @@
       </c>
       <c r="D74" s="11"/>
     </row>
-    <row r="75" ht="40.5" spans="1:4">
+    <row r="75" ht="42.75" spans="1:4">
       <c r="A75" s="9"/>
       <c r="B75" s="10">
         <v>5</v>
@@ -2778,7 +2785,7 @@
       </c>
       <c r="D86" s="11"/>
     </row>
-    <row r="87" ht="39.75" spans="1:4">
+    <row r="87" ht="41.25" spans="1:4">
       <c r="A87" s="18"/>
       <c r="B87" s="10">
         <v>5</v>
@@ -2788,7 +2795,7 @@
       </c>
       <c r="D87" s="11"/>
     </row>
-    <row r="88" ht="52.5" spans="1:4">
+    <row r="88" ht="54" spans="1:4">
       <c r="A88" s="18"/>
       <c r="B88" s="10">
         <v>6</v>
@@ -2800,7 +2807,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="89" ht="13.5" spans="1:4">
+    <row r="89" ht="14.25" spans="1:4">
       <c r="A89" s="18"/>
       <c r="B89" s="19">
         <v>5</v>
@@ -2812,7 +2819,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="90" ht="27" spans="1:4">
+    <row r="90" ht="28.5" spans="1:4">
       <c r="A90" s="18"/>
       <c r="B90" s="19">
         <v>5</v>
@@ -2834,7 +2841,7 @@
       </c>
       <c r="D91" s="11"/>
     </row>
-    <row r="92" ht="93" spans="1:4">
+    <row r="92" ht="96.75" spans="1:4">
       <c r="A92" s="18"/>
       <c r="B92" s="19">
         <v>5</v>
@@ -2846,7 +2853,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" ht="93" spans="1:4">
+    <row r="93" ht="96.75" spans="1:4">
       <c r="A93" s="18"/>
       <c r="B93" s="19">
         <v>5</v>
@@ -2858,7 +2865,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="94" ht="53.25" spans="1:4">
+    <row r="94" ht="55.5" spans="1:4">
       <c r="A94" s="18"/>
       <c r="B94" s="19">
         <v>5</v>
@@ -2870,7 +2877,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" ht="106.5" spans="1:4">
+    <row r="95" ht="111" spans="1:4">
       <c r="A95" s="18"/>
       <c r="B95" s="19">
         <v>5</v>
@@ -2892,7 +2899,7 @@
       </c>
       <c r="D96" s="11"/>
     </row>
-    <row r="97" ht="26.25" spans="1:4">
+    <row r="97" ht="27" spans="1:4">
       <c r="A97" s="18"/>
       <c r="B97" s="19">
         <v>5</v>
@@ -2902,7 +2909,7 @@
       </c>
       <c r="D97" s="11"/>
     </row>
-    <row r="98" ht="39.75" spans="1:4">
+    <row r="98" ht="41.25" spans="1:4">
       <c r="A98" s="18"/>
       <c r="B98" s="19">
         <v>5</v>
@@ -2996,7 +3003,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="107" ht="39.75" spans="1:4">
+    <row r="107" ht="41.25" spans="1:4">
       <c r="A107" s="18"/>
       <c r="B107" s="19">
         <v>5</v>
@@ -3008,7 +3015,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="108" ht="156.75" spans="1:4">
+    <row r="108" ht="160.5" spans="1:4">
       <c r="A108" s="18"/>
       <c r="B108" s="19">
         <v>5</v>
@@ -3020,7 +3027,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="109" ht="27" spans="1:4">
+    <row r="109" ht="28.5" spans="1:4">
       <c r="A109" s="18"/>
       <c r="B109" s="19">
         <v>5</v>
@@ -3032,7 +3039,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="110" ht="54" spans="1:4">
+    <row r="110" ht="57" spans="1:4">
       <c r="A110" s="18"/>
       <c r="B110" s="19">
         <v>5</v>
@@ -3044,7 +3051,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="111" ht="54" spans="1:4">
+    <row r="111" ht="57" spans="1:4">
       <c r="A111" s="18"/>
       <c r="B111" s="19">
         <v>5</v>
@@ -3076,195 +3083,193 @@
       </c>
       <c r="D113" s="11"/>
     </row>
-    <row r="114" ht="25.5" spans="1:4">
+    <row r="114" ht="57" spans="1:4">
       <c r="A114" s="18"/>
       <c r="B114" s="19"/>
       <c r="C114" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D114" s="11"/>
-    </row>
-    <row r="115" ht="66.75" spans="1:4">
+      <c r="D114" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" ht="25.5" spans="1:4">
       <c r="A115" s="18"/>
-      <c r="B115" s="19">
-        <v>5</v>
-      </c>
+      <c r="B115" s="19"/>
       <c r="C115" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D115" s="11" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="116" ht="38.25" spans="1:4">
+      <c r="D115" s="11"/>
+    </row>
+    <row r="116" ht="25.5" spans="1:4">
       <c r="A116" s="18"/>
-      <c r="B116" s="19">
-        <v>0</v>
-      </c>
+      <c r="B116" s="19"/>
       <c r="C116" s="2" t="s">
         <v>160</v>
       </c>
       <c r="D116" s="11"/>
     </row>
-    <row r="117" ht="25.5" spans="1:4">
+    <row r="117" ht="69.75" spans="1:4">
       <c r="A117" s="18"/>
       <c r="B117" s="19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D117" s="11"/>
-    </row>
-    <row r="118" ht="26.25" spans="1:4">
+      <c r="D117" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" ht="38.25" spans="1:4">
       <c r="A118" s="18"/>
       <c r="B118" s="19">
         <v>0</v>
       </c>
-      <c r="C118" s="12" t="s">
-        <v>162</v>
+      <c r="C118" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D118" s="11"/>
     </row>
     <row r="119" ht="25.5" spans="1:4">
       <c r="A119" s="18"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="12" t="s">
-        <v>163</v>
+      <c r="B119" s="19">
+        <v>0</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D119" s="11"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" ht="27" spans="1:4">
       <c r="A120" s="18"/>
-      <c r="B120" s="19"/>
+      <c r="B120" s="19">
+        <v>0</v>
+      </c>
       <c r="C120" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D120" s="11"/>
     </row>
-    <row r="121" ht="26.25" spans="1:4">
+    <row r="121" ht="25.5" spans="1:4">
       <c r="A121" s="18"/>
       <c r="B121" s="19"/>
       <c r="C121" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D121" s="11"/>
     </row>
-    <row r="122" ht="25.5" spans="1:4">
+    <row r="122" spans="1:4">
       <c r="A122" s="18"/>
-      <c r="B122" s="20">
-        <v>1</v>
-      </c>
+      <c r="B122" s="19"/>
       <c r="C122" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D122" s="11"/>
     </row>
-    <row r="123" ht="25.5" spans="1:4">
+    <row r="123" ht="27" spans="1:4">
       <c r="A123" s="18"/>
-      <c r="B123" s="19">
-        <v>1</v>
-      </c>
+      <c r="B123" s="19"/>
       <c r="C123" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D123" s="11"/>
     </row>
     <row r="124" ht="25.5" spans="1:4">
       <c r="A124" s="18"/>
-      <c r="B124" s="19">
+      <c r="B124" s="20">
         <v>1</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D124" s="11"/>
     </row>
-    <row r="125" ht="26.25" spans="1:4">
+    <row r="125" ht="25.5" spans="1:4">
       <c r="A125" s="18"/>
       <c r="B125" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D125" s="11"/>
     </row>
-    <row r="126" ht="66.75" spans="1:4">
+    <row r="126" ht="25.5" spans="1:4">
       <c r="A126" s="18"/>
       <c r="B126" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D126" s="11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="127" ht="25.5" spans="1:4">
+      <c r="D126" s="11"/>
+    </row>
+    <row r="127" ht="27" spans="1:4">
       <c r="A127" s="18"/>
-      <c r="B127" s="19"/>
+      <c r="B127" s="19">
+        <v>0</v>
+      </c>
       <c r="C127" s="12" t="s">
         <v>172</v>
       </c>
       <c r="D127" s="11"/>
     </row>
-    <row r="128" ht="26.25" spans="1:4">
+    <row r="128" ht="69.75" spans="1:4">
       <c r="A128" s="18"/>
-      <c r="B128" s="19"/>
+      <c r="B128" s="19">
+        <v>5</v>
+      </c>
       <c r="C128" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D128" s="11"/>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="D128" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" spans="1:4">
       <c r="A129" s="18"/>
       <c r="B129" s="19"/>
       <c r="C129" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D129" s="11"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" ht="27" spans="1:4">
       <c r="A130" s="18"/>
       <c r="B130" s="19"/>
       <c r="C130" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D130" s="11"/>
     </row>
-    <row r="131" ht="25.5" spans="1:4">
+    <row r="131" spans="1:4">
       <c r="A131" s="18"/>
-      <c r="B131" s="19">
-        <v>5</v>
-      </c>
+      <c r="B131" s="19"/>
       <c r="C131" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D131" s="11"/>
     </row>
-    <row r="132" ht="25.5" spans="1:4">
+    <row r="132" spans="1:4">
       <c r="A132" s="18"/>
       <c r="B132" s="19"/>
       <c r="C132" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D132" s="11"/>
     </row>
-    <row r="133" ht="27" spans="1:4">
+    <row r="133" ht="25.5" spans="1:4">
       <c r="A133" s="18"/>
       <c r="B133" s="19">
         <v>5</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="D133" s="11" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="D133" s="11"/>
+    </row>
+    <row r="134" ht="25.5" spans="1:4">
       <c r="A134" s="18"/>
       <c r="B134" s="19"/>
       <c r="C134" s="12" t="s">
@@ -3272,118 +3277,138 @@
       </c>
       <c r="D134" s="11"/>
     </row>
-    <row r="135" ht="24" spans="1:4">
+    <row r="135" ht="28.5" spans="1:4">
       <c r="A135" s="18"/>
       <c r="B135" s="19">
-        <v>1</v>
-      </c>
-      <c r="C135" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D135" s="11"/>
-    </row>
-    <row r="136" ht="25.5" spans="1:4">
+      <c r="D135" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="18"/>
-      <c r="B136" s="19">
-        <v>1</v>
-      </c>
+      <c r="B136" s="19"/>
       <c r="C136" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D136" s="11"/>
     </row>
-    <row r="137" ht="25.5" spans="1:4">
+    <row r="137" ht="24" spans="1:4">
       <c r="A137" s="18"/>
       <c r="B137" s="19">
-        <v>5</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D137" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="21" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="138" ht="53.25" spans="1:4">
+      <c r="D137" s="11"/>
+    </row>
+    <row r="138" ht="25.5" spans="1:4">
       <c r="A138" s="18"/>
       <c r="B138" s="19">
-        <v>5</v>
-      </c>
-      <c r="C138" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D138" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="139" ht="28.5" spans="1:4">
+      <c r="D138" s="11"/>
+    </row>
+    <row r="139" ht="25.5" spans="1:4">
       <c r="A139" s="18"/>
       <c r="B139" s="19">
-        <v>2</v>
-      </c>
-      <c r="C139" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D139" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D139" s="11"/>
-    </row>
-    <row r="140" ht="119.25" spans="1:4">
-      <c r="A140" s="23"/>
+    </row>
+    <row r="140" ht="55.5" spans="1:4">
+      <c r="A140" s="18"/>
       <c r="B140" s="19">
         <v>5</v>
       </c>
-      <c r="C140" s="11" t="s">
+      <c r="C140" s="22" t="s">
         <v>188</v>
       </c>
       <c r="D140" s="11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="141" ht="26.25" spans="1:4">
-      <c r="A141" s="24" t="s">
+    <row r="141" ht="27" spans="1:4">
+      <c r="A141" s="18"/>
+      <c r="B141" s="19">
+        <v>2</v>
+      </c>
+      <c r="C141" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="B141" s="25"/>
-      <c r="C141" s="12" t="s">
+      <c r="D141" s="11"/>
+    </row>
+    <row r="142" ht="123.75" spans="1:4">
+      <c r="A142" s="23"/>
+      <c r="B142" s="19">
+        <v>5</v>
+      </c>
+      <c r="C142" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D141" s="12"/>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="24"/>
-      <c r="B142" s="25"/>
-      <c r="C142" s="12" t="s">
+      <c r="D142" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D142" s="12"/>
-    </row>
-    <row r="143" ht="25.5" spans="1:3">
-      <c r="A143" t="s">
+    </row>
+    <row r="143" ht="27" spans="1:4">
+      <c r="A143" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="B143" s="25"/>
+      <c r="C143" s="12" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="144" ht="146.25" spans="2:4">
-      <c r="B144" s="19">
-        <v>5</v>
-      </c>
-      <c r="C144" s="2" t="s">
+      <c r="D143" s="12"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="24"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="12"/>
+    </row>
+    <row r="145" ht="25.5" spans="1:3">
+      <c r="A145" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="145" ht="39" spans="2:4">
-      <c r="B145" s="19">
-        <v>5</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D145" s="2" t="s">
+    </row>
+    <row r="146" ht="152.25" spans="2:4">
+      <c r="B146" s="19">
+        <v>5</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>198</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="147" ht="39.75" spans="2:4">
+      <c r="B147" s="19">
+        <v>5</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3393,10 +3418,10 @@
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="A18:A46"/>
     <mergeCell ref="A47:A85"/>
-    <mergeCell ref="A86:A140"/>
-    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A86:A142"/>
+    <mergeCell ref="A143:A144"/>
   </mergeCells>
-  <conditionalFormatting sqref="B$1:B$1048576">
+  <conditionalFormatting sqref="B116:B1048576 B1:B114 B115">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203">
   <si>
     <t>Scope</t>
   </si>
@@ -528,6 +528,10 @@
   </si>
   <si>
     <t>Large Kernel Matters -- Improve Semantic Segmentation by Global Convolutional Network</t>
+  </si>
+  <si>
+    <t>认为最后在出logits的时候，1x1的卷积不能综合全局信息，最好用大kernel（仿照分类的全连接但是因为是卷积，又保持了空间信息）：因此提出了GCN（1x15 + 15x1, 防止15x15的kernel过拟合）
+由于GCN主要提升的是object内部的分类效果，针对边界，提出了boundary refinement module</t>
   </si>
   <si>
     <t>Semantic Instance Segmentation with a Discriminative Loss Function</t>
@@ -672,12 +676,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,6 +718,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -727,40 +738,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,21 +761,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -798,7 +770,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,22 +785,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,6 +812,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -856,8 +834,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,6 +849,38 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -898,7 +909,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,7 +939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,7 +951,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,7 +993,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,19 +1047,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,25 +1065,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,85 +1083,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,21 +1155,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1173,6 +1169,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1212,6 +1223,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1226,172 +1252,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1452,13 +1463,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1829,10 +1843,10 @@
   <sheetPr/>
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
+      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -3085,7 +3099,9 @@
     </row>
     <row r="114" ht="57" spans="1:4">
       <c r="A114" s="18"/>
-      <c r="B114" s="19"/>
+      <c r="B114" s="20">
+        <v>5</v>
+      </c>
       <c r="C114" s="2" t="s">
         <v>157</v>
       </c>
@@ -3093,19 +3109,23 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115" ht="25.5" spans="1:4">
+    <row r="115" ht="69.75" spans="1:4">
       <c r="A115" s="18"/>
-      <c r="B115" s="19"/>
+      <c r="B115" s="20">
+        <v>5</v>
+      </c>
       <c r="C115" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D115" s="11"/>
+      <c r="D115" s="11" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="116" ht="25.5" spans="1:4">
       <c r="A116" s="18"/>
       <c r="B116" s="19"/>
       <c r="C116" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D116" s="11"/>
     </row>
@@ -3115,10 +3135,10 @@
         <v>5</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118" ht="38.25" spans="1:4">
@@ -3127,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D118" s="11"/>
     </row>
@@ -3137,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D119" s="11"/>
     </row>
@@ -3147,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D120" s="11"/>
     </row>
@@ -3155,7 +3175,7 @@
       <c r="A121" s="18"/>
       <c r="B121" s="19"/>
       <c r="C121" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D121" s="11"/>
     </row>
@@ -3163,7 +3183,7 @@
       <c r="A122" s="18"/>
       <c r="B122" s="19"/>
       <c r="C122" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D122" s="11"/>
     </row>
@@ -3171,17 +3191,17 @@
       <c r="A123" s="18"/>
       <c r="B123" s="19"/>
       <c r="C123" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D123" s="11"/>
     </row>
     <row r="124" ht="25.5" spans="1:4">
       <c r="A124" s="18"/>
-      <c r="B124" s="20">
+      <c r="B124" s="21">
         <v>1</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D124" s="11"/>
     </row>
@@ -3191,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D125" s="11"/>
     </row>
@@ -3201,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D126" s="11"/>
     </row>
@@ -3211,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D127" s="11"/>
     </row>
@@ -3221,17 +3241,17 @@
         <v>5</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="129" ht="25.5" spans="1:4">
       <c r="A129" s="18"/>
       <c r="B129" s="19"/>
       <c r="C129" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D129" s="11"/>
     </row>
@@ -3239,7 +3259,7 @@
       <c r="A130" s="18"/>
       <c r="B130" s="19"/>
       <c r="C130" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D130" s="11"/>
     </row>
@@ -3247,7 +3267,7 @@
       <c r="A131" s="18"/>
       <c r="B131" s="19"/>
       <c r="C131" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D131" s="11"/>
     </row>
@@ -3255,7 +3275,7 @@
       <c r="A132" s="18"/>
       <c r="B132" s="19"/>
       <c r="C132" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D132" s="11"/>
     </row>
@@ -3265,7 +3285,7 @@
         <v>5</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D133" s="11"/>
     </row>
@@ -3273,7 +3293,7 @@
       <c r="A134" s="18"/>
       <c r="B134" s="19"/>
       <c r="C134" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D134" s="11"/>
     </row>
@@ -3283,17 +3303,17 @@
         <v>5</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="18"/>
       <c r="B136" s="19"/>
       <c r="C136" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D136" s="11"/>
     </row>
@@ -3302,8 +3322,8 @@
       <c r="B137" s="19">
         <v>1</v>
       </c>
-      <c r="C137" s="21" t="s">
-        <v>184</v>
+      <c r="C137" s="22" t="s">
+        <v>185</v>
       </c>
       <c r="D137" s="11"/>
     </row>
@@ -3313,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D138" s="11"/>
     </row>
@@ -3323,10 +3343,10 @@
         <v>5</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="140" ht="55.5" spans="1:4">
@@ -3334,11 +3354,11 @@
       <c r="B140" s="19">
         <v>5</v>
       </c>
-      <c r="C140" s="22" t="s">
-        <v>188</v>
+      <c r="C140" s="23" t="s">
+        <v>189</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="141" ht="27" spans="1:4">
@@ -3346,47 +3366,47 @@
       <c r="B141" s="19">
         <v>2</v>
       </c>
-      <c r="C141" s="22" t="s">
-        <v>190</v>
+      <c r="C141" s="23" t="s">
+        <v>191</v>
       </c>
       <c r="D141" s="11"/>
     </row>
     <row r="142" ht="123.75" spans="1:4">
-      <c r="A142" s="23"/>
+      <c r="A142" s="24"/>
       <c r="B142" s="19">
         <v>5</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="143" ht="27" spans="1:4">
-      <c r="A143" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="B143" s="25"/>
+      <c r="A143" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B143" s="26"/>
       <c r="C143" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D143" s="12"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="24"/>
-      <c r="B144" s="25"/>
+      <c r="A144" s="25"/>
+      <c r="B144" s="26"/>
       <c r="C144" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D144" s="12"/>
     </row>
     <row r="145" ht="25.5" spans="1:3">
       <c r="A145" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="146" ht="152.25" spans="2:4">
@@ -3394,10 +3414,10 @@
         <v>5</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="147" ht="39.75" spans="2:4">
@@ -3405,10 +3425,10 @@
         <v>5</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3421,7 +3441,7 @@
     <mergeCell ref="A86:A142"/>
     <mergeCell ref="A143:A144"/>
   </mergeCells>
-  <conditionalFormatting sqref="B116:B1048576 B1:B114 B115">
+  <conditionalFormatting sqref="B1:B115 B116:B1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13290"/>
+    <workbookView windowWidth="15120" windowHeight="25890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209">
   <si>
     <t>Scope</t>
   </si>
@@ -104,6 +104,9 @@
     <t>feature engine</t>
   </si>
   <si>
+    <t>Frequency principle: Fourier analysis sheds light on deep nerual networks</t>
+  </si>
+  <si>
     <t>rethink imagenet pre-train</t>
   </si>
   <si>
@@ -135,6 +138,9 @@
   </si>
   <si>
     <t>Deep Sparse Rectifier Neural Networks(提出ReLU)</t>
+  </si>
+  <si>
+    <t>Between-class Learning for image Classification</t>
   </si>
   <si>
     <t>In-Place Activated BatchNorm for Memory-Optimized Training of DNNs</t>
@@ -355,6 +361,12 @@
     <t>Decoupled classification reifinement, hard false positive suppresion for object detection</t>
   </si>
   <si>
+    <t>MetaAnchor_learining to Detect Objects with Customized Anchors</t>
+  </si>
+  <si>
+    <t>Gradient Harmonized Single-stage Detector</t>
+  </si>
+  <si>
     <t>Relation Networks for Object Detection</t>
   </si>
   <si>
@@ -534,6 +546,12 @@
 由于GCN主要提升的是object内部的分类效果，针对边界，提出了boundary refinement module</t>
   </si>
   <si>
+    <t>Recurrent Pixel Embedding for Instance Grouping</t>
+  </si>
+  <si>
+    <t>Semantic Instance Segmentation via Deep Metric Learning</t>
+  </si>
+  <si>
     <t>Semantic Instance Segmentation with a Discriminative Loss Function</t>
   </si>
   <si>
@@ -603,9 +621,6 @@
   </si>
   <si>
     <t>预测路面的坐标系， 用IPM把feature map投影到top-view，然后，以w方向的每个点代表的直线为anchor，直接回归出对于该直线的修正值和概率，作为车道线的预测。。。赞！！</t>
-  </si>
-  <si>
-    <t>Multiple Encoder-Decoders Net for Lane Detection</t>
   </si>
   <si>
     <t>EL-GAN: Embedding Loss Driven Generative Adversarial Networks for Lane Detection</t>
@@ -640,6 +655,9 @@
   </si>
   <si>
     <t>joint segmentation and detection</t>
+  </si>
+  <si>
+    <t>An overview of multi-task learning in deep neural networks</t>
   </si>
   <si>
     <t>Multinet: Realtime joint semantic reasoning for autonomous driving（检测， 语意分割融合的多任务模型）</t>
@@ -738,8 +756,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,32 +772,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -792,30 +795,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -829,14 +827,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,6 +849,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -866,19 +878,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -909,7 +927,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,31 +969,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,7 +1011,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,7 +1023,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,43 +1089,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,61 +1107,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,6 +1173,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1166,9 +1238,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,219 +1264,163 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1454,6 +1472,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1463,8 +1487,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1478,10 +1502,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1841,12 +1868,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1930,7 +1957,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>12</v>
@@ -2045,74 +2072,74 @@
       </c>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" ht="37" customHeight="1" spans="1:4">
-      <c r="A18" s="9" t="s">
+    <row r="18" ht="25.5" spans="1:4">
+      <c r="A18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="10">
-        <v>5</v>
+      <c r="B18" s="16">
+        <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" ht="37" customHeight="1" spans="1:4">
+      <c r="A19" s="17"/>
+      <c r="B19" s="10">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="16">
+      <c r="D19" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="17"/>
+      <c r="B20" s="16">
         <v>3</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="9"/>
-      <c r="B20" s="14">
-        <v>5</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" ht="28.5" spans="1:4">
-      <c r="A21" s="9"/>
+    <row r="21" spans="1:4">
+      <c r="A21" s="17"/>
       <c r="B21" s="14">
         <v>5</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" ht="28.5" spans="1:4">
+      <c r="A22" s="17"/>
+      <c r="B22" s="14">
+        <v>5</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" ht="25.5" spans="1:4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="16">
-        <v>3</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="11"/>
     </row>
     <row r="23" ht="25.5" spans="1:4">
-      <c r="A23" s="9"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="16">
         <v>3</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="11"/>
     </row>
     <row r="24" ht="25.5" spans="1:4">
-      <c r="A24" s="9"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="16">
         <v>3</v>
       </c>
@@ -2122,7 +2149,7 @@
       <c r="D24" s="11"/>
     </row>
     <row r="25" ht="25.5" spans="1:4">
-      <c r="A25" s="9"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="16">
         <v>3</v>
       </c>
@@ -2131,102 +2158,100 @@
       </c>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" ht="14.25" spans="1:4">
-      <c r="A26" s="9"/>
+    <row r="26" ht="25.5" spans="1:4">
+      <c r="A26" s="17"/>
       <c r="B26" s="16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="9"/>
+    <row r="27" ht="14.25" spans="1:4">
+      <c r="A27" s="17"/>
       <c r="B27" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" ht="25.5" spans="1:4">
-      <c r="A28" s="9"/>
+    <row r="28" spans="1:4">
+      <c r="A28" s="17"/>
       <c r="B28" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" ht="82.5" spans="1:4">
-      <c r="A29" s="9"/>
-      <c r="B29" s="14">
-        <v>5</v>
+    <row r="29" ht="25.5" spans="1:4">
+      <c r="A29" s="17"/>
+      <c r="B29" s="16">
+        <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" ht="25.5" spans="1:4">
-      <c r="A30" s="9"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" ht="82.5" spans="1:4">
+      <c r="A30" s="17"/>
       <c r="B30" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="11"/>
+      <c r="D30" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="31" ht="25.5" spans="1:4">
-      <c r="A31" s="9"/>
-      <c r="B31" s="16">
-        <v>2</v>
+      <c r="A31" s="17"/>
+      <c r="B31" s="14">
+        <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31" s="11"/>
     </row>
     <row r="32" ht="25.5" spans="1:4">
-      <c r="A32" s="9"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D32" s="11"/>
     </row>
     <row r="33" ht="25.5" spans="1:4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="16">
-        <v>1</v>
+      <c r="A33" s="17"/>
+      <c r="B33" s="18">
+        <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" ht="84" spans="1:4">
-      <c r="A34" s="9"/>
-      <c r="B34" s="14">
+    <row r="34" ht="25.5" spans="1:4">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18">
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" ht="28.5" spans="1:4">
-      <c r="A35" s="9"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" ht="84" spans="1:4">
+      <c r="A35" s="17"/>
       <c r="B35" s="14">
         <v>5</v>
       </c>
@@ -2237,165 +2262,167 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="9"/>
-      <c r="B36" s="16">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="36" ht="28.5" spans="1:4">
+      <c r="A36" s="17"/>
+      <c r="B36" s="14">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="11"/>
+      <c r="D36" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="9"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="16">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D37" s="11"/>
     </row>
-    <row r="38" ht="41.25" spans="1:4">
-      <c r="A38" s="9"/>
-      <c r="B38" s="14">
-        <v>5</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="11" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="17"/>
+      <c r="B38" s="16">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="39" ht="25.5" spans="1:4">
-      <c r="A39" s="9"/>
-      <c r="B39" s="16">
-        <v>2</v>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" ht="41.25" spans="1:4">
+      <c r="A39" s="17"/>
+      <c r="B39" s="14">
+        <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" ht="81" spans="1:4">
-      <c r="A40" s="9"/>
-      <c r="B40" s="14">
-        <v>5</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="D39" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="11" t="s">
+    </row>
+    <row r="40" ht="25.5" spans="1:4">
+      <c r="A40" s="17"/>
+      <c r="B40" s="16">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="41" ht="28.5" spans="1:4">
-      <c r="A41" s="9"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" ht="81" spans="1:4">
+      <c r="A41" s="17"/>
       <c r="B41" s="14">
         <v>5</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>57</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" ht="25.5" spans="1:4">
-      <c r="A42" s="9"/>
+    <row r="42" ht="28.5" spans="1:4">
+      <c r="A42" s="17"/>
       <c r="B42" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="9"/>
-      <c r="B43" s="16">
-        <v>1</v>
+      <c r="D42" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" ht="25.5" spans="1:4">
+      <c r="A43" s="17"/>
+      <c r="B43" s="18">
+        <v>5</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D43" s="11"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="9"/>
-      <c r="B44" s="16">
-        <v>2</v>
+      <c r="A44" s="17"/>
+      <c r="B44" s="18">
+        <v>5</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D44" s="11"/>
     </row>
-    <row r="45" ht="53" customHeight="1" spans="1:4">
-      <c r="A45" s="9"/>
-      <c r="B45" s="14">
-        <v>5</v>
+    <row r="45" spans="1:4">
+      <c r="A45" s="17"/>
+      <c r="B45" s="16">
+        <v>2</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="46" ht="41" customHeight="1" spans="1:4">
-      <c r="A46" s="9"/>
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" ht="53" customHeight="1" spans="1:4">
+      <c r="A46" s="17"/>
       <c r="B46" s="14">
         <v>5</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" ht="25.5" spans="1:4">
-      <c r="A47" s="9" t="s">
+    <row r="47" ht="41" customHeight="1" spans="1:4">
+      <c r="A47" s="17"/>
+      <c r="B47" s="14">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="14">
-        <v>2</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="11"/>
     </row>
     <row r="48" ht="25.5" spans="1:4">
-      <c r="A48" s="9"/>
+      <c r="A48" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="B48" s="14">
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D48" s="11"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" ht="25.5" spans="1:4">
       <c r="A49" s="9"/>
       <c r="B49" s="14">
         <v>2</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" ht="25.5" spans="1:4">
+    <row r="50" spans="1:4">
       <c r="A50" s="9"/>
       <c r="B50" s="14">
         <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D50" s="11"/>
     </row>
@@ -2405,71 +2432,65 @@
         <v>2</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D51" s="11"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" ht="25.5" spans="1:4">
       <c r="A52" s="9"/>
       <c r="B52" s="14">
-        <v>5</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>72</v>
+        <v>2</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="F52" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="9"/>
       <c r="B53" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D53" s="11"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-    </row>
-    <row r="54" ht="52.5" spans="1:7">
+      <c r="F53" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="9"/>
-      <c r="B54" s="16">
+      <c r="B54" s="14">
         <v>2</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="F54" s="1">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" ht="25.5" spans="1:7">
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+    </row>
+    <row r="55" ht="52.5" spans="1:7">
       <c r="A55" s="9"/>
       <c r="B55" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>77</v>
       </c>
       <c r="D55" s="11"/>
       <c r="F55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" ht="25.5" spans="1:7">
       <c r="A56" s="9"/>
       <c r="B56" s="16">
         <v>3</v>
@@ -2479,7 +2500,7 @@
       </c>
       <c r="D56" s="11"/>
       <c r="F56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" t="s">
         <v>80</v>
@@ -2495,13 +2516,13 @@
       </c>
       <c r="D57" s="11"/>
       <c r="F57" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:7">
       <c r="A58" s="9"/>
       <c r="B58" s="16">
         <v>3</v>
@@ -2510,38 +2531,44 @@
         <v>83</v>
       </c>
       <c r="D58" s="11"/>
-    </row>
-    <row r="59" ht="25.5" spans="1:4">
+      <c r="F58" s="1">
+        <v>3</v>
+      </c>
+      <c r="G58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="9"/>
       <c r="B59" s="16">
         <v>3</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" ht="42.75" spans="1:4">
+    <row r="60" ht="25.5" spans="1:4">
       <c r="A60" s="9"/>
-      <c r="B60" s="10">
-        <v>5</v>
+      <c r="B60" s="16">
+        <v>3</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="61" ht="25.5" spans="1:4">
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61" ht="42.75" spans="1:4">
       <c r="A61" s="9"/>
-      <c r="B61" s="16">
-        <v>3</v>
+      <c r="B61" s="10">
+        <v>5</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="11"/>
+      <c r="D61" s="11" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="62" ht="25.5" spans="1:4">
       <c r="A62" s="9"/>
@@ -2549,39 +2576,39 @@
         <v>3</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D62" s="11"/>
     </row>
-    <row r="63" ht="84" spans="1:4">
+    <row r="63" ht="25.5" spans="1:4">
       <c r="A63" s="9"/>
-      <c r="B63" s="10">
-        <v>5</v>
+      <c r="B63" s="16">
+        <v>3</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="D63" s="11"/>
+    </row>
+    <row r="64" ht="84" spans="1:4">
       <c r="A64" s="9"/>
       <c r="B64" s="10">
-        <v>2</v>
-      </c>
-      <c r="C64" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D64" s="11"/>
-    </row>
-    <row r="65" ht="25.5" spans="1:4">
+      <c r="D64" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="9"/>
-      <c r="B65" s="16">
-        <v>2</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>92</v>
+      <c r="B65" s="10">
+        <v>2</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="D65" s="11"/>
     </row>
@@ -2591,17 +2618,17 @@
         <v>2</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D66" s="11"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" ht="25.5" spans="1:4">
       <c r="A67" s="9"/>
       <c r="B67" s="16">
         <v>2</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D67" s="11"/>
     </row>
@@ -2611,37 +2638,37 @@
         <v>2</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D68" s="11"/>
     </row>
-    <row r="69" ht="25.5" spans="1:4">
+    <row r="69" spans="1:4">
       <c r="A69" s="9"/>
       <c r="B69" s="16">
         <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D69" s="11"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" ht="25.5" spans="1:4">
       <c r="A70" s="9"/>
       <c r="B70" s="16">
         <v>2</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D70" s="11"/>
     </row>
-    <row r="71" ht="25.5" spans="1:4">
+    <row r="71" spans="1:4">
       <c r="A71" s="9"/>
       <c r="B71" s="16">
         <v>2</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D71" s="11"/>
     </row>
@@ -2651,7 +2678,7 @@
         <v>2</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D72" s="11"/>
     </row>
@@ -2661,49 +2688,49 @@
         <v>2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D73" s="11"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" ht="25.5" spans="1:4">
       <c r="A74" s="9"/>
       <c r="B74" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D74" s="11"/>
     </row>
-    <row r="75" ht="42.75" spans="1:4">
+    <row r="75" spans="1:4">
       <c r="A75" s="9"/>
-      <c r="B75" s="10">
-        <v>5</v>
+      <c r="B75" s="16">
+        <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D75" s="11" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="76" ht="25.5" spans="1:4">
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" ht="42.75" spans="1:4">
       <c r="A76" s="9"/>
-      <c r="B76" s="16">
-        <v>2</v>
+      <c r="B76" s="10">
+        <v>5</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D76" s="11"/>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="D76" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" spans="1:4">
       <c r="A77" s="9"/>
-      <c r="B77" s="10">
+      <c r="B77" s="16">
         <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D77" s="11"/>
     </row>
@@ -2713,57 +2740,57 @@
         <v>2</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D78" s="11"/>
     </row>
-    <row r="79" ht="25.5" spans="1:4">
+    <row r="79" spans="1:4">
       <c r="A79" s="9"/>
       <c r="B79" s="10">
         <v>2</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D79" s="11"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" ht="25.5" spans="1:4">
       <c r="A80" s="9"/>
-      <c r="B80" s="16">
+      <c r="B80" s="10">
         <v>1</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D80" s="11"/>
     </row>
     <row r="81" ht="25.5" spans="1:4">
       <c r="A81" s="9"/>
-      <c r="B81" s="16">
+      <c r="B81" s="10">
         <v>1</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D81" s="11"/>
     </row>
-    <row r="82" ht="25.5" spans="1:4">
+    <row r="82" spans="1:4">
       <c r="A82" s="9"/>
-      <c r="B82" s="16">
+      <c r="B82" s="10">
         <v>1</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D82" s="11"/>
     </row>
-    <row r="83" ht="25.5" spans="1:4">
+    <row r="83" spans="1:4">
       <c r="A83" s="9"/>
       <c r="B83" s="16">
         <v>1</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D83" s="11"/>
     </row>
@@ -2772,160 +2799,158 @@
       <c r="B84" s="16">
         <v>1</v>
       </c>
-      <c r="C84" s="11" t="s">
-        <v>112</v>
+      <c r="C84" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D84" s="11"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" ht="25.5" spans="1:4">
       <c r="A85" s="9"/>
       <c r="B85" s="16">
         <v>1</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>113</v>
+      <c r="C85" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D85" s="11"/>
     </row>
     <row r="86" ht="25.5" spans="1:4">
-      <c r="A86" s="18" t="s">
-        <v>114</v>
-      </c>
+      <c r="A86" s="9"/>
       <c r="B86" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D86" s="11"/>
     </row>
-    <row r="87" ht="41.25" spans="1:4">
-      <c r="A87" s="18"/>
-      <c r="B87" s="10">
-        <v>5</v>
+    <row r="87" ht="25.5" spans="1:4">
+      <c r="A87" s="9"/>
+      <c r="B87" s="16">
+        <v>1</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>116</v>
       </c>
       <c r="D87" s="11"/>
     </row>
-    <row r="88" ht="54" spans="1:4">
-      <c r="A88" s="18"/>
-      <c r="B88" s="10">
-        <v>6</v>
+    <row r="88" spans="1:4">
+      <c r="A88" s="9"/>
+      <c r="B88" s="16">
+        <v>1</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="11"/>
+    </row>
+    <row r="89" ht="25.5" spans="1:4">
+      <c r="A89" s="20" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="89" ht="14.25" spans="1:4">
-      <c r="A89" s="18"/>
-      <c r="B89" s="19">
-        <v>5</v>
-      </c>
-      <c r="C89" s="11" t="s">
+      <c r="B89" s="16">
+        <v>2</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="11"/>
+    </row>
+    <row r="90" ht="41.25" spans="1:4">
+      <c r="A90" s="20"/>
+      <c r="B90" s="10">
+        <v>5</v>
+      </c>
+      <c r="C90" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="90" ht="28.5" spans="1:4">
-      <c r="A90" s="18"/>
-      <c r="B90" s="19">
-        <v>5</v>
-      </c>
-      <c r="C90" s="11" t="s">
+      <c r="D90" s="11"/>
+    </row>
+    <row r="91" ht="54" spans="1:4">
+      <c r="A91" s="20"/>
+      <c r="B91" s="10">
+        <v>6</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D91" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="91" ht="25.5" spans="1:4">
-      <c r="A91" s="18"/>
-      <c r="B91" s="19">
-        <v>1</v>
-      </c>
-      <c r="C91" s="11" t="s">
+    <row r="92" ht="14.25" spans="1:4">
+      <c r="A92" s="20"/>
+      <c r="B92" s="21">
+        <v>5</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D91" s="11"/>
-    </row>
-    <row r="92" ht="96.75" spans="1:4">
-      <c r="A92" s="18"/>
-      <c r="B92" s="19">
-        <v>5</v>
-      </c>
-      <c r="C92" s="11" t="s">
+      <c r="D92" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D92" s="11" t="s">
+    </row>
+    <row r="93" ht="28.5" spans="1:4">
+      <c r="A93" s="20"/>
+      <c r="B93" s="21">
+        <v>5</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="93" ht="96.75" spans="1:4">
-      <c r="A93" s="18"/>
-      <c r="B93" s="19">
-        <v>5</v>
-      </c>
-      <c r="C93" s="11" t="s">
+      <c r="D93" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D93" s="11" t="s">
+    </row>
+    <row r="94" ht="25.5" spans="1:4">
+      <c r="A94" s="20"/>
+      <c r="B94" s="21">
+        <v>1</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="94" ht="55.5" spans="1:4">
-      <c r="A94" s="18"/>
-      <c r="B94" s="19">
-        <v>5</v>
-      </c>
-      <c r="C94" s="11" t="s">
+      <c r="D94" s="11"/>
+    </row>
+    <row r="95" ht="96.75" spans="1:4">
+      <c r="A95" s="20"/>
+      <c r="B95" s="21">
+        <v>5</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D95" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="95" ht="111" spans="1:4">
-      <c r="A95" s="18"/>
-      <c r="B95" s="19">
-        <v>5</v>
-      </c>
-      <c r="C95" s="11" t="s">
+    <row r="96" ht="96.75" spans="1:4">
+      <c r="A96" s="20"/>
+      <c r="B96" s="21">
+        <v>5</v>
+      </c>
+      <c r="C96" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D96" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="18"/>
-      <c r="B96" s="19">
-        <v>5</v>
-      </c>
-      <c r="C96" s="11" t="s">
+    <row r="97" ht="55.5" spans="1:4">
+      <c r="A97" s="20"/>
+      <c r="B97" s="21">
+        <v>5</v>
+      </c>
+      <c r="C97" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D96" s="11"/>
-    </row>
-    <row r="97" ht="27" spans="1:4">
-      <c r="A97" s="18"/>
-      <c r="B97" s="19">
-        <v>5</v>
-      </c>
-      <c r="C97" s="11" t="s">
+      <c r="D97" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D97" s="11"/>
-    </row>
-    <row r="98" ht="41.25" spans="1:4">
-      <c r="A98" s="18"/>
-      <c r="B98" s="19">
+    </row>
+    <row r="98" ht="111" spans="1:4">
+      <c r="A98" s="20"/>
+      <c r="B98" s="21">
         <v>5</v>
       </c>
       <c r="C98" s="11" t="s">
@@ -2935,402 +2960,422 @@
         <v>135</v>
       </c>
     </row>
-    <row r="99" ht="25.5" spans="1:4">
-      <c r="A99" s="18"/>
-      <c r="B99" s="19">
-        <v>2</v>
-      </c>
-      <c r="C99" s="12" t="s">
+    <row r="99" spans="1:4">
+      <c r="A99" s="20"/>
+      <c r="B99" s="21">
+        <v>5</v>
+      </c>
+      <c r="C99" s="11" t="s">
         <v>136</v>
       </c>
       <c r="D99" s="11"/>
     </row>
-    <row r="100" ht="25.5" spans="1:4">
-      <c r="A100" s="18"/>
-      <c r="B100" s="19">
-        <v>2</v>
-      </c>
-      <c r="C100" s="12" t="s">
+    <row r="100" ht="27" spans="1:4">
+      <c r="A100" s="20"/>
+      <c r="B100" s="21">
+        <v>5</v>
+      </c>
+      <c r="C100" s="11" t="s">
         <v>137</v>
       </c>
       <c r="D100" s="11"/>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="18"/>
-      <c r="B101" s="19">
-        <v>1</v>
-      </c>
-      <c r="C101" t="s">
+    <row r="101" ht="41.25" spans="1:4">
+      <c r="A101" s="20"/>
+      <c r="B101" s="21">
+        <v>5</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D101" s="11"/>
+      <c r="D101" s="11" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="102" ht="25.5" spans="1:4">
-      <c r="A102" s="18"/>
-      <c r="B102" s="19">
-        <v>2</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>139</v>
+      <c r="A102" s="20"/>
+      <c r="B102" s="21">
+        <v>2</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="D102" s="11"/>
     </row>
     <row r="103" ht="25.5" spans="1:4">
-      <c r="A103" s="18"/>
-      <c r="B103" s="19">
+      <c r="A103" s="20"/>
+      <c r="B103" s="21">
         <v>2</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D103" s="11"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="18"/>
-      <c r="B104" s="19">
-        <v>2</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>141</v>
+      <c r="A104" s="20"/>
+      <c r="B104" s="21">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>142</v>
       </c>
       <c r="D104" s="11"/>
     </row>
     <row r="105" ht="25.5" spans="1:4">
-      <c r="A105" s="18"/>
-      <c r="B105" s="19">
-        <v>2</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>142</v>
+      <c r="A105" s="20"/>
+      <c r="B105" s="21">
+        <v>2</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="D105" s="11"/>
     </row>
     <row r="106" ht="25.5" spans="1:4">
-      <c r="A106" s="18"/>
-      <c r="B106" s="19">
-        <v>5</v>
+      <c r="A106" s="20"/>
+      <c r="B106" s="21">
+        <v>2</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D106" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="107" ht="41.25" spans="1:4">
-      <c r="A107" s="18"/>
-      <c r="B107" s="19">
-        <v>5</v>
+      <c r="D106" s="11"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="20"/>
+      <c r="B107" s="21">
+        <v>2</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D107" s="11" t="s">
+      <c r="D107" s="11"/>
+    </row>
+    <row r="108" ht="25.5" spans="1:4">
+      <c r="A108" s="20"/>
+      <c r="B108" s="21">
+        <v>2</v>
+      </c>
+      <c r="C108" s="12" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="108" ht="160.5" spans="1:4">
-      <c r="A108" s="18"/>
-      <c r="B108" s="19">
-        <v>5</v>
-      </c>
-      <c r="C108" s="12" t="s">
+      <c r="D108" s="11"/>
+    </row>
+    <row r="109" ht="25.5" spans="1:4">
+      <c r="A109" s="20"/>
+      <c r="B109" s="21">
+        <v>5</v>
+      </c>
+      <c r="C109" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D109" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="109" ht="28.5" spans="1:4">
-      <c r="A109" s="18"/>
-      <c r="B109" s="19">
-        <v>5</v>
-      </c>
-      <c r="C109" s="12" t="s">
+    <row r="110" ht="41.25" spans="1:4">
+      <c r="A110" s="20"/>
+      <c r="B110" s="21">
+        <v>5</v>
+      </c>
+      <c r="C110" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D110" s="11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="110" ht="57" spans="1:4">
-      <c r="A110" s="18"/>
-      <c r="B110" s="19">
-        <v>5</v>
-      </c>
-      <c r="C110" s="12" t="s">
+    <row r="111" ht="160.5" spans="1:4">
+      <c r="A111" s="20"/>
+      <c r="B111" s="21">
+        <v>5</v>
+      </c>
+      <c r="C111" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="D111" s="11" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="111" ht="57" spans="1:4">
-      <c r="A111" s="18"/>
-      <c r="B111" s="19">
-        <v>5</v>
-      </c>
-      <c r="C111" s="12" t="s">
+    <row r="112" ht="28.5" spans="1:4">
+      <c r="A112" s="20"/>
+      <c r="B112" s="21">
+        <v>5</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D112" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="18"/>
-      <c r="B112" s="19">
-        <v>2</v>
-      </c>
-      <c r="C112" s="2" t="s">
+    <row r="113" ht="57" spans="1:4">
+      <c r="A113" s="20"/>
+      <c r="B113" s="21">
+        <v>5</v>
+      </c>
+      <c r="C113" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D112" s="11"/>
-    </row>
-    <row r="113" ht="25.5" spans="1:4">
-      <c r="A113" s="18"/>
-      <c r="B113" s="19">
-        <v>2</v>
-      </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D113" s="11"/>
     </row>
     <row r="114" ht="57" spans="1:4">
-      <c r="A114" s="18"/>
-      <c r="B114" s="20">
-        <v>5</v>
-      </c>
-      <c r="C114" s="2" t="s">
+      <c r="A114" s="20"/>
+      <c r="B114" s="21">
+        <v>5</v>
+      </c>
+      <c r="C114" s="12" t="s">
         <v>157</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="115" ht="69.75" spans="1:4">
-      <c r="A115" s="18"/>
-      <c r="B115" s="20">
-        <v>5</v>
+    <row r="115" spans="1:4">
+      <c r="A115" s="20"/>
+      <c r="B115" s="21">
+        <v>2</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="11"/>
+    </row>
+    <row r="116" ht="25.5" spans="1:4">
+      <c r="A116" s="20"/>
+      <c r="B116" s="21">
+        <v>2</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="116" ht="25.5" spans="1:4">
-      <c r="A116" s="18"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="11"/>
+    </row>
+    <row r="117" ht="57" spans="1:4">
+      <c r="A117" s="20"/>
+      <c r="B117" s="21">
+        <v>5</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D116" s="11"/>
-    </row>
-    <row r="117" ht="69.75" spans="1:4">
-      <c r="A117" s="18"/>
-      <c r="B117" s="19">
-        <v>5</v>
-      </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D117" s="11" t="s">
+    </row>
+    <row r="118" ht="69.75" spans="1:4">
+      <c r="A118" s="20"/>
+      <c r="B118" s="21">
+        <v>5</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="118" ht="38.25" spans="1:4">
-      <c r="A118" s="18"/>
-      <c r="B118" s="19">
-        <v>0</v>
-      </c>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D118" s="11"/>
-    </row>
-    <row r="119" ht="25.5" spans="1:4">
-      <c r="A119" s="18"/>
-      <c r="B119" s="19">
-        <v>0</v>
-      </c>
-      <c r="C119" s="2" t="s">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="20"/>
+      <c r="B119" s="21">
+        <v>1</v>
+      </c>
+      <c r="C119" s="22" t="s">
         <v>165</v>
       </c>
       <c r="D119" s="11"/>
     </row>
-    <row r="120" ht="27" spans="1:4">
-      <c r="A120" s="18"/>
-      <c r="B120" s="19">
-        <v>0</v>
-      </c>
-      <c r="C120" s="12" t="s">
+    <row r="120" ht="25.5" spans="1:4">
+      <c r="A120" s="20"/>
+      <c r="B120" s="21">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>166</v>
       </c>
       <c r="D120" s="11"/>
     </row>
     <row r="121" ht="25.5" spans="1:4">
-      <c r="A121" s="18"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="12" t="s">
+      <c r="A121" s="20"/>
+      <c r="B121" s="21">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D121" s="11"/>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="18"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="12" t="s">
+    <row r="122" ht="69.75" spans="1:4">
+      <c r="A122" s="20"/>
+      <c r="B122" s="21">
+        <v>5</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D122" s="11"/>
-    </row>
-    <row r="123" ht="27" spans="1:4">
-      <c r="A123" s="18"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="12" t="s">
+      <c r="D122" s="11" t="s">
         <v>169</v>
       </c>
+    </row>
+    <row r="123" ht="38.25" spans="1:4">
+      <c r="A123" s="20"/>
+      <c r="B123" s="21">
+        <v>1</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="D123" s="11"/>
     </row>
     <row r="124" ht="25.5" spans="1:4">
-      <c r="A124" s="18"/>
+      <c r="A124" s="20"/>
       <c r="B124" s="21">
         <v>1</v>
       </c>
-      <c r="C124" s="12" t="s">
-        <v>170</v>
+      <c r="C124" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="D124" s="11"/>
     </row>
-    <row r="125" ht="25.5" spans="1:4">
-      <c r="A125" s="18"/>
-      <c r="B125" s="19">
+    <row r="125" ht="27" spans="1:4">
+      <c r="A125" s="20"/>
+      <c r="B125" s="21">
         <v>1</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D125" s="11"/>
     </row>
     <row r="126" ht="25.5" spans="1:4">
-      <c r="A126" s="18"/>
-      <c r="B126" s="19">
+      <c r="A126" s="20"/>
+      <c r="B126" s="21">
         <v>1</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D126" s="11"/>
     </row>
-    <row r="127" ht="27" spans="1:4">
-      <c r="A127" s="18"/>
-      <c r="B127" s="19">
-        <v>0</v>
+    <row r="127" spans="1:4">
+      <c r="A127" s="20"/>
+      <c r="B127" s="21">
+        <v>1</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D127" s="11"/>
     </row>
-    <row r="128" ht="69.75" spans="1:4">
-      <c r="A128" s="18"/>
-      <c r="B128" s="19">
-        <v>5</v>
+    <row r="128" ht="27" spans="1:4">
+      <c r="A128" s="20"/>
+      <c r="B128" s="21">
+        <v>1</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D128" s="11" t="s">
         <v>175</v>
       </c>
+      <c r="D128" s="11"/>
     </row>
     <row r="129" ht="25.5" spans="1:4">
-      <c r="A129" s="18"/>
-      <c r="B129" s="19"/>
+      <c r="A129" s="20"/>
+      <c r="B129" s="23">
+        <v>1</v>
+      </c>
       <c r="C129" s="12" t="s">
         <v>176</v>
       </c>
       <c r="D129" s="11"/>
     </row>
-    <row r="130" ht="27" spans="1:4">
-      <c r="A130" s="18"/>
-      <c r="B130" s="19"/>
+    <row r="130" ht="25.5" spans="1:4">
+      <c r="A130" s="20"/>
+      <c r="B130" s="21">
+        <v>1</v>
+      </c>
       <c r="C130" s="12" t="s">
         <v>177</v>
       </c>
       <c r="D130" s="11"/>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="18"/>
-      <c r="B131" s="19"/>
+    <row r="131" ht="25.5" spans="1:4">
+      <c r="A131" s="20"/>
+      <c r="B131" s="21">
+        <v>1</v>
+      </c>
       <c r="C131" s="12" t="s">
         <v>178</v>
       </c>
       <c r="D131" s="11"/>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="18"/>
-      <c r="B132" s="19"/>
+    <row r="132" ht="27" spans="1:4">
+      <c r="A132" s="20"/>
+      <c r="B132" s="21">
+        <v>1</v>
+      </c>
       <c r="C132" s="12" t="s">
         <v>179</v>
       </c>
       <c r="D132" s="11"/>
     </row>
-    <row r="133" ht="25.5" spans="1:4">
-      <c r="A133" s="18"/>
-      <c r="B133" s="19">
+    <row r="133" ht="69.75" spans="1:4">
+      <c r="A133" s="20"/>
+      <c r="B133" s="21">
         <v>5</v>
       </c>
       <c r="C133" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D133" s="11"/>
+      <c r="D133" s="11" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="134" ht="25.5" spans="1:4">
-      <c r="A134" s="18"/>
-      <c r="B134" s="19"/>
+      <c r="A134" s="20"/>
+      <c r="B134" s="21">
+        <v>1</v>
+      </c>
       <c r="C134" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D134" s="11"/>
     </row>
-    <row r="135" ht="28.5" spans="1:4">
-      <c r="A135" s="18"/>
-      <c r="B135" s="19">
-        <v>5</v>
+    <row r="135" ht="27" spans="1:4">
+      <c r="A135" s="20"/>
+      <c r="B135" s="21">
+        <v>1</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D135" s="11" t="s">
         <v>183</v>
       </c>
+      <c r="D135" s="11"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="18"/>
-      <c r="B136" s="19"/>
+      <c r="A136" s="20"/>
+      <c r="B136" s="21">
+        <v>1</v>
+      </c>
       <c r="C136" s="12" t="s">
         <v>184</v>
       </c>
       <c r="D136" s="11"/>
     </row>
-    <row r="137" ht="24" spans="1:4">
-      <c r="A137" s="18"/>
-      <c r="B137" s="19">
-        <v>1</v>
-      </c>
-      <c r="C137" s="22" t="s">
+    <row r="137" spans="1:4">
+      <c r="A137" s="20"/>
+      <c r="B137" s="21">
+        <v>1</v>
+      </c>
+      <c r="C137" s="12" t="s">
         <v>185</v>
       </c>
       <c r="D137" s="11"/>
     </row>
     <row r="138" ht="25.5" spans="1:4">
-      <c r="A138" s="18"/>
-      <c r="B138" s="19">
-        <v>1</v>
+      <c r="A138" s="20"/>
+      <c r="B138" s="21">
+        <v>5</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>186</v>
@@ -3338,110 +3383,172 @@
       <c r="D138" s="11"/>
     </row>
     <row r="139" ht="25.5" spans="1:4">
-      <c r="A139" s="18"/>
-      <c r="B139" s="19">
-        <v>5</v>
+      <c r="A139" s="20"/>
+      <c r="B139" s="21">
+        <v>1</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="D139" s="11"/>
+    </row>
+    <row r="140" ht="28.5" spans="1:4">
+      <c r="A140" s="20"/>
+      <c r="B140" s="21">
+        <v>5</v>
+      </c>
+      <c r="C140" s="12" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="140" ht="55.5" spans="1:4">
-      <c r="A140" s="18"/>
-      <c r="B140" s="19">
-        <v>5</v>
-      </c>
-      <c r="C140" s="23" t="s">
+      <c r="D140" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D140" s="11" t="s">
+    </row>
+    <row r="141" ht="24" spans="1:4">
+      <c r="A141" s="20"/>
+      <c r="B141" s="21">
+        <v>1</v>
+      </c>
+      <c r="C141" s="24" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="141" ht="27" spans="1:4">
-      <c r="A141" s="18"/>
-      <c r="B141" s="19">
-        <v>2</v>
-      </c>
-      <c r="C141" s="23" t="s">
+      <c r="D141" s="11"/>
+    </row>
+    <row r="142" ht="25.5" spans="1:4">
+      <c r="A142" s="20"/>
+      <c r="B142" s="21">
+        <v>1</v>
+      </c>
+      <c r="C142" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D141" s="11"/>
-    </row>
-    <row r="142" ht="123.75" spans="1:4">
-      <c r="A142" s="24"/>
-      <c r="B142" s="19">
-        <v>5</v>
-      </c>
-      <c r="C142" s="11" t="s">
+      <c r="D142" s="11"/>
+    </row>
+    <row r="143" ht="25.5" spans="1:4">
+      <c r="A143" s="20"/>
+      <c r="B143" s="21">
+        <v>5</v>
+      </c>
+      <c r="C143" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D142" s="11" t="s">
+      <c r="D143" s="11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="143" ht="27" spans="1:4">
-      <c r="A143" s="25" t="s">
+    <row r="144" ht="55.5" spans="1:4">
+      <c r="A144" s="20"/>
+      <c r="B144" s="21">
+        <v>5</v>
+      </c>
+      <c r="C144" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="B143" s="26"/>
-      <c r="C143" s="12" t="s">
+      <c r="D144" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D143" s="12"/>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="25"/>
-      <c r="B144" s="26"/>
-      <c r="C144" s="12" t="s">
+    </row>
+    <row r="145" ht="27" spans="1:4">
+      <c r="A145" s="20"/>
+      <c r="B145" s="21">
+        <v>2</v>
+      </c>
+      <c r="C145" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="D144" s="12"/>
-    </row>
-    <row r="145" ht="25.5" spans="1:3">
-      <c r="A145" t="s">
+      <c r="D145" s="11"/>
+    </row>
+    <row r="146" ht="123.75" spans="1:4">
+      <c r="A146" s="26"/>
+      <c r="B146" s="21">
+        <v>5</v>
+      </c>
+      <c r="C146" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="D146" s="11" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="146" ht="152.25" spans="2:4">
-      <c r="B146" s="19">
-        <v>5</v>
-      </c>
-      <c r="C146" s="2" t="s">
+    <row r="147" ht="25.5" spans="1:4">
+      <c r="A147" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="B147" s="28">
+        <v>1</v>
+      </c>
+      <c r="C147" s="12" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="147" ht="39.75" spans="2:4">
-      <c r="B147" s="19">
-        <v>5</v>
-      </c>
-      <c r="C147" s="2" t="s">
+      <c r="D147" s="12"/>
+    </row>
+    <row r="148" ht="27" spans="1:4">
+      <c r="A148" s="27"/>
+      <c r="B148" s="28">
+        <v>1</v>
+      </c>
+      <c r="C148" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D148" s="12"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="27"/>
+      <c r="B149" s="28">
+        <v>1</v>
+      </c>
+      <c r="C149" s="12" t="s">
         <v>202</v>
       </c>
+      <c r="D149" s="12"/>
+    </row>
+    <row r="150" ht="25.5" spans="1:3">
+      <c r="A150" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="151" ht="152.25" spans="1:4">
+      <c r="A151" s="29"/>
+      <c r="B151" s="21">
+        <v>5</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="152" ht="39.75" spans="1:4">
+      <c r="A152" s="29"/>
+      <c r="B152" s="21">
+        <v>5</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>208</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A46"/>
-    <mergeCell ref="A47:A85"/>
-    <mergeCell ref="A86:A142"/>
-    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A18:A47"/>
+    <mergeCell ref="A48:A88"/>
+    <mergeCell ref="A89:A146"/>
+    <mergeCell ref="A147:A149"/>
+    <mergeCell ref="A150:A152"/>
   </mergeCells>
-  <conditionalFormatting sqref="B1:B115 B116:B1048576">
+  <conditionalFormatting sqref="B120:B1048576 B1:B118 B119">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3453,7 +3560,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C112" r:id="rId1" display="Panoptic Segmentation" tooltip="https://arxiv.org/abs/1801.00868"/>
+    <hyperlink ref="C115" r:id="rId1" display="Panoptic Segmentation" tooltip="https://arxiv.org/abs/1801.00868"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15120" windowHeight="25890"/>
+    <workbookView windowWidth="27720" windowHeight="13290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210">
   <si>
     <t>Scope</t>
   </si>
@@ -615,6 +615,10 @@
   </si>
   <si>
     <t>StripNet: Towards Topology Consistent Strip Structure Segmentation</t>
+  </si>
+  <si>
+    <t>提出了一种由粗到精检测带状特征的方法：粗检测先确定整个带状目标的边界（确定RoI)，精检测时，用RoIAlign把对应的feature取出来，再划分RoI内的边界细分；
+做label的方法很值得借鉴：gt_label边界是1个像素，train的时候，gt_label先用低通滤波一下（变成高斯分布的一条带）再train更容易减小错误</t>
   </si>
   <si>
     <t>3D-LaneNet_end-to-end 3D multiple lane detection</t>
@@ -695,11 +699,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,13 +740,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -764,6 +761,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -780,37 +799,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -834,23 +824,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,23 +874,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,6 +887,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -933,19 +930,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,31 +960,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,13 +990,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,19 +1014,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,25 +1038,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,37 +1098,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,7 +1189,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,30 +1205,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1262,6 +1235,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1275,152 +1272,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1472,12 +1469,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1487,28 +1478,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1871,9 +1856,9 @@
   <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -2073,7 +2058,7 @@
       <c r="D17" s="11"/>
     </row>
     <row r="18" ht="25.5" spans="1:4">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="16">
@@ -2085,7 +2070,7 @@
       <c r="D18" s="11"/>
     </row>
     <row r="19" ht="37" customHeight="1" spans="1:4">
-      <c r="A19" s="17"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="10">
         <v>5</v>
       </c>
@@ -2097,7 +2082,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="17"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="16">
         <v>3</v>
       </c>
@@ -2107,7 +2092,7 @@
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="17"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="14">
         <v>5</v>
       </c>
@@ -2117,7 +2102,7 @@
       <c r="D21" s="11"/>
     </row>
     <row r="22" ht="28.5" spans="1:4">
-      <c r="A22" s="17"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="14">
         <v>5</v>
       </c>
@@ -2129,7 +2114,7 @@
       </c>
     </row>
     <row r="23" ht="25.5" spans="1:4">
-      <c r="A23" s="17"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="16">
         <v>3</v>
       </c>
@@ -2139,7 +2124,7 @@
       <c r="D23" s="11"/>
     </row>
     <row r="24" ht="25.5" spans="1:4">
-      <c r="A24" s="17"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="16">
         <v>3</v>
       </c>
@@ -2149,7 +2134,7 @@
       <c r="D24" s="11"/>
     </row>
     <row r="25" ht="25.5" spans="1:4">
-      <c r="A25" s="17"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="16">
         <v>3</v>
       </c>
@@ -2159,7 +2144,7 @@
       <c r="D25" s="11"/>
     </row>
     <row r="26" ht="25.5" spans="1:4">
-      <c r="A26" s="17"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="16">
         <v>3</v>
       </c>
@@ -2169,7 +2154,7 @@
       <c r="D26" s="11"/>
     </row>
     <row r="27" ht="14.25" spans="1:4">
-      <c r="A27" s="17"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="16">
         <v>2</v>
       </c>
@@ -2179,7 +2164,7 @@
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="17"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="16">
         <v>2</v>
       </c>
@@ -2189,7 +2174,7 @@
       <c r="D28" s="11"/>
     </row>
     <row r="29" ht="25.5" spans="1:4">
-      <c r="A29" s="17"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="16">
         <v>2</v>
       </c>
@@ -2199,7 +2184,7 @@
       <c r="D29" s="11"/>
     </row>
     <row r="30" ht="82.5" spans="1:4">
-      <c r="A30" s="17"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="14">
         <v>5</v>
       </c>
@@ -2211,7 +2196,7 @@
       </c>
     </row>
     <row r="31" ht="25.5" spans="1:4">
-      <c r="A31" s="17"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="14">
         <v>1</v>
       </c>
@@ -2221,7 +2206,7 @@
       <c r="D31" s="11"/>
     </row>
     <row r="32" ht="25.5" spans="1:4">
-      <c r="A32" s="17"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="16">
         <v>2</v>
       </c>
@@ -2231,8 +2216,8 @@
       <c r="D32" s="11"/>
     </row>
     <row r="33" ht="25.5" spans="1:4">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18">
+      <c r="A33" s="9"/>
+      <c r="B33" s="14">
         <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2241,8 +2226,8 @@
       <c r="D33" s="11"/>
     </row>
     <row r="34" ht="25.5" spans="1:4">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18">
+      <c r="A34" s="9"/>
+      <c r="B34" s="14">
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2251,7 +2236,7 @@
       <c r="D34" s="11"/>
     </row>
     <row r="35" ht="84" spans="1:4">
-      <c r="A35" s="17"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="14">
         <v>5</v>
       </c>
@@ -2263,7 +2248,7 @@
       </c>
     </row>
     <row r="36" ht="28.5" spans="1:4">
-      <c r="A36" s="17"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="14">
         <v>5</v>
       </c>
@@ -2275,7 +2260,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="17"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="16">
         <v>2</v>
       </c>
@@ -2285,7 +2270,7 @@
       <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="17"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="16">
         <v>2</v>
       </c>
@@ -2295,7 +2280,7 @@
       <c r="D38" s="11"/>
     </row>
     <row r="39" ht="41.25" spans="1:4">
-      <c r="A39" s="17"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="14">
         <v>5</v>
       </c>
@@ -2307,7 +2292,7 @@
       </c>
     </row>
     <row r="40" ht="25.5" spans="1:4">
-      <c r="A40" s="17"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="16">
         <v>2</v>
       </c>
@@ -2317,7 +2302,7 @@
       <c r="D40" s="11"/>
     </row>
     <row r="41" ht="81" spans="1:4">
-      <c r="A41" s="17"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="14">
         <v>5</v>
       </c>
@@ -2329,7 +2314,7 @@
       </c>
     </row>
     <row r="42" ht="28.5" spans="1:4">
-      <c r="A42" s="17"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="14">
         <v>5</v>
       </c>
@@ -2341,8 +2326,8 @@
       </c>
     </row>
     <row r="43" ht="25.5" spans="1:4">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18">
+      <c r="A43" s="9"/>
+      <c r="B43" s="14">
         <v>5</v>
       </c>
       <c r="C43" s="12" t="s">
@@ -2351,8 +2336,8 @@
       <c r="D43" s="11"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="17"/>
-      <c r="B44" s="18">
+      <c r="A44" s="9"/>
+      <c r="B44" s="14">
         <v>5</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -2361,7 +2346,7 @@
       <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="17"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="16">
         <v>2</v>
       </c>
@@ -2371,7 +2356,7 @@
       <c r="D45" s="11"/>
     </row>
     <row r="46" ht="53" customHeight="1" spans="1:4">
-      <c r="A46" s="17"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="14">
         <v>5</v>
       </c>
@@ -2383,7 +2368,7 @@
       </c>
     </row>
     <row r="47" ht="41" customHeight="1" spans="1:4">
-      <c r="A47" s="17"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="14">
         <v>5</v>
       </c>
@@ -2455,10 +2440,10 @@
         <v>74</v>
       </c>
       <c r="D53" s="11"/>
-      <c r="F53" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G53" s="19" t="s">
+      <c r="F53" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="17" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2471,8 +2456,8 @@
         <v>76</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
     </row>
     <row r="55" ht="52.5" spans="1:7">
       <c r="A55" s="9"/>
@@ -2845,7 +2830,7 @@
       <c r="D88" s="11"/>
     </row>
     <row r="89" ht="25.5" spans="1:4">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="18" t="s">
         <v>118</v>
       </c>
       <c r="B89" s="16">
@@ -2857,7 +2842,7 @@
       <c r="D89" s="11"/>
     </row>
     <row r="90" ht="41.25" spans="1:4">
-      <c r="A90" s="20"/>
+      <c r="A90" s="18"/>
       <c r="B90" s="10">
         <v>5</v>
       </c>
@@ -2867,7 +2852,7 @@
       <c r="D90" s="11"/>
     </row>
     <row r="91" ht="54" spans="1:4">
-      <c r="A91" s="20"/>
+      <c r="A91" s="18"/>
       <c r="B91" s="10">
         <v>6</v>
       </c>
@@ -2879,8 +2864,8 @@
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:4">
-      <c r="A92" s="20"/>
-      <c r="B92" s="21">
+      <c r="A92" s="18"/>
+      <c r="B92" s="19">
         <v>5</v>
       </c>
       <c r="C92" s="11" t="s">
@@ -2891,8 +2876,8 @@
       </c>
     </row>
     <row r="93" ht="28.5" spans="1:4">
-      <c r="A93" s="20"/>
-      <c r="B93" s="21">
+      <c r="A93" s="18"/>
+      <c r="B93" s="19">
         <v>5</v>
       </c>
       <c r="C93" s="11" t="s">
@@ -2903,8 +2888,8 @@
       </c>
     </row>
     <row r="94" ht="25.5" spans="1:4">
-      <c r="A94" s="20"/>
-      <c r="B94" s="21">
+      <c r="A94" s="18"/>
+      <c r="B94" s="19">
         <v>1</v>
       </c>
       <c r="C94" s="11" t="s">
@@ -2913,8 +2898,8 @@
       <c r="D94" s="11"/>
     </row>
     <row r="95" ht="96.75" spans="1:4">
-      <c r="A95" s="20"/>
-      <c r="B95" s="21">
+      <c r="A95" s="18"/>
+      <c r="B95" s="19">
         <v>5</v>
       </c>
       <c r="C95" s="11" t="s">
@@ -2925,8 +2910,8 @@
       </c>
     </row>
     <row r="96" ht="96.75" spans="1:4">
-      <c r="A96" s="20"/>
-      <c r="B96" s="21">
+      <c r="A96" s="18"/>
+      <c r="B96" s="19">
         <v>5</v>
       </c>
       <c r="C96" s="11" t="s">
@@ -2937,8 +2922,8 @@
       </c>
     </row>
     <row r="97" ht="55.5" spans="1:4">
-      <c r="A97" s="20"/>
-      <c r="B97" s="21">
+      <c r="A97" s="18"/>
+      <c r="B97" s="19">
         <v>5</v>
       </c>
       <c r="C97" s="11" t="s">
@@ -2949,8 +2934,8 @@
       </c>
     </row>
     <row r="98" ht="111" spans="1:4">
-      <c r="A98" s="20"/>
-      <c r="B98" s="21">
+      <c r="A98" s="18"/>
+      <c r="B98" s="19">
         <v>5</v>
       </c>
       <c r="C98" s="11" t="s">
@@ -2961,8 +2946,8 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="20"/>
-      <c r="B99" s="21">
+      <c r="A99" s="18"/>
+      <c r="B99" s="19">
         <v>5</v>
       </c>
       <c r="C99" s="11" t="s">
@@ -2971,8 +2956,8 @@
       <c r="D99" s="11"/>
     </row>
     <row r="100" ht="27" spans="1:4">
-      <c r="A100" s="20"/>
-      <c r="B100" s="21">
+      <c r="A100" s="18"/>
+      <c r="B100" s="19">
         <v>5</v>
       </c>
       <c r="C100" s="11" t="s">
@@ -2981,8 +2966,8 @@
       <c r="D100" s="11"/>
     </row>
     <row r="101" ht="41.25" spans="1:4">
-      <c r="A101" s="20"/>
-      <c r="B101" s="21">
+      <c r="A101" s="18"/>
+      <c r="B101" s="19">
         <v>5</v>
       </c>
       <c r="C101" s="11" t="s">
@@ -2993,8 +2978,8 @@
       </c>
     </row>
     <row r="102" ht="25.5" spans="1:4">
-      <c r="A102" s="20"/>
-      <c r="B102" s="21">
+      <c r="A102" s="18"/>
+      <c r="B102" s="19">
         <v>2</v>
       </c>
       <c r="C102" s="12" t="s">
@@ -3003,8 +2988,8 @@
       <c r="D102" s="11"/>
     </row>
     <row r="103" ht="25.5" spans="1:4">
-      <c r="A103" s="20"/>
-      <c r="B103" s="21">
+      <c r="A103" s="18"/>
+      <c r="B103" s="19">
         <v>2</v>
       </c>
       <c r="C103" s="12" t="s">
@@ -3013,8 +2998,8 @@
       <c r="D103" s="11"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="20"/>
-      <c r="B104" s="21">
+      <c r="A104" s="18"/>
+      <c r="B104" s="19">
         <v>1</v>
       </c>
       <c r="C104" t="s">
@@ -3023,8 +3008,8 @@
       <c r="D104" s="11"/>
     </row>
     <row r="105" ht="25.5" spans="1:4">
-      <c r="A105" s="20"/>
-      <c r="B105" s="21">
+      <c r="A105" s="18"/>
+      <c r="B105" s="19">
         <v>2</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -3033,8 +3018,8 @@
       <c r="D105" s="11"/>
     </row>
     <row r="106" ht="25.5" spans="1:4">
-      <c r="A106" s="20"/>
-      <c r="B106" s="21">
+      <c r="A106" s="18"/>
+      <c r="B106" s="19">
         <v>2</v>
       </c>
       <c r="C106" s="12" t="s">
@@ -3043,8 +3028,8 @@
       <c r="D106" s="11"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="20"/>
-      <c r="B107" s="21">
+      <c r="A107" s="18"/>
+      <c r="B107" s="19">
         <v>2</v>
       </c>
       <c r="C107" s="12" t="s">
@@ -3053,8 +3038,8 @@
       <c r="D107" s="11"/>
     </row>
     <row r="108" ht="25.5" spans="1:4">
-      <c r="A108" s="20"/>
-      <c r="B108" s="21">
+      <c r="A108" s="18"/>
+      <c r="B108" s="19">
         <v>2</v>
       </c>
       <c r="C108" s="12" t="s">
@@ -3063,8 +3048,8 @@
       <c r="D108" s="11"/>
     </row>
     <row r="109" ht="25.5" spans="1:4">
-      <c r="A109" s="20"/>
-      <c r="B109" s="21">
+      <c r="A109" s="18"/>
+      <c r="B109" s="19">
         <v>5</v>
       </c>
       <c r="C109" s="12" t="s">
@@ -3075,8 +3060,8 @@
       </c>
     </row>
     <row r="110" ht="41.25" spans="1:4">
-      <c r="A110" s="20"/>
-      <c r="B110" s="21">
+      <c r="A110" s="18"/>
+      <c r="B110" s="19">
         <v>5</v>
       </c>
       <c r="C110" s="12" t="s">
@@ -3087,8 +3072,8 @@
       </c>
     </row>
     <row r="111" ht="160.5" spans="1:4">
-      <c r="A111" s="20"/>
-      <c r="B111" s="21">
+      <c r="A111" s="18"/>
+      <c r="B111" s="19">
         <v>5</v>
       </c>
       <c r="C111" s="12" t="s">
@@ -3099,8 +3084,8 @@
       </c>
     </row>
     <row r="112" ht="28.5" spans="1:4">
-      <c r="A112" s="20"/>
-      <c r="B112" s="21">
+      <c r="A112" s="18"/>
+      <c r="B112" s="19">
         <v>5</v>
       </c>
       <c r="C112" s="12" t="s">
@@ -3111,8 +3096,8 @@
       </c>
     </row>
     <row r="113" ht="57" spans="1:4">
-      <c r="A113" s="20"/>
-      <c r="B113" s="21">
+      <c r="A113" s="18"/>
+      <c r="B113" s="19">
         <v>5</v>
       </c>
       <c r="C113" s="12" t="s">
@@ -3123,8 +3108,8 @@
       </c>
     </row>
     <row r="114" ht="57" spans="1:4">
-      <c r="A114" s="20"/>
-      <c r="B114" s="21">
+      <c r="A114" s="18"/>
+      <c r="B114" s="19">
         <v>5</v>
       </c>
       <c r="C114" s="12" t="s">
@@ -3135,8 +3120,8 @@
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="20"/>
-      <c r="B115" s="21">
+      <c r="A115" s="18"/>
+      <c r="B115" s="19">
         <v>2</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -3145,8 +3130,8 @@
       <c r="D115" s="11"/>
     </row>
     <row r="116" ht="25.5" spans="1:4">
-      <c r="A116" s="20"/>
-      <c r="B116" s="21">
+      <c r="A116" s="18"/>
+      <c r="B116" s="19">
         <v>2</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -3155,8 +3140,8 @@
       <c r="D116" s="11"/>
     </row>
     <row r="117" ht="57" spans="1:4">
-      <c r="A117" s="20"/>
-      <c r="B117" s="21">
+      <c r="A117" s="18"/>
+      <c r="B117" s="19">
         <v>5</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -3167,8 +3152,8 @@
       </c>
     </row>
     <row r="118" ht="69.75" spans="1:4">
-      <c r="A118" s="20"/>
-      <c r="B118" s="21">
+      <c r="A118" s="18"/>
+      <c r="B118" s="19">
         <v>5</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -3179,18 +3164,18 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="20"/>
-      <c r="B119" s="21">
-        <v>1</v>
-      </c>
-      <c r="C119" s="22" t="s">
+      <c r="A119" s="18"/>
+      <c r="B119" s="19">
+        <v>1</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>165</v>
       </c>
       <c r="D119" s="11"/>
     </row>
     <row r="120" ht="25.5" spans="1:4">
-      <c r="A120" s="20"/>
-      <c r="B120" s="21">
+      <c r="A120" s="18"/>
+      <c r="B120" s="19">
         <v>1</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -3199,8 +3184,8 @@
       <c r="D120" s="11"/>
     </row>
     <row r="121" ht="25.5" spans="1:4">
-      <c r="A121" s="20"/>
-      <c r="B121" s="21">
+      <c r="A121" s="18"/>
+      <c r="B121" s="19">
         <v>1</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -3209,8 +3194,8 @@
       <c r="D121" s="11"/>
     </row>
     <row r="122" ht="69.75" spans="1:4">
-      <c r="A122" s="20"/>
-      <c r="B122" s="21">
+      <c r="A122" s="18"/>
+      <c r="B122" s="19">
         <v>5</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -3221,8 +3206,8 @@
       </c>
     </row>
     <row r="123" ht="38.25" spans="1:4">
-      <c r="A123" s="20"/>
-      <c r="B123" s="21">
+      <c r="A123" s="18"/>
+      <c r="B123" s="19">
         <v>1</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -3231,8 +3216,8 @@
       <c r="D123" s="11"/>
     </row>
     <row r="124" ht="25.5" spans="1:4">
-      <c r="A124" s="20"/>
-      <c r="B124" s="21">
+      <c r="A124" s="18"/>
+      <c r="B124" s="19">
         <v>1</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -3241,8 +3226,8 @@
       <c r="D124" s="11"/>
     </row>
     <row r="125" ht="27" spans="1:4">
-      <c r="A125" s="20"/>
-      <c r="B125" s="21">
+      <c r="A125" s="18"/>
+      <c r="B125" s="19">
         <v>1</v>
       </c>
       <c r="C125" s="12" t="s">
@@ -3251,8 +3236,8 @@
       <c r="D125" s="11"/>
     </row>
     <row r="126" ht="25.5" spans="1:4">
-      <c r="A126" s="20"/>
-      <c r="B126" s="21">
+      <c r="A126" s="18"/>
+      <c r="B126" s="19">
         <v>1</v>
       </c>
       <c r="C126" s="12" t="s">
@@ -3261,8 +3246,8 @@
       <c r="D126" s="11"/>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="20"/>
-      <c r="B127" s="21">
+      <c r="A127" s="18"/>
+      <c r="B127" s="19">
         <v>1</v>
       </c>
       <c r="C127" s="12" t="s">
@@ -3271,8 +3256,8 @@
       <c r="D127" s="11"/>
     </row>
     <row r="128" ht="27" spans="1:4">
-      <c r="A128" s="20"/>
-      <c r="B128" s="21">
+      <c r="A128" s="18"/>
+      <c r="B128" s="19">
         <v>1</v>
       </c>
       <c r="C128" s="12" t="s">
@@ -3281,8 +3266,8 @@
       <c r="D128" s="11"/>
     </row>
     <row r="129" ht="25.5" spans="1:4">
-      <c r="A129" s="20"/>
-      <c r="B129" s="23">
+      <c r="A129" s="18"/>
+      <c r="B129" s="20">
         <v>1</v>
       </c>
       <c r="C129" s="12" t="s">
@@ -3291,8 +3276,8 @@
       <c r="D129" s="11"/>
     </row>
     <row r="130" ht="25.5" spans="1:4">
-      <c r="A130" s="20"/>
-      <c r="B130" s="21">
+      <c r="A130" s="18"/>
+      <c r="B130" s="19">
         <v>1</v>
       </c>
       <c r="C130" s="12" t="s">
@@ -3301,8 +3286,8 @@
       <c r="D130" s="11"/>
     </row>
     <row r="131" ht="25.5" spans="1:4">
-      <c r="A131" s="20"/>
-      <c r="B131" s="21">
+      <c r="A131" s="18"/>
+      <c r="B131" s="19">
         <v>1</v>
       </c>
       <c r="C131" s="12" t="s">
@@ -3311,8 +3296,8 @@
       <c r="D131" s="11"/>
     </row>
     <row r="132" ht="27" spans="1:4">
-      <c r="A132" s="20"/>
-      <c r="B132" s="21">
+      <c r="A132" s="18"/>
+      <c r="B132" s="19">
         <v>1</v>
       </c>
       <c r="C132" s="12" t="s">
@@ -3321,8 +3306,8 @@
       <c r="D132" s="11"/>
     </row>
     <row r="133" ht="69.75" spans="1:4">
-      <c r="A133" s="20"/>
-      <c r="B133" s="21">
+      <c r="A133" s="18"/>
+      <c r="B133" s="19">
         <v>5</v>
       </c>
       <c r="C133" s="12" t="s">
@@ -3333,8 +3318,8 @@
       </c>
     </row>
     <row r="134" ht="25.5" spans="1:4">
-      <c r="A134" s="20"/>
-      <c r="B134" s="21">
+      <c r="A134" s="18"/>
+      <c r="B134" s="19">
         <v>1</v>
       </c>
       <c r="C134" s="12" t="s">
@@ -3343,8 +3328,8 @@
       <c r="D134" s="11"/>
     </row>
     <row r="135" ht="27" spans="1:4">
-      <c r="A135" s="20"/>
-      <c r="B135" s="21">
+      <c r="A135" s="18"/>
+      <c r="B135" s="19">
         <v>1</v>
       </c>
       <c r="C135" s="12" t="s">
@@ -3353,8 +3338,8 @@
       <c r="D135" s="11"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="20"/>
-      <c r="B136" s="21">
+      <c r="A136" s="18"/>
+      <c r="B136" s="19">
         <v>1</v>
       </c>
       <c r="C136" s="12" t="s">
@@ -3363,8 +3348,8 @@
       <c r="D136" s="11"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="20"/>
-      <c r="B137" s="21">
+      <c r="A137" s="18"/>
+      <c r="B137" s="19">
         <v>1</v>
       </c>
       <c r="C137" s="12" t="s">
@@ -3373,8 +3358,8 @@
       <c r="D137" s="11"/>
     </row>
     <row r="138" ht="25.5" spans="1:4">
-      <c r="A138" s="20"/>
-      <c r="B138" s="21">
+      <c r="A138" s="18"/>
+      <c r="B138" s="19">
         <v>5</v>
       </c>
       <c r="C138" s="12" t="s">
@@ -3382,159 +3367,161 @@
       </c>
       <c r="D138" s="11"/>
     </row>
-    <row r="139" ht="25.5" spans="1:4">
-      <c r="A139" s="20"/>
-      <c r="B139" s="21">
+    <row r="139" ht="57" spans="1:4">
+      <c r="A139" s="18"/>
+      <c r="B139" s="19">
         <v>1</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D139" s="11"/>
+      <c r="D139" s="11" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="140" ht="28.5" spans="1:4">
-      <c r="A140" s="20"/>
-      <c r="B140" s="21">
+      <c r="A140" s="18"/>
+      <c r="B140" s="19">
         <v>5</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="141" ht="24" spans="1:4">
-      <c r="A141" s="20"/>
-      <c r="B141" s="21">
-        <v>1</v>
-      </c>
-      <c r="C141" s="24" t="s">
-        <v>190</v>
+      <c r="A141" s="18"/>
+      <c r="B141" s="19">
+        <v>1</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>191</v>
       </c>
       <c r="D141" s="11"/>
     </row>
     <row r="142" ht="25.5" spans="1:4">
-      <c r="A142" s="20"/>
-      <c r="B142" s="21">
+      <c r="A142" s="18"/>
+      <c r="B142" s="19">
         <v>1</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D142" s="11"/>
     </row>
     <row r="143" ht="25.5" spans="1:4">
-      <c r="A143" s="20"/>
-      <c r="B143" s="21">
+      <c r="A143" s="18"/>
+      <c r="B143" s="19">
         <v>5</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="144" ht="55.5" spans="1:4">
-      <c r="A144" s="20"/>
-      <c r="B144" s="21">
-        <v>5</v>
-      </c>
-      <c r="C144" s="25" t="s">
-        <v>194</v>
+      <c r="A144" s="18"/>
+      <c r="B144" s="19">
+        <v>5</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="145" ht="27" spans="1:4">
-      <c r="A145" s="20"/>
-      <c r="B145" s="21">
-        <v>2</v>
-      </c>
-      <c r="C145" s="25" t="s">
-        <v>196</v>
+      <c r="A145" s="18"/>
+      <c r="B145" s="19">
+        <v>2</v>
+      </c>
+      <c r="C145" s="22" t="s">
+        <v>197</v>
       </c>
       <c r="D145" s="11"/>
     </row>
     <row r="146" ht="123.75" spans="1:4">
-      <c r="A146" s="26"/>
-      <c r="B146" s="21">
+      <c r="A146" s="23"/>
+      <c r="B146" s="19">
         <v>5</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="147" ht="25.5" spans="1:4">
-      <c r="A147" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="B147" s="28">
+      <c r="A147" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B147" s="25">
         <v>1</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D147" s="12"/>
     </row>
     <row r="148" ht="27" spans="1:4">
-      <c r="A148" s="27"/>
-      <c r="B148" s="28">
+      <c r="A148" s="24"/>
+      <c r="B148" s="25">
         <v>1</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D148" s="12"/>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="27"/>
-      <c r="B149" s="28">
+      <c r="A149" s="24"/>
+      <c r="B149" s="25">
         <v>1</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D149" s="12"/>
     </row>
     <row r="150" ht="25.5" spans="1:3">
-      <c r="A150" s="29" t="s">
-        <v>203</v>
+      <c r="A150" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B150" s="1">
         <v>1</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="151" ht="152.25" spans="1:4">
-      <c r="A151" s="29"/>
-      <c r="B151" s="21">
+      <c r="A151" s="1"/>
+      <c r="B151" s="19">
         <v>5</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152" ht="39.75" spans="1:4">
-      <c r="A152" s="29"/>
-      <c r="B152" s="21">
+      <c r="A152" s="1"/>
+      <c r="B152" s="19">
         <v>5</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3548,7 +3535,7 @@
     <mergeCell ref="A147:A149"/>
     <mergeCell ref="A150:A152"/>
   </mergeCells>
-  <conditionalFormatting sqref="B120:B1048576 B1:B118 B119">
+  <conditionalFormatting sqref="B:B">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13290"/>
+    <workbookView windowWidth="27720" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,8 @@
   </si>
   <si>
     <t>提出了一种由粗到精检测带状特征的方法：粗检测先确定整个带状目标的边界（确定RoI)，精检测时，用RoIAlign把对应的feature取出来，再划分RoI内的边界细分；
-做label的方法很值得借鉴：gt_label边界是1个像素，train的时候，gt_label先用低通滤波一下（变成高斯分布的一条带）再train更容易减小错误</t>
+做label的方法很值得借鉴：gt_label边界是1个像素，train的时候，gt_label先用低通滤波一下（变成高斯分布的一条带）再train更容易减小错误
+decompose the original segmantation problam into more easily solved boundary-regression problems, in a coarse-to-fine manner</t>
   </si>
   <si>
     <t>3D-LaneNet_end-to-end 3D multiple lane detection</t>
@@ -698,10 +699,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -753,9 +754,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,13 +764,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,6 +777,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -791,19 +793,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -814,32 +823,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,6 +832,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,32 +862,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -924,19 +925,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,19 +955,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,13 +979,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,13 +997,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,7 +1069,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,85 +1099,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,21 +1171,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1209,13 +1195,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1231,6 +1221,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1272,148 +1273,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1517,8 +1518,8 @@
     <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
     <cellStyle name="Accent2" xfId="17" builtinId="33"/>
     <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
     <cellStyle name="Neutral" xfId="21" builtinId="28"/>
     <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
@@ -1534,19 +1535,19 @@
     <cellStyle name="Good" xfId="33" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
     <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1591,6 +1592,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1846,19 +1852,18 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
+      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1885,7 +1890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" ht="13.5" spans="1:4">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1897,7 +1902,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" ht="14.25" spans="1:4">
+    <row r="3" ht="13.5" spans="1:4">
       <c r="A3" s="9"/>
       <c r="B3" s="10">
         <v>5</v>
@@ -1907,7 +1912,7 @@
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" ht="13.5" spans="1:4">
       <c r="A4" s="9"/>
       <c r="B4" s="10">
         <v>5</v>
@@ -1917,7 +1922,7 @@
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" ht="13.5" spans="1:4">
       <c r="A5" s="9"/>
       <c r="B5" s="10">
         <v>5</v>
@@ -1929,7 +1934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" ht="13.5" spans="1:4">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="12" t="s">
@@ -1949,7 +1954,7 @@
       </c>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" ht="27" spans="1:4">
+    <row r="8" ht="26.25" spans="1:4">
       <c r="A8" s="9"/>
       <c r="B8" s="10">
         <v>2</v>
@@ -1969,7 +1974,7 @@
       </c>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" ht="39.75" spans="1:4">
+    <row r="10" ht="39" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1983,7 +1988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:4">
+    <row r="11" ht="13.5" spans="1:4">
       <c r="A11" s="9"/>
       <c r="B11" s="13">
         <v>5</v>
@@ -2047,7 +2052,7 @@
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" ht="54" spans="1:4">
+    <row r="17" ht="52.5" spans="1:4">
       <c r="A17" s="9"/>
       <c r="B17" s="16">
         <v>2</v>
@@ -2101,7 +2106,7 @@
       </c>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" ht="28.5" spans="1:4">
+    <row r="22" ht="27" spans="1:4">
       <c r="A22" s="9"/>
       <c r="B22" s="14">
         <v>5</v>
@@ -2153,7 +2158,7 @@
       </c>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" ht="14.25" spans="1:4">
+    <row r="27" ht="13.5" spans="1:4">
       <c r="A27" s="9"/>
       <c r="B27" s="16">
         <v>2</v>
@@ -2183,7 +2188,7 @@
       </c>
       <c r="D29" s="11"/>
     </row>
-    <row r="30" ht="82.5" spans="1:4">
+    <row r="30" ht="79.5" spans="1:4">
       <c r="A30" s="9"/>
       <c r="B30" s="14">
         <v>5</v>
@@ -2235,7 +2240,7 @@
       </c>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" ht="84" spans="1:4">
+    <row r="35" ht="80.25" spans="1:4">
       <c r="A35" s="9"/>
       <c r="B35" s="14">
         <v>5</v>
@@ -2247,7 +2252,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" ht="28.5" spans="1:4">
+    <row r="36" ht="27" spans="1:4">
       <c r="A36" s="9"/>
       <c r="B36" s="14">
         <v>5</v>
@@ -2279,7 +2284,7 @@
       </c>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" ht="41.25" spans="1:4">
+    <row r="39" ht="39.75" spans="1:4">
       <c r="A39" s="9"/>
       <c r="B39" s="14">
         <v>5</v>
@@ -2301,7 +2306,7 @@
       </c>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" ht="81" spans="1:4">
+    <row r="41" ht="78.75" spans="1:4">
       <c r="A41" s="9"/>
       <c r="B41" s="14">
         <v>5</v>
@@ -2313,7 +2318,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" ht="28.5" spans="1:4">
+    <row r="42" ht="27" spans="1:4">
       <c r="A42" s="9"/>
       <c r="B42" s="14">
         <v>5</v>
@@ -2459,7 +2464,7 @@
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
     </row>
-    <row r="55" ht="52.5" spans="1:7">
+    <row r="55" ht="51.75" spans="1:7">
       <c r="A55" s="9"/>
       <c r="B55" s="16">
         <v>2</v>
@@ -2543,7 +2548,7 @@
       </c>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" ht="42.75" spans="1:4">
+    <row r="61" ht="40.5" spans="1:4">
       <c r="A61" s="9"/>
       <c r="B61" s="10">
         <v>5</v>
@@ -2575,7 +2580,7 @@
       </c>
       <c r="D63" s="11"/>
     </row>
-    <row r="64" ht="84" spans="1:4">
+    <row r="64" ht="80.25" spans="1:4">
       <c r="A64" s="9"/>
       <c r="B64" s="10">
         <v>5</v>
@@ -2697,7 +2702,7 @@
       </c>
       <c r="D75" s="11"/>
     </row>
-    <row r="76" ht="42.75" spans="1:4">
+    <row r="76" ht="40.5" spans="1:4">
       <c r="A76" s="9"/>
       <c r="B76" s="10">
         <v>5</v>
@@ -2841,7 +2846,7 @@
       </c>
       <c r="D89" s="11"/>
     </row>
-    <row r="90" ht="41.25" spans="1:4">
+    <row r="90" ht="39.75" spans="1:4">
       <c r="A90" s="18"/>
       <c r="B90" s="10">
         <v>5</v>
@@ -2851,7 +2856,7 @@
       </c>
       <c r="D90" s="11"/>
     </row>
-    <row r="91" ht="54" spans="1:4">
+    <row r="91" ht="52.5" spans="1:4">
       <c r="A91" s="18"/>
       <c r="B91" s="10">
         <v>6</v>
@@ -2863,7 +2868,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="92" ht="14.25" spans="1:4">
+    <row r="92" ht="13.5" spans="1:4">
       <c r="A92" s="18"/>
       <c r="B92" s="19">
         <v>5</v>
@@ -2875,7 +2880,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="93" ht="28.5" spans="1:4">
+    <row r="93" ht="27" spans="1:4">
       <c r="A93" s="18"/>
       <c r="B93" s="19">
         <v>5</v>
@@ -2897,7 +2902,7 @@
       </c>
       <c r="D94" s="11"/>
     </row>
-    <row r="95" ht="96.75" spans="1:4">
+    <row r="95" ht="93" spans="1:4">
       <c r="A95" s="18"/>
       <c r="B95" s="19">
         <v>5</v>
@@ -2909,7 +2914,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" ht="96.75" spans="1:4">
+    <row r="96" ht="93" spans="1:4">
       <c r="A96" s="18"/>
       <c r="B96" s="19">
         <v>5</v>
@@ -2921,7 +2926,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="97" ht="55.5" spans="1:4">
+    <row r="97" ht="53.25" spans="1:4">
       <c r="A97" s="18"/>
       <c r="B97" s="19">
         <v>5</v>
@@ -2933,7 +2938,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" ht="111" spans="1:4">
+    <row r="98" ht="106.5" spans="1:4">
       <c r="A98" s="18"/>
       <c r="B98" s="19">
         <v>5</v>
@@ -2955,7 +2960,7 @@
       </c>
       <c r="D99" s="11"/>
     </row>
-    <row r="100" ht="27" spans="1:4">
+    <row r="100" ht="26.25" spans="1:4">
       <c r="A100" s="18"/>
       <c r="B100" s="19">
         <v>5</v>
@@ -2965,7 +2970,7 @@
       </c>
       <c r="D100" s="11"/>
     </row>
-    <row r="101" ht="41.25" spans="1:4">
+    <row r="101" ht="39.75" spans="1:4">
       <c r="A101" s="18"/>
       <c r="B101" s="19">
         <v>5</v>
@@ -3059,7 +3064,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="110" ht="41.25" spans="1:4">
+    <row r="110" ht="39.75" spans="1:4">
       <c r="A110" s="18"/>
       <c r="B110" s="19">
         <v>5</v>
@@ -3071,7 +3076,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="111" ht="160.5" spans="1:4">
+    <row r="111" ht="156.75" spans="1:4">
       <c r="A111" s="18"/>
       <c r="B111" s="19">
         <v>5</v>
@@ -3083,7 +3088,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" ht="28.5" spans="1:4">
+    <row r="112" ht="27" spans="1:4">
       <c r="A112" s="18"/>
       <c r="B112" s="19">
         <v>5</v>
@@ -3095,7 +3100,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="113" ht="57" spans="1:4">
+    <row r="113" ht="54" spans="1:4">
       <c r="A113" s="18"/>
       <c r="B113" s="19">
         <v>5</v>
@@ -3107,7 +3112,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="114" ht="57" spans="1:4">
+    <row r="114" ht="54" spans="1:4">
       <c r="A114" s="18"/>
       <c r="B114" s="19">
         <v>5</v>
@@ -3139,7 +3144,7 @@
       </c>
       <c r="D116" s="11"/>
     </row>
-    <row r="117" ht="57" spans="1:4">
+    <row r="117" ht="54" spans="1:4">
       <c r="A117" s="18"/>
       <c r="B117" s="19">
         <v>5</v>
@@ -3151,7 +3156,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="118" ht="69.75" spans="1:4">
+    <row r="118" ht="66.75" spans="1:4">
       <c r="A118" s="18"/>
       <c r="B118" s="19">
         <v>5</v>
@@ -3193,7 +3198,7 @@
       </c>
       <c r="D121" s="11"/>
     </row>
-    <row r="122" ht="69.75" spans="1:4">
+    <row r="122" ht="66.75" spans="1:4">
       <c r="A122" s="18"/>
       <c r="B122" s="19">
         <v>5</v>
@@ -3225,7 +3230,7 @@
       </c>
       <c r="D124" s="11"/>
     </row>
-    <row r="125" ht="27" spans="1:4">
+    <row r="125" ht="26.25" spans="1:4">
       <c r="A125" s="18"/>
       <c r="B125" s="19">
         <v>1</v>
@@ -3255,7 +3260,7 @@
       </c>
       <c r="D127" s="11"/>
     </row>
-    <row r="128" ht="27" spans="1:4">
+    <row r="128" ht="26.25" spans="1:4">
       <c r="A128" s="18"/>
       <c r="B128" s="19">
         <v>1</v>
@@ -3295,7 +3300,7 @@
       </c>
       <c r="D131" s="11"/>
     </row>
-    <row r="132" ht="27" spans="1:4">
+    <row r="132" ht="26.25" spans="1:4">
       <c r="A132" s="18"/>
       <c r="B132" s="19">
         <v>1</v>
@@ -3305,7 +3310,7 @@
       </c>
       <c r="D132" s="11"/>
     </row>
-    <row r="133" ht="69.75" spans="1:4">
+    <row r="133" ht="66.75" spans="1:4">
       <c r="A133" s="18"/>
       <c r="B133" s="19">
         <v>5</v>
@@ -3327,7 +3332,7 @@
       </c>
       <c r="D134" s="11"/>
     </row>
-    <row r="135" ht="27" spans="1:4">
+    <row r="135" ht="26.25" spans="1:4">
       <c r="A135" s="18"/>
       <c r="B135" s="19">
         <v>1</v>
@@ -3367,10 +3372,10 @@
       </c>
       <c r="D138" s="11"/>
     </row>
-    <row r="139" ht="57" spans="1:4">
+    <row r="139" ht="92.25" spans="1:4">
       <c r="A139" s="18"/>
       <c r="B139" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>187</v>
@@ -3379,7 +3384,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="140" ht="28.5" spans="1:4">
+    <row r="140" ht="27" spans="1:4">
       <c r="A140" s="18"/>
       <c r="B140" s="19">
         <v>5</v>
@@ -3423,7 +3428,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" ht="55.5" spans="1:4">
+    <row r="144" ht="53.25" spans="1:4">
       <c r="A144" s="18"/>
       <c r="B144" s="19">
         <v>5</v>
@@ -3435,7 +3440,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="145" ht="27" spans="1:4">
+    <row r="145" ht="28.5" spans="1:4">
       <c r="A145" s="18"/>
       <c r="B145" s="19">
         <v>2</v>
@@ -3445,7 +3450,7 @@
       </c>
       <c r="D145" s="11"/>
     </row>
-    <row r="146" ht="123.75" spans="1:4">
+    <row r="146" ht="119.25" spans="1:4">
       <c r="A146" s="23"/>
       <c r="B146" s="19">
         <v>5</v>
@@ -3469,7 +3474,7 @@
       </c>
       <c r="D147" s="12"/>
     </row>
-    <row r="148" ht="27" spans="1:4">
+    <row r="148" ht="26.25" spans="1:4">
       <c r="A148" s="24"/>
       <c r="B148" s="25">
         <v>1</v>
@@ -3500,7 +3505,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="151" ht="152.25" spans="1:4">
+    <row r="151" ht="146.25" spans="1:4">
       <c r="A151" s="1"/>
       <c r="B151" s="19">
         <v>5</v>
@@ -3512,7 +3517,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="152" ht="39.75" spans="1:4">
+    <row r="152" ht="39" spans="1:4">
       <c r="A152" s="1"/>
       <c r="B152" s="19">
         <v>5</v>
@@ -3535,7 +3540,7 @@
     <mergeCell ref="A147:A149"/>
     <mergeCell ref="A150:A152"/>
   </mergeCells>
-  <conditionalFormatting sqref="B:B">
+  <conditionalFormatting sqref="B$1:B$1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/reading_note.xlsx
+++ b/reading_note.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\reading_notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93393EEF-29D0-4993-A378-A3EECF9844A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13140"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="211">
   <si>
     <t>Scope</t>
   </si>
@@ -693,22 +699,20 @@
   <si>
     <t>综述了基于视觉的车道线检测的算法及其集成（算法级别和系统级别）以及目前方法的限制，提出了基于acp的方法可能更加适合</t>
   </si>
+  <si>
+    <t>主要是一个proposal based的object detection的survey</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -716,35 +720,35 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.15"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -754,151 +758,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -913,204 +779,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1170,255 +850,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1437,17 +875,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1473,9 +905,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1488,68 +917,46 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1576,25 +983,14 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1605,7 +1001,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1852,28 +1248,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.5266666666667" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="65.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.8" customWidth="1"/>
-    <col min="7" max="7" width="26.2" customWidth="1"/>
+    <col min="3" max="3" width="44.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="65.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" customWidth="1"/>
+    <col min="7" max="7" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1890,589 +1285,589 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:4">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="6">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" ht="13.5" spans="1:4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="22"/>
+      <c r="B3" s="8">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" ht="13.5" spans="1:4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="22"/>
+      <c r="B4" s="8">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" ht="13.5" spans="1:4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10">
-        <v>5</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="22"/>
+      <c r="B5" s="8">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="13.5" spans="1:4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="12" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="22"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" ht="25.5" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="28">
+      <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" ht="26.25" spans="1:4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10">
-        <v>2</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="28">
+      <c r="A8" s="22"/>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="28">
+      <c r="A9" s="22"/>
+      <c r="B9" s="8">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" ht="39" spans="1:4">
-      <c r="A10" s="6" t="s">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="56">
+      <c r="A10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="10">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="8">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="13.5" spans="1:4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="13">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="22"/>
+      <c r="B11" s="11">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="14">
-        <v>5</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" ht="25.5" spans="1:4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10">
-        <v>5</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="28">
+      <c r="A13" s="22"/>
+      <c r="B13" s="8">
+        <v>5</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" ht="25.5" spans="1:4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="14">
-        <v>2</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="28">
+      <c r="A15" s="22"/>
+      <c r="B15" s="12">
+        <v>2</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" ht="25.5" spans="1:4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="16">
-        <v>2</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" ht="28">
+      <c r="A16" s="22"/>
+      <c r="B16" s="14">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" ht="52.5" spans="1:4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="16">
-        <v>2</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="70">
+      <c r="A17" s="22"/>
+      <c r="B17" s="14">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" ht="25.5" spans="1:4">
-      <c r="A18" s="9" t="s">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="28">
+      <c r="A18" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="16">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" ht="37" customHeight="1" spans="1:4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10">
-        <v>5</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="37" customHeight="1">
+      <c r="A19" s="22"/>
+      <c r="B19" s="8">
+        <v>5</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="9"/>
-      <c r="B20" s="16">
+      <c r="A20" s="22"/>
+      <c r="B20" s="14">
         <v>3</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="9"/>
-      <c r="B21" s="14">
-        <v>5</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="12">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" ht="27" spans="1:4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="14">
-        <v>5</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" ht="28">
+      <c r="A22" s="22"/>
+      <c r="B22" s="12">
+        <v>5</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" ht="25.5" spans="1:4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="16">
+    <row r="23" spans="1:4" ht="28">
+      <c r="A23" s="22"/>
+      <c r="B23" s="14">
         <v>3</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" ht="25.5" spans="1:4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="16">
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" ht="28">
+      <c r="A24" s="22"/>
+      <c r="B24" s="14">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" ht="25.5" spans="1:4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="16">
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" ht="28">
+      <c r="A25" s="22"/>
+      <c r="B25" s="14">
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" ht="25.5" spans="1:4">
-      <c r="A26" s="9"/>
-      <c r="B26" s="16">
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" ht="28">
+      <c r="A26" s="22"/>
+      <c r="B26" s="14">
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" ht="13.5" spans="1:4">
-      <c r="A27" s="9"/>
-      <c r="B27" s="16">
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" ht="28">
+      <c r="A27" s="22"/>
+      <c r="B27" s="14">
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="9"/>
-      <c r="B28" s="16">
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" ht="28">
+      <c r="A28" s="22"/>
+      <c r="B28" s="14">
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" ht="25.5" spans="1:4">
-      <c r="A29" s="9"/>
-      <c r="B29" s="16">
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" ht="28">
+      <c r="A29" s="22"/>
+      <c r="B29" s="14">
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" ht="79.5" spans="1:4">
-      <c r="A30" s="9"/>
-      <c r="B30" s="14">
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" ht="112">
+      <c r="A30" s="22"/>
+      <c r="B30" s="12">
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" ht="25.5" spans="1:4">
-      <c r="A31" s="9"/>
-      <c r="B31" s="14">
+    <row r="31" spans="1:4" ht="28">
+      <c r="A31" s="22"/>
+      <c r="B31" s="12">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" ht="25.5" spans="1:4">
-      <c r="A32" s="9"/>
-      <c r="B32" s="16">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" ht="42">
+      <c r="A32" s="22"/>
+      <c r="B32" s="14">
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" ht="25.5" spans="1:4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="14">
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" ht="28">
+      <c r="A33" s="22"/>
+      <c r="B33" s="12">
         <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" ht="25.5" spans="1:4">
-      <c r="A34" s="9"/>
-      <c r="B34" s="14">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" ht="28">
+      <c r="A34" s="22"/>
+      <c r="B34" s="12">
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" ht="80.25" spans="1:4">
-      <c r="A35" s="9"/>
-      <c r="B35" s="14">
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" ht="84">
+      <c r="A35" s="22"/>
+      <c r="B35" s="12">
         <v>5</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" ht="27" spans="1:4">
-      <c r="A36" s="9"/>
-      <c r="B36" s="14">
+    <row r="36" spans="1:4" ht="28">
+      <c r="A36" s="22"/>
+      <c r="B36" s="12">
         <v>5</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="9"/>
-      <c r="B37" s="16">
+      <c r="A37" s="22"/>
+      <c r="B37" s="14">
         <v>2</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="11"/>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="9"/>
-      <c r="B38" s="16">
+      <c r="A38" s="22"/>
+      <c r="B38" s="14">
         <v>2</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" ht="39.75" spans="1:4">
-      <c r="A39" s="9"/>
-      <c r="B39" s="14">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" ht="56">
+      <c r="A39" s="22"/>
+      <c r="B39" s="12">
         <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" ht="25.5" spans="1:4">
-      <c r="A40" s="9"/>
-      <c r="B40" s="16">
+    <row r="40" spans="1:4" ht="28">
+      <c r="A40" s="22"/>
+      <c r="B40" s="14">
         <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" ht="78.75" spans="1:4">
-      <c r="A41" s="9"/>
-      <c r="B41" s="14">
-        <v>5</v>
-      </c>
-      <c r="C41" s="11" t="s">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" ht="98">
+      <c r="A41" s="22"/>
+      <c r="B41" s="12">
+        <v>5</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" ht="27" spans="1:4">
-      <c r="A42" s="9"/>
-      <c r="B42" s="14">
-        <v>5</v>
-      </c>
-      <c r="C42" s="12" t="s">
+    <row r="42" spans="1:4" ht="28">
+      <c r="A42" s="22"/>
+      <c r="B42" s="12">
+        <v>5</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" ht="25.5" spans="1:4">
-      <c r="A43" s="9"/>
-      <c r="B43" s="14">
-        <v>5</v>
-      </c>
-      <c r="C43" s="12" t="s">
+    <row r="43" spans="1:4" ht="28">
+      <c r="A43" s="22"/>
+      <c r="B43" s="12">
+        <v>5</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="11"/>
+      <c r="D43" s="9"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="9"/>
-      <c r="B44" s="14">
-        <v>5</v>
-      </c>
-      <c r="C44" s="12" t="s">
+      <c r="A44" s="22"/>
+      <c r="B44" s="12">
+        <v>5</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="11"/>
+      <c r="D44" s="9"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="9"/>
-      <c r="B45" s="16">
-        <v>2</v>
-      </c>
-      <c r="C45" s="12" t="s">
+      <c r="A45" s="22"/>
+      <c r="B45" s="14">
+        <v>2</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="11"/>
-    </row>
-    <row r="46" ht="53" customHeight="1" spans="1:4">
-      <c r="A46" s="9"/>
-      <c r="B46" s="14">
-        <v>5</v>
-      </c>
-      <c r="C46" s="12" t="s">
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" ht="53" customHeight="1">
+      <c r="A46" s="22"/>
+      <c r="B46" s="12">
+        <v>5</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" ht="41" customHeight="1" spans="1:4">
-      <c r="A47" s="9"/>
-      <c r="B47" s="14">
+    <row r="47" spans="1:4" ht="41" customHeight="1">
+      <c r="A47" s="22"/>
+      <c r="B47" s="12">
         <v>5</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" ht="25.5" spans="1:4">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:4" ht="28">
+      <c r="A48" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="12">
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="11"/>
-    </row>
-    <row r="49" ht="25.5" spans="1:4">
-      <c r="A49" s="9"/>
-      <c r="B49" s="14">
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" ht="28">
+      <c r="A49" s="22"/>
+      <c r="B49" s="12">
         <v>2</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="9"/>
-      <c r="B50" s="14">
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="22"/>
+      <c r="B50" s="12">
         <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" ht="25.5" spans="1:4">
-      <c r="A51" s="9"/>
-      <c r="B51" s="14">
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" ht="28">
+      <c r="A51" s="22"/>
+      <c r="B51" s="12">
         <v>2</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" ht="25.5" spans="1:4">
-      <c r="A52" s="9"/>
-      <c r="B52" s="14">
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" ht="28">
+      <c r="A52" s="22"/>
+      <c r="B52" s="12">
         <v>2</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="11"/>
+      <c r="D52" s="9"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="9"/>
-      <c r="B53" s="14">
-        <v>5</v>
-      </c>
-      <c r="C53" s="11" t="s">
+      <c r="A53" s="22"/>
+      <c r="B53" s="12">
+        <v>5</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="11"/>
-      <c r="F53" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G53" s="17" t="s">
+      <c r="D53" s="9"/>
+      <c r="F53" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G53" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="9"/>
-      <c r="B54" s="14">
-        <v>2</v>
-      </c>
-      <c r="C54" s="11" t="s">
+      <c r="A54" s="22"/>
+      <c r="B54" s="12">
+        <v>2</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="11"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-    </row>
-    <row r="55" ht="51.75" spans="1:7">
-      <c r="A55" s="9"/>
-      <c r="B55" s="16">
-        <v>2</v>
-      </c>
-      <c r="C55" s="11" t="s">
+      <c r="D54" s="9"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+    </row>
+    <row r="55" spans="1:7" ht="56">
+      <c r="A55" s="22"/>
+      <c r="B55" s="14">
+        <v>2</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D55" s="11"/>
+      <c r="D55" s="9"/>
       <c r="F55" s="1">
         <v>0</v>
       </c>
@@ -2480,15 +1875,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" ht="25.5" spans="1:7">
-      <c r="A56" s="9"/>
-      <c r="B56" s="16">
+    <row r="56" spans="1:7" ht="28">
+      <c r="A56" s="22"/>
+      <c r="B56" s="14">
         <v>3</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D56" s="11"/>
+      <c r="D56" s="9"/>
       <c r="F56" s="1">
         <v>1</v>
       </c>
@@ -2496,15 +1891,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="9"/>
-      <c r="B57" s="16">
+    <row r="57" spans="1:7" ht="28">
+      <c r="A57" s="22"/>
+      <c r="B57" s="14">
         <v>3</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D57" s="11"/>
+      <c r="D57" s="9"/>
       <c r="F57" s="1">
         <v>2</v>
       </c>
@@ -2513,14 +1908,14 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="9"/>
-      <c r="B58" s="16">
+      <c r="A58" s="22"/>
+      <c r="B58" s="14">
         <v>3</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="11"/>
+      <c r="D58" s="9"/>
       <c r="F58" s="1">
         <v>3</v>
       </c>
@@ -2528,974 +1923,976 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="9"/>
-      <c r="B59" s="16">
+    <row r="59" spans="1:7" ht="28">
+      <c r="A59" s="22"/>
+      <c r="B59" s="14">
         <v>3</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="11"/>
-    </row>
-    <row r="60" ht="25.5" spans="1:4">
-      <c r="A60" s="9"/>
-      <c r="B60" s="16">
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:7" ht="28">
+      <c r="A60" s="22"/>
+      <c r="B60" s="14">
         <v>3</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="11"/>
-    </row>
-    <row r="61" ht="40.5" spans="1:4">
-      <c r="A61" s="9"/>
-      <c r="B61" s="10">
-        <v>5</v>
-      </c>
-      <c r="C61" s="11" t="s">
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" ht="42">
+      <c r="A61" s="22"/>
+      <c r="B61" s="8">
+        <v>5</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="62" ht="25.5" spans="1:4">
-      <c r="A62" s="9"/>
-      <c r="B62" s="16">
+    <row r="62" spans="1:7" ht="28">
+      <c r="A62" s="22"/>
+      <c r="B62" s="14">
         <v>3</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D62" s="11"/>
-    </row>
-    <row r="63" ht="25.5" spans="1:4">
-      <c r="A63" s="9"/>
-      <c r="B63" s="16">
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" ht="28">
+      <c r="A63" s="22"/>
+      <c r="B63" s="14">
         <v>3</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D63" s="11"/>
-    </row>
-    <row r="64" ht="80.25" spans="1:4">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10">
-        <v>5</v>
-      </c>
-      <c r="C64" s="11" t="s">
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" ht="84">
+      <c r="A64" s="22"/>
+      <c r="B64" s="8">
+        <v>5</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="9"/>
-      <c r="B65" s="10">
-        <v>2</v>
-      </c>
-      <c r="C65" s="12" t="s">
+      <c r="A65" s="22"/>
+      <c r="B65" s="8">
+        <v>2</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="11"/>
-    </row>
-    <row r="66" ht="25.5" spans="1:4">
-      <c r="A66" s="9"/>
-      <c r="B66" s="16">
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="1:4" ht="28">
+      <c r="A66" s="22"/>
+      <c r="B66" s="14">
         <v>2</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D66" s="11"/>
-    </row>
-    <row r="67" ht="25.5" spans="1:4">
-      <c r="A67" s="9"/>
-      <c r="B67" s="16">
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" spans="1:4" ht="28">
+      <c r="A67" s="22"/>
+      <c r="B67" s="14">
         <v>2</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D67" s="11"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="9"/>
-      <c r="B68" s="16">
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="1:4" ht="28">
+      <c r="A68" s="22"/>
+      <c r="B68" s="14">
         <v>2</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D68" s="11"/>
+      <c r="D68" s="9"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="9"/>
-      <c r="B69" s="16">
+      <c r="A69" s="22"/>
+      <c r="B69" s="14">
         <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D69" s="11"/>
-    </row>
-    <row r="70" ht="25.5" spans="1:4">
-      <c r="A70" s="9"/>
-      <c r="B70" s="16">
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4" ht="28">
+      <c r="A70" s="22"/>
+      <c r="B70" s="14">
         <v>2</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="11"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="9"/>
-      <c r="B71" s="16">
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="1:4" ht="28">
+      <c r="A71" s="22"/>
+      <c r="B71" s="14">
         <v>2</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D71" s="11"/>
-    </row>
-    <row r="72" ht="25.5" spans="1:4">
-      <c r="A72" s="9"/>
-      <c r="B72" s="16">
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="1:4" ht="28">
+      <c r="A72" s="22"/>
+      <c r="B72" s="14">
         <v>2</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D72" s="11"/>
-    </row>
-    <row r="73" ht="25.5" spans="1:4">
-      <c r="A73" s="9"/>
-      <c r="B73" s="16">
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="1:4" ht="28">
+      <c r="A73" s="22"/>
+      <c r="B73" s="14">
         <v>2</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="11"/>
-    </row>
-    <row r="74" ht="25.5" spans="1:4">
-      <c r="A74" s="9"/>
-      <c r="B74" s="16">
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="1:4" ht="28">
+      <c r="A74" s="22"/>
+      <c r="B74" s="14">
         <v>2</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D74" s="11"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="9"/>
+      <c r="D74" s="9"/>
+    </row>
+    <row r="75" spans="1:4" ht="28">
+      <c r="A75" s="22"/>
       <c r="B75" s="16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D75" s="11"/>
-    </row>
-    <row r="76" ht="40.5" spans="1:4">
-      <c r="A76" s="9"/>
-      <c r="B76" s="10">
+      <c r="D75" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="42">
+      <c r="A76" s="22"/>
+      <c r="B76" s="8">
         <v>5</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="77" ht="25.5" spans="1:4">
-      <c r="A77" s="9"/>
-      <c r="B77" s="16">
+    <row r="77" spans="1:4" ht="28">
+      <c r="A77" s="22"/>
+      <c r="B77" s="14">
         <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D77" s="11"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10">
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="1:4" ht="28">
+      <c r="A78" s="22"/>
+      <c r="B78" s="8">
         <v>2</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D78" s="11"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="9"/>
-      <c r="B79" s="10">
+      <c r="D78" s="9"/>
+    </row>
+    <row r="79" spans="1:4" ht="28">
+      <c r="A79" s="22"/>
+      <c r="B79" s="8">
         <v>2</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D79" s="11"/>
-    </row>
-    <row r="80" ht="25.5" spans="1:4">
-      <c r="A80" s="9"/>
-      <c r="B80" s="10">
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="1:4" ht="42">
+      <c r="A80" s="22"/>
+      <c r="B80" s="8">
         <v>1</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D80" s="11"/>
-    </row>
-    <row r="81" ht="25.5" spans="1:4">
-      <c r="A81" s="9"/>
-      <c r="B81" s="10">
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="1:4" ht="28">
+      <c r="A81" s="22"/>
+      <c r="B81" s="8">
         <v>1</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D81" s="11"/>
+      <c r="D81" s="9"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="9"/>
-      <c r="B82" s="10">
+      <c r="A82" s="22"/>
+      <c r="B82" s="8">
         <v>1</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D82" s="11"/>
+      <c r="D82" s="9"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="9"/>
-      <c r="B83" s="16">
+      <c r="A83" s="22"/>
+      <c r="B83" s="14">
         <v>1</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D83" s="11"/>
-    </row>
-    <row r="84" ht="25.5" spans="1:4">
-      <c r="A84" s="9"/>
-      <c r="B84" s="16">
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" spans="1:4" ht="28">
+      <c r="A84" s="22"/>
+      <c r="B84" s="14">
         <v>1</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D84" s="11"/>
-    </row>
-    <row r="85" ht="25.5" spans="1:4">
-      <c r="A85" s="9"/>
-      <c r="B85" s="1